--- a/WPOF-Datenbank der Schweizer Alpen.xlsx
+++ b/WPOF-Datenbank der Schweizer Alpen.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\glazio\projects\88011-VAW_water_pockets\03_data\current_WPOF_Inv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\christophe\Desktop\home\GitHub\WPOFs_CH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF4C776-A75E-4379-8CB3-D0C67EC7896B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9AC0F2-D391-4DAB-B8F7-E5413705989C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{4AB5F6CE-3898-4132-95CD-C65537EF9C6D}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Qmax prediction" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'WPOF-Datenbank der Schweizer Al'!$A$1:$AG$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'WPOF-Datenbank der Schweizer Al'!$A$1:$AG$92</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="467">
   <si>
     <t>sgi_ID</t>
   </si>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t>debris covered pastures; major damage at bristen up to amsteg; ~30.000 CHF damage to private grounds; destroyed barrages, bridges and paths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ausbruch einer Wassertasche. Ausgehend vom Gebiet des Oberalpfirns und des Hängegletschers in der Westflanke des Oberalpstocks Hochwasser im Gletscherbach, das im Zusammenhang stand mit kurzen, aber sehr intensiven Niederschlägen im Gotthardgebiet (maximale Niederschlagsmengen bei Biasca 115.5 mm, im Gotthard Hospiz 89.7 mm). Die Erosionsrinne liegt direkt unterhalb des Gletschers, wobei das nördliche Bachbett zwischen 2480 und 2030 m ü. M. breit ausgehoben wurde. Die im Gletscher gestauten Wassermassen stammten wohl auch von den starken Niederschlägen in dem fraglichen Gebiet. Der Etzlibach hatte ebenfalls Hochwasser (Normalereignis), die sich dadruch ergebenden kumulierenden Abflüsse bewirkten im Maderanertal grosse Übermurungen und Überschwemmungen. Folgen: Übermurung von Kulturland mit grossen Schäden bei Bristen und bis Amsteg. Der Schaden auf Privatgebiet wurde auf rund 30000 CHF geschätzt, durch Zerstörung von Wehren, Brücken und Waldweg entstand der Öffentlichkeit allerdings ein weitaus grösserer Schaden. </t>
   </si>
   <si>
     <t>unknown</t>
@@ -196,9 +193,6 @@
 arable/agricultural land</t>
   </si>
   <si>
-    <t>Ein Wassertaschenausbruch am Bidergletscher transportierte viel Geröll ins Haupttal. In der Folge wurde die Vispa angestaut und die Wiesen von Tamatsand und Bidermatten versumpft. Der Schuttriegel wurde erst 40 Jahre später, während einem Gewitterhochwasser im Triftbach durchbrochen und die Wiesen wieder entsumpft.</t>
-  </si>
-  <si>
     <t>Haeberli, W. (1983). Frequency and characteristics of glacier floods in the Swiss Alps. Annals of Glaciology, 4, 85-90; Ruppen, P. J., Imseng, G., &amp; Imseng, W. (1979). Saaser Chronik, 1200-1979. Verkehrsverein Saas-Fee, Mengis Druck und Verlag. &amp; Lütschg, O. (1926). Über Niederschlag und Abfluß im Hochgebirge, Sonderdarstellung des Mattmarkgebietes. Verbandsschrift Nr. 14, Schweizerischer Wasserwirtschaftsverband - Veröffentlichung der Hydrologischen Abteilung der Schweizerischen Meteorologischen Zentralanstalt in Zürich. CITED IN VAW (2003). Inventar gefährlicher Gletscher in der Schweiz (Tech. Rep. No. Mitteilung 182): ETH Zürich, Versuchsanstalt für Wasserbau.</t>
   </si>
   <si>
@@ -211,26 +205,16 @@
     <t>unknown or not specified</t>
   </si>
   <si>
-    <t>Anfangs der 1970er Jahre ereigneten sich verschiedene grössere Eis- und Wassertaschenausbrüche.</t>
-  </si>
-  <si>
     <t>Röthlisberger, H. (pers. comm.) CITED IN VAW (2003). Inventar gefährlicher Gletscher in der Schweiz (Tech. Rep. No. Mitteilung 182): ETH Zürich, Versuchsanstalt für Wasserbau.</t>
   </si>
   <si>
     <t>1981-09</t>
   </si>
   <si>
-    <t>Wassertaschenausbruch am Bidergletscher.</t>
-  </si>
-  <si>
     <t>Röthlisberger, H.  (note) CITED IN VAW (2003). Inventar gefährlicher Gletscher in der Schweiz (Tech. Rep. No. Mitteilung 182): ETH Zürich, Versuchsanstalt für Wasserbau.</t>
   </si>
   <si>
     <t>1982-06-11</t>
-  </si>
-  <si>
-    <t>Ein Wassertaschenausbruch verursachte einen Murgang und staute die Saaser Vispa bis zum Strassenrand. Um 7:00 Uhr wurde ein starker, fontänenartiger Wasseraustritt auf der orographisch linken Gletscherseite beobachtet. Das Wasser war zu diesem Zeitpunkt nicht schmutzig. Der herumliegende Eisschutt wurde kaum erodiert. In der gestauten Vispa ereignete sich nach einem kurzen Stau ein sekundäres Hochwasser mit einer Abflussspitze, die beim Limnigraphen in Saas Balen um 2 m³/s grösser war als der Normalabfluss.
-debris flow</t>
   </si>
   <si>
     <t>Haeberli, W. (1983) Frequency and characteristics of glacier floods in the Swiss Alps.
@@ -283,9 +267,6 @@
 Material &amp; Infrastructure damage</t>
   </si>
   <si>
-    <t>Ein Wassertaschenausbruch verursachte einen Murgang. Dabei wurden die Eisenbahn- und die Telegrafenlinie beschädigt.</t>
-  </si>
-  <si>
     <t>Forel et al. (1900) CITED IN VAW (2003). Inventar gefährlicher Gletscher in der Schweiz (Tech. Rep. No. Mitteilung 182): ETH Zürich, Versuchsanstalt für Wasserbau.; Forel, F. A., Lugeon, M. &amp; Muret, E. (1899). Les variations périodiques des glaciers des Alps. XXe rapport, Jahrbuch S. A. C., XXXV. CITED IN Lütschg, I. O. (1915). Der Märjelensee und seine Abflussverhältnisse: eine hydrologische Studie unter Mitberücksichtigung hydrographischer Erscheinungen in anderen Flussgebieten: Annalen der Schweizer. Landeshydrographie, Vol. 1. Sekretariat des Schweizerischen Landeshydrographie in Bern.</t>
   </si>
   <si>
@@ -320,9 +301,6 @@
 Material &amp; infrastructure damage</t>
   </si>
   <si>
-    <t>Der Ausbruch einer Wassertasche führte zu einem Hochwasser, das den Damm einer Wasserfassung durchbrach und eine Baustelle überflutete.</t>
-  </si>
-  <si>
     <t>Aellen, M. and Herren, E. (1991). Die Gletscher der Schweizer Alpen. Jahrbuch 103/104, Gletscherkommission der Schweizer Akademie der Naturwissenschaften l SANW, Versuchsanstalt für Wasserbau, Hydrologie und Glaziologie der ETH Zürich. CITED IN VAW (2003). Inventar gefährlicher Gletscher in der Schweiz (Tech. Rep. No. Mitteilung 182): ETH Zürich, Versuchsanstalt für Wasserbau.</t>
   </si>
   <si>
@@ -393,9 +371,6 @@
   </si>
   <si>
     <t>2012-09-09</t>
-  </si>
-  <si>
-    <t>a probable rupture d’une poche sous/intra-glaciaire (glacier de Pro) a libéré une importante quantité d’eau. Ceci a déclenché une lave torrentielle qui atteint la galerie de la route du Grand-St-Bernard</t>
   </si>
   <si>
     <t>B85-16</t>
@@ -414,9 +389,6 @@
 Material damage &amp; Settlements </t>
   </si>
   <si>
-    <t>Ausbruch einer Wassertasche mit darauffolgenden grossen Überschwemmungen in Revers.</t>
-  </si>
-  <si>
     <t>Berthod, R. (1983). Orsières ma commune. Administration communale d'Orsières, 1937 Orsières. 2Ème édition revue et corrigée, 1988. CITED IN VAW (2003). Inventar gefährlicher Gletscher in der Schweiz (Tech. Rep. No. Mitteilung 182): ETH Zürich, Versuchsanstalt für Wasserbau.</t>
   </si>
   <si>
@@ -424,9 +396,6 @@
   </si>
   <si>
     <t>1969-07-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aufgrund der Entleerung einer Wassertasche ereignete sich Mitte Juli 1969 ein Gletscherhochwasser, das an der orographisch rechten Gletscherseite ausbrach.  Diese entstand durch die starke Aufwölbung der Gletscherzunge während des Gletschervorstosses. Dank der rechtzeitigen Warnung und der Einleitung von Sanierungsmassnahmen konnten Einrichtungen der Kraftwerke Emosson SA geschützt werden. </t>
   </si>
   <si>
     <t xml:space="preserve">Röthlisberger, H. (pers. comm.) &amp; VAW (1969). Gutachten über die Sicherheit der Baustelle Saleina in Bezug auf Gletscher. lm Auftrag der Motor-Columbus AG für elektische Unternehmungen (unpublished) CITED IN VAW (2003). Inventar gefährlicher Gletscher in der Schweiz (Tech. Rep. No. Mitteilung 182): ETH Zürich, Versuchsanstalt für Wasserbau.
@@ -445,18 +414,12 @@
     <t>1981-06-19</t>
   </si>
   <si>
-    <t>Eine Wassertasche von 183000 m³ führte rund 2000 m³ (5500 t) Schutt mit.</t>
-  </si>
-  <si>
     <t>Gurnell, A. M., Warburton, J., &amp; Clark, M. J. (1988). A Comparison of the Sediment Transport and Yield Characteristics of Two Adjacent Glacier Basins, Val d' Herens, Switzerland. IN: Sediment Budgets. IAHS Publication, (174). CITED IN VAW (2003). Inventar gefährlicher Gletscher in der Schweiz (Tech. Rep. No. Mitteilung 182): ETH Zürich, Versuchsanstalt für Wasserbau.</t>
   </si>
   <si>
     <t>1986-09-18</t>
   </si>
   <si>
-    <t>Kleiner Wassertaschenausbruch ohne Schadenkonsequenz.</t>
-  </si>
-  <si>
     <t>B63-05</t>
   </si>
   <si>
@@ -484,9 +447,6 @@
     <t>1930-08-24</t>
   </si>
   <si>
-    <t>Ein Wassertaschenausbruch vom Glacier des Grands dauerte 15 Stunden, riss eine Bresche ins Moränenmaterial und löste einen Murgang aus.</t>
-  </si>
-  <si>
     <t>Mercanton, P. L. (1931). Les variations périodiques des gllaciers des Alpes Suisses. Les Alpes l Die Alpen. Staempfli Berne. CITED IN VAW (2003). Inventar gefährlicher Gletscher in der Schweiz (Tech. Rep. No. Mitteilung 182): ETH Zürich, Versuchsanstalt für Wasserbau.</t>
   </si>
   <si>
@@ -502,9 +462,6 @@
     <t>material damage &amp; infrastructure --&gt; street</t>
   </si>
   <si>
-    <t>Ausbruch einer Wassertasche. Die Ausbruchsmasse (Eis und Wasser) erreichte knapp die Strasse nach Chanrion.</t>
-  </si>
-  <si>
     <t>Bauder, A. (pers. Comm.) CITED IN VAW (2003). Inventar gefährlicher Gletscher in der Schweiz (Tech. Rep. No. Mitteilung 182): ETH Zürich, Versuchsanstalt für Wasserbau.</t>
   </si>
   <si>
@@ -517,31 +474,19 @@
     <t>Trient</t>
   </si>
   <si>
-    <t>Es ereignete sich ein grösserer Wassertaschenausbruch.</t>
-  </si>
-  <si>
     <t>1911-07-17</t>
   </si>
   <si>
-    <t>Ein Wassertaschenausbruch liess den Gletscherabfluss während ca. 48 Stunden um das Doppelte ansteigen.</t>
-  </si>
-  <si>
     <t>Forei, F. A., Muret, E., and Mercanton, P. L. (1912). Les variations périodiques des glaciers des Alpes. Jahrbuch des S.A.C. l Annuaire du C.A.S., Staempfli Beme. &amp; Vivian, R. (2001). Des glacières du Faucigny aux glaciers du Mont-Blanc. La Fontaine de Siloé. CITED IN VAW (2003). Inventar gefährlicher Gletscher in der Schweiz (Tech. Rep. No. Mitteilung 182): ETH Zürich, Versuchsanstalt für Wasserbau.</t>
   </si>
   <si>
     <t>1918-08-02</t>
   </si>
   <si>
-    <t>Es ereignete sich ein starker Wassertaschenausbruch im Zeitraum von ca. 48 Stunden (La Tine).</t>
-  </si>
-  <si>
     <t>Mercanton, P. L. (1919). Les variations périodiques des glaciers des Alpes Suisses. Jahrbuch des S.A.C. / Annuaire du C.A.S., Staempfli Berne. CITED IN VAW (2003). Inventar gefährlicher Gletscher in der Schweiz (Tech. Rep. No. Mitteilung 182): ETH Zürich, Versuchsanstalt für Wasserbau.</t>
   </si>
   <si>
     <t>1921-07-20</t>
-  </si>
-  <si>
-    <t>Es ereignete sich ein Wassertaschenausbruch im Zeitraum von ca. 36 Stunden.</t>
   </si>
   <si>
     <t>Mercanton, P. L. (1922). Les variations périodiques des glaciers des Alpes Suisses. Jahrbuch des S.A.C. / Annuaire du C.A.S., Staempfli Berne. &amp; Vivian, R. (2001). Des glacières du Faucigny aux glaciers du Mont-Blanc. La Fontaine de Siloé. CITED IN VAW (2003). Inventar gefährlicher Gletscher in der Schweiz (Tech. Rep. No. Mitteilung 182): ETH Zürich, Versuchsanstalt für Wasserbau.</t>
@@ -585,13 +530,6 @@
     <t>1943-07-31</t>
   </si>
   <si>
-    <t>an Brücken und Strassen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comme en 1942 , la crue semble due simultanément à la rupture de poche glacières,à la fonte des glaciers et à un violent orage centré sur le col de Balme ( grèle) mat 850000 m3), dégats au village de Trient
-</t>
-  </si>
-  <si>
     <t>SBB,CFF pont sur le Trient etude hydrolique Rap tech</t>
   </si>
   <si>
@@ -626,10 +564,6 @@
 material &amp; infrastructure damage</t>
   </si>
   <si>
-    <t xml:space="preserve">Als Folge eines Wassertaschenausbruchs löste sich ein Murgang. Dabei wurde das Lockermaterial bis auf den anstehenden Fels ausgeräumt. Der Murgang entleerte sich in den Birchbach und übersarte die BVZ Bahnlinie an zwei Stellen mit 2.5 m mächtigen Schuttablagerungen. Das Vordringen dieses Ereignisses wurde selbst in 20 km Entfernung noch bemerkt.
-</t>
-  </si>
-  <si>
     <t>1898
 1983</t>
   </si>
@@ -645,9 +579,6 @@
 material damage (infrastructure)</t>
   </si>
   <si>
-    <t>Eine Wassertasche entleerte sich in den Birchbach und zerstörte die Bahngleise der BVZ auf 30 m Länge.</t>
-  </si>
-  <si>
     <t>1927
 1983</t>
   </si>
@@ -664,9 +595,6 @@
   <si>
     <t>debris covered parts of the BVZ railroad
 Material &amp; infrastructure damage</t>
-  </si>
-  <si>
-    <t>Der Ausbruch einer Wassertasche im Hobärggletscher löst im Birchbach einenMurgang aus, welcher die BVZ-Linie übermurt</t>
   </si>
   <si>
     <t xml:space="preserve">Haeberli, W. (1983). Frequency and characteristics of glacier floods in the Swiss Alps. Annals of Glaciology, 4, 85-90. 
@@ -684,10 +612,6 @@
 material &amp; infrastructure damage</t>
   </si>
   <si>
-    <t xml:space="preserve">Ein Wassertaschenausbruch im Hobärggletscher löst im Birchbach einen Murgang aus,welcher die Kantonsstrasse vermurt.
-</t>
-  </si>
-  <si>
     <t>Haeberli, W. (1983) Frequency and characteristics of glacier floods in the Swiss Alps. 
 VAW (2003). Inventar gefährlicher Gletscher in der Schweiz (Tech. Rep. No. Mitteilung 182): ETH Zürich, Versuchsanstalt für Wasserbau.</t>
   </si>
@@ -698,12 +622,6 @@
     <t>fin du mois</t>
   </si>
   <si>
-    <t>Strasse durch Murgang verschüttet</t>
-  </si>
-  <si>
-    <t>Infolge eines Wassertaschenausbruches im Hobärggletscher ein Murgang im Birchbach, der den Durchlass der Kantonsstrasse St. Niklaus – Täsch verstopfte und die Strasse verschüttete (geschätzte Ablagerungskubatur auf dem Kegel</t>
-  </si>
-  <si>
     <t>HYD54</t>
   </si>
   <si>
@@ -762,9 +680,6 @@
     <t>major damage</t>
   </si>
   <si>
-    <t>in summer</t>
-  </si>
-  <si>
     <t>Haeberli, W. (1983). Frequency and characteristics of glacier floods in the Swiss Alps. Annals of Glaciology, 4, 85-90.Haeberli, W. (1983). Frequency and characteristics of glacier floods in the Swiss Alps. Annals of Glaciology, 4, 85-90.Haeberli, W. (1983). Frequency and characteristics of glacier floods in the Swiss Alps. Annals of Glaciology, 4, 85-90.</t>
   </si>
   <si>
@@ -786,9 +701,6 @@
     <t>Triftbach</t>
   </si>
   <si>
-    <t>Durch Toteis kam es zu einem Wassertaschenausbruch am Mälligagletscher</t>
-  </si>
-  <si>
     <t>B55-18</t>
   </si>
   <si>
@@ -802,9 +714,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mellichbach </t>
-  </si>
-  <si>
-    <t>Ausbruch einer Wassertasche. Das Ereignis steht im Zusammenhang mit einem starken Vorstoss des Gletschers. An der Front war die Bewegung langsamer und Spannungsrisse führten zur Bildung und Entleerung der Wassertasche. Keine Schadenmeldung.</t>
   </si>
   <si>
     <t>Mercanton, P.L. (1916-1924) Les variations périodiques des glaciers des Alpes 1913/24 - 1923/34.
@@ -833,9 +742,6 @@
 material, settlement &amp; tourists installations damages --&gt; residential area, ski lift / mountain cableway</t>
   </si>
   <si>
-    <t>Auslösung eines grossen Murgangs aus einem Felscouloir im Vorfeld des Minstigergletschers. Unmittelbar nach diesem Ereignis wechselte der Abfluss die Gletscherseite. Die temporäre Verlegung des subglazialen Abflusssystems, möglicherweise kombiniert mit einer kurzfristigen Stauung und anschliessendem Wasserausbruch, löste diesen Murgang aus. Für den Ausbruch einer Wassertasche spricht der Umstand, dass ein erster Schwall des Hochwassers bereits eine Brücke wegriss. Erst später stieg der Wasserpegel als Folge intensiver Niederschläge zu kritischer Höhe an. Schliesslich führte der Bach übermässig Geschiebe und trat über die Ufer. Aufgrund des Gletscherrückzugs wurde die Anrissstelle für die Erosion freigelegt und damit das Murgangereignis ermöglicht. Der Murgang verklauste bei der Eisenbahnbrücke der Furka-Oberalp Bahnline (FO) das Gerinne und übersarte das Dorf Münster sowie eine Flache von ca. 30000 m².</t>
-  </si>
-  <si>
     <t>VAW (1992). Murgänge 1987. Bericht im Auftrag des Bundesamtes für Wasserwirtschaft (unpublished). CITED IN VAW (2003). Inventar gefährlicher Gletscher in der Schweiz (Tech. Rep. No. Mitteilung 182): ETH Zürich, Versuchsanstalt für Wasserbau.
 VAW</t>
   </si>
@@ -843,25 +749,12 @@
     <t>1987-08-24</t>
   </si>
   <si>
-    <t>Kulturschäden</t>
-  </si>
-  <si>
-    <t>Münster: Kulturschäden (Boden, der überschwemmt, übersart oder wegeschwemmt wurde) beliefen sich im Gebiet der Gemeinde Münster auf insgesamt 1'229'000 Fr.   Anmerkung: Kulturschäden im Minstigertal wurden separat ausgeschieden. Andere Schäden ?</t>
-  </si>
-  <si>
     <t>2008-08-21</t>
   </si>
   <si>
-    <t>Infolge eines Wassertaschenausbruchs hat sich am 21. August 2008 gegen 14.50 Uhr bei schönem Wetter ein Murgang ereignet.
-Rupture d’une poche d’eau au Minstigergletscher (volume d’eau estimé à 15’000m3) &gt; lave torrentielle sur le Münstigerbach par beau temps (volume total de 60’000m3) &gt; débordements et importants dépôts dans le village de Münster. Il me semble que la poche était de nature paraglaciaire, c.à.d que le lac se trouvait entre le glacier et la moraine latérale. L’événement est largement documenté par les médias mais aussi dans un rapport d’événement technique. Norbert Carlen était sur site à l’époque et notre Service dispose aussi de plusieurs photos.</t>
-  </si>
-  <si>
     <t>B17-04</t>
   </si>
   <si>
-    <t>im Kanton VD</t>
-  </si>
-  <si>
     <t>Haeberli, W. (1983). Frequency and characteristics of glacier floods in the Swiss Alps. Annals of Glaciology, 4, 85-90.</t>
   </si>
   <si>
@@ -883,16 +776,10 @@
     <t>Rottalbach</t>
   </si>
   <si>
-    <t>Wassertaschenausbruch ohne Schadenwirkung.</t>
-  </si>
-  <si>
     <t>Haeberli, W. (1980). Morphodynamische Aspekte aktueller Gletscherhochwasser in den Schweizer Alpen. Regio basiliensis, 21(3), 58-78. CITED IN VAW (2003). Inventar gefährlicher Gletscher in der Schweiz (Tech. Rep. No. Mitteilung 182): ETH Zürich, Versuchsanstalt für Wasserbau.</t>
   </si>
   <si>
     <t>1939-08-07</t>
-  </si>
-  <si>
-    <t>Eisabbruch von 150 m Länge und 80 m Breite. Die Eis- und Schuttablagerungen erreichten durchgehend zwei Meter Höhe. Anschliessend stellte sich vom Gletscher her ein starker Wasserfluss ein (= Wassertaschenausbruch?), der sich einen tiefen Weg bahnte und die Lütschine gelb färbte.</t>
   </si>
   <si>
     <t>Michel (1950) CITED IN VAW (2003). Inventar gefährlicher Gletscher in der Schweiz (Tech. Rep. No. Mitteilung 182): ETH Zürich, Versuchsanstalt für Wasserbau.
@@ -925,9 +812,6 @@
 </t>
   </si>
   <si>
-    <t>Der Ausbruch eines Gletschersees oder einer Wassertasche im Triftgletschergebiet verursachte Flurschaden in Tamatten.</t>
-  </si>
-  <si>
     <t>1868-08-17</t>
   </si>
   <si>
@@ -956,18 +840,12 @@
   </si>
   <si>
     <t>damage between Eisten and Blatten</t>
-  </si>
-  <si>
-    <t>Der Ausbruch einer Wassertasche beim Uistren Stampbachgletscher bildete einen Murgang. Der Lauf der Lonza wurde verändert und es entstanden Verwüstungen zwischen Eisten und Blatten.</t>
   </si>
   <si>
     <t>Haeberli, W. (1980) Morphodynamische Aspekte aktueller Gletscherhochwasser in den Schweizer Alpen. ;Bieri, D. (1996) Abschätzung von Gletschergefahren im Raum Grindelwald - Lauterbrunnen - Lötschental. ;Haeberli, W. (1983) Frequency and characteristics of glacier floods in the Swiss Alps.
 VAW (2003). Inventar gefährlicher Gletscher in der Schweiz (Tech. Rep. No. Mitteilung 182): ETH Zürich, Versuchsanstalt für Wasserbau.</t>
   </si>
   <si>
-    <t>Wassertaschenausbruch.</t>
-  </si>
-  <si>
     <t>Bieri, D. (1996) Abschätzung von Gletschergefahren im Raum Grindelwald - Lauterbrunnen - Lötschental. ;Haeberli, W. (1983) Frequency and characteristics of glacier floods in the Swiss Alps. ;Haeberli, W. (1980) Morphodynamische Aspekte aktueller Gletscherhochwasser in den Schweizer Alpen.
 VAW (2003). Inventar gefährlicher Gletscher in der Schweiz (Tech. Rep. No. Mitteilung 182): ETH Zürich, Versuchsanstalt für Wasserbau.</t>
   </si>
@@ -989,9 +867,6 @@
   <si>
     <t>flooding in Blatten (residential area)
 maternal &amp; settlements damage</t>
-  </si>
-  <si>
-    <t>Eine Wassertasche entleerte sich mit flacher Abflussspitze (pulsierender Wasseranfall) und führte zur linienhaften Erosion im 30° steilen, schuttbedeckten Gletschervorfeld. Eisblöcke und Geschiebe verstopften das Durchlassrohr der Strasse zwischen Blatten und Gletscherstaffel und der Bach ergoss sich ins Dorf Blatten.</t>
   </si>
   <si>
     <t>VAW (2003). Inventar gefährlicher Gletscher in der Schweiz (Tech. Rep. No. Mitteilung 182): ETH Zürich, Versuchsanstalt für Wasserbau.
@@ -1003,14 +878,6 @@
     <t>1988-08-19</t>
   </si>
   <si>
-    <t xml:space="preserve">Strassen und Brücken überschüttet </t>
-  </si>
-  <si>
-    <t xml:space="preserve">route coupée;Stammbach (zwischen Blatten und Kühmad): Strasse und Wiesen mit Geröll (unerwartet) überführt; Strassenverbindung zur Fafleralp unterbrochen. Ursache: evtl. Ausbruch eines unterirdisch gelegenen Gletschersees (nach ROETHLISBERGER).
-Rupture poche glaciaire
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Roethlisberger </t>
   </si>
   <si>
@@ -1045,9 +912,6 @@
   </si>
   <si>
     <t>minor damage</t>
-  </si>
-  <si>
-    <t>Wassertaschenausbruch mit offenbar nur geringer Schadenwirkung.</t>
   </si>
   <si>
     <t>Aellen, M. (1988). Die Gletscher der Schweizer Alpen 1979/80 und 1980/81. Jahrbuch 101/102, Gletscherkommission der Schweizer Akademie der Naturwissenschaften l SANW, VAW. CITED IN VAW (2003). Inventar gefährlicher Gletscher in der Schweiz (Tech. Rep. No. Mitteilung 182): ETH Zürich, Versuchsanstalt für Wasserbau.</t>
@@ -1169,9 +1033,6 @@
 Fatality</t>
   </si>
   <si>
-    <t>Nach dem plötzlichen Ausbruch einer subglazialen Wassertasche entstand im Gletschervorfeld ein Murgang aus Lockersedimenten. Der Murgang floss über einen Wanderweg und tötete eine Person.</t>
-  </si>
-  <si>
     <t>Glaciological Report  No. 135/136 (2017)
 Bauder, A. (2017) The Swiss Glaciers 2013/14 and 2014/15.</t>
   </si>
@@ -1188,18 +1049,10 @@
     <t>1899-10</t>
   </si>
   <si>
-    <t>Nach einem warmen Herbst brach eine grosse Wassertasche aus. Dieses Ereignis liess selbst in Sion den Wasserstandspegel der Rhone um 30 cm ansteigen.</t>
-  </si>
-  <si>
     <t>Forel et al. (1900) CITED IN VAW (2003). Inventar gefährlicher Gletscher in der Schweiz (Tech. Rep. No. Mitteilung 182): ETH Zürich, Versuchsanstalt für Wasserbau.; Id. Ibid. CITED IN Lütschg, I. O. (1915). Der Märjelensee und seine Abflussverhältnisse: eine hydrologische Studie unter Mitberücksichtigung hydrographischer Erscheinungen in anderen Flussgebieten: Annalen der Schweizer. Landeshydrographie, Vol. 1. Sekretariat des Schweizerischen Landeshydrographie in Bern.</t>
   </si>
   <si>
     <t>2019-07-26</t>
-  </si>
-  <si>
-    <t>Hochwasser
-Rupture d’une poche d’eau intraglaciaire au Triftgletscher par beau temps &gt; débordement du Triftbach à Zermatt. Nous avons un rapport d’événement détaillé. La poche d’eau était vraisemblablement intra- ou sous-glaciaire.
-Zermatt</t>
   </si>
   <si>
     <r>
@@ -1514,9 +1367,6 @@
     <t>Torrent de Saint-Barthélemy</t>
   </si>
   <si>
-    <t>im Kanton VS</t>
-  </si>
-  <si>
     <t>1926-09-21</t>
   </si>
   <si>
@@ -1580,9 +1430,6 @@
     <t>1928-08-03</t>
   </si>
   <si>
-    <t>Similar than 1920 accodring to J.L Mercanton</t>
-  </si>
-  <si>
     <t>The advance of the glacier against the frontal moraine formed a natural dam for the glacial water within the the tongue. The observers reported 6 outburst in 30 min,</t>
   </si>
   <si>
@@ -1592,30 +1439,6 @@
     <t xml:space="preserve">Outbust flood from a temporary blockage of the subglacial channel. The blockage was due to a collapse of the ice roof of the glacier portal. The dimension of the collapsed piece of ice was 8m long abd 60m wide. </t>
   </si>
   <si>
-    <r>
-      <t>Rupture d’une poche d’eau </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>intraglaciaire </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>au Triftgletscher suite à des intempéries &gt; débordement du Triftbach à Zermatt. Nous avons un rapport d’événement détaillé.</t>
-    </r>
-  </si>
-  <si>
     <t>Hagen, T. 1944. Der Gletscherausbruck von Ferpècle. Die Alpen, Bd. 20, Ht. 9, p. 269–74. Bohorquez, P., &amp; Darby, S. E. (2008). The use of one-and two-dimensional hydraulic modelling to reconstruct a glacial outburst flood in a steep Alpine valley. Journal of hydrology, 361(3-4), 240-261.</t>
   </si>
   <si>
@@ -1733,15 +1556,9 @@
     <t>10min-gaged - baseflow excluded</t>
   </si>
   <si>
-    <t xml:space="preserve">the flood volume and peak discharge correspond to one of the main wave among the multiple flood waves. grosse Mengen an Geschiebetransport </t>
-  </si>
-  <si>
     <t>hydraulic barrier</t>
   </si>
   <si>
-    <t>unknown. But the flood volume might be overestimated, or at least no considering only the water pocket volume</t>
-  </si>
-  <si>
     <t>Mean_Flood_Volume_V0 [m3]</t>
   </si>
   <si>
@@ -1752,6 +1569,187 @@
   </si>
   <si>
     <t>Hydrograph intergation, baseflow excluded</t>
+  </si>
+  <si>
+    <t>Damage to bridges and roads</t>
+  </si>
+  <si>
+    <t>a bridge and road</t>
+  </si>
+  <si>
+    <t>Road buried by landslide</t>
+  </si>
+  <si>
+    <t>Destruction of hiking trail and forest road</t>
+  </si>
+  <si>
+    <t>BVZ railroad between Tesch and Randa impacted by debris. flood volume estimated between 0.08 and 0.09 million cubic meters</t>
+  </si>
+  <si>
+    <t>Culture damage</t>
+  </si>
+  <si>
+    <t>Streets and bridges buried</t>
+  </si>
+  <si>
+    <t>Floods</t>
+  </si>
+  <si>
+    <t>Few damages, mainly depth and lateral erosion</t>
+  </si>
+  <si>
+    <t>minor floods</t>
+  </si>
+  <si>
+    <t>Minor floods and minor damages downstream</t>
+  </si>
+  <si>
+    <t>Outburst of a water pocket. Originating from the area of the Oberalp Firn and the Hanging Glacier on the western flank of the Oberalpstock, there was flooding in the glacier stream, which was related to short but very intense rainfall in the Gotthard region (maximum rainfall in Biasca was 115.5 mm, in Gotthard Hospiz 89.7 mm). The erosion channel is located directly below the glacier, with the northern streambed excavated wide between 2480 and 2030 meters above sea level. The water masses dammed in the glacier likely also came from the heavy rainfall in the area in question. The Etzlibach also experienced flooding (normal event), and the resulting cumulative discharges caused major landslides and floods in the Maderanertal. Consequences: Landslides on farmland with extensive damage in Bristen and up to Amsteg. The damage to private property was estimated at around 30,000 CHF, but the destruction of weirs, bridges, and forest paths caused a much greater loss to the public.</t>
+  </si>
+  <si>
+    <t>A water pocket outburst with a rapid initial peak in the discharge curve, but a small outburst volume, was recorded by Grande Dixence SA. The likely cause was assumed to be a temporary blockage of the subglacial drainage with ice debris, followed by the subsequent failure of this barrier.</t>
+  </si>
+  <si>
+    <t>A water pocket outburst at the Bider Glacier carried a significant quantity of debris into the main valley. Consequently, the Vispa river was obstructed, leading to the marshification of the meadows in Tamatsand and Bidermatten. It wasn't until 40 years later, during a thunderstorm flood in the Triftbach, that the debris barrier was breached, allowing the meadows to be drained once again.</t>
+  </si>
+  <si>
+    <t>In the early 1970s, several major ice and water pocket outbursts occurred.</t>
+  </si>
+  <si>
+    <t>A water pocket outburst triggered a debris flow and dammed the Saaser Vispa river up to the roadside. At 7:00 a.m., a strong, fountain-like water discharge was observed on the orographically left side of the glacier. At this time, the water was not muddy, and the scattered ice debris was hardly eroded. Following a brief damming, a secondary flood occurred in the dammed Vispa, with a discharge peak at the Limnigraph in Saas Balen measuring 2 m³/s larger than the normal flow.</t>
+  </si>
+  <si>
+    <t>A water pocket outburst caused a mudslide, damaging both the railway and telegraph lines</t>
+  </si>
+  <si>
+    <t>A water pocket outburst with a significant volume occurred during the winter months. Grande Dixence SA recorded increased water discharge for approximately three days. The discharge peak reached 2 - 3 m³/s, and the outburst volume was estimated to be around 80,000 to 100,000 m³. This event did not result in any damage consequences.</t>
+  </si>
+  <si>
+    <t>The outbreak of a water pocket led to a flood that breached the dam of a water intake and flooded a construction site.</t>
+  </si>
+  <si>
+    <t>The rupture of two glacier pockets formed by the Fèrpècle and Mont-Miné glaciers. Several bridges are damaged. According to Hagen's diagrams (1944), the lake is partially open-air and partially under the ice.</t>
+  </si>
+  <si>
+    <t>Rupture of three glacial pockets feeding into the Borgne at Ferpècle. The water pockets are divided and blocked by collapsed ice blocks. The Lana bridge and a sawmill were carried away.</t>
+  </si>
+  <si>
+    <t>Similar than 1920 according to J.L Mercanton</t>
+  </si>
+  <si>
+    <t>A probable rupture of a subglacial/intraglacial pocket (Pro Glacier) released a significant amount of water. This triggered a torrential flow that reached the gallery of the Grand-St-Bernard road.</t>
+  </si>
+  <si>
+    <t>Outbreak of a water pocket followed by significant floods in Revers</t>
+  </si>
+  <si>
+    <t>Due to the draining of a water pocket, a glacier flood occurred in mid-July 1969, erupting on the orographically right side of the glacier. This was caused by the significant bulging of the glacier tongue during its advance. Thanks to timely warning and the implementation of remedial measures, facilities of Kraftwerke Emosson SA were protected.</t>
+  </si>
+  <si>
+    <t>A water pocket of 183,000 m³ carried approximately 2,000 m³ (5,500 tons) of debris</t>
+  </si>
+  <si>
+    <t>Minor water pocket outburst with no damage consequences</t>
+  </si>
+  <si>
+    <t>A water pocket outburst from the Glacier des Grands lasted for 15 hours, creating a breach in the moraine material and triggering a mudslide</t>
+  </si>
+  <si>
+    <t>Outbreak of a water pocket. The outburst mass (ice and water) reached just short of the road to Chanrion</t>
+  </si>
+  <si>
+    <t>A water pocket outburst caused the glacier discharge to double for approximately 48 hours</t>
+  </si>
+  <si>
+    <t>There was a significant water pocket outburst over a period of approximately 48 hours (La Tine)</t>
+  </si>
+  <si>
+    <t>A water pocket outburst occurred over a period of approximately 36 hours</t>
+  </si>
+  <si>
+    <t>A large water pocket outburst on the orographically right side of the glacier caused considerable damage (trees, bridges, etc.). The flood discharge reached approximately 26 m³/s (compared to a normal discharge of around 3.5 m³/s). The water pocket had a total volume of approximately 840,000 m³</t>
+  </si>
+  <si>
+    <t>Similar to 1942, the flood appears to be caused simultaneously by the rupture of glacial pockets, glacier melt, and a violent storm centered on the Col de Balme (hail) with a volume of 850,000 m³, resulting in damage to the village of Trient.</t>
+  </si>
+  <si>
+    <t>A 48-hour water pocket outburst resulted in a flood discharge of 25 m³/s. During this event, various bridges and road sections were washed away.</t>
+  </si>
+  <si>
+    <t>As a result of a water pocket outburst, a mudslide occurred, clearing the loose material down to the bedrock. The mudslide emptied into the Birchbach, burying the BVZ railway line in two locations with debris deposits measuring 2.5 meters thick. The impact of this event was noticeable even 20 kilometers away.</t>
+  </si>
+  <si>
+    <t>A water pocket emptied into the Birchbach, destroying 30 meters of the BVZ railway tracks.</t>
+  </si>
+  <si>
+    <t>The outburst of a water pocket in the Hobärg Glacier triggered a mudslide in the Birchbach, which overran the BVZ railway line.</t>
+  </si>
+  <si>
+    <t>A water pocket outburst in the Hobärg Glacier triggered a mudslide in the Birchbach, which covered the cantonal road with debris.</t>
+  </si>
+  <si>
+    <t>Due to a water pocket outburst in the Hobärg Glacier, a mudslide occurred in the Birchbach, which blocked the culvert under the cantonal road from St. Niklaus to Täsch, burying the road (estimated volume of deposition on the cone</t>
+  </si>
+  <si>
+    <t>Mudslide triggered</t>
+  </si>
+  <si>
+    <t>The release of a water pocket occurred at the Mälligagletscher due to dead ice</t>
+  </si>
+  <si>
+    <t>Outbreak of a water pocket. The event is associated with a strong advance of the glacier. At the front, movement was slower, and tension cracks led to the formation and drainage of the water pocket. No reports of damage</t>
+  </si>
+  <si>
+    <t>Triggering of a large debris flow from a rock couloir in the forefield of the Minstigergletscher. Immediately after this event, the drainage system switched sides on the glacier. The temporary redirection of the subglacial drainage system, possibly combined with a short-term blockage and subsequent water release, triggered this debris flow. The fact that an initial surge of the floodwaters already washed away a bridge suggests the outbreak of a water pocket. Later, the water level rose to a critical height due to intense rainfall. Eventually, the stream carried excessive debris and overflowed its banks. Due to glacier retreat, the starting point for erosion was exposed, enabling the debris flow event. The debris flow choked the channel at the railway bridge of the Furka-Oberalp railway line (FO) and covered the village of Münster as well as an area of approximately 30,000 m².</t>
+  </si>
+  <si>
+    <t>In Münster, cultural damages (land inundated, covered, or washed away) amounted to a total of 1,229,000 Swiss Francs within the municipality. Note: Cultural damages in the Minstigertal were accounted for separately.</t>
+  </si>
+  <si>
+    <t>Following a water pocket outburst, a mudslide occurred on August 21, 2008, around 2:50 p.m., in fine weather conditions. Rupture of a water pocket at the Minstigergletscher (estimated water volume of 15,000 m³) &gt; torrential mudflow on the Münstigerbach in fine weather (total volume of 60,000 m³) &gt; overflowing and significant deposits in the village of Münster. It appears that the pocket was of paraglacial nature, meaning the lake was situated between the glacier and the lateral moraine. The event is extensively documented by the media and also in a technical event report. Norbert Carlen was on site at the time, and our service also has several photos.</t>
+  </si>
+  <si>
+    <t>A glacier calving of 150 meters in length and 80 meters in width occurred. The ice and debris deposits reached a consistent height of two meters. Subsequently, a strong water flow emerged from the glacier (= water pocket outburst?), carving a deep path and turning the Lütschine river yellow</t>
+  </si>
+  <si>
+    <t>The outbreak of a glacial lake or water pocket in the Trift Glacier area caused damage to the fields in Tamatten</t>
+  </si>
+  <si>
+    <t>Rupture of an intraglacial water pocket at the Trift Glacier due to severe weather conditions &gt; overflow of the Triftbach in Zermatt. We have a detailed event report.</t>
+  </si>
+  <si>
+    <t>The outbreak of a water pocket at the Uistren Stampbach Glacier resulted in a mudslide. The course of the Lonza river was altered, causing devastation between Eisten and Blatten</t>
+  </si>
+  <si>
+    <t>A water pocket emptied with a shallow discharge peak (pulsating water influx), causing linear erosion in the 30° steep, debris-covered glacier forefield. Ice blocks and debris blocked the culvert pipe under the road between Blatten and Gletscherstaffel, and the stream poured into the village of Blatten.</t>
+  </si>
+  <si>
+    <t>Road blocked. Stammbach (between Blatten and Kühmad): Road and meadows covered with debris (unexpectedly). Road connection to Fafleralp interrupted. Cause: possibly the outbreak of a subglacial glacier lake (according to ROETHLISBERGER).</t>
+  </si>
+  <si>
+    <t>Water pocket outburst apparently with only minor damage impact.</t>
+  </si>
+  <si>
+    <t>Flash floods occurred around midday on July 15, 2003. Camping site in Grindelwald evacuated. Opening of the sluices in the Lötschental, allowing the water to pass through</t>
+  </si>
+  <si>
+    <t>The discharge decreased in Mättenberg before the water pocket outburst, carrying a lot of driftwood.
+Mättenberg flooded</t>
+  </si>
+  <si>
+    <t>Pulsating discharge behavior, followed by disrupted discharge behavior</t>
+  </si>
+  <si>
+    <t>Large debris transport. Road covered with debris. Heavy rainfall.</t>
+  </si>
+  <si>
+    <t>The flood volume and peak discharge correspond to one of the main waves among the multiple flood waves. Large quantities of sediment transport</t>
+  </si>
+  <si>
+    <t>After the sudden outbreak of a subglacial water pocket, a debris flow occurred in the glacier forefield. The debris flow flowed over a hiking trail and resulted in the death of one person</t>
+  </si>
+  <si>
+    <t>After a warm autumn, a large water pocket burst. This event caused the water level of the Rhone River to rise by 30 cm even in Sion</t>
   </si>
 </sst>
 </file>
@@ -1761,7 +1759,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1825,13 +1823,6 @@
       <family val="1"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -1860,7 +1851,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1901,12 +1892,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1937,11 +1922,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2094,7 +2079,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2215,9 +2200,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="8" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
@@ -2230,7 +2212,7 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2240,7 +2222,7 @@
     <xf numFmtId="49" fontId="7" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2315,19 +2297,9 @@
     <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4792,16 +4764,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A453AE-42D3-44AD-B1ED-100E8200E393}">
-  <dimension ref="A1:AG94"/>
+  <dimension ref="A1:AG93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.1328125" style="104" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1328125" style="103" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.86328125" style="51" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" style="51" customWidth="1"/>
     <col min="4" max="4" width="12.59765625" style="51" bestFit="1" customWidth="1"/>
@@ -4829,11 +4801,11 @@
     <col min="26" max="26" width="21.86328125" style="53" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="22.265625" style="53" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="28.265625" style="51" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="169" style="51" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="69.1328125" style="51" customWidth="1"/>
     <col min="30" max="30" width="24.86328125" style="53" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="255.73046875" style="51" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="29.73046875" style="51" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="255.73046875" style="51" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="61.19921875" style="51" customWidth="1"/>
+    <col min="32" max="32" width="13" style="51" customWidth="1"/>
+    <col min="33" max="33" width="65.86328125" style="51" customWidth="1"/>
     <col min="34" max="16384" width="10.73046875" style="51"/>
   </cols>
   <sheetData>
@@ -4866,7 +4838,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>441</v>
+        <v>392</v>
       </c>
       <c r="K1" s="39" t="s">
         <v>9</v>
@@ -4890,34 +4862,34 @@
         <v>15</v>
       </c>
       <c r="R1" s="43" t="s">
-        <v>371</v>
+        <v>325</v>
       </c>
       <c r="S1" s="43" t="s">
-        <v>372</v>
+        <v>326</v>
       </c>
       <c r="T1" s="43" t="s">
-        <v>373</v>
+        <v>327</v>
       </c>
       <c r="U1" s="44" t="s">
-        <v>454</v>
+        <v>403</v>
       </c>
       <c r="V1" s="45" t="s">
-        <v>374</v>
+        <v>328</v>
       </c>
       <c r="W1" s="45" t="s">
-        <v>375</v>
+        <v>329</v>
       </c>
       <c r="X1" s="46" t="s">
-        <v>376</v>
+        <v>330</v>
       </c>
       <c r="Y1" s="39" t="s">
-        <v>377</v>
+        <v>331</v>
       </c>
       <c r="Z1" s="39" t="s">
-        <v>378</v>
+        <v>332</v>
       </c>
       <c r="AA1" s="39" t="s">
-        <v>379</v>
+        <v>333</v>
       </c>
       <c r="AB1" s="47" t="s">
         <v>17</v>
@@ -4961,7 +4933,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K2" s="17">
         <v>2636574.25</v>
@@ -5001,7 +4973,7 @@
     </row>
     <row r="3" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
-        <v>427</v>
+        <v>378</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>24</v>
@@ -5013,7 +4985,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>428</v>
+        <v>379</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>28</v>
@@ -5026,7 +4998,7 @@
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K3" s="17">
         <v>2701355.6</v>
@@ -5035,7 +5007,7 @@
         <v>1178349.5</v>
       </c>
       <c r="M3" s="18" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="N3" s="18" t="s">
         <v>34</v>
@@ -5058,19 +5030,19 @@
         <v>35</v>
       </c>
       <c r="AD3" s="7"/>
-      <c r="AE3" s="26" t="s">
+      <c r="AE3" t="s">
+        <v>418</v>
+      </c>
+      <c r="AF3" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="AF3" s="26" t="s">
+      <c r="AG3" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="AG3" s="14" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>24</v>
@@ -5082,7 +5054,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>28</v>
@@ -5095,7 +5067,7 @@
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>442</v>
+        <v>393</v>
       </c>
       <c r="K4" s="17">
         <v>2604753.25</v>
@@ -5104,10 +5076,10 @@
         <v>1092866</v>
       </c>
       <c r="M4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="18" t="s">
         <v>41</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>42</v>
       </c>
       <c r="O4" s="7"/>
       <c r="P4" s="19"/>
@@ -5125,7 +5097,7 @@
         <v>2500</v>
       </c>
       <c r="X4" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y4" s="7">
         <v>2.4500000000000002</v>
@@ -5133,25 +5105,25 @@
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
       <c r="AB4" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC4" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD4" s="7"/>
-      <c r="AE4" s="26" t="s">
-        <v>45</v>
+      <c r="AE4" t="s">
+        <v>419</v>
       </c>
       <c r="AF4" s="26">
         <v>1983</v>
       </c>
       <c r="AG4" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>24</v>
@@ -5163,20 +5135,20 @@
         <v>26</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K5" s="17">
         <v>2634851.75</v>
@@ -5185,10 +5157,10 @@
         <v>1108866.5</v>
       </c>
       <c r="M5" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="18" t="s">
         <v>51</v>
-      </c>
-      <c r="N5" s="18" t="s">
-        <v>52</v>
       </c>
       <c r="O5" s="7"/>
       <c r="P5" s="19"/>
@@ -5205,22 +5177,22 @@
       <c r="AA5" s="7"/>
       <c r="AB5" s="25"/>
       <c r="AC5" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD5" s="7"/>
-      <c r="AE5" s="27" t="s">
-        <v>54</v>
+      <c r="AE5" t="s">
+        <v>420</v>
       </c>
       <c r="AF5" s="26">
         <v>1926</v>
       </c>
       <c r="AG5" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>24</v>
@@ -5232,20 +5204,20 @@
         <v>26</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K6" s="17">
         <v>2634851.75</v>
@@ -5254,7 +5226,7 @@
         <v>1108866.5</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N6" s="18">
         <v>1975</v>
@@ -5263,7 +5235,7 @@
         <v>1970</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q6" s="15"/>
       <c r="R6" s="20"/>
@@ -5278,22 +5250,22 @@
       <c r="AA6" s="7"/>
       <c r="AB6" s="25"/>
       <c r="AC6" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD6" s="7"/>
-      <c r="AE6" s="27" t="s">
-        <v>59</v>
+      <c r="AE6" t="s">
+        <v>421</v>
       </c>
       <c r="AF6" s="26">
         <v>2003</v>
       </c>
       <c r="AG6" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>24</v>
@@ -5305,20 +5277,20 @@
         <v>26</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K7" s="17">
         <v>2634851.75</v>
@@ -5327,10 +5299,10 @@
         <v>1108866.5</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N7" s="18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O7" s="7"/>
       <c r="P7" s="19"/>
@@ -5347,22 +5319,20 @@
       <c r="AA7" s="7"/>
       <c r="AB7" s="25"/>
       <c r="AC7" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD7" s="7"/>
-      <c r="AE7" s="26" t="s">
-        <v>62</v>
-      </c>
+      <c r="AE7" s="26"/>
       <c r="AF7" s="26">
         <v>2003</v>
       </c>
       <c r="AG7" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
@@ -5374,20 +5344,20 @@
         <v>26</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K8" s="17">
         <v>2634851.75</v>
@@ -5396,10 +5366,10 @@
         <v>1108866.5</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N8" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O8" s="7"/>
       <c r="P8" s="19"/>
@@ -5416,22 +5386,22 @@
       <c r="AA8" s="7"/>
       <c r="AB8" s="25"/>
       <c r="AC8" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD8" s="7"/>
-      <c r="AE8" s="27" t="s">
-        <v>65</v>
+      <c r="AE8" t="s">
+        <v>422</v>
       </c>
       <c r="AF8" s="26">
         <v>1983</v>
       </c>
       <c r="AG8" s="14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>24</v>
@@ -5443,7 +5413,7 @@
         <v>26</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>28</v>
@@ -5452,7 +5422,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K9" s="17">
         <v>2703690</v>
@@ -5461,7 +5431,7 @@
         <v>1176913.25</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="N9" s="18">
         <v>1942</v>
@@ -5481,20 +5451,20 @@
       <c r="AA9" s="7"/>
       <c r="AB9" s="25"/>
       <c r="AC9" s="26" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD9" s="7"/>
       <c r="AE9" s="26"/>
       <c r="AF9" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG9" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="AG9" s="14" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
@@ -5506,7 +5476,7 @@
         <v>26</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>28</v>
@@ -5515,7 +5485,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K10" s="17">
         <v>2634491.5</v>
@@ -5524,10 +5494,10 @@
         <v>1102393</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O10" s="7"/>
       <c r="P10" s="19"/>
@@ -5541,7 +5511,7 @@
       <c r="V10" s="15"/>
       <c r="W10" s="16"/>
       <c r="X10" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
@@ -5554,12 +5524,12 @@
         <v>2018</v>
       </c>
       <c r="AG10" s="14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
@@ -5571,7 +5541,7 @@
         <v>26</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>28</v>
@@ -5580,7 +5550,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K11" s="17">
         <v>2634491.5</v>
@@ -5589,10 +5559,10 @@
         <v>1102393</v>
       </c>
       <c r="M11" s="18" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O11" s="7"/>
       <c r="P11" s="19"/>
@@ -5606,7 +5576,7 @@
       <c r="V11" s="15"/>
       <c r="W11" s="16"/>
       <c r="X11" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
@@ -5619,12 +5589,12 @@
         <v>2018</v>
       </c>
       <c r="AG11" s="14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>24</v>
@@ -5636,7 +5606,7 @@
         <v>26</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>28</v>
@@ -5649,7 +5619,7 @@
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K12" s="17">
         <v>2630887.5</v>
@@ -5658,10 +5628,10 @@
         <v>1105232.375</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="N12" s="18" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="O12" s="7"/>
       <c r="P12" s="19"/>
@@ -5678,22 +5648,22 @@
       <c r="AA12" s="7"/>
       <c r="AB12" s="25"/>
       <c r="AC12" s="27" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AD12" s="7"/>
-      <c r="AE12" s="27" t="s">
-        <v>82</v>
+      <c r="AE12" t="s">
+        <v>423</v>
       </c>
       <c r="AF12" s="26">
         <v>1899</v>
       </c>
       <c r="AG12" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>24</v>
@@ -5705,7 +5675,7 @@
         <v>26</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>28</v>
@@ -5718,7 +5688,7 @@
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K13" s="17">
         <v>2630887.5</v>
@@ -5727,10 +5697,10 @@
         <v>1105232.375</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="N13" s="18" t="s">
-        <v>429</v>
+        <v>380</v>
       </c>
       <c r="O13" s="7"/>
       <c r="P13" s="19"/>
@@ -5753,12 +5723,12 @@
         <v>1991</v>
       </c>
       <c r="AG13" s="14" t="s">
-        <v>430</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>24</v>
@@ -5770,7 +5740,7 @@
         <v>26</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>28</v>
@@ -5783,7 +5753,7 @@
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K14" s="17">
         <v>2630887.5</v>
@@ -5792,10 +5762,10 @@
         <v>1105232.375</v>
       </c>
       <c r="M14" s="18" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="N14" s="18" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="O14" s="7"/>
       <c r="P14" s="19"/>
@@ -5813,7 +5783,7 @@
         <v>100000</v>
       </c>
       <c r="X14" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y14" s="7">
         <v>2.5</v>
@@ -5825,25 +5795,25 @@
         <v>3</v>
       </c>
       <c r="AB14" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC14" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD14" s="7"/>
-      <c r="AE14" s="27" t="s">
-        <v>85</v>
+      <c r="AE14" t="s">
+        <v>424</v>
       </c>
       <c r="AF14" s="26">
         <v>2003</v>
       </c>
       <c r="AG14" s="14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>24</v>
@@ -5855,7 +5825,7 @@
         <v>26</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>28</v>
@@ -5864,7 +5834,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>442</v>
+        <v>393</v>
       </c>
       <c r="K15" s="17">
         <v>2633748.75</v>
@@ -5873,10 +5843,10 @@
         <v>1093704.5</v>
       </c>
       <c r="M15" s="18" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="N15" s="18" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="O15" s="7"/>
       <c r="P15" s="19"/>
@@ -5895,18 +5865,18 @@
       <c r="AC15" s="26"/>
       <c r="AD15" s="7"/>
       <c r="AE15" s="26" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="AF15" s="26">
         <v>1944</v>
       </c>
       <c r="AG15" s="14" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>24</v>
@@ -5918,7 +5888,7 @@
         <v>26</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>28</v>
@@ -5931,7 +5901,7 @@
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K16" s="17">
         <v>2633748.75</v>
@@ -5940,10 +5910,10 @@
         <v>1093704.5</v>
       </c>
       <c r="M16" s="18" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="N16" s="18" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="O16" s="7"/>
       <c r="P16" s="19"/>
@@ -5960,22 +5930,22 @@
       <c r="AA16" s="7"/>
       <c r="AB16" s="25"/>
       <c r="AC16" s="27" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AD16" s="7"/>
-      <c r="AE16" s="26" t="s">
-        <v>94</v>
+      <c r="AE16" t="s">
+        <v>425</v>
       </c>
       <c r="AF16" s="26">
         <v>1991</v>
       </c>
       <c r="AG16" s="14" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>24</v>
@@ -5987,7 +5957,7 @@
         <v>26</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>28</v>
@@ -5996,7 +5966,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>442</v>
+        <v>393</v>
       </c>
       <c r="K17" s="17">
         <v>2633748.75</v>
@@ -6005,10 +5975,10 @@
         <v>1093704.5</v>
       </c>
       <c r="M17" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="N17" s="18" t="s">
         <v>89</v>
-      </c>
-      <c r="N17" s="18" t="s">
-        <v>96</v>
       </c>
       <c r="O17" s="7"/>
       <c r="P17" s="19"/>
@@ -6022,7 +5992,7 @@
       <c r="V17" s="15"/>
       <c r="W17" s="16"/>
       <c r="X17" s="49" t="s">
-        <v>457</v>
+        <v>406</v>
       </c>
       <c r="Y17" s="7">
         <v>14.9</v>
@@ -6030,7 +6000,7 @@
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="25" t="s">
-        <v>403</v>
+        <v>356</v>
       </c>
       <c r="AC17" s="26"/>
       <c r="AD17" s="7"/>
@@ -6039,12 +6009,12 @@
         <v>2017</v>
       </c>
       <c r="AG17" s="14" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>24</v>
@@ -6056,7 +6026,7 @@
         <v>26</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>28</v>
@@ -6067,7 +6037,7 @@
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>452</v>
+        <v>402</v>
       </c>
       <c r="K18" s="17">
         <v>2608645</v>
@@ -6076,10 +6046,10 @@
         <v>1094778.125</v>
       </c>
       <c r="M18" s="18" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="N18" s="57" t="s">
-        <v>414</v>
+        <v>365</v>
       </c>
       <c r="O18" s="7"/>
       <c r="P18" s="19"/>
@@ -6093,7 +6063,7 @@
       <c r="V18" s="15"/>
       <c r="W18" s="16"/>
       <c r="X18" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y18" s="7">
         <v>400</v>
@@ -6105,25 +6075,25 @@
         <v>454</v>
       </c>
       <c r="AB18" s="25" t="s">
-        <v>413</v>
-      </c>
-      <c r="AC18" s="26" t="s">
-        <v>101</v>
+        <v>364</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>407</v>
       </c>
       <c r="AD18" s="7"/>
-      <c r="AE18" s="26" t="s">
-        <v>417</v>
+      <c r="AE18" t="s">
+        <v>426</v>
       </c>
       <c r="AF18" s="26">
         <v>1944</v>
       </c>
-      <c r="AG18" s="129" t="s">
-        <v>412</v>
+      <c r="AG18" s="128" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="19" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>24</v>
@@ -6135,7 +6105,7 @@
         <v>26</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>28</v>
@@ -6146,7 +6116,7 @@
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>442</v>
+        <v>393</v>
       </c>
       <c r="K19" s="17">
         <v>2608645</v>
@@ -6155,10 +6125,10 @@
         <v>1094778.125</v>
       </c>
       <c r="M19" s="18" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="N19" s="18" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="O19" s="7"/>
       <c r="P19" s="19"/>
@@ -6172,7 +6142,7 @@
       <c r="V19" s="15"/>
       <c r="W19" s="16"/>
       <c r="X19" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y19" s="7">
         <v>230</v>
@@ -6180,23 +6150,23 @@
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
       <c r="AB19" s="25" t="s">
-        <v>413</v>
+        <v>364</v>
       </c>
       <c r="AC19" s="26"/>
       <c r="AD19" s="7"/>
-      <c r="AE19" s="26" t="s">
-        <v>416</v>
+      <c r="AE19" t="s">
+        <v>427</v>
       </c>
       <c r="AF19" s="26">
         <v>2003</v>
       </c>
       <c r="AG19" s="14" t="s">
-        <v>415</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>24</v>
@@ -6208,7 +6178,7 @@
         <v>26</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>28</v>
@@ -6221,7 +6191,7 @@
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>452</v>
+        <v>402</v>
       </c>
       <c r="K20" s="17">
         <v>2569972.75</v>
@@ -6230,10 +6200,10 @@
         <v>1093924.75</v>
       </c>
       <c r="M20" s="18" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="O20" s="7"/>
       <c r="P20" s="19"/>
@@ -6250,22 +6220,22 @@
       <c r="AA20" s="7"/>
       <c r="AB20" s="25"/>
       <c r="AC20" s="26" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="AD20" s="7"/>
       <c r="AE20" s="26" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="AF20" s="26">
         <v>1921</v>
       </c>
       <c r="AG20" s="14" t="s">
-        <v>404</v>
+        <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>24</v>
@@ -6277,7 +6247,7 @@
         <v>26</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>28</v>
@@ -6290,7 +6260,7 @@
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1" t="s">
-        <v>452</v>
+        <v>402</v>
       </c>
       <c r="K21" s="17">
         <v>2569972.75</v>
@@ -6299,10 +6269,10 @@
         <v>1093924.75</v>
       </c>
       <c r="M21" s="18" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="N21" s="18" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="O21" s="7"/>
       <c r="P21" s="19"/>
@@ -6319,22 +6289,22 @@
       <c r="AA21" s="7"/>
       <c r="AB21" s="25"/>
       <c r="AC21" s="26" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="AD21" s="7"/>
       <c r="AE21" s="26" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="AF21" s="26">
         <v>1921</v>
       </c>
       <c r="AG21" s="14" t="s">
-        <v>404</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>24</v>
@@ -6346,7 +6316,7 @@
         <v>26</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>28</v>
@@ -6359,7 +6329,7 @@
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1" t="s">
-        <v>452</v>
+        <v>402</v>
       </c>
       <c r="K22" s="17">
         <v>2569972.75</v>
@@ -6368,10 +6338,10 @@
         <v>1093924.75</v>
       </c>
       <c r="M22" s="18" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="N22" s="18" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="O22" s="7"/>
       <c r="P22" s="19"/>
@@ -6388,22 +6358,22 @@
       <c r="AA22" s="7"/>
       <c r="AB22" s="25"/>
       <c r="AC22" s="26" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="AD22" s="7"/>
       <c r="AE22" s="26" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="AF22" s="26">
         <v>1921</v>
       </c>
       <c r="AG22" s="14" t="s">
-        <v>404</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>24</v>
@@ -6415,7 +6385,7 @@
         <v>26</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>28</v>
@@ -6424,7 +6394,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K23" s="17">
         <v>2569972.75</v>
@@ -6433,10 +6403,10 @@
         <v>1093924.75</v>
       </c>
       <c r="M23" s="18" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="N23" s="56" t="s">
-        <v>406</v>
+        <v>359</v>
       </c>
       <c r="O23" s="7"/>
       <c r="P23" s="19"/>
@@ -6453,22 +6423,22 @@
       <c r="AA23" s="7"/>
       <c r="AB23" s="25"/>
       <c r="AC23" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD23" s="7"/>
       <c r="AE23" s="26" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="AF23" s="26">
         <v>1929</v>
       </c>
       <c r="AG23" s="14" t="s">
-        <v>405</v>
+        <v>358</v>
       </c>
     </row>
     <row r="24" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>24</v>
@@ -6480,7 +6450,7 @@
         <v>26</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>28</v>
@@ -6489,7 +6459,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K24" s="17">
         <v>2569867.75</v>
@@ -6498,10 +6468,10 @@
         <v>1086603</v>
       </c>
       <c r="M24" s="18" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N24" s="18" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O24" s="7"/>
       <c r="P24" s="19"/>
@@ -6518,7 +6488,7 @@
       <c r="AA24" s="7"/>
       <c r="AB24" s="25"/>
       <c r="AC24" s="26" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AD24" s="7"/>
       <c r="AE24" s="26"/>
@@ -6526,12 +6496,12 @@
         <v>1898</v>
       </c>
       <c r="AG24" s="14" t="s">
-        <v>418</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="102" t="s">
-        <v>115</v>
+      <c r="A25" s="101" t="s">
+        <v>108</v>
       </c>
       <c r="B25" s="77" t="s">
         <v>24</v>
@@ -6543,7 +6513,7 @@
         <v>26</v>
       </c>
       <c r="E25" s="79" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F25" s="76" t="s">
         <v>28</v>
@@ -6551,10 +6521,10 @@
       <c r="G25" s="76"/>
       <c r="H25" s="76"/>
       <c r="I25" s="76" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J25" s="76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K25" s="80">
         <v>2584130.75</v>
@@ -6563,10 +6533,10 @@
         <v>1082617.75</v>
       </c>
       <c r="M25" s="81" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="N25" s="81" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="O25" s="82"/>
       <c r="P25" s="83"/>
@@ -6584,19 +6554,19 @@
       <c r="AB25" s="90"/>
       <c r="AC25" s="91"/>
       <c r="AD25" s="82"/>
-      <c r="AE25" s="91" t="s">
-        <v>119</v>
+      <c r="AE25" t="s">
+        <v>429</v>
       </c>
       <c r="AF25" s="91">
         <v>2022</v>
       </c>
       <c r="AG25" s="92" t="s">
-        <v>432</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>24</v>
@@ -6608,7 +6578,7 @@
         <v>26</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>28</v>
@@ -6621,7 +6591,7 @@
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K26" s="17">
         <v>2569134.25</v>
@@ -6630,10 +6600,10 @@
         <v>1090914</v>
       </c>
       <c r="M26" s="18" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="N26" s="18" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="O26" s="7"/>
       <c r="P26" s="19"/>
@@ -6650,22 +6620,22 @@
       <c r="AA26" s="7"/>
       <c r="AB26" s="25"/>
       <c r="AC26" s="27" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="AD26" s="7"/>
-      <c r="AE26" s="26" t="s">
-        <v>125</v>
+      <c r="AE26" t="s">
+        <v>430</v>
       </c>
       <c r="AF26" s="26">
         <v>1983</v>
       </c>
       <c r="AG26" s="14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>24</v>
@@ -6677,7 +6647,7 @@
         <v>26</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>28</v>
@@ -6690,7 +6660,7 @@
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K27" s="17">
         <v>2569134.25</v>
@@ -6699,14 +6669,14 @@
         <v>1090914</v>
       </c>
       <c r="M27" s="18" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="N27" s="18" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="O27" s="7"/>
       <c r="P27" s="19" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="Q27" s="15"/>
       <c r="R27" s="20"/>
@@ -6721,22 +6691,22 @@
       <c r="AA27" s="7"/>
       <c r="AB27" s="25"/>
       <c r="AC27" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD27" s="7"/>
-      <c r="AE27" s="26" t="s">
-        <v>129</v>
+      <c r="AE27" t="s">
+        <v>431</v>
       </c>
       <c r="AF27" s="26">
         <v>2003</v>
       </c>
       <c r="AG27" s="14" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="6" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>24</v>
@@ -6748,7 +6718,7 @@
         <v>26</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>28</v>
@@ -6761,7 +6731,7 @@
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K28" s="17">
         <v>2600817.5</v>
@@ -6770,14 +6740,14 @@
         <v>1094012.125</v>
       </c>
       <c r="M28" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N28" s="18" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="O28" s="7"/>
       <c r="P28" s="19" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="Q28" s="15"/>
       <c r="R28" s="20"/>
@@ -6789,29 +6759,29 @@
       <c r="V28" s="15"/>
       <c r="W28" s="16"/>
       <c r="X28" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
       <c r="AB28" s="25"/>
       <c r="AC28" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD28" s="7"/>
-      <c r="AE28" s="27" t="s">
-        <v>135</v>
+      <c r="AE28" t="s">
+        <v>432</v>
       </c>
       <c r="AF28" s="26">
         <v>1988</v>
       </c>
       <c r="AG28" s="14" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="6" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>24</v>
@@ -6823,7 +6793,7 @@
         <v>26</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>28</v>
@@ -6836,7 +6806,7 @@
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K29" s="17">
         <v>2600817.5</v>
@@ -6845,10 +6815,10 @@
         <v>1094012.125</v>
       </c>
       <c r="M29" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N29" s="18" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="O29" s="7"/>
       <c r="P29" s="19"/>
@@ -6865,22 +6835,22 @@
       <c r="AA29" s="7"/>
       <c r="AB29" s="25"/>
       <c r="AC29" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD29" s="7"/>
-      <c r="AE29" s="26" t="s">
-        <v>138</v>
+      <c r="AE29" t="s">
+        <v>433</v>
       </c>
       <c r="AF29" s="26">
         <v>2003</v>
       </c>
       <c r="AG29" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="6" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>24</v>
@@ -6892,7 +6862,7 @@
         <v>26</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>28</v>
@@ -6901,7 +6871,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K30" s="17">
         <v>2614826</v>
@@ -6910,10 +6880,10 @@
         <v>1101934.75</v>
       </c>
       <c r="M30" s="18" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N30" s="18" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="O30" s="7"/>
       <c r="P30" s="19"/>
@@ -6930,7 +6900,7 @@
       <c r="AA30" s="7"/>
       <c r="AB30" s="25"/>
       <c r="AC30" s="26" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="AD30" s="7"/>
       <c r="AE30" s="26"/>
@@ -6938,12 +6908,12 @@
         <v>1984</v>
       </c>
       <c r="AG30" s="14" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:33" s="49" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="6" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>24</v>
@@ -6955,7 +6925,7 @@
         <v>26</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>28</v>
@@ -6968,7 +6938,7 @@
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K31" s="17">
         <v>2565897.75</v>
@@ -6977,10 +6947,10 @@
         <v>1094789</v>
       </c>
       <c r="M31" s="18" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="N31" s="18" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="O31" s="7"/>
       <c r="P31" s="19"/>
@@ -6997,22 +6967,22 @@
       <c r="AA31" s="7"/>
       <c r="AB31" s="25"/>
       <c r="AC31" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD31" s="7"/>
-      <c r="AE31" s="27" t="s">
-        <v>148</v>
+      <c r="AE31" t="s">
+        <v>434</v>
       </c>
       <c r="AF31" s="26">
         <v>1931</v>
       </c>
       <c r="AG31" s="14" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="101" t="s">
-        <v>388</v>
+      <c r="A32" s="100" t="s">
+        <v>341</v>
       </c>
       <c r="B32" s="58" t="s">
         <v>24</v>
@@ -7024,7 +6994,7 @@
         <v>26</v>
       </c>
       <c r="E32" s="60" t="s">
-        <v>389</v>
+        <v>342</v>
       </c>
       <c r="F32" s="58" t="s">
         <v>28</v>
@@ -7034,10 +7004,10 @@
         <v>33</v>
       </c>
       <c r="I32" s="58" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J32" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K32" s="80">
         <v>2571000</v>
@@ -7046,10 +7016,10 @@
         <v>1085000</v>
       </c>
       <c r="M32" s="62" t="s">
-        <v>390</v>
+        <v>343</v>
       </c>
       <c r="N32" s="62" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O32" s="63"/>
       <c r="P32" s="64"/>
@@ -7066,7 +7036,7 @@
       <c r="AA32" s="63"/>
       <c r="AB32" s="70"/>
       <c r="AC32" s="71" t="s">
-        <v>419</v>
+        <v>370</v>
       </c>
       <c r="AD32" s="63"/>
       <c r="AE32" s="71"/>
@@ -7074,12 +7044,12 @@
         <v>2003</v>
       </c>
       <c r="AG32" s="73" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="101" t="s">
-        <v>388</v>
+      <c r="A33" s="100" t="s">
+        <v>341</v>
       </c>
       <c r="B33" s="58" t="s">
         <v>24</v>
@@ -7091,7 +7061,7 @@
         <v>26</v>
       </c>
       <c r="E33" s="60" t="s">
-        <v>389</v>
+        <v>342</v>
       </c>
       <c r="F33" s="58" t="s">
         <v>28</v>
@@ -7101,10 +7071,10 @@
         <v>33</v>
       </c>
       <c r="I33" s="58" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J33" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K33" s="80">
         <v>2571000</v>
@@ -7113,10 +7083,10 @@
         <v>1085000</v>
       </c>
       <c r="M33" s="62" t="s">
-        <v>390</v>
+        <v>343</v>
       </c>
       <c r="N33" s="62" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="O33" s="63"/>
       <c r="P33" s="64"/>
@@ -7135,7 +7105,7 @@
       <c r="AA33" s="63"/>
       <c r="AB33" s="70"/>
       <c r="AC33" s="71" t="s">
-        <v>392</v>
+        <v>345</v>
       </c>
       <c r="AD33" s="63"/>
       <c r="AE33" s="71"/>
@@ -7143,12 +7113,12 @@
         <v>2018</v>
       </c>
       <c r="AG33" s="73" t="s">
-        <v>393</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34" spans="1:33" s="74" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>24</v>
@@ -7160,7 +7130,7 @@
         <v>26</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>28</v>
@@ -7173,7 +7143,7 @@
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K34" s="17">
         <v>2591035</v>
@@ -7182,10 +7152,10 @@
         <v>1091147</v>
       </c>
       <c r="M34" s="18" t="s">
-        <v>396</v>
+        <v>349</v>
       </c>
       <c r="N34" s="18" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="O34" s="7"/>
       <c r="P34" s="19"/>
@@ -7202,22 +7172,22 @@
       <c r="AA34" s="7"/>
       <c r="AB34" s="25"/>
       <c r="AC34" s="26" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="AD34" s="7"/>
-      <c r="AE34" s="26" t="s">
-        <v>154</v>
+      <c r="AE34" t="s">
+        <v>435</v>
       </c>
       <c r="AF34" s="26">
         <v>2003</v>
       </c>
       <c r="AG34" s="14" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="101" t="s">
-        <v>150</v>
+      <c r="A35" s="100" t="s">
+        <v>137</v>
       </c>
       <c r="B35" s="58" t="s">
         <v>24</v>
@@ -7229,7 +7199,7 @@
         <v>26</v>
       </c>
       <c r="E35" s="75" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="F35" s="58" t="s">
         <v>28</v>
@@ -7240,7 +7210,7 @@
       <c r="H35" s="58"/>
       <c r="I35" s="58"/>
       <c r="J35" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K35" s="61">
         <v>2591002</v>
@@ -7249,10 +7219,10 @@
         <v>1091400.5</v>
       </c>
       <c r="M35" s="62" t="s">
-        <v>396</v>
-      </c>
-      <c r="N35" s="101" t="s">
-        <v>395</v>
+        <v>349</v>
+      </c>
+      <c r="N35" s="100" t="s">
+        <v>348</v>
       </c>
       <c r="O35" s="63"/>
       <c r="P35" s="64"/>
@@ -7269,7 +7239,7 @@
       <c r="AA35" s="63"/>
       <c r="AB35" s="70"/>
       <c r="AC35" s="71" t="s">
-        <v>397</v>
+        <v>350</v>
       </c>
       <c r="AD35" s="63"/>
       <c r="AE35" s="71"/>
@@ -7277,12 +7247,12 @@
         <v>2022</v>
       </c>
       <c r="AG35" s="73" t="s">
-        <v>431</v>
+        <v>382</v>
       </c>
     </row>
     <row r="36" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="6" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>24</v>
@@ -7294,7 +7264,7 @@
         <v>26</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>28</v>
@@ -7307,7 +7277,7 @@
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K36" s="17">
         <v>2568192.25</v>
@@ -7316,7 +7286,7 @@
         <v>1094900.125</v>
       </c>
       <c r="M36" s="18" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="N36" s="18">
         <v>1961</v>
@@ -7337,19 +7307,17 @@
       <c r="AB36" s="25"/>
       <c r="AC36" s="26"/>
       <c r="AD36" s="7"/>
-      <c r="AE36" s="26" t="s">
-        <v>159</v>
-      </c>
+      <c r="AE36" s="26"/>
       <c r="AF36" s="26">
         <v>1983</v>
       </c>
       <c r="AG36" s="14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:33" s="49" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="6" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>24</v>
@@ -7361,7 +7329,7 @@
         <v>26</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>28</v>
@@ -7374,7 +7342,7 @@
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K37" s="17">
         <v>2568192.25</v>
@@ -7383,7 +7351,7 @@
         <v>1094900.125</v>
       </c>
       <c r="M37" s="18" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="N37" s="18">
         <v>1967</v>
@@ -7403,22 +7371,20 @@
       <c r="AA37" s="7"/>
       <c r="AB37" s="25"/>
       <c r="AC37" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD37" s="7"/>
-      <c r="AE37" s="26" t="s">
-        <v>159</v>
-      </c>
+      <c r="AE37" s="26"/>
       <c r="AF37" s="26">
         <v>1983</v>
       </c>
       <c r="AG37" s="14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="6" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>24</v>
@@ -7430,7 +7396,7 @@
         <v>26</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>28</v>
@@ -7443,7 +7409,7 @@
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K38" s="17">
         <v>2568192.25</v>
@@ -7452,7 +7418,7 @@
         <v>1094900.125</v>
       </c>
       <c r="M38" s="18" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="N38" s="18">
         <v>1971</v>
@@ -7472,22 +7438,20 @@
       <c r="AA38" s="7"/>
       <c r="AB38" s="25"/>
       <c r="AC38" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD38" s="7"/>
-      <c r="AE38" s="26" t="s">
-        <v>159</v>
-      </c>
+      <c r="AE38" s="26"/>
       <c r="AF38" s="26">
         <v>1983</v>
       </c>
       <c r="AG38" s="14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="6" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>24</v>
@@ -7499,7 +7463,7 @@
         <v>26</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>28</v>
@@ -7512,7 +7476,7 @@
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K39" s="17">
         <v>2568192.25</v>
@@ -7521,10 +7485,10 @@
         <v>1094900.125</v>
       </c>
       <c r="M39" s="18" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="N39" s="18" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="O39" s="7"/>
       <c r="P39" s="19"/>
@@ -7541,22 +7505,22 @@
       <c r="AA39" s="7"/>
       <c r="AB39" s="25"/>
       <c r="AC39" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD39" s="7"/>
-      <c r="AE39" s="26" t="s">
-        <v>161</v>
+      <c r="AE39" t="s">
+        <v>436</v>
       </c>
       <c r="AF39" s="26">
         <v>1912</v>
       </c>
       <c r="AG39" s="14" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="6" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>24</v>
@@ -7568,7 +7532,7 @@
         <v>26</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>28</v>
@@ -7581,7 +7545,7 @@
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K40" s="17">
         <v>2568192.25</v>
@@ -7590,10 +7554,10 @@
         <v>1094900.125</v>
       </c>
       <c r="M40" s="18" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="N40" s="18" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="O40" s="7"/>
       <c r="P40" s="19"/>
@@ -7610,22 +7574,22 @@
       <c r="AA40" s="7"/>
       <c r="AB40" s="25"/>
       <c r="AC40" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD40" s="7"/>
-      <c r="AE40" s="26" t="s">
-        <v>164</v>
+      <c r="AE40" t="s">
+        <v>437</v>
       </c>
       <c r="AF40" s="26">
         <v>1919</v>
       </c>
       <c r="AG40" s="14" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="6" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>24</v>
@@ -7637,7 +7601,7 @@
         <v>26</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>28</v>
@@ -7650,7 +7614,7 @@
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K41" s="17">
         <v>2568192.25</v>
@@ -7659,10 +7623,10 @@
         <v>1094900.125</v>
       </c>
       <c r="M41" s="18" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="N41" s="18" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="O41" s="7"/>
       <c r="P41" s="19"/>
@@ -7679,22 +7643,22 @@
       <c r="AA41" s="7"/>
       <c r="AB41" s="25"/>
       <c r="AC41" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD41" s="7"/>
-      <c r="AE41" s="26" t="s">
-        <v>167</v>
+      <c r="AE41" t="s">
+        <v>438</v>
       </c>
       <c r="AF41" s="26">
         <v>1922</v>
       </c>
       <c r="AG41" s="14" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:33" s="49" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="6" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>24</v>
@@ -7706,7 +7670,7 @@
         <v>26</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>28</v>
@@ -7719,7 +7683,7 @@
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K42" s="17">
         <v>2568192.25</v>
@@ -7728,14 +7692,14 @@
         <v>1094900.125</v>
       </c>
       <c r="M42" s="18" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="N42" s="18" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="O42" s="7"/>
       <c r="P42" s="19" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="Q42" s="15"/>
       <c r="R42" s="20"/>
@@ -7750,22 +7714,20 @@
       <c r="AA42" s="7"/>
       <c r="AB42" s="25"/>
       <c r="AC42" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD42" s="7"/>
-      <c r="AE42" s="26" t="s">
-        <v>159</v>
-      </c>
+      <c r="AE42" s="26"/>
       <c r="AF42" s="26">
         <v>1931</v>
       </c>
       <c r="AG42" s="14" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="6" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>24</v>
@@ -7777,7 +7739,7 @@
         <v>26</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>28</v>
@@ -7790,7 +7752,7 @@
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K43" s="17">
         <v>2568192.25</v>
@@ -7799,14 +7761,14 @@
         <v>1094900.125</v>
       </c>
       <c r="M43" s="18" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="N43" s="18" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="O43" s="7"/>
       <c r="P43" s="19" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="Q43" s="15"/>
       <c r="R43" s="20"/>
@@ -7821,22 +7783,20 @@
       <c r="AA43" s="7"/>
       <c r="AB43" s="25"/>
       <c r="AC43" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD43" s="7"/>
-      <c r="AE43" s="26" t="s">
-        <v>159</v>
-      </c>
+      <c r="AE43" s="26"/>
       <c r="AF43" s="26">
         <v>1934</v>
       </c>
       <c r="AG43" s="14" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="6" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>24</v>
@@ -7848,7 +7808,7 @@
         <v>26</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>28</v>
@@ -7861,7 +7821,7 @@
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K44" s="17">
         <v>2568192.25</v>
@@ -7870,14 +7830,14 @@
         <v>1094900.125</v>
       </c>
       <c r="M44" s="18" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="N44" s="18" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="O44" s="7"/>
       <c r="P44" s="19" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="Q44" s="15">
         <v>840000</v>
@@ -7885,41 +7845,39 @@
       <c r="R44" s="20"/>
       <c r="S44" s="20"/>
       <c r="T44" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U44" s="31">
         <v>840000</v>
       </c>
       <c r="V44" s="15"/>
-      <c r="W44" s="16"/>
-      <c r="X44" s="133" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y44" s="131">
+      <c r="W44" s="88"/>
+      <c r="X44" s="89"/>
+      <c r="Y44" s="82">
         <v>22.5</v>
       </c>
-      <c r="Z44" s="7"/>
-      <c r="AA44" s="7"/>
-      <c r="AB44" s="132" t="s">
-        <v>176</v>
+      <c r="Z44" s="82"/>
+      <c r="AA44" s="82"/>
+      <c r="AB44" s="90" t="s">
+        <v>158</v>
       </c>
       <c r="AC44" s="27" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="AD44" s="7"/>
-      <c r="AE44" s="26" t="s">
-        <v>178</v>
+      <c r="AE44" t="s">
+        <v>439</v>
       </c>
       <c r="AF44" s="26">
         <v>1943</v>
       </c>
       <c r="AG44" s="14" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="6" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>24</v>
@@ -7931,7 +7889,7 @@
         <v>26</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>28</v>
@@ -7944,7 +7902,7 @@
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K45" s="17">
         <v>2568192.25</v>
@@ -7953,10 +7911,10 @@
         <v>1094900.125</v>
       </c>
       <c r="M45" s="18" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="N45" s="18" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="O45" s="7"/>
       <c r="P45" s="19"/>
@@ -7975,20 +7933,20 @@
       <c r="AA45" s="7"/>
       <c r="AB45" s="25"/>
       <c r="AC45" s="26" t="s">
-        <v>181</v>
+        <v>408</v>
       </c>
       <c r="AD45" s="7"/>
-      <c r="AE45" s="27" t="s">
-        <v>182</v>
+      <c r="AE45" t="s">
+        <v>440</v>
       </c>
       <c r="AF45" s="26"/>
       <c r="AG45" s="14" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="6" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>24</v>
@@ -8000,7 +7958,7 @@
         <v>26</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>28</v>
@@ -8013,7 +7971,7 @@
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K46" s="17">
         <v>2568192.25</v>
@@ -8022,14 +7980,14 @@
         <v>1094900.125</v>
       </c>
       <c r="M46" s="18" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="N46" s="18" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="O46" s="7"/>
       <c r="P46" s="19" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="Q46" s="15">
         <v>840000</v>
@@ -8047,25 +8005,25 @@
       <c r="Z46" s="7"/>
       <c r="AA46" s="7"/>
       <c r="AB46" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC46" s="26" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="AD46" s="7"/>
-      <c r="AE46" s="26" t="s">
-        <v>187</v>
+      <c r="AE46" t="s">
+        <v>441</v>
       </c>
       <c r="AF46" s="26">
         <v>1961</v>
       </c>
       <c r="AG46" s="14" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="103" t="s">
-        <v>438</v>
+      <c r="A47" s="102" t="s">
+        <v>389</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>24</v>
@@ -8076,8 +8034,8 @@
       <c r="D47" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E47" s="98" t="s">
-        <v>433</v>
+      <c r="E47" s="97" t="s">
+        <v>384</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>28</v>
@@ -8088,7 +8046,7 @@
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5" t="s">
-        <v>442</v>
+        <v>393</v>
       </c>
       <c r="K47" s="17">
         <v>2670267.4</v>
@@ -8097,18 +8055,18 @@
         <v>1144711.6000000001</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>434</v>
+        <v>385</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="O47" s="99"/>
-      <c r="P47" s="99"/>
+        <v>386</v>
+      </c>
+      <c r="O47" s="98"/>
+      <c r="P47" s="98"/>
       <c r="Q47" s="17"/>
       <c r="R47" s="17"/>
       <c r="S47" s="17"/>
       <c r="T47" s="17"/>
-      <c r="U47" s="100"/>
+      <c r="U47" s="99"/>
       <c r="V47" s="17"/>
       <c r="W47" s="17"/>
       <c r="X47" s="5"/>
@@ -8117,22 +8075,22 @@
       <c r="AA47" s="17"/>
       <c r="AB47" s="5"/>
       <c r="AC47" s="5" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
       <c r="AD47" s="17"/>
       <c r="AE47" s="5" t="s">
-        <v>437</v>
+        <v>388</v>
       </c>
       <c r="AF47" s="5">
         <v>2023</v>
       </c>
       <c r="AG47" s="5" t="s">
-        <v>455</v>
+        <v>404</v>
       </c>
     </row>
     <row r="48" spans="1:33" s="74" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="6" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>24</v>
@@ -8144,7 +8102,7 @@
         <v>26</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>28</v>
@@ -8156,10 +8114,10 @@
         <v>33</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K48" s="17">
         <v>2631433.5</v>
@@ -8168,10 +8126,10 @@
         <v>1106377.75</v>
       </c>
       <c r="M48" s="18" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="N48" s="18" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="O48" s="7"/>
       <c r="P48" s="19"/>
@@ -8188,22 +8146,22 @@
       <c r="AA48" s="7"/>
       <c r="AB48" s="25"/>
       <c r="AC48" s="27" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="AD48" s="7"/>
-      <c r="AE48" s="27" t="s">
-        <v>194</v>
+      <c r="AE48" t="s">
+        <v>442</v>
       </c>
       <c r="AF48" s="27" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="AG48" s="14" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:33" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="6" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>24</v>
@@ -8215,7 +8173,7 @@
         <v>26</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>28</v>
@@ -8227,10 +8185,10 @@
         <v>33</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K49" s="17">
         <v>2631433.5</v>
@@ -8239,10 +8197,10 @@
         <v>1106377.75</v>
       </c>
       <c r="M49" s="18" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="N49" s="18" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="O49" s="7"/>
       <c r="P49" s="19"/>
@@ -8259,22 +8217,22 @@
       <c r="AA49" s="7"/>
       <c r="AB49" s="25"/>
       <c r="AC49" s="27" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="AD49" s="7"/>
-      <c r="AE49" s="26" t="s">
-        <v>199</v>
+      <c r="AE49" t="s">
+        <v>443</v>
       </c>
       <c r="AF49" s="27" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="AG49" s="14" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="6" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>24</v>
@@ -8286,7 +8244,7 @@
         <v>26</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>28</v>
@@ -8295,13 +8253,13 @@
         <v>32</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K50" s="17">
         <v>2631433.5</v>
@@ -8310,10 +8268,10 @@
         <v>1106377.75</v>
       </c>
       <c r="M50" s="18" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="N50" s="18" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="O50" s="7"/>
       <c r="P50" s="19"/>
@@ -8330,22 +8288,22 @@
       <c r="AA50" s="7"/>
       <c r="AB50" s="25"/>
       <c r="AC50" s="27" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="AD50" s="7"/>
-      <c r="AE50" s="27" t="s">
-        <v>205</v>
+      <c r="AE50" t="s">
+        <v>444</v>
       </c>
       <c r="AF50" s="26">
         <v>1983</v>
       </c>
       <c r="AG50" s="14" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="6" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>24</v>
@@ -8357,7 +8315,7 @@
         <v>26</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>28</v>
@@ -8366,13 +8324,13 @@
         <v>32</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K51" s="17">
         <v>2631433.5</v>
@@ -8381,14 +8339,14 @@
         <v>1106377.75</v>
       </c>
       <c r="M51" s="18" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="N51" s="18" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="O51" s="7"/>
       <c r="P51" s="19" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="Q51" s="15"/>
       <c r="R51" s="20"/>
@@ -8403,22 +8361,22 @@
       <c r="AA51" s="7"/>
       <c r="AB51" s="25"/>
       <c r="AC51" s="27" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="AD51" s="7"/>
-      <c r="AE51" s="27" t="s">
-        <v>210</v>
+      <c r="AE51" t="s">
+        <v>445</v>
       </c>
       <c r="AF51" s="26">
         <v>1983</v>
       </c>
       <c r="AG51" s="14" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="6" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>24</v>
@@ -8430,7 +8388,7 @@
         <v>26</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>28</v>
@@ -8438,10 +8396,10 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K52" s="17">
         <v>2631433.5</v>
@@ -8450,14 +8408,14 @@
         <v>1106377.75</v>
       </c>
       <c r="M52" s="18" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="N52" s="18" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="O52" s="7"/>
       <c r="P52" s="19" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="Q52" s="15"/>
       <c r="R52" s="20"/>
@@ -8473,21 +8431,21 @@
       <c r="Z52" s="7"/>
       <c r="AA52" s="7"/>
       <c r="AB52" s="25"/>
-      <c r="AC52" s="26" t="s">
-        <v>214</v>
+      <c r="AC52" t="s">
+        <v>409</v>
       </c>
       <c r="AD52" s="7"/>
-      <c r="AE52" s="27" t="s">
-        <v>215</v>
+      <c r="AE52" t="s">
+        <v>446</v>
       </c>
       <c r="AF52" s="26"/>
       <c r="AG52" s="14" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="101" t="s">
-        <v>189</v>
+      <c r="A53" s="100" t="s">
+        <v>169</v>
       </c>
       <c r="B53" s="58" t="s">
         <v>24</v>
@@ -8499,7 +8457,7 @@
         <v>26</v>
       </c>
       <c r="E53" s="60" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="F53" s="58" t="s">
         <v>28</v>
@@ -8507,10 +8465,10 @@
       <c r="G53" s="58"/>
       <c r="H53" s="58"/>
       <c r="I53" s="58" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J53" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K53" s="61">
         <v>2631433.5</v>
@@ -8519,10 +8477,10 @@
         <v>1106377.75</v>
       </c>
       <c r="M53" s="62" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="N53" s="62" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="O53" s="63"/>
       <c r="P53" s="64"/>
@@ -8541,16 +8499,16 @@
       <c r="AC53" s="71"/>
       <c r="AD53" s="63"/>
       <c r="AE53" s="72" t="s">
-        <v>425</v>
+        <v>376</v>
       </c>
       <c r="AF53" s="71"/>
       <c r="AG53" s="73" t="s">
-        <v>424</v>
+        <v>375</v>
       </c>
     </row>
     <row r="54" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="6" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>24</v>
@@ -8562,7 +8520,7 @@
         <v>26</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>28</v>
@@ -8571,7 +8529,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1" t="s">
-        <v>442</v>
+        <v>393</v>
       </c>
       <c r="K54" s="17">
         <v>2637109.25</v>
@@ -8580,10 +8538,10 @@
         <v>1151415.625</v>
       </c>
       <c r="M54" s="18" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="N54" s="18" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="O54" s="7"/>
       <c r="P54" s="19"/>
@@ -8605,25 +8563,25 @@
       <c r="Z54" s="7"/>
       <c r="AA54" s="7"/>
       <c r="AB54" s="25" t="s">
-        <v>450</v>
-      </c>
-      <c r="AC54" s="26" t="s">
-        <v>221</v>
+        <v>401</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>410</v>
       </c>
       <c r="AD54" s="7"/>
-      <c r="AE54" s="26" t="s">
-        <v>222</v>
+      <c r="AE54" t="s">
+        <v>447</v>
       </c>
       <c r="AF54" s="26">
         <v>2004</v>
       </c>
       <c r="AG54" s="14" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="6" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>24</v>
@@ -8635,7 +8593,7 @@
         <v>26</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>28</v>
@@ -8644,7 +8602,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K55" s="17">
         <v>2631170.5</v>
@@ -8653,10 +8611,10 @@
         <v>1103807.375</v>
       </c>
       <c r="M55" s="18" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="N55" s="18" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="O55" s="7"/>
       <c r="P55" s="19"/>
@@ -8674,7 +8632,7 @@
         <v>100000</v>
       </c>
       <c r="X55" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y55" s="7">
         <v>2.5</v>
@@ -8686,10 +8644,10 @@
         <v>3</v>
       </c>
       <c r="AB55" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC55" s="26" t="s">
-        <v>228</v>
+        <v>36</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>411</v>
       </c>
       <c r="AD55" s="7"/>
       <c r="AE55" s="26"/>
@@ -8697,12 +8655,12 @@
         <v>1986</v>
       </c>
       <c r="AG55" s="14" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="6" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>24</v>
@@ -8714,7 +8672,7 @@
         <v>26</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>28</v>
@@ -8723,7 +8681,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K56" s="17">
         <v>2647860.5</v>
@@ -8732,14 +8690,14 @@
         <v>1159227.875</v>
       </c>
       <c r="M56" s="18" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="N56" s="6">
         <v>1842</v>
       </c>
       <c r="O56" s="10"/>
       <c r="P56" s="10" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="Q56" s="9"/>
       <c r="R56" s="10"/>
@@ -8754,22 +8712,20 @@
       <c r="AA56" s="10"/>
       <c r="AB56" s="25"/>
       <c r="AC56" s="18" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="AD56" s="10"/>
-      <c r="AE56" s="18" t="s">
-        <v>235</v>
-      </c>
+      <c r="AE56" s="18"/>
       <c r="AF56" s="28">
         <v>1980</v>
       </c>
       <c r="AG56" s="14" t="s">
-        <v>380</v>
+        <v>334</v>
       </c>
     </row>
     <row r="57" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="6" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>24</v>
@@ -8781,7 +8737,7 @@
         <v>26</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>28</v>
@@ -8790,7 +8746,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K57" s="17">
         <v>2647860.5</v>
@@ -8799,7 +8755,7 @@
         <v>1159227.875</v>
       </c>
       <c r="M57" s="18" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="N57" s="18">
         <v>1776</v>
@@ -8819,7 +8775,7 @@
       <c r="AA57" s="7"/>
       <c r="AB57" s="25"/>
       <c r="AC57" s="26" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="AD57" s="7"/>
       <c r="AE57" s="26"/>
@@ -8827,12 +8783,12 @@
         <v>1983</v>
       </c>
       <c r="AG57" s="14" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
     </row>
     <row r="58" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="6" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>24</v>
@@ -8844,7 +8800,7 @@
         <v>26</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>28</v>
@@ -8853,7 +8809,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K58" s="17">
         <v>2647860.5</v>
@@ -8862,10 +8818,10 @@
         <v>1159227.875</v>
       </c>
       <c r="M58" s="18" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="N58" s="18" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="O58" s="7"/>
       <c r="P58" s="19"/>
@@ -8879,7 +8835,7 @@
       <c r="V58" s="15"/>
       <c r="W58" s="16"/>
       <c r="X58" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y58" s="7">
         <v>74.599999999999994</v>
@@ -8887,10 +8843,10 @@
       <c r="Z58" s="7"/>
       <c r="AA58" s="7"/>
       <c r="AB58" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC58" s="26" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="AD58" s="7"/>
       <c r="AE58" s="26"/>
@@ -8898,12 +8854,12 @@
         <v>1951</v>
       </c>
       <c r="AG58" s="14" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="102" t="s">
-        <v>240</v>
+      <c r="A59" s="101" t="s">
+        <v>213</v>
       </c>
       <c r="B59" s="77" t="s">
         <v>24</v>
@@ -8915,7 +8871,7 @@
         <v>26</v>
       </c>
       <c r="E59" s="79" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="F59" s="76" t="s">
         <v>28</v>
@@ -8923,10 +8879,10 @@
       <c r="G59" s="76"/>
       <c r="H59" s="76"/>
       <c r="I59" s="76" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="J59" s="76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K59" s="80">
         <v>2643239.25</v>
@@ -8935,7 +8891,7 @@
         <v>1108357.125</v>
       </c>
       <c r="M59" s="81" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="N59" s="81">
         <v>2011</v>
@@ -8956,17 +8912,17 @@
       <c r="AB59" s="90"/>
       <c r="AC59" s="91"/>
       <c r="AD59" s="82"/>
-      <c r="AE59" s="93" t="s">
-        <v>243</v>
+      <c r="AE59" t="s">
+        <v>448</v>
       </c>
       <c r="AF59" s="91"/>
       <c r="AG59" s="92" t="s">
-        <v>432</v>
+        <v>383</v>
       </c>
     </row>
     <row r="60" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="6" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>24</v>
@@ -8978,20 +8934,20 @@
         <v>26</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1" t="s">
-        <v>444</v>
+        <v>395</v>
       </c>
       <c r="K60" s="17">
         <v>2633870.25</v>
@@ -9000,7 +8956,7 @@
         <v>1098315.5</v>
       </c>
       <c r="M60" s="18" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="N60" s="18">
         <v>1920</v>
@@ -9020,22 +8976,22 @@
       <c r="AA60" s="7"/>
       <c r="AB60" s="25"/>
       <c r="AC60" s="26" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD60" s="7"/>
-      <c r="AE60" s="26" t="s">
-        <v>249</v>
+      <c r="AE60" t="s">
+        <v>449</v>
       </c>
       <c r="AF60" s="26">
         <v>1920</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="6" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>24</v>
@@ -9047,20 +9003,20 @@
         <v>26</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K61" s="17">
         <v>2659042.25</v>
@@ -9069,10 +9025,10 @@
         <v>1151603.5</v>
       </c>
       <c r="M61" s="18" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="N61" s="18" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="O61" s="7"/>
       <c r="P61" s="19"/>
@@ -9089,24 +9045,24 @@
       <c r="AA61" s="7"/>
       <c r="AB61" s="25"/>
       <c r="AC61" s="27" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="AD61" s="7">
         <v>30000</v>
       </c>
-      <c r="AE61" s="26" t="s">
-        <v>258</v>
+      <c r="AE61" t="s">
+        <v>450</v>
       </c>
       <c r="AF61" s="26">
         <v>1992</v>
       </c>
-      <c r="AG61" s="130" t="s">
-        <v>259</v>
+      <c r="AG61" s="129" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="6" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>24</v>
@@ -9118,7 +9074,7 @@
         <v>26</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>28</v>
@@ -9127,7 +9083,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K62" s="17">
         <v>2659042.25</v>
@@ -9136,10 +9092,10 @@
         <v>1151603.5</v>
       </c>
       <c r="M62" s="18" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="N62" s="18" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="O62" s="7"/>
       <c r="P62" s="19"/>
@@ -9156,20 +9112,20 @@
       <c r="AA62" s="7"/>
       <c r="AB62" s="25"/>
       <c r="AC62" s="27" t="s">
-        <v>261</v>
+        <v>412</v>
       </c>
       <c r="AD62" s="7"/>
-      <c r="AE62" s="26" t="s">
-        <v>262</v>
+      <c r="AE62" t="s">
+        <v>451</v>
       </c>
       <c r="AF62" s="27"/>
       <c r="AG62" s="14" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
     </row>
     <row r="63" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="6" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>24</v>
@@ -9181,7 +9137,7 @@
         <v>26</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>28</v>
@@ -9189,10 +9145,10 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>452</v>
+        <v>402</v>
       </c>
       <c r="K63" s="17">
         <v>2659042.25</v>
@@ -9201,10 +9157,10 @@
         <v>1151603.5</v>
       </c>
       <c r="M63" s="18" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="N63" s="18" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="O63" s="7"/>
       <c r="P63" s="19"/>
@@ -9227,18 +9183,18 @@
       <c r="AC63" s="26"/>
       <c r="AD63" s="7"/>
       <c r="AE63" s="27" t="s">
-        <v>264</v>
+        <v>452</v>
       </c>
       <c r="AF63" s="26">
         <v>2020</v>
       </c>
       <c r="AG63" s="14" t="s">
-        <v>456</v>
+        <v>405</v>
       </c>
     </row>
     <row r="64" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="6" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>24</v>
@@ -9250,7 +9206,7 @@
         <v>26</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>398</v>
+        <v>351</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>28</v>
@@ -9259,7 +9215,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K64" s="17">
         <v>2576885</v>
@@ -9268,14 +9224,14 @@
         <v>1121128.625</v>
       </c>
       <c r="M64" s="18" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
       <c r="N64" s="18">
         <v>1983</v>
       </c>
       <c r="O64" s="7"/>
       <c r="P64" s="18" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
       <c r="Q64" s="15"/>
       <c r="R64" s="20"/>
@@ -9291,19 +9247,17 @@
       <c r="AB64" s="25"/>
       <c r="AC64" s="26"/>
       <c r="AD64" s="7"/>
-      <c r="AE64" s="26" t="s">
-        <v>266</v>
-      </c>
+      <c r="AE64" s="26"/>
       <c r="AF64" s="26">
         <v>1983</v>
       </c>
       <c r="AG64" s="14" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="101" t="s">
-        <v>382</v>
+      <c r="A65" s="100" t="s">
+        <v>336</v>
       </c>
       <c r="B65" s="58" t="s">
         <v>24</v>
@@ -9315,7 +9269,7 @@
         <v>26</v>
       </c>
       <c r="E65" s="60" t="s">
-        <v>383</v>
+        <v>337</v>
       </c>
       <c r="F65" s="58" t="s">
         <v>28</v>
@@ -9324,7 +9278,7 @@
       <c r="H65" s="58"/>
       <c r="I65" s="58"/>
       <c r="J65" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K65" s="61">
         <v>2561430.5</v>
@@ -9333,10 +9287,10 @@
         <v>1112988.125</v>
       </c>
       <c r="M65" s="62" t="s">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="N65" s="62" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
       <c r="O65" s="63"/>
       <c r="P65" s="64"/>
@@ -9355,22 +9309,20 @@
       <c r="AA65" s="63"/>
       <c r="AB65" s="71"/>
       <c r="AC65" s="71" t="s">
-        <v>387</v>
+        <v>340</v>
       </c>
       <c r="AD65" s="63"/>
-      <c r="AE65" s="71" t="s">
-        <v>385</v>
-      </c>
+      <c r="AE65" s="71"/>
       <c r="AF65" s="71">
         <v>1983</v>
       </c>
       <c r="AG65" s="73" t="s">
-        <v>426</v>
+        <v>377</v>
       </c>
     </row>
     <row r="66" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="6" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>24</v>
@@ -9382,7 +9334,7 @@
         <v>26</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>28</v>
@@ -9391,7 +9343,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1" t="s">
-        <v>442</v>
+        <v>393</v>
       </c>
       <c r="K66" s="17">
         <v>2673481.5</v>
@@ -9400,7 +9352,7 @@
         <v>1164081.5</v>
       </c>
       <c r="M66" s="18" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="N66" s="18">
         <v>1900</v>
@@ -9426,12 +9378,12 @@
         <v>1901</v>
       </c>
       <c r="AG66" s="14" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
     </row>
     <row r="67" spans="1:33" s="74" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="6" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>24</v>
@@ -9443,7 +9395,7 @@
         <v>26</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>28</v>
@@ -9452,7 +9404,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K67" s="17">
         <v>2673481.5</v>
@@ -9461,10 +9413,10 @@
         <v>1164081.5</v>
       </c>
       <c r="M67" s="18" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>420</v>
+        <v>371</v>
       </c>
       <c r="O67" s="7"/>
       <c r="P67" s="19"/>
@@ -9481,7 +9433,7 @@
       <c r="AA67" s="7"/>
       <c r="AB67" s="25"/>
       <c r="AC67" s="26" t="s">
-        <v>421</v>
+        <v>372</v>
       </c>
       <c r="AD67" s="7"/>
       <c r="AE67" s="26"/>
@@ -9489,12 +9441,12 @@
         <v>1935</v>
       </c>
       <c r="AG67" s="14" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
     </row>
     <row r="68" spans="1:33" s="74" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="6" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>24</v>
@@ -9506,7 +9458,7 @@
         <v>26</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>28</v>
@@ -9515,7 +9467,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1" t="s">
-        <v>442</v>
+        <v>393</v>
       </c>
       <c r="K68" s="17">
         <v>2673481.5</v>
@@ -9524,10 +9476,10 @@
         <v>1164081.5</v>
       </c>
       <c r="M68" s="18" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>422</v>
+        <v>373</v>
       </c>
       <c r="O68" s="7"/>
       <c r="P68" s="19"/>
@@ -9550,12 +9502,12 @@
         <v>1948</v>
       </c>
       <c r="AG68" s="14" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
     </row>
     <row r="69" spans="1:33" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="6" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>24</v>
@@ -9567,7 +9519,7 @@
         <v>26</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>28</v>
@@ -9580,7 +9532,7 @@
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K69" s="17">
         <v>2639059.25</v>
@@ -9589,7 +9541,7 @@
         <v>1152427.75</v>
       </c>
       <c r="M69" s="18" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="N69" s="18">
         <v>1967</v>
@@ -9609,22 +9561,20 @@
       <c r="AA69" s="7"/>
       <c r="AB69" s="25"/>
       <c r="AC69" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD69" s="7"/>
-      <c r="AE69" s="26" t="s">
-        <v>274</v>
-      </c>
+      <c r="AE69" s="26"/>
       <c r="AF69" s="26">
         <v>1980</v>
       </c>
       <c r="AG69" s="14" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
     </row>
     <row r="70" spans="1:33" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="6" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>24</v>
@@ -9636,7 +9586,7 @@
         <v>26</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>28</v>
@@ -9649,7 +9599,7 @@
       </c>
       <c r="I70" s="1"/>
       <c r="J70" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K70" s="17">
         <v>2639059.25</v>
@@ -9658,10 +9608,10 @@
         <v>1152427.75</v>
       </c>
       <c r="M70" s="18" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="N70" s="18" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="O70" s="7"/>
       <c r="P70" s="19"/>
@@ -9678,22 +9628,22 @@
       <c r="AA70" s="7"/>
       <c r="AB70" s="25"/>
       <c r="AC70" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD70" s="7"/>
-      <c r="AE70" s="26" t="s">
-        <v>277</v>
+      <c r="AE70" t="s">
+        <v>453</v>
       </c>
       <c r="AF70" s="26">
         <v>1950</v>
       </c>
       <c r="AG70" s="14" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="6" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>24</v>
@@ -9705,7 +9655,7 @@
         <v>26</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>28</v>
@@ -9714,7 +9664,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K71" s="17">
         <v>2639059.25</v>
@@ -9723,10 +9673,10 @@
         <v>1152427.75</v>
       </c>
       <c r="M71" s="18" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="N71" s="18" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="O71" s="7"/>
       <c r="P71" s="19"/>
@@ -9743,7 +9693,7 @@
       <c r="AA71" s="7"/>
       <c r="AB71" s="25"/>
       <c r="AC71" s="26" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="AD71" s="7"/>
       <c r="AE71" s="26"/>
@@ -9751,12 +9701,12 @@
         <v>1980</v>
       </c>
       <c r="AG71" s="14" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
     </row>
     <row r="72" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="6" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>24</v>
@@ -9768,7 +9718,7 @@
         <v>26</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>28</v>
@@ -9777,7 +9727,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K72" s="17">
         <v>2639059.25</v>
@@ -9786,10 +9736,10 @@
         <v>1152427.75</v>
       </c>
       <c r="M72" s="18" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="N72" s="18" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="O72" s="7"/>
       <c r="P72" s="19"/>
@@ -9797,24 +9747,24 @@
       <c r="R72" s="20"/>
       <c r="S72" s="20"/>
       <c r="T72" s="21"/>
-      <c r="U72" s="94">
+      <c r="U72" s="93">
         <v>1500000</v>
       </c>
-      <c r="V72" s="95">
+      <c r="V72" s="94">
         <v>1200000</v>
       </c>
-      <c r="W72" s="96">
+      <c r="W72" s="95">
         <v>180000</v>
       </c>
       <c r="X72" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y72" s="7"/>
       <c r="Z72" s="7"/>
       <c r="AA72" s="7"/>
       <c r="AB72" s="25"/>
       <c r="AC72" s="26" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="AD72" s="7"/>
       <c r="AE72" s="26"/>
@@ -9822,12 +9772,12 @@
         <v>2017</v>
       </c>
       <c r="AG72" s="14" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
     </row>
     <row r="73" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="6" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>24</v>
@@ -9839,7 +9789,7 @@
         <v>26</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>28</v>
@@ -9851,10 +9801,10 @@
         <v>33</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K73" s="17">
         <v>2643240.75</v>
@@ -9863,7 +9813,7 @@
         <v>1109229.875</v>
       </c>
       <c r="M73" s="18" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="N73" s="18">
         <v>1699</v>
@@ -9883,22 +9833,22 @@
       <c r="AA73" s="12"/>
       <c r="AB73" s="25"/>
       <c r="AC73" s="24" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="AD73" s="12"/>
-      <c r="AE73" s="24" t="s">
-        <v>287</v>
+      <c r="AE73" t="s">
+        <v>454</v>
       </c>
       <c r="AF73" s="29">
         <v>1926</v>
       </c>
       <c r="AG73" s="14" t="s">
-        <v>381</v>
+        <v>335</v>
       </c>
     </row>
     <row r="74" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="6" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>24</v>
@@ -9910,7 +9860,7 @@
         <v>26</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>28</v>
@@ -9919,7 +9869,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K74" s="17">
         <v>2643240.75</v>
@@ -9928,10 +9878,10 @@
         <v>1109229.875</v>
       </c>
       <c r="M74" s="18" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="N74" s="18" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="O74" s="7"/>
       <c r="P74" s="19"/>
@@ -9948,20 +9898,20 @@
       <c r="AA74" s="7"/>
       <c r="AB74" s="25"/>
       <c r="AC74" s="26" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="AD74" s="7"/>
       <c r="AE74" s="24"/>
       <c r="AF74" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG74" s="14" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="6" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>24</v>
@@ -9973,7 +9923,7 @@
         <v>26</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>440</v>
+        <v>391</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>28</v>
@@ -9982,7 +9932,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K75" s="17">
         <v>2619376.75</v>
@@ -9991,10 +9941,10 @@
         <v>1099930</v>
       </c>
       <c r="M75" s="18" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="N75" s="18" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="O75" s="7"/>
       <c r="P75" s="19"/>
@@ -10012,19 +9962,17 @@
       <c r="AB75" s="25"/>
       <c r="AC75" s="26"/>
       <c r="AD75" s="7"/>
-      <c r="AE75" s="24" t="s">
-        <v>370</v>
-      </c>
+      <c r="AE75" s="24"/>
       <c r="AF75" s="26">
         <v>2019</v>
       </c>
       <c r="AG75" s="14" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
     </row>
     <row r="76" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="6" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>24</v>
@@ -10036,7 +9984,7 @@
         <v>26</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>440</v>
+        <v>391</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>28</v>
@@ -10045,7 +9993,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K76" s="17">
         <v>2619376.7489999998</v>
@@ -10054,10 +10002,10 @@
         <v>1099930.0009999999</v>
       </c>
       <c r="M76" s="18" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="N76" s="18" t="s">
-        <v>369</v>
+        <v>324</v>
       </c>
       <c r="O76" s="7"/>
       <c r="P76" s="19"/>
@@ -10075,19 +10023,19 @@
       <c r="AB76" s="25"/>
       <c r="AC76" s="26"/>
       <c r="AD76" s="7"/>
-      <c r="AE76" s="24" t="s">
-        <v>411</v>
+      <c r="AE76" t="s">
+        <v>455</v>
       </c>
       <c r="AF76" s="26">
         <v>2019</v>
       </c>
       <c r="AG76" s="14" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
     </row>
     <row r="77" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="6" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>24</v>
@@ -10099,7 +10047,7 @@
         <v>26</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>28</v>
@@ -10112,7 +10060,7 @@
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K77" s="17">
         <v>2631946.5</v>
@@ -10121,7 +10069,7 @@
         <v>1139249</v>
       </c>
       <c r="M77" s="18" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="N77" s="18">
         <v>1928</v>
@@ -10141,22 +10089,22 @@
       <c r="AA77" s="7"/>
       <c r="AB77" s="25"/>
       <c r="AC77" s="26" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="AD77" s="7"/>
-      <c r="AE77" s="24" t="s">
-        <v>298</v>
+      <c r="AE77" t="s">
+        <v>456</v>
       </c>
       <c r="AF77" s="26">
         <v>1980</v>
       </c>
       <c r="AG77" s="14" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
     </row>
     <row r="78" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="6" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>24</v>
@@ -10168,7 +10116,7 @@
         <v>26</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>28</v>
@@ -10181,7 +10129,7 @@
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K78" s="17">
         <v>2631946.5</v>
@@ -10190,7 +10138,7 @@
         <v>1139249</v>
       </c>
       <c r="M78" s="18" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="N78" s="18">
         <v>1945</v>
@@ -10210,22 +10158,20 @@
       <c r="AA78" s="7"/>
       <c r="AB78" s="25"/>
       <c r="AC78" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD78" s="7"/>
-      <c r="AE78" s="26" t="s">
-        <v>300</v>
-      </c>
+      <c r="AE78" s="26"/>
       <c r="AF78" s="26">
         <v>1980</v>
       </c>
       <c r="AG78" s="14" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
     </row>
     <row r="79" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="6" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>24</v>
@@ -10237,7 +10183,7 @@
         <v>26</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>28</v>
@@ -10250,7 +10196,7 @@
       </c>
       <c r="I79" s="1"/>
       <c r="J79" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K79" s="17">
         <v>2631946.5</v>
@@ -10259,16 +10205,16 @@
         <v>1139249</v>
       </c>
       <c r="M79" s="18" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="N79" s="18">
         <v>1935</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="P79" s="19" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="Q79" s="15"/>
       <c r="R79" s="20"/>
@@ -10283,22 +10229,22 @@
       <c r="AA79" s="7"/>
       <c r="AB79" s="25"/>
       <c r="AC79" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD79" s="7"/>
       <c r="AE79" s="26" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="AF79" s="26">
         <v>1980</v>
       </c>
       <c r="AG79" s="14" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="6" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>24</v>
@@ -10310,7 +10256,7 @@
         <v>26</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>28</v>
@@ -10319,7 +10265,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K80" s="17">
         <v>2631946.5</v>
@@ -10328,10 +10274,10 @@
         <v>1139249</v>
       </c>
       <c r="M80" s="18" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="N80" s="18" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
       <c r="O80" s="7"/>
       <c r="P80" s="19"/>
@@ -10354,12 +10300,12 @@
         <v>1983</v>
       </c>
       <c r="AG80" s="14" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="6" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>24</v>
@@ -10371,7 +10317,7 @@
         <v>26</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>28</v>
@@ -10384,7 +10330,7 @@
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K81" s="17">
         <v>2631946.5</v>
@@ -10393,10 +10339,10 @@
         <v>1139249</v>
       </c>
       <c r="M81" s="18" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="N81" s="18" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="O81" s="7"/>
       <c r="P81" s="19"/>
@@ -10413,22 +10359,22 @@
       <c r="AA81" s="7"/>
       <c r="AB81" s="25"/>
       <c r="AC81" s="27" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
       <c r="AD81" s="7"/>
-      <c r="AE81" s="26" t="s">
-        <v>308</v>
+      <c r="AE81" t="s">
+        <v>457</v>
       </c>
       <c r="AF81" s="26">
         <v>1983</v>
       </c>
       <c r="AG81" s="14" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
     </row>
     <row r="82" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="6" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>24</v>
@@ -10440,7 +10386,7 @@
         <v>26</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>28</v>
@@ -10448,10 +10394,10 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K82" s="17">
         <v>2631946.5</v>
@@ -10460,10 +10406,10 @@
         <v>1139249</v>
       </c>
       <c r="M82" s="18" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="N82" s="18" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="O82" s="7"/>
       <c r="P82" s="19"/>
@@ -10479,21 +10425,21 @@
       <c r="Z82" s="7"/>
       <c r="AA82" s="7"/>
       <c r="AB82" s="25"/>
-      <c r="AC82" s="27" t="s">
-        <v>311</v>
+      <c r="AC82" t="s">
+        <v>413</v>
       </c>
       <c r="AD82" s="7"/>
-      <c r="AE82" s="27" t="s">
-        <v>312</v>
+      <c r="AE82" t="s">
+        <v>458</v>
       </c>
       <c r="AF82" s="27"/>
       <c r="AG82" s="14" t="s">
-        <v>313</v>
+        <v>271</v>
       </c>
     </row>
     <row r="83" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="6" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>24</v>
@@ -10505,7 +10451,7 @@
         <v>26</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>28</v>
@@ -10514,7 +10460,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K83" s="17">
         <v>2631946.5</v>
@@ -10523,10 +10469,10 @@
         <v>1139249</v>
       </c>
       <c r="M83" s="18" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="N83" s="18" t="s">
-        <v>314</v>
+        <v>272</v>
       </c>
       <c r="O83" s="7"/>
       <c r="P83" s="19"/>
@@ -10543,22 +10489,22 @@
       <c r="AA83" s="7"/>
       <c r="AB83" s="25"/>
       <c r="AC83" s="26" t="s">
-        <v>315</v>
+        <v>273</v>
       </c>
       <c r="AD83" s="7"/>
       <c r="AE83" s="26" t="s">
-        <v>316</v>
+        <v>274</v>
       </c>
       <c r="AF83" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG83" s="14" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
     </row>
     <row r="84" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="6" t="s">
-        <v>317</v>
+        <v>275</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>24</v>
@@ -10570,7 +10516,7 @@
         <v>26</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>28</v>
@@ -10583,7 +10529,7 @@
       </c>
       <c r="I84" s="1"/>
       <c r="J84" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K84" s="17">
         <v>2652229</v>
@@ -10592,10 +10538,10 @@
         <v>1162755.125</v>
       </c>
       <c r="M84" s="18" t="s">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="N84" s="18" t="s">
-        <v>320</v>
+        <v>278</v>
       </c>
       <c r="O84" s="35"/>
       <c r="P84" s="35"/>
@@ -10612,22 +10558,20 @@
       <c r="AA84" s="7"/>
       <c r="AB84" s="25"/>
       <c r="AC84" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD84" s="7"/>
-      <c r="AE84" s="26" t="s">
-        <v>300</v>
-      </c>
+      <c r="AE84" s="26"/>
       <c r="AF84" s="26">
         <v>1977</v>
       </c>
       <c r="AG84" s="14" t="s">
-        <v>321</v>
+        <v>279</v>
       </c>
     </row>
     <row r="85" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="6" t="s">
-        <v>317</v>
+        <v>275</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>24</v>
@@ -10639,7 +10583,7 @@
         <v>26</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>28</v>
@@ -10652,7 +10596,7 @@
       </c>
       <c r="I85" s="1"/>
       <c r="J85" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K85" s="17">
         <v>2652229</v>
@@ -10661,14 +10605,14 @@
         <v>1162755.125</v>
       </c>
       <c r="M85" s="18" t="s">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="N85" s="18" t="s">
-        <v>322</v>
+        <v>280</v>
       </c>
       <c r="O85" s="35"/>
       <c r="P85" s="35" t="s">
-        <v>323</v>
+        <v>281</v>
       </c>
       <c r="Q85" s="15"/>
       <c r="R85" s="20"/>
@@ -10683,22 +10627,22 @@
       <c r="AA85" s="7"/>
       <c r="AB85" s="25"/>
       <c r="AC85" s="26" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="AD85" s="7"/>
-      <c r="AE85" s="26" t="s">
-        <v>325</v>
+      <c r="AE85" t="s">
+        <v>459</v>
       </c>
       <c r="AF85" s="26">
         <v>1988</v>
       </c>
       <c r="AG85" s="14" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
     </row>
     <row r="86" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="6" t="s">
-        <v>317</v>
+        <v>275</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>24</v>
@@ -10710,7 +10654,7 @@
         <v>26</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>28</v>
@@ -10723,7 +10667,7 @@
       </c>
       <c r="I86" s="1"/>
       <c r="J86" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K86" s="17">
         <v>2652229</v>
@@ -10732,10 +10676,10 @@
         <v>1162755.125</v>
       </c>
       <c r="M86" s="18" t="s">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="N86" s="18" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="O86" s="35">
         <v>37816</v>
@@ -10757,25 +10701,25 @@
       <c r="Z86" s="7"/>
       <c r="AA86" s="7"/>
       <c r="AB86" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC86" s="26" t="s">
-        <v>328</v>
+        <v>414</v>
       </c>
       <c r="AD86" s="7"/>
-      <c r="AE86" s="27" t="s">
-        <v>329</v>
+      <c r="AE86" t="s">
+        <v>460</v>
       </c>
       <c r="AF86" s="26">
         <v>2003</v>
       </c>
       <c r="AG86" s="14" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
     </row>
     <row r="87" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="6" t="s">
-        <v>317</v>
+        <v>275</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>24</v>
@@ -10787,7 +10731,7 @@
         <v>26</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>28</v>
@@ -10800,7 +10744,7 @@
       </c>
       <c r="I87" s="1"/>
       <c r="J87" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K87" s="17">
         <v>2652229</v>
@@ -10809,10 +10753,10 @@
         <v>1162755.125</v>
       </c>
       <c r="M87" s="18" t="s">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="N87" s="18" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="O87" s="35">
         <v>40025</v>
@@ -10844,25 +10788,25 @@
         <v>80</v>
       </c>
       <c r="AB87" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC87" s="26" t="s">
-        <v>332</v>
+        <v>36</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>415</v>
       </c>
       <c r="AD87" s="7"/>
       <c r="AE87" s="27" t="s">
-        <v>333</v>
+        <v>461</v>
       </c>
       <c r="AF87" s="26">
         <v>2009</v>
       </c>
       <c r="AG87" s="14" t="s">
-        <v>334</v>
+        <v>291</v>
       </c>
     </row>
     <row r="88" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="6" t="s">
-        <v>317</v>
+        <v>275</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>24</v>
@@ -10874,7 +10818,7 @@
         <v>26</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>28</v>
@@ -10887,7 +10831,7 @@
       </c>
       <c r="I88" s="1"/>
       <c r="J88" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K88" s="17">
         <v>2652229</v>
@@ -10896,16 +10840,16 @@
         <v>1162755.125</v>
       </c>
       <c r="M88" s="18" t="s">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="N88" s="35" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
       <c r="O88" s="35" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
       <c r="P88" s="35" t="s">
-        <v>337</v>
+        <v>294</v>
       </c>
       <c r="Q88" s="15">
         <v>16000</v>
@@ -10923,25 +10867,25 @@
       <c r="Z88" s="7"/>
       <c r="AA88" s="7"/>
       <c r="AB88" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC88" s="26" t="s">
-        <v>338</v>
+        <v>416</v>
       </c>
       <c r="AD88" s="7"/>
-      <c r="AE88" s="27" t="s">
-        <v>339</v>
+      <c r="AE88" t="s">
+        <v>462</v>
       </c>
       <c r="AF88" s="26">
         <v>2010</v>
       </c>
       <c r="AG88" s="14" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
     </row>
     <row r="89" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="6" t="s">
-        <v>317</v>
+        <v>275</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>24</v>
@@ -10953,7 +10897,7 @@
         <v>26</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>28</v>
@@ -10966,7 +10910,7 @@
       </c>
       <c r="I89" s="1"/>
       <c r="J89" s="1" t="s">
-        <v>442</v>
+        <v>393</v>
       </c>
       <c r="K89" s="17">
         <v>2652229</v>
@@ -10975,13 +10919,13 @@
         <v>1162755.125</v>
       </c>
       <c r="M89" s="18" t="s">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="N89" s="18" t="s">
-        <v>341</v>
+        <v>298</v>
       </c>
       <c r="O89" s="36" t="s">
-        <v>341</v>
+        <v>298</v>
       </c>
       <c r="P89" s="35">
         <v>40731</v>
@@ -10996,7 +10940,7 @@
       <c r="V89" s="15"/>
       <c r="W89" s="16"/>
       <c r="X89" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y89" s="7">
         <v>50</v>
@@ -11004,25 +10948,25 @@
       <c r="Z89" s="7"/>
       <c r="AA89" s="7"/>
       <c r="AB89" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC89" s="26" t="s">
-        <v>401</v>
+        <v>36</v>
+      </c>
+      <c r="AC89" t="s">
+        <v>417</v>
       </c>
       <c r="AD89" s="7"/>
-      <c r="AE89" s="27" t="s">
-        <v>342</v>
+      <c r="AE89" t="s">
+        <v>463</v>
       </c>
       <c r="AF89" s="26">
         <v>2011</v>
       </c>
       <c r="AG89" s="14" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
     </row>
     <row r="90" spans="1:33" s="74" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="6" t="s">
-        <v>317</v>
+        <v>275</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>24</v>
@@ -11034,7 +10978,7 @@
         <v>26</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>28</v>
@@ -11047,7 +10991,7 @@
       </c>
       <c r="I90" s="1"/>
       <c r="J90" s="1" t="s">
-        <v>442</v>
+        <v>393</v>
       </c>
       <c r="K90" s="17">
         <v>2652229</v>
@@ -11056,13 +11000,13 @@
         <v>1162755.125</v>
       </c>
       <c r="M90" s="18" t="s">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="N90" s="35" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="O90" s="35" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="P90" s="35">
         <v>40782</v>
@@ -11083,7 +11027,7 @@
       <c r="V90" s="15"/>
       <c r="W90" s="16"/>
       <c r="X90" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y90" s="13">
         <v>40</v>
@@ -11091,25 +11035,25 @@
       <c r="Z90" s="7"/>
       <c r="AA90" s="7"/>
       <c r="AB90" s="25" t="s">
-        <v>449</v>
-      </c>
-      <c r="AC90" s="26" t="s">
-        <v>401</v>
+        <v>400</v>
+      </c>
+      <c r="AC90" t="s">
+        <v>417</v>
       </c>
       <c r="AD90" s="7"/>
-      <c r="AE90" s="26" t="s">
-        <v>451</v>
+      <c r="AE90" t="s">
+        <v>464</v>
       </c>
       <c r="AF90" s="26">
         <v>2011</v>
       </c>
       <c r="AG90" s="14" t="s">
-        <v>347</v>
+        <v>304</v>
       </c>
     </row>
     <row r="91" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="6" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>24</v>
@@ -11121,7 +11065,7 @@
         <v>26</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>28</v>
@@ -11134,19 +11078,19 @@
       </c>
       <c r="I91" s="1"/>
       <c r="J91" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K91" s="17">
-        <v>2769959</v>
+        <v>2783587.25</v>
       </c>
       <c r="L91" s="17">
-        <v>1130423.625</v>
+        <v>1142907.25</v>
       </c>
       <c r="M91" s="18" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="N91" s="18" t="s">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="O91" s="7"/>
       <c r="P91" s="19"/>
@@ -11154,39 +11098,31 @@
       <c r="R91" s="20"/>
       <c r="S91" s="20"/>
       <c r="T91" s="21"/>
-      <c r="U91" s="94">
-        <v>2700000</v>
-      </c>
+      <c r="U91" s="31"/>
       <c r="V91" s="15"/>
       <c r="W91" s="16"/>
-      <c r="X91" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y91" s="7">
-        <v>128</v>
-      </c>
+      <c r="X91" s="22"/>
+      <c r="Y91" s="7"/>
       <c r="Z91" s="7"/>
       <c r="AA91" s="7"/>
-      <c r="AB91" s="25" t="s">
-        <v>453</v>
-      </c>
+      <c r="AB91" s="25"/>
       <c r="AC91" s="27" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="AD91" s="7"/>
-      <c r="AE91" s="26" t="s">
-        <v>354</v>
-      </c>
-      <c r="AF91" s="27" t="s">
-        <v>355</v>
+      <c r="AE91" t="s">
+        <v>465</v>
+      </c>
+      <c r="AF91" s="26">
+        <v>2017</v>
       </c>
       <c r="AG91" s="14" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
     </row>
-    <row r="92" spans="1:33" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:33" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="6" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>24</v>
@@ -11198,7 +11134,7 @@
         <v>26</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>28</v>
@@ -11211,19 +11147,19 @@
       </c>
       <c r="I92" s="1"/>
       <c r="J92" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K92" s="17">
-        <v>2783587.25</v>
+        <v>2615709</v>
       </c>
       <c r="L92" s="17">
-        <v>1142907.25</v>
+        <v>1093997.625</v>
       </c>
       <c r="M92" s="18" t="s">
-        <v>400</v>
+        <v>321</v>
       </c>
       <c r="N92" s="18" t="s">
-        <v>359</v>
+        <v>322</v>
       </c>
       <c r="O92" s="7"/>
       <c r="P92" s="19"/>
@@ -11239,96 +11175,27 @@
       <c r="Z92" s="7"/>
       <c r="AA92" s="7"/>
       <c r="AB92" s="25"/>
-      <c r="AC92" s="27" t="s">
-        <v>360</v>
+      <c r="AC92" s="26" t="s">
+        <v>56</v>
       </c>
       <c r="AD92" s="7"/>
-      <c r="AE92" s="27" t="s">
-        <v>361</v>
+      <c r="AE92" t="s">
+        <v>466</v>
       </c>
       <c r="AF92" s="26">
-        <v>2017</v>
+        <v>1900</v>
       </c>
       <c r="AG92" s="14" t="s">
-        <v>362</v>
+        <v>323</v>
       </c>
     </row>
-    <row r="93" spans="1:33" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K93" s="17">
-        <v>2615709</v>
-      </c>
-      <c r="L93" s="17">
-        <v>1093997.625</v>
-      </c>
-      <c r="M93" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="N93" s="18" t="s">
-        <v>366</v>
-      </c>
-      <c r="O93" s="7"/>
-      <c r="P93" s="19"/>
-      <c r="Q93" s="15"/>
-      <c r="R93" s="20"/>
-      <c r="S93" s="20"/>
-      <c r="T93" s="21"/>
-      <c r="U93" s="31"/>
-      <c r="V93" s="15"/>
-      <c r="W93" s="16"/>
-      <c r="X93" s="22"/>
-      <c r="Y93" s="7"/>
-      <c r="Z93" s="7"/>
-      <c r="AA93" s="7"/>
-      <c r="AB93" s="25"/>
-      <c r="AC93" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD93" s="7"/>
-      <c r="AE93" s="26" t="s">
-        <v>367</v>
-      </c>
-      <c r="AF93" s="26">
-        <v>1900</v>
-      </c>
-      <c r="AG93" s="14" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="94" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K94" s="97"/>
+    <row r="93" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K93" s="96"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AG93" xr:uid="{C2A453AE-42D3-44AD-B1ED-100E8200E393}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG93">
-      <sortCondition ref="E1:E93"/>
+  <autoFilter ref="A1:AG92" xr:uid="{C2A453AE-42D3-44AD-B1ED-100E8200E393}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG92">
+      <sortCondition ref="E1:E92"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -11365,7 +11232,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>441</v>
+        <v>392</v>
       </c>
       <c r="D1" s="40" t="s">
         <v>11</v>
@@ -11383,46 +11250,46 @@
         <v>15</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>371</v>
+        <v>325</v>
       </c>
       <c r="J1" s="43" t="s">
-        <v>372</v>
+        <v>326</v>
       </c>
       <c r="K1" s="43" t="s">
-        <v>373</v>
+        <v>327</v>
       </c>
       <c r="L1" s="44" t="s">
         <v>16</v>
       </c>
       <c r="M1" s="45" t="s">
-        <v>374</v>
+        <v>328</v>
       </c>
       <c r="N1" s="45" t="s">
-        <v>375</v>
+        <v>329</v>
       </c>
       <c r="O1" s="46" t="s">
-        <v>376</v>
+        <v>330</v>
       </c>
       <c r="P1" s="39" t="s">
-        <v>377</v>
+        <v>331</v>
       </c>
       <c r="Q1" s="39" t="s">
-        <v>378</v>
+        <v>332</v>
       </c>
       <c r="R1" s="39" t="s">
-        <v>379</v>
+        <v>333</v>
       </c>
       <c r="S1" s="47" t="s">
         <v>17</v>
       </c>
       <c r="T1" s="47" t="s">
-        <v>445</v>
+        <v>396</v>
       </c>
       <c r="U1" s="47" t="s">
-        <v>447</v>
+        <v>398</v>
       </c>
       <c r="V1" s="47" t="s">
-        <v>448</v>
+        <v>399</v>
       </c>
       <c r="W1" s="40" t="s">
         <v>18</v>
@@ -11442,19 +11309,19 @@
     </row>
     <row r="2" spans="1:27" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
-        <v>317</v>
+        <v>275</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="F2" s="35">
         <v>37816</v>
@@ -11477,7 +11344,7 @@
       <c r="R2" s="7"/>
       <c r="S2" s="25"/>
       <c r="T2" s="25" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="U2" s="25">
         <f>L2/P2</f>
@@ -11488,34 +11355,34 @@
         <v>0</v>
       </c>
       <c r="W2" s="26" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="X2" s="7"/>
       <c r="Y2" s="27" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="Z2" s="26">
         <v>2003</v>
       </c>
       <c r="AA2" s="14" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
-        <v>317</v>
+        <v>275</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="F3" s="35">
         <v>40025</v>
@@ -11548,7 +11415,7 @@
       </c>
       <c r="S3" s="25"/>
       <c r="T3" s="25" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="U3" s="25">
         <f t="shared" ref="U3:U17" si="0">L3/P3</f>
@@ -11559,40 +11426,40 @@
         <v>0</v>
       </c>
       <c r="W3" s="26" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="X3" s="7"/>
       <c r="Y3" s="27" t="s">
-        <v>333</v>
+        <v>290</v>
       </c>
       <c r="Z3" s="26">
         <v>2009</v>
       </c>
       <c r="AA3" s="14" t="s">
-        <v>334</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:27" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
-        <v>317</v>
+        <v>275</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>337</v>
+        <v>294</v>
       </c>
       <c r="H4" s="15">
         <v>16000</v>
@@ -11611,7 +11478,7 @@
       <c r="R4" s="7"/>
       <c r="S4" s="25"/>
       <c r="T4" s="25" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="U4" s="25">
         <f t="shared" si="0"/>
@@ -11622,64 +11489,64 @@
         <v>0</v>
       </c>
       <c r="W4" s="26" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="X4" s="7"/>
       <c r="Y4" s="27" t="s">
-        <v>339</v>
+        <v>296</v>
       </c>
       <c r="Z4" s="26">
         <v>2010</v>
       </c>
       <c r="AA4" s="14" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="123" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="105" t="s">
-        <v>317</v>
-      </c>
-      <c r="B5" s="106" t="s">
-        <v>318</v>
-      </c>
-      <c r="C5" s="107" t="s">
-        <v>442</v>
-      </c>
-      <c r="D5" s="108" t="s">
-        <v>319</v>
-      </c>
-      <c r="E5" s="108" t="s">
-        <v>341</v>
-      </c>
-      <c r="F5" s="109" t="s">
-        <v>341</v>
-      </c>
-      <c r="G5" s="110">
+    <row r="5" spans="1:27" s="122" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="104" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" s="105" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5" s="106" t="s">
+        <v>393</v>
+      </c>
+      <c r="D5" s="107" t="s">
+        <v>277</v>
+      </c>
+      <c r="E5" s="107" t="s">
+        <v>298</v>
+      </c>
+      <c r="F5" s="108" t="s">
+        <v>298</v>
+      </c>
+      <c r="G5" s="109">
         <v>40731</v>
       </c>
-      <c r="H5" s="111"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="114">
+      <c r="H5" s="110"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="113">
         <v>12000</v>
       </c>
-      <c r="M5" s="115"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="118">
+      <c r="M5" s="114"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="117">
         <v>50</v>
       </c>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="118">
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117">
         <v>100</v>
       </c>
-      <c r="S5" s="119"/>
-      <c r="T5" s="119">
+      <c r="S5" s="118"/>
+      <c r="T5" s="118">
         <f t="shared" ref="T5:T15" si="2">75*(L5/1000000)^0.67</f>
         <v>3.8735815027309841</v>
       </c>
-      <c r="U5" s="119">
+      <c r="U5" s="118">
         <f>L5/P5</f>
         <v>240</v>
       </c>
@@ -11687,75 +11554,75 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="W5" s="120" t="s">
-        <v>401</v>
-      </c>
-      <c r="X5" s="118"/>
-      <c r="Y5" s="121" t="s">
-        <v>342</v>
-      </c>
-      <c r="Z5" s="120">
+      <c r="W5" s="119" t="s">
+        <v>354</v>
+      </c>
+      <c r="X5" s="117"/>
+      <c r="Y5" s="120" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z5" s="119">
         <v>2011</v>
       </c>
-      <c r="AA5" s="122" t="s">
-        <v>343</v>
+      <c r="AA5" s="121" t="s">
+        <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="123" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="105" t="s">
-        <v>317</v>
-      </c>
-      <c r="B6" s="106" t="s">
-        <v>318</v>
-      </c>
-      <c r="C6" s="107" t="s">
-        <v>442</v>
-      </c>
-      <c r="D6" s="108" t="s">
-        <v>319</v>
-      </c>
-      <c r="E6" s="108" t="s">
-        <v>344</v>
-      </c>
-      <c r="F6" s="110" t="s">
-        <v>345</v>
-      </c>
-      <c r="G6" s="110">
+    <row r="6" spans="1:27" s="122" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="104" t="s">
+        <v>275</v>
+      </c>
+      <c r="B6" s="105" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" s="106" t="s">
+        <v>393</v>
+      </c>
+      <c r="D6" s="107" t="s">
+        <v>277</v>
+      </c>
+      <c r="E6" s="107" t="s">
+        <v>301</v>
+      </c>
+      <c r="F6" s="109" t="s">
+        <v>302</v>
+      </c>
+      <c r="G6" s="109">
         <v>40782</v>
       </c>
-      <c r="H6" s="111"/>
-      <c r="I6" s="112">
+      <c r="H6" s="110"/>
+      <c r="I6" s="111">
         <v>15000</v>
       </c>
-      <c r="J6" s="112">
+      <c r="J6" s="111">
         <v>44000</v>
       </c>
-      <c r="K6" s="113"/>
-      <c r="L6" s="115">
+      <c r="K6" s="112"/>
+      <c r="L6" s="114">
         <v>23462</v>
       </c>
-      <c r="M6" s="115">
+      <c r="M6" s="114">
         <v>14000</v>
       </c>
-      <c r="N6" s="116">
+      <c r="N6" s="115">
         <v>44000</v>
       </c>
-      <c r="O6" s="117"/>
-      <c r="P6" s="124">
+      <c r="O6" s="116"/>
+      <c r="P6" s="123">
         <v>200</v>
       </c>
-      <c r="Q6" s="118">
+      <c r="Q6" s="117">
         <v>10</v>
       </c>
-      <c r="R6" s="118">
+      <c r="R6" s="117">
         <v>200</v>
       </c>
-      <c r="S6" s="119"/>
-      <c r="T6" s="119">
+      <c r="S6" s="118"/>
+      <c r="T6" s="118">
         <f t="shared" si="2"/>
         <v>6.0702396032459589</v>
       </c>
-      <c r="U6" s="119">
+      <c r="U6" s="118">
         <f t="shared" si="0"/>
         <v>117.31</v>
       </c>
@@ -11763,35 +11630,35 @@
         <f t="shared" si="1"/>
         <v>15.641333333333334</v>
       </c>
-      <c r="W6" s="120" t="s">
-        <v>401</v>
-      </c>
-      <c r="X6" s="118"/>
-      <c r="Y6" s="120" t="s">
-        <v>346</v>
-      </c>
-      <c r="Z6" s="120">
+      <c r="W6" s="119" t="s">
+        <v>354</v>
+      </c>
+      <c r="X6" s="117"/>
+      <c r="Y6" s="119" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z6" s="119">
         <v>2011</v>
       </c>
-      <c r="AA6" s="122" t="s">
-        <v>347</v>
+      <c r="AA6" s="121" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:27" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="19"/>
@@ -11805,7 +11672,7 @@
       <c r="M7" s="15"/>
       <c r="N7" s="16"/>
       <c r="O7" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7">
         <v>74.599999999999994</v>
@@ -11813,7 +11680,7 @@
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T7" s="25">
         <f t="shared" si="2"/>
@@ -11828,7 +11695,7 @@
         <v>90</v>
       </c>
       <c r="W7" s="26" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="X7" s="7"/>
       <c r="Y7" s="26"/>
@@ -11836,52 +11703,52 @@
         <v>1951</v>
       </c>
       <c r="AA7" s="14" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="123" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="105" t="s">
-        <v>217</v>
-      </c>
-      <c r="B8" s="106" t="s">
-        <v>218</v>
-      </c>
-      <c r="C8" s="107" t="s">
-        <v>442</v>
-      </c>
-      <c r="D8" s="108" t="s">
-        <v>219</v>
-      </c>
-      <c r="E8" s="108" t="s">
-        <v>220</v>
-      </c>
-      <c r="F8" s="118"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="115">
+    <row r="8" spans="1:27" s="122" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="104" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="105" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="106" t="s">
+        <v>393</v>
+      </c>
+      <c r="D8" s="107" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" s="107" t="s">
+        <v>194</v>
+      </c>
+      <c r="F8" s="117"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="114">
         <v>2094</v>
       </c>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="126">
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="125">
         <v>22000</v>
       </c>
-      <c r="M8" s="115"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="117"/>
-      <c r="P8" s="118">
+      <c r="M8" s="114"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="117">
         <v>50</v>
       </c>
-      <c r="Q8" s="118"/>
-      <c r="R8" s="118">
+      <c r="Q8" s="117"/>
+      <c r="R8" s="117">
         <v>50</v>
       </c>
-      <c r="S8" s="119"/>
-      <c r="T8" s="119">
+      <c r="S8" s="118"/>
+      <c r="T8" s="118">
         <f t="shared" si="2"/>
         <v>5.8141262711700934</v>
       </c>
-      <c r="U8" s="119">
+      <c r="U8" s="118">
         <f t="shared" si="0"/>
         <v>440</v>
       </c>
@@ -11889,35 +11756,35 @@
         <f t="shared" si="1"/>
         <v>14.666666666666666</v>
       </c>
-      <c r="W8" s="120" t="s">
-        <v>221</v>
-      </c>
-      <c r="X8" s="118"/>
-      <c r="Y8" s="120" t="s">
-        <v>222</v>
-      </c>
-      <c r="Z8" s="120">
+      <c r="W8" s="119" t="s">
+        <v>195</v>
+      </c>
+      <c r="X8" s="117"/>
+      <c r="Y8" s="119" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z8" s="119">
         <v>2004</v>
       </c>
-      <c r="AA8" s="122" t="s">
-        <v>223</v>
+      <c r="AA8" s="121" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:27" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>78</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>84</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="19"/>
@@ -11935,7 +11802,7 @@
         <v>100000</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P9" s="7">
         <v>2.5</v>
@@ -11947,7 +11814,7 @@
         <v>3</v>
       </c>
       <c r="S9" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T9" s="25">
         <f t="shared" si="2"/>
@@ -11962,34 +11829,34 @@
         <v>60</v>
       </c>
       <c r="W9" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X9" s="7"/>
       <c r="Y9" s="27" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="Z9" s="26">
         <v>2003</v>
       </c>
       <c r="AA9" s="14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:27" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="19"/>
@@ -12007,7 +11874,7 @@
         <v>100000</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P10" s="7">
         <v>2.5</v>
@@ -12019,7 +11886,7 @@
         <v>3</v>
       </c>
       <c r="S10" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T10" s="25">
         <f t="shared" si="2"/>
@@ -12034,7 +11901,7 @@
         <v>60</v>
       </c>
       <c r="W10" s="26" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="X10" s="7"/>
       <c r="Y10" s="26"/>
@@ -12042,50 +11909,50 @@
         <v>1986</v>
       </c>
       <c r="AA10" s="14" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="123" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="106" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="107" t="s">
-        <v>442</v>
-      </c>
-      <c r="D11" s="108" t="s">
+    <row r="11" spans="1:27" s="122" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="104" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="105" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="106" t="s">
+        <v>393</v>
+      </c>
+      <c r="D11" s="107" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="108" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" s="118"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="127">
+      <c r="F11" s="117"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="112"/>
+      <c r="L11" s="126">
         <v>17000</v>
       </c>
-      <c r="M11" s="115"/>
-      <c r="N11" s="116"/>
-      <c r="O11" s="119" t="s">
-        <v>403</v>
-      </c>
-      <c r="P11" s="118">
+      <c r="M11" s="114"/>
+      <c r="N11" s="115"/>
+      <c r="O11" s="118" t="s">
+        <v>356</v>
+      </c>
+      <c r="P11" s="117">
         <v>14.9</v>
       </c>
-      <c r="Q11" s="118"/>
-      <c r="R11" s="118"/>
-      <c r="S11" s="119"/>
-      <c r="T11" s="119">
+      <c r="Q11" s="117"/>
+      <c r="R11" s="117"/>
+      <c r="S11" s="118"/>
+      <c r="T11" s="118">
         <f t="shared" si="2"/>
         <v>4.8917250739550875</v>
       </c>
-      <c r="U11" s="119">
+      <c r="U11" s="118">
         <f t="shared" si="0"/>
         <v>1140.9395973154362</v>
       </c>
@@ -12093,31 +11960,31 @@
         <f t="shared" si="1"/>
         <v>11.333333333333334</v>
       </c>
-      <c r="W11" s="120"/>
-      <c r="X11" s="118"/>
-      <c r="Y11" s="121"/>
-      <c r="Z11" s="120">
+      <c r="W11" s="119"/>
+      <c r="X11" s="117"/>
+      <c r="Y11" s="120"/>
+      <c r="Z11" s="119">
         <v>2017</v>
       </c>
-      <c r="AA11" s="122" t="s">
-        <v>97</v>
+      <c r="AA11" s="121" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>443</v>
+        <v>394</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E12" s="57" t="s">
-        <v>414</v>
+        <v>365</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="19"/>
@@ -12131,7 +11998,7 @@
       <c r="M12" s="15"/>
       <c r="N12" s="16"/>
       <c r="O12" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P12" s="7">
         <v>400</v>
@@ -12143,7 +12010,7 @@
         <v>454</v>
       </c>
       <c r="S12" s="25" t="s">
-        <v>413</v>
+        <v>364</v>
       </c>
       <c r="T12" s="25">
         <f t="shared" si="2"/>
@@ -12158,62 +12025,62 @@
         <v>1066.6666666666667</v>
       </c>
       <c r="W12" s="26" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="X12" s="7"/>
       <c r="Y12" s="26" t="s">
-        <v>417</v>
+        <v>368</v>
       </c>
       <c r="Z12" s="26">
         <v>1944</v>
       </c>
       <c r="AA12" s="50" t="s">
-        <v>412</v>
+        <v>363</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="123" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="105" t="s">
-        <v>439</v>
-      </c>
-      <c r="B13" s="128" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="107" t="s">
-        <v>442</v>
-      </c>
-      <c r="D13" s="108" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="108" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" s="118"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="127">
+    <row r="13" spans="1:27" s="122" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="104" t="s">
+        <v>390</v>
+      </c>
+      <c r="B13" s="127" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="106" t="s">
+        <v>393</v>
+      </c>
+      <c r="D13" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="107" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="117"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="126">
         <v>255000</v>
       </c>
-      <c r="M13" s="115"/>
-      <c r="N13" s="116"/>
-      <c r="O13" s="117" t="s">
-        <v>37</v>
-      </c>
-      <c r="P13" s="118">
+      <c r="M13" s="114"/>
+      <c r="N13" s="115"/>
+      <c r="O13" s="116" t="s">
+        <v>36</v>
+      </c>
+      <c r="P13" s="117">
         <v>230</v>
       </c>
-      <c r="Q13" s="118"/>
-      <c r="R13" s="118"/>
-      <c r="S13" s="119" t="s">
-        <v>37</v>
-      </c>
-      <c r="T13" s="119">
+      <c r="Q13" s="117"/>
+      <c r="R13" s="117"/>
+      <c r="S13" s="118" t="s">
+        <v>36</v>
+      </c>
+      <c r="T13" s="118">
         <f t="shared" si="2"/>
         <v>30.022246350627928</v>
       </c>
-      <c r="U13" s="119">
+      <c r="U13" s="118">
         <f t="shared" si="0"/>
         <v>1108.695652173913</v>
       </c>
@@ -12221,63 +12088,63 @@
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="W13" s="120"/>
-      <c r="X13" s="118"/>
-      <c r="Y13" s="120" t="s">
-        <v>416</v>
-      </c>
-      <c r="Z13" s="120"/>
-      <c r="AA13" s="122" t="s">
-        <v>415</v>
+      <c r="W13" s="119"/>
+      <c r="X13" s="117"/>
+      <c r="Y13" s="119" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z13" s="119"/>
+      <c r="AA13" s="121" t="s">
+        <v>366</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="123" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="105" t="s">
+    <row r="14" spans="1:27" s="122" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="106" t="s">
+      <c r="C14" s="106" t="s">
+        <v>393</v>
+      </c>
+      <c r="D14" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="107" t="s">
-        <v>442</v>
-      </c>
-      <c r="D14" s="108" t="s">
+      <c r="E14" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="108" t="s">
+      <c r="F14" s="117"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="125">
+        <v>2250</v>
+      </c>
+      <c r="M14" s="115">
+        <v>2000</v>
+      </c>
+      <c r="N14" s="115">
+        <v>2500</v>
+      </c>
+      <c r="O14" s="116" t="s">
+        <v>36</v>
+      </c>
+      <c r="P14" s="117">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="Q14" s="117"/>
+      <c r="R14" s="117"/>
+      <c r="S14" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="118"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="113"/>
-      <c r="L14" s="126">
-        <v>2250</v>
-      </c>
-      <c r="M14" s="116">
-        <v>2000</v>
-      </c>
-      <c r="N14" s="116">
-        <v>2500</v>
-      </c>
-      <c r="O14" s="117" t="s">
-        <v>37</v>
-      </c>
-      <c r="P14" s="118">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="Q14" s="118"/>
-      <c r="R14" s="118"/>
-      <c r="S14" s="119" t="s">
-        <v>43</v>
-      </c>
-      <c r="T14" s="119">
+      <c r="T14" s="118">
         <f t="shared" si="2"/>
         <v>1.2618959616822716</v>
       </c>
-      <c r="U14" s="119">
+      <c r="U14" s="118">
         <f>L14/P14</f>
         <v>918.36734693877543</v>
       </c>
@@ -12285,39 +12152,39 @@
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="W14" s="120" t="s">
+      <c r="W14" s="119" t="s">
+        <v>43</v>
+      </c>
+      <c r="X14" s="117"/>
+      <c r="Y14" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="X14" s="118"/>
-      <c r="Y14" s="120" t="s">
+      <c r="Z14" s="119">
+        <v>1983</v>
+      </c>
+      <c r="AA14" s="121" t="s">
         <v>45</v>
-      </c>
-      <c r="Z14" s="120">
-        <v>1983</v>
-      </c>
-      <c r="AA14" s="122" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:27" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>156</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>174</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="19" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="H15" s="15">
         <v>840000</v>
@@ -12325,7 +12192,7 @@
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
       <c r="K15" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L15" s="31">
         <v>840000</v>
@@ -12333,7 +12200,7 @@
       <c r="M15" s="15"/>
       <c r="N15" s="16"/>
       <c r="O15" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7">
         <v>22.5</v>
@@ -12341,7 +12208,7 @@
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="25" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="T15" s="25">
         <f t="shared" si="2"/>
@@ -12356,38 +12223,38 @@
         <v>560</v>
       </c>
       <c r="W15" s="27" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="X15" s="7"/>
       <c r="Y15" s="26" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="Z15" s="26">
         <v>1943</v>
       </c>
       <c r="AA15" s="14" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:27" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="19" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="H16" s="15">
         <v>840000</v>
@@ -12405,10 +12272,10 @@
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
       <c r="S16" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T16" s="25" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="U16" s="25">
         <f t="shared" si="0"/>
@@ -12419,34 +12286,34 @@
         <v>0</v>
       </c>
       <c r="W16" s="26" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="X16" s="7"/>
       <c r="Y16" s="26" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="Z16" s="26">
         <v>1961</v>
       </c>
       <c r="AA16" s="14" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:27" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>349</v>
+        <v>306</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="19"/>
@@ -12454,13 +12321,13 @@
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="K17" s="21"/>
-      <c r="L17" s="94">
+      <c r="L17" s="93">
         <v>2700000</v>
       </c>
       <c r="M17" s="15"/>
       <c r="N17" s="16"/>
       <c r="O17" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P17" s="7">
         <v>128</v>
@@ -12470,7 +12337,7 @@
         <v>2700000</v>
       </c>
       <c r="S17" s="25" t="s">
-        <v>352</v>
+        <v>309</v>
       </c>
       <c r="T17" s="25">
         <f>75*(L17/1000000)^0.67</f>
@@ -12485,17 +12352,17 @@
         <v>1800</v>
       </c>
       <c r="W17" s="27" t="s">
-        <v>353</v>
+        <v>310</v>
       </c>
       <c r="X17" s="7"/>
       <c r="Y17" s="26" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
       <c r="Z17" s="27" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="AA17" s="14" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/WPOF-Datenbank der Schweizer Alpen.xlsx
+++ b/WPOF-Datenbank der Schweizer Alpen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\christophe\Desktop\home\GitHub\WPOFs_CH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEC7E874-21D3-4A71-901B-53E7C2960095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73EE8A57-8624-48F9-BD6C-9540FB94FF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{4AB5F6CE-3898-4132-95CD-C65537EF9C6D}"/>
   </bookViews>
@@ -1995,7 +1995,7 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2070,12 +2070,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -2225,9 +2219,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="4" fontId="8" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
@@ -2285,10 +2276,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2296,7 +2283,6 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -2322,7 +2308,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2335,7 +2320,7 @@
     <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2347,6 +2332,9 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2671,148 +2659,194 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="700" row="5">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{4BC572F3-7F35-4D07-B80F-CCB45C728F2E}">
+  <we:reference id="wa200005502" version="1.0.0.11" store="fr-FR" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200005502" version="1.0.0.11" store="wa200005502" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties>
+    <we:property name="docId" value="&quot;arHSPZB9RqDaw4QJKJXL2&quot;"/>
+  </we:properties>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_GPT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_LIST</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_HLIST</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_CLASSIFY</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_TRANSLATE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_EXTRACT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_TAG</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_CONVERT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_FORMAT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_SUMMARIZE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_TABLE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_FILL</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_SPLIT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_HSPLIT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_EDIT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_MATCH</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_VISION</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_WEB</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A453AE-42D3-44AD-B1ED-100E8200E393}">
   <dimension ref="A1:AE93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC22" sqref="AC22"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE1" sqref="AE1:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.73046875" style="45"/>
-    <col min="2" max="2" width="10.1328125" style="85" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.86328125" style="45" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="12.59765625" style="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.06640625" style="46" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="45" customWidth="1"/>
-    <col min="8" max="8" width="29.3984375" style="45" customWidth="1"/>
-    <col min="9" max="9" width="8" style="45" customWidth="1"/>
-    <col min="10" max="10" width="14.86328125" style="108" customWidth="1"/>
-    <col min="11" max="11" width="14.3984375" style="108" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.86328125" style="45" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.265625" style="92" customWidth="1"/>
-    <col min="14" max="14" width="13.73046875" style="92" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="48.265625" style="47" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.265625" style="47" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.73046875" style="47" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.73046875" style="47" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="39.1328125" style="48" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19" style="47" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.3984375" style="47" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22" style="45" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="35.59765625" style="47" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.86328125" style="47" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.265625" style="47" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="28.265625" style="45" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="69.1328125" style="45" customWidth="1"/>
-    <col min="28" max="28" width="24.86328125" style="47" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="61.19921875" style="46" customWidth="1"/>
-    <col min="30" max="30" width="13" style="96" customWidth="1"/>
-    <col min="31" max="31" width="65.86328125" style="46" customWidth="1"/>
-    <col min="32" max="16384" width="10.73046875" style="45"/>
+    <col min="1" max="1" width="10.73046875" style="43"/>
+    <col min="2" max="2" width="10.1328125" style="82" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.86328125" style="43" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="43" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" style="43" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.06640625" style="44" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="43" customWidth="1"/>
+    <col min="8" max="8" width="29.3984375" style="43" customWidth="1"/>
+    <col min="9" max="9" width="8" style="43" customWidth="1"/>
+    <col min="10" max="10" width="14.86328125" style="102" customWidth="1"/>
+    <col min="11" max="11" width="14.3984375" style="102" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.86328125" style="43" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.265625" style="89" customWidth="1"/>
+    <col min="14" max="14" width="13.73046875" style="89" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="48.265625" style="45" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.265625" style="45" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.73046875" style="45" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.73046875" style="45" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="39.1328125" style="46" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19" style="45" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.3984375" style="45" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22" style="43" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="35.59765625" style="45" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.86328125" style="45" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.265625" style="45" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.265625" style="43" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="69.1328125" style="43" customWidth="1"/>
+    <col min="28" max="28" width="24.86328125" style="45" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="61.19921875" style="44" customWidth="1"/>
+    <col min="30" max="30" width="13" style="93" customWidth="1"/>
+    <col min="31" max="31" width="65.86328125" style="44" customWidth="1"/>
+    <col min="32" max="16384" width="10.73046875" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="97" t="s">
+    <row r="1" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="94" t="s">
         <v>413</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="33" t="s">
         <v>412</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="J1" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="103" t="s">
+      <c r="K1" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="37" t="s">
         <v>252</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="R1" s="37" t="s">
         <v>253</v>
       </c>
-      <c r="S1" s="40" t="s">
+      <c r="S1" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="T1" s="39" t="s">
         <v>254</v>
       </c>
-      <c r="U1" s="41" t="s">
+      <c r="U1" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="V1" s="42" t="s">
+      <c r="V1" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="W1" s="37" t="s">
+      <c r="W1" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="X1" s="37" t="s">
+      <c r="X1" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="Y1" s="37" t="s">
+      <c r="Y1" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="Z1" s="43" t="s">
+      <c r="Z1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="38" t="s">
+      <c r="AA1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="37" t="s">
+      <c r="AB1" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" s="36" t="s">
+      <c r="AC1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="AD1" s="93" t="s">
+      <c r="AD1" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="AE1" s="118" t="s">
+      <c r="AE1" s="111" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="44">
+    <row r="2" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="42">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2839,26 +2873,26 @@
       <c r="I2" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J2" s="104" t="s">
+      <c r="J2" s="98" t="s">
         <v>465</v>
       </c>
-      <c r="K2" s="104" t="s">
+      <c r="K2" s="98" t="s">
         <v>477</v>
       </c>
       <c r="L2" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="M2" s="89">
+      <c r="M2" s="86">
         <v>1</v>
       </c>
-      <c r="N2" s="34">
+      <c r="N2" s="32">
         <v>366</v>
       </c>
       <c r="O2" s="14"/>
       <c r="P2" s="19"/>
       <c r="Q2" s="19"/>
       <c r="R2" s="20"/>
-      <c r="S2" s="30"/>
+      <c r="S2" s="28"/>
       <c r="T2" s="14"/>
       <c r="U2" s="15"/>
       <c r="V2" s="21"/>
@@ -2866,18 +2900,18 @@
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="24"/>
-      <c r="AA2" s="25"/>
+      <c r="AA2" s="4"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="4"/>
       <c r="AD2" s="24">
         <v>1901</v>
       </c>
-      <c r="AE2" s="119" t="s">
+      <c r="AE2" s="112" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="44">
+    <row r="3" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="42">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -2904,26 +2938,26 @@
       <c r="I3" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="J3" s="104" t="s">
+      <c r="J3" s="98" t="s">
         <v>414</v>
       </c>
-      <c r="K3" s="104" t="s">
+      <c r="K3" s="98" t="s">
         <v>478</v>
       </c>
       <c r="L3" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="M3" s="89">
+      <c r="M3" s="86">
         <v>7306</v>
       </c>
-      <c r="N3" s="34">
+      <c r="N3" s="32">
         <v>7671</v>
       </c>
       <c r="O3" s="14"/>
       <c r="P3" s="19"/>
       <c r="Q3" s="19"/>
       <c r="R3" s="20"/>
-      <c r="S3" s="30"/>
+      <c r="S3" s="28"/>
       <c r="T3" s="14"/>
       <c r="U3" s="15"/>
       <c r="V3" s="21"/>
@@ -2931,22 +2965,22 @@
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
       <c r="Z3" s="24"/>
-      <c r="AA3" s="25" t="s">
+      <c r="AA3" s="4" t="s">
         <v>48</v>
       </c>
       <c r="AB3" s="7"/>
-      <c r="AC3" s="85" t="s">
+      <c r="AC3" s="82" t="s">
         <v>361</v>
       </c>
       <c r="AD3" s="24">
         <v>1920</v>
       </c>
-      <c r="AE3" s="119" t="s">
+      <c r="AE3" s="112" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="44">
+    <row r="4" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="42">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -2971,26 +3005,26 @@
         <v>379</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="104" t="s">
+      <c r="J4" s="98" t="s">
         <v>464</v>
       </c>
-      <c r="K4" s="104" t="s">
+      <c r="K4" s="98" t="s">
         <v>486</v>
       </c>
       <c r="L4" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="M4" s="89">
+      <c r="M4" s="86">
         <v>10228</v>
       </c>
-      <c r="N4" s="34">
+      <c r="N4" s="32">
         <v>10593</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="19"/>
       <c r="Q4" s="19"/>
       <c r="R4" s="20"/>
-      <c r="S4" s="30"/>
+      <c r="S4" s="28"/>
       <c r="T4" s="14"/>
       <c r="U4" s="15"/>
       <c r="V4" s="21"/>
@@ -2998,22 +3032,22 @@
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
       <c r="Z4" s="24"/>
-      <c r="AA4" s="25" t="s">
+      <c r="AA4" s="4" t="s">
         <v>213</v>
       </c>
       <c r="AB4" s="7"/>
-      <c r="AC4" s="85" t="s">
+      <c r="AC4" s="82" t="s">
         <v>368</v>
       </c>
       <c r="AD4" s="24">
         <v>1980</v>
       </c>
-      <c r="AE4" s="119" t="s">
+      <c r="AE4" s="112" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="44">
+    <row r="5" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="42">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -3038,26 +3072,26 @@
         <v>379</v>
       </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="104" t="s">
+      <c r="J5" s="98" t="s">
         <v>464</v>
       </c>
-      <c r="K5" s="104" t="s">
+      <c r="K5" s="98" t="s">
         <v>486</v>
       </c>
       <c r="L5" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="M5" s="89">
+      <c r="M5" s="86">
         <v>10959</v>
       </c>
-      <c r="N5" s="34">
+      <c r="N5" s="32">
         <v>14610</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="19"/>
       <c r="Q5" s="19"/>
       <c r="R5" s="20"/>
-      <c r="S5" s="30"/>
+      <c r="S5" s="28"/>
       <c r="T5" s="14"/>
       <c r="U5" s="15"/>
       <c r="V5" s="21"/>
@@ -3065,20 +3099,20 @@
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="24"/>
-      <c r="AA5" s="25"/>
+      <c r="AA5" s="4"/>
       <c r="AB5" s="7"/>
-      <c r="AC5" s="109" t="s">
+      <c r="AC5" s="103" t="s">
         <v>214</v>
       </c>
       <c r="AD5" s="24">
         <v>1980</v>
       </c>
-      <c r="AE5" s="119" t="s">
+      <c r="AE5" s="112" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="44">
+    <row r="6" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="42">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -3103,26 +3137,26 @@
         <v>379</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="104" t="s">
+      <c r="J6" s="98" t="s">
         <v>466</v>
       </c>
-      <c r="K6" s="104" t="s">
+      <c r="K6" s="98" t="s">
         <v>415</v>
       </c>
       <c r="L6" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="89">
+      <c r="M6" s="86">
         <v>15342</v>
       </c>
-      <c r="N6" s="89">
+      <c r="N6" s="86">
         <v>15706</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="19"/>
       <c r="R6" s="20"/>
-      <c r="S6" s="30"/>
+      <c r="S6" s="28"/>
       <c r="T6" s="14"/>
       <c r="U6" s="15"/>
       <c r="V6" s="21"/>
@@ -3130,18 +3164,18 @@
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="24"/>
-      <c r="AA6" s="25" t="s">
+      <c r="AA6" s="4" t="s">
         <v>48</v>
       </c>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="109"/>
+      <c r="AC6" s="103"/>
       <c r="AD6" s="24"/>
-      <c r="AE6" s="119" t="s">
+      <c r="AE6" s="112" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="44">
+    <row r="7" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="42">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -3166,26 +3200,26 @@
         <v>379</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="104" t="s">
+      <c r="J7" s="98" t="s">
         <v>464</v>
       </c>
-      <c r="K7" s="104" t="s">
+      <c r="K7" s="98" t="s">
         <v>486</v>
       </c>
       <c r="L7" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="M7" s="89">
+      <c r="M7" s="86">
         <v>16438</v>
       </c>
-      <c r="N7" s="34">
+      <c r="N7" s="32">
         <v>16802</v>
       </c>
       <c r="O7" s="14"/>
       <c r="P7" s="19"/>
       <c r="Q7" s="19"/>
       <c r="R7" s="20"/>
-      <c r="S7" s="30"/>
+      <c r="S7" s="28"/>
       <c r="T7" s="14"/>
       <c r="U7" s="15"/>
       <c r="V7" s="21"/>
@@ -3193,18 +3227,18 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="24"/>
-      <c r="AA7" s="25"/>
+      <c r="AA7" s="4"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="24">
         <v>1980</v>
       </c>
-      <c r="AE7" s="119" t="s">
+      <c r="AE7" s="112" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="44">
+    <row r="8" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="42">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -3229,26 +3263,26 @@
         <v>379</v>
       </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="104" t="s">
+      <c r="J8" s="98" t="s">
         <v>464</v>
       </c>
-      <c r="K8" s="104" t="s">
+      <c r="K8" s="98" t="s">
         <v>486</v>
       </c>
       <c r="L8" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="M8" s="89">
+      <c r="M8" s="86">
         <v>16650</v>
       </c>
-      <c r="N8" s="34">
+      <c r="N8" s="32">
         <v>16680</v>
       </c>
       <c r="O8" s="14"/>
       <c r="P8" s="19"/>
       <c r="Q8" s="19"/>
       <c r="R8" s="20"/>
-      <c r="S8" s="30"/>
+      <c r="S8" s="28"/>
       <c r="T8" s="14"/>
       <c r="U8" s="15"/>
       <c r="V8" s="21"/>
@@ -3256,18 +3290,18 @@
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="24"/>
-      <c r="AA8" s="25"/>
+      <c r="AA8" s="4"/>
       <c r="AB8" s="7"/>
-      <c r="AC8" s="109"/>
+      <c r="AC8" s="103"/>
       <c r="AD8" s="24">
         <v>1983</v>
       </c>
-      <c r="AE8" s="119" t="s">
+      <c r="AE8" s="112" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="44">
+    <row r="9" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="42">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -3292,26 +3326,26 @@
         <v>379</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="104" t="s">
+      <c r="J9" s="98" t="s">
         <v>416</v>
       </c>
-      <c r="K9" s="104" t="s">
+      <c r="K9" s="98" t="s">
         <v>417</v>
       </c>
       <c r="L9" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="M9" s="90">
+      <c r="M9" s="87">
         <v>22282</v>
       </c>
-      <c r="N9" s="34">
+      <c r="N9" s="32">
         <v>22646</v>
       </c>
       <c r="O9" s="14"/>
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
       <c r="R9" s="20"/>
-      <c r="S9" s="30"/>
+      <c r="S9" s="28"/>
       <c r="T9" s="14"/>
       <c r="U9" s="15"/>
       <c r="V9" s="21"/>
@@ -3319,18 +3353,18 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="24"/>
-      <c r="AA9" s="25"/>
+      <c r="AA9" s="4"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="24">
         <v>1983</v>
       </c>
-      <c r="AE9" s="119" t="s">
+      <c r="AE9" s="112" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="44">
+    <row r="10" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="42">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -3355,26 +3389,26 @@
         <v>379</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="104" t="s">
+      <c r="J10" s="98" t="s">
         <v>416</v>
       </c>
-      <c r="K10" s="104" t="s">
+      <c r="K10" s="98" t="s">
         <v>417</v>
       </c>
       <c r="L10" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="M10" s="89">
+      <c r="M10" s="86">
         <v>24473</v>
       </c>
-      <c r="N10" s="34">
+      <c r="N10" s="32">
         <v>22646</v>
       </c>
       <c r="O10" s="14"/>
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
       <c r="R10" s="20"/>
-      <c r="S10" s="30"/>
+      <c r="S10" s="28"/>
       <c r="T10" s="14"/>
       <c r="U10" s="15"/>
       <c r="V10" s="21"/>
@@ -3382,18 +3416,18 @@
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="24"/>
-      <c r="AA10" s="25"/>
+      <c r="AA10" s="4"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="24">
         <v>1983</v>
       </c>
-      <c r="AE10" s="119" t="s">
+      <c r="AE10" s="112" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="44">
+    <row r="11" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="42">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -3418,26 +3452,26 @@
         <v>379</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="104" t="s">
+      <c r="J11" s="98" t="s">
         <v>418</v>
       </c>
-      <c r="K11" s="104" t="s">
+      <c r="K11" s="98" t="s">
         <v>419</v>
       </c>
       <c r="L11" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="M11" s="89">
+      <c r="M11" s="86">
         <v>24473</v>
       </c>
-      <c r="N11" s="34">
+      <c r="N11" s="32">
         <v>24837</v>
       </c>
       <c r="O11" s="14"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
       <c r="R11" s="20"/>
-      <c r="S11" s="30"/>
+      <c r="S11" s="28"/>
       <c r="T11" s="14"/>
       <c r="U11" s="15"/>
       <c r="V11" s="21"/>
@@ -3445,7 +3479,7 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="24"/>
-      <c r="AA11" s="25" t="s">
+      <c r="AA11" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AB11" s="7"/>
@@ -3453,12 +3487,12 @@
       <c r="AD11" s="24">
         <v>1980</v>
       </c>
-      <c r="AE11" s="119" t="s">
+      <c r="AE11" s="112" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="44">
+    <row r="12" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="42">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -3483,26 +3517,26 @@
         <v>379</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="104" t="s">
+      <c r="J12" s="98" t="s">
         <v>462</v>
       </c>
-      <c r="K12" s="104" t="s">
+      <c r="K12" s="98" t="s">
         <v>420</v>
       </c>
       <c r="L12" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="89">
+      <c r="M12" s="86">
         <v>24504</v>
       </c>
-      <c r="N12" s="89" t="s">
+      <c r="N12" s="86" t="s">
         <v>401</v>
       </c>
       <c r="O12" s="14"/>
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
       <c r="R12" s="20"/>
-      <c r="S12" s="30">
+      <c r="S12" s="28">
         <v>90000</v>
       </c>
       <c r="T12" s="14">
@@ -3522,22 +3556,22 @@
         <v>3</v>
       </c>
       <c r="Z12" s="24"/>
-      <c r="AA12" s="25" t="s">
+      <c r="AA12" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="85" t="s">
+      <c r="AC12" s="82" t="s">
         <v>336</v>
       </c>
       <c r="AD12" s="24">
         <v>2003</v>
       </c>
-      <c r="AE12" s="119" t="s">
+      <c r="AE12" s="112" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="44">
+    <row r="13" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="42">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -3562,26 +3596,26 @@
         <v>379</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="104" t="s">
+      <c r="J13" s="98" t="s">
         <v>421</v>
       </c>
-      <c r="K13" s="104" t="s">
+      <c r="K13" s="98" t="s">
         <v>479</v>
       </c>
       <c r="L13" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="34">
+      <c r="M13" s="32">
         <v>25569</v>
       </c>
-      <c r="N13" s="34">
+      <c r="N13" s="32">
         <v>29220</v>
       </c>
       <c r="O13" s="14"/>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
       <c r="R13" s="20"/>
-      <c r="S13" s="30"/>
+      <c r="S13" s="28"/>
       <c r="T13" s="14"/>
       <c r="U13" s="15"/>
       <c r="V13" s="21"/>
@@ -3589,20 +3623,20 @@
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="24"/>
-      <c r="AA13" s="25"/>
+      <c r="AA13" s="4"/>
       <c r="AB13" s="7"/>
-      <c r="AC13" s="110" t="s">
+      <c r="AC13" s="104" t="s">
         <v>333</v>
       </c>
       <c r="AD13" s="24">
         <v>2003</v>
       </c>
-      <c r="AE13" s="119" t="s">
+      <c r="AE13" s="112" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="44">
+    <row r="14" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="42">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -3627,26 +3661,26 @@
         <v>379</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="104" t="s">
+      <c r="J14" s="98" t="s">
         <v>416</v>
       </c>
-      <c r="K14" s="104" t="s">
+      <c r="K14" s="98" t="s">
         <v>417</v>
       </c>
       <c r="L14" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="M14" s="89">
+      <c r="M14" s="86">
         <v>25934</v>
       </c>
-      <c r="N14" s="34">
+      <c r="N14" s="32">
         <v>26298</v>
       </c>
       <c r="O14" s="14"/>
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
       <c r="R14" s="20"/>
-      <c r="S14" s="30"/>
+      <c r="S14" s="28"/>
       <c r="T14" s="14"/>
       <c r="U14" s="15"/>
       <c r="V14" s="21"/>
@@ -3654,18 +3688,18 @@
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
       <c r="Z14" s="24"/>
-      <c r="AA14" s="25"/>
+      <c r="AA14" s="4"/>
       <c r="AB14" s="7"/>
-      <c r="AC14" s="109"/>
+      <c r="AC14" s="103"/>
       <c r="AD14" s="24">
         <v>1983</v>
       </c>
-      <c r="AE14" s="119" t="s">
+      <c r="AE14" s="112" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="44">
+    <row r="15" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="42">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -3690,26 +3724,26 @@
         <v>379</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="104" t="s">
+      <c r="J15" s="98" t="s">
         <v>418</v>
       </c>
-      <c r="K15" s="104" t="s">
+      <c r="K15" s="98" t="s">
         <v>419</v>
       </c>
       <c r="L15" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="M15" s="89">
+      <c r="M15" s="86">
         <v>26177</v>
       </c>
-      <c r="N15" s="88" t="s">
+      <c r="N15" s="85" t="s">
         <v>409</v>
       </c>
       <c r="O15" s="14"/>
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
       <c r="R15" s="20"/>
-      <c r="S15" s="30"/>
+      <c r="S15" s="28"/>
       <c r="T15" s="14"/>
       <c r="U15" s="15"/>
       <c r="V15" s="21"/>
@@ -3717,7 +3751,7 @@
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="24"/>
-      <c r="AA15" s="25" t="s">
+      <c r="AA15" s="4" t="s">
         <v>392</v>
       </c>
       <c r="AB15" s="7"/>
@@ -3725,12 +3759,12 @@
       <c r="AD15" s="24">
         <v>1980</v>
       </c>
-      <c r="AE15" s="119" t="s">
+      <c r="AE15" s="112" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="44">
+    <row r="16" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="42">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -3755,26 +3789,26 @@
         <v>379</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="104" t="s">
+      <c r="J16" s="98" t="s">
         <v>462</v>
       </c>
-      <c r="K16" s="104" t="s">
+      <c r="K16" s="98" t="s">
         <v>420</v>
       </c>
       <c r="L16" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="M16" s="89">
+      <c r="M16" s="86">
         <v>29768</v>
       </c>
-      <c r="N16" s="89">
+      <c r="N16" s="86">
         <v>29798</v>
       </c>
       <c r="O16" s="14"/>
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
       <c r="R16" s="20"/>
-      <c r="S16" s="30"/>
+      <c r="S16" s="28"/>
       <c r="T16" s="14"/>
       <c r="U16" s="15"/>
       <c r="V16" s="21"/>
@@ -3782,18 +3816,18 @@
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
       <c r="Z16" s="24"/>
-      <c r="AA16" s="25"/>
+      <c r="AA16" s="4"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="111"/>
+      <c r="AC16" s="105"/>
       <c r="AD16" s="24">
         <v>1991</v>
       </c>
-      <c r="AE16" s="119" t="s">
+      <c r="AE16" s="112" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="44">
+    <row r="17" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="42">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -3818,26 +3852,26 @@
         <v>379</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="104" t="s">
+      <c r="J17" s="98" t="s">
         <v>421</v>
       </c>
-      <c r="K17" s="104" t="s">
+      <c r="K17" s="98" t="s">
         <v>479</v>
       </c>
       <c r="L17" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="M17" s="89">
+      <c r="M17" s="86">
         <v>29830</v>
       </c>
-      <c r="N17" s="89" t="s">
+      <c r="N17" s="86" t="s">
         <v>400</v>
       </c>
       <c r="O17" s="14"/>
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
       <c r="R17" s="20"/>
-      <c r="S17" s="30"/>
+      <c r="S17" s="28"/>
       <c r="T17" s="14"/>
       <c r="U17" s="15"/>
       <c r="V17" s="21"/>
@@ -3845,18 +3879,18 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="24"/>
-      <c r="AA17" s="25"/>
+      <c r="AA17" s="4"/>
       <c r="AB17" s="7"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="24">
         <v>2003</v>
       </c>
-      <c r="AE17" s="119" t="s">
+      <c r="AE17" s="112" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="44">
+    <row r="18" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="42">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -3881,26 +3915,26 @@
         <v>379</v>
       </c>
       <c r="I18" s="1"/>
-      <c r="J18" s="104" t="s">
+      <c r="J18" s="98" t="s">
         <v>454</v>
       </c>
-      <c r="K18" s="104" t="s">
+      <c r="K18" s="98" t="s">
         <v>422</v>
       </c>
       <c r="L18" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="M18" s="89">
+      <c r="M18" s="86">
         <v>30317</v>
       </c>
-      <c r="N18" s="34">
+      <c r="N18" s="32">
         <v>30681</v>
       </c>
       <c r="O18" s="14"/>
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
       <c r="R18" s="20"/>
-      <c r="S18" s="30"/>
+      <c r="S18" s="28"/>
       <c r="T18" s="14"/>
       <c r="U18" s="15"/>
       <c r="V18" s="21"/>
@@ -3908,18 +3942,18 @@
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="24"/>
-      <c r="AA18" s="99"/>
+      <c r="AA18" s="103"/>
       <c r="AB18" s="7"/>
-      <c r="AC18" s="109"/>
+      <c r="AC18" s="103"/>
       <c r="AD18" s="24">
         <v>1983</v>
       </c>
-      <c r="AE18" s="119" t="s">
+      <c r="AE18" s="112" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="44">
+    <row r="19" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="42">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -3944,26 +3978,26 @@
         <v>379</v>
       </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="104" t="s">
+      <c r="J19" s="98" t="s">
         <v>461</v>
       </c>
-      <c r="K19" s="104" t="s">
+      <c r="K19" s="98" t="s">
         <v>423</v>
       </c>
       <c r="L19" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="M19" s="89">
+      <c r="M19" s="86">
         <v>32752</v>
       </c>
-      <c r="N19" s="89" t="s">
+      <c r="N19" s="86" t="s">
         <v>402</v>
       </c>
       <c r="O19" s="14"/>
       <c r="P19" s="19"/>
       <c r="Q19" s="19"/>
       <c r="R19" s="20"/>
-      <c r="S19" s="30"/>
+      <c r="S19" s="28"/>
       <c r="T19" s="14"/>
       <c r="U19" s="15"/>
       <c r="V19" s="21"/>
@@ -3971,22 +4005,22 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="24"/>
-      <c r="AA19" s="26" t="s">
+      <c r="AA19" s="8" t="s">
         <v>155</v>
       </c>
       <c r="AB19" s="7"/>
-      <c r="AC19" s="112" t="s">
+      <c r="AC19" s="82" t="s">
         <v>357</v>
       </c>
       <c r="AD19" s="24">
         <v>1983</v>
       </c>
-      <c r="AE19" s="119" t="s">
+      <c r="AE19" s="112" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="44">
+    <row r="20" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="42">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -4011,26 +4045,26 @@
         <v>379</v>
       </c>
       <c r="I20" s="1"/>
-      <c r="J20" s="104" t="s">
+      <c r="J20" s="98" t="s">
         <v>461</v>
       </c>
-      <c r="K20" s="104" t="s">
+      <c r="K20" s="98" t="s">
         <v>423</v>
       </c>
       <c r="L20" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="M20" s="89">
+      <c r="M20" s="86">
         <v>37073</v>
       </c>
-      <c r="N20" s="89">
+      <c r="N20" s="86">
         <v>37103</v>
       </c>
       <c r="O20" s="14"/>
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
       <c r="R20" s="20"/>
-      <c r="S20" s="30">
+      <c r="S20" s="28">
         <v>65000</v>
       </c>
       <c r="T20" s="14"/>
@@ -4040,83 +4074,83 @@
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="24"/>
-      <c r="AA20" s="98" t="s">
+      <c r="AA20" s="104" t="s">
         <v>321</v>
       </c>
       <c r="AB20" s="7"/>
-      <c r="AC20" s="110" t="s">
+      <c r="AC20" s="104" t="s">
         <v>358</v>
       </c>
       <c r="AD20" s="24"/>
-      <c r="AE20" s="119" t="s">
+      <c r="AE20" s="112" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="44">
-        <v>20</v>
-      </c>
-      <c r="B21" s="83" t="s">
+    <row r="21" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="42">
+        <v>20</v>
+      </c>
+      <c r="B21" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="C21" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="66" t="s">
+      <c r="C21" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="G21" s="63" t="s">
+      <c r="G21" s="61" t="s">
         <v>24</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="I21" s="63"/>
-      <c r="J21" s="105" t="s">
+      <c r="I21" s="61"/>
+      <c r="J21" s="99" t="s">
         <v>424</v>
       </c>
-      <c r="K21" s="105" t="s">
+      <c r="K21" s="99" t="s">
         <v>425</v>
       </c>
-      <c r="L21" s="67" t="s">
+      <c r="L21" s="65" t="s">
         <v>176</v>
       </c>
-      <c r="M21" s="91">
+      <c r="M21" s="88">
         <v>40544</v>
       </c>
-      <c r="N21" s="91">
+      <c r="N21" s="88">
         <v>40908</v>
       </c>
-      <c r="O21" s="69"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="72"/>
-      <c r="T21" s="69"/>
-      <c r="U21" s="73"/>
-      <c r="V21" s="74"/>
-      <c r="W21" s="68"/>
-      <c r="X21" s="68"/>
-      <c r="Y21" s="68"/>
-      <c r="Z21" s="75"/>
-      <c r="AA21" s="76"/>
-      <c r="AB21" s="68"/>
-      <c r="AC21" s="110" t="s">
+      <c r="O21" s="67"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="69"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="67"/>
+      <c r="U21" s="71"/>
+      <c r="V21" s="72"/>
+      <c r="W21" s="66"/>
+      <c r="X21" s="66"/>
+      <c r="Y21" s="66"/>
+      <c r="Z21" s="73"/>
+      <c r="AA21" s="64"/>
+      <c r="AB21" s="66"/>
+      <c r="AC21" s="104" t="s">
         <v>360</v>
       </c>
-      <c r="AD21" s="75"/>
-      <c r="AE21" s="120" t="s">
+      <c r="AD21" s="73"/>
+      <c r="AE21" s="113" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="22" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="44">
+    <row r="22" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="42">
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -4141,16 +4175,16 @@
         <v>379</v>
       </c>
       <c r="I22" s="1"/>
-      <c r="J22" s="104" t="s">
+      <c r="J22" s="98" t="s">
         <v>426</v>
       </c>
-      <c r="K22" s="104" t="s">
+      <c r="K22" s="98" t="s">
         <v>427</v>
       </c>
       <c r="L22" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="M22" s="89" t="s">
+      <c r="M22" s="86" t="s">
         <v>410</v>
       </c>
       <c r="N22" s="17" t="s">
@@ -4160,7 +4194,7 @@
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
-      <c r="S22" s="33"/>
+      <c r="S22" s="31"/>
       <c r="T22" s="11"/>
       <c r="U22" s="15"/>
       <c r="V22" s="23"/>
@@ -4168,22 +4202,22 @@
       <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
       <c r="Z22" s="24"/>
-      <c r="AA22" s="23" t="s">
+      <c r="AA22" s="115" t="s">
         <v>203</v>
       </c>
       <c r="AB22" s="12"/>
-      <c r="AC22" s="110" t="s">
+      <c r="AC22" s="104" t="s">
         <v>366</v>
       </c>
-      <c r="AD22" s="28">
+      <c r="AD22" s="26">
         <v>1926</v>
       </c>
-      <c r="AE22" s="119" t="s">
+      <c r="AE22" s="112" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="23" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="44">
+    <row r="23" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="42">
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -4208,26 +4242,26 @@
         <v>379</v>
       </c>
       <c r="I23" s="1"/>
-      <c r="J23" s="104" t="s">
+      <c r="J23" s="98" t="s">
         <v>463</v>
       </c>
-      <c r="K23" s="104" t="s">
+      <c r="K23" s="98" t="s">
         <v>428</v>
       </c>
       <c r="L23" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="M23" s="89" t="s">
+      <c r="M23" s="86" t="s">
         <v>405</v>
       </c>
-      <c r="N23" s="89" t="s">
+      <c r="N23" s="86" t="s">
         <v>406</v>
       </c>
       <c r="O23" s="14"/>
       <c r="P23" s="19"/>
       <c r="Q23" s="19"/>
       <c r="R23" s="20"/>
-      <c r="S23" s="30"/>
+      <c r="S23" s="28"/>
       <c r="T23" s="14"/>
       <c r="U23" s="15"/>
       <c r="V23" s="21"/>
@@ -4235,7 +4269,7 @@
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="24"/>
-      <c r="AA23" s="25" t="s">
+      <c r="AA23" s="4" t="s">
         <v>171</v>
       </c>
       <c r="AB23" s="7"/>
@@ -4243,12 +4277,12 @@
       <c r="AD23" s="24">
         <v>1983</v>
       </c>
-      <c r="AE23" s="119" t="s">
+      <c r="AE23" s="112" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="44">
+    <row r="24" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="42">
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -4273,26 +4307,26 @@
         <v>379</v>
       </c>
       <c r="I24" s="1"/>
-      <c r="J24" s="104" t="s">
+      <c r="J24" s="98" t="s">
         <v>421</v>
       </c>
-      <c r="K24" s="104" t="s">
+      <c r="K24" s="98" t="s">
         <v>479</v>
       </c>
       <c r="L24" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="M24" s="89" t="s">
+      <c r="M24" s="86" t="s">
         <v>398</v>
       </c>
-      <c r="N24" s="89" t="s">
+      <c r="N24" s="86" t="s">
         <v>399</v>
       </c>
       <c r="O24" s="14"/>
       <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
       <c r="R24" s="20"/>
-      <c r="S24" s="30"/>
+      <c r="S24" s="28"/>
       <c r="T24" s="14"/>
       <c r="U24" s="15"/>
       <c r="V24" s="21"/>
@@ -4300,22 +4334,22 @@
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
       <c r="Z24" s="24"/>
-      <c r="AA24" s="26" t="s">
+      <c r="AA24" s="8" t="s">
         <v>40</v>
       </c>
       <c r="AB24" s="7"/>
-      <c r="AC24" s="110" t="s">
+      <c r="AC24" s="104" t="s">
         <v>332</v>
       </c>
       <c r="AD24" s="24">
         <v>1926</v>
       </c>
-      <c r="AE24" s="119" t="s">
+      <c r="AE24" s="112" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="25" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="44">
+    <row r="25" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="42">
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -4340,16 +4374,16 @@
         <v>379</v>
       </c>
       <c r="I25" s="1"/>
-      <c r="J25" s="104" t="s">
+      <c r="J25" s="98" t="s">
         <v>429</v>
       </c>
-      <c r="K25" s="104" t="s">
+      <c r="K25" s="98" t="s">
         <v>456</v>
       </c>
       <c r="L25" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="M25" s="89" t="s">
+      <c r="M25" s="86" t="s">
         <v>92</v>
       </c>
       <c r="N25" s="17" t="s">
@@ -4359,7 +4393,7 @@
       <c r="P25" s="19"/>
       <c r="Q25" s="19"/>
       <c r="R25" s="20"/>
-      <c r="S25" s="30"/>
+      <c r="S25" s="28"/>
       <c r="T25" s="14"/>
       <c r="U25" s="15"/>
       <c r="V25" s="21"/>
@@ -4367,22 +4401,22 @@
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="24"/>
-      <c r="AA25" s="26" t="s">
+      <c r="AA25" s="8" t="s">
         <v>93</v>
       </c>
       <c r="AB25" s="7"/>
-      <c r="AC25" s="112" t="s">
+      <c r="AC25" s="82" t="s">
         <v>342</v>
       </c>
       <c r="AD25" s="24">
         <v>1983</v>
       </c>
-      <c r="AE25" s="119" t="s">
+      <c r="AE25" s="112" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="44">
+    <row r="26" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="42">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -4407,16 +4441,16 @@
         <v>379</v>
       </c>
       <c r="I26" s="1"/>
-      <c r="J26" s="104" t="s">
+      <c r="J26" s="98" t="s">
         <v>455</v>
       </c>
-      <c r="K26" s="104" t="s">
+      <c r="K26" s="98" t="s">
         <v>430</v>
       </c>
       <c r="L26" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="M26" s="89" t="s">
+      <c r="M26" s="86" t="s">
         <v>107</v>
       </c>
       <c r="N26" s="17" t="s">
@@ -4426,7 +4460,7 @@
       <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
       <c r="R26" s="20"/>
-      <c r="S26" s="30"/>
+      <c r="S26" s="28"/>
       <c r="T26" s="14"/>
       <c r="U26" s="15"/>
       <c r="V26" s="21"/>
@@ -4434,20 +4468,20 @@
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
       <c r="Z26" s="24"/>
-      <c r="AA26" s="25" t="s">
+      <c r="AA26" s="4" t="s">
         <v>386</v>
       </c>
       <c r="AB26" s="7"/>
-      <c r="AC26" s="109"/>
+      <c r="AC26" s="103"/>
       <c r="AD26" s="24">
         <v>1984</v>
       </c>
-      <c r="AE26" s="119" t="s">
+      <c r="AE26" s="112" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="44">
+    <row r="27" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="42">
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -4472,26 +4506,26 @@
         <v>379</v>
       </c>
       <c r="I27" s="1"/>
-      <c r="J27" s="104" t="s">
+      <c r="J27" s="98" t="s">
         <v>463</v>
       </c>
-      <c r="K27" s="104" t="s">
+      <c r="K27" s="98" t="s">
         <v>428</v>
       </c>
       <c r="L27" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="M27" s="89" t="s">
+      <c r="M27" s="86" t="s">
         <v>403</v>
       </c>
-      <c r="N27" s="89" t="s">
+      <c r="N27" s="86" t="s">
         <v>404</v>
       </c>
       <c r="O27" s="9"/>
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
-      <c r="S27" s="31"/>
+      <c r="S27" s="29"/>
       <c r="T27" s="9"/>
       <c r="U27" s="15"/>
       <c r="V27" s="17"/>
@@ -4499,20 +4533,20 @@
       <c r="X27" s="10"/>
       <c r="Y27" s="10"/>
       <c r="Z27" s="24"/>
-      <c r="AA27" s="17" t="s">
+      <c r="AA27" s="6" t="s">
         <v>171</v>
       </c>
       <c r="AB27" s="10"/>
-      <c r="AC27" s="113"/>
-      <c r="AD27" s="27">
+      <c r="AC27" s="106"/>
+      <c r="AD27" s="25">
         <v>1980</v>
       </c>
-      <c r="AE27" s="119" t="s">
+      <c r="AE27" s="112" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="28" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="44">
+    <row r="28" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="42">
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -4537,16 +4571,16 @@
         <v>379</v>
       </c>
       <c r="I28" s="1"/>
-      <c r="J28" s="104" t="s">
+      <c r="J28" s="98" t="s">
         <v>426</v>
       </c>
-      <c r="K28" s="104" t="s">
+      <c r="K28" s="98" t="s">
         <v>427</v>
       </c>
       <c r="L28" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="M28" s="89" t="s">
+      <c r="M28" s="86" t="s">
         <v>204</v>
       </c>
       <c r="N28" s="17" t="s">
@@ -4556,7 +4590,7 @@
       <c r="P28" s="19"/>
       <c r="Q28" s="19"/>
       <c r="R28" s="20"/>
-      <c r="S28" s="30"/>
+      <c r="S28" s="28"/>
       <c r="T28" s="14"/>
       <c r="U28" s="15"/>
       <c r="V28" s="21"/>
@@ -4564,18 +4598,18 @@
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
       <c r="Z28" s="24"/>
-      <c r="AA28" s="25" t="s">
+      <c r="AA28" s="4" t="s">
         <v>205</v>
       </c>
       <c r="AB28" s="7"/>
-      <c r="AC28" s="114"/>
+      <c r="AC28" s="107"/>
       <c r="AD28" s="24"/>
-      <c r="AE28" s="119" t="s">
+      <c r="AE28" s="112" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="44">
+    <row r="29" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="42">
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -4600,16 +4634,16 @@
         <v>379</v>
       </c>
       <c r="I29" s="1"/>
-      <c r="J29" s="104" t="s">
+      <c r="J29" s="98" t="s">
         <v>431</v>
       </c>
-      <c r="K29" s="104" t="s">
+      <c r="K29" s="98" t="s">
         <v>457</v>
       </c>
       <c r="L29" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="M29" s="89" t="s">
+      <c r="M29" s="86" t="s">
         <v>83</v>
       </c>
       <c r="N29" s="17" t="s">
@@ -4619,7 +4653,7 @@
       <c r="P29" s="19"/>
       <c r="Q29" s="19"/>
       <c r="R29" s="20"/>
-      <c r="S29" s="30"/>
+      <c r="S29" s="28"/>
       <c r="T29" s="14"/>
       <c r="U29" s="15"/>
       <c r="V29" s="21"/>
@@ -4627,85 +4661,85 @@
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="24"/>
-      <c r="AA29" s="25" t="s">
+      <c r="AA29" s="4" t="s">
         <v>84</v>
       </c>
       <c r="AB29" s="7"/>
-      <c r="AC29" s="109"/>
+      <c r="AC29" s="103"/>
       <c r="AD29" s="24">
         <v>1898</v>
       </c>
-      <c r="AE29" s="119" t="s">
+      <c r="AE29" s="112" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="30" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="44">
+    <row r="30" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="42">
         <v>29</v>
       </c>
-      <c r="B30" s="82" t="s">
+      <c r="B30" s="79" t="s">
         <v>267</v>
       </c>
-      <c r="C30" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="51" t="s">
+      <c r="C30" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="49" t="s">
         <v>268</v>
       </c>
-      <c r="G30" s="49" t="s">
+      <c r="G30" s="47" t="s">
         <v>24</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="I30" s="49"/>
-      <c r="J30" s="105" t="s">
+      <c r="I30" s="47"/>
+      <c r="J30" s="99" t="s">
         <v>458</v>
       </c>
-      <c r="K30" s="105" t="s">
+      <c r="K30" s="99" t="s">
         <v>459</v>
       </c>
-      <c r="L30" s="52" t="s">
+      <c r="L30" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="M30" s="90" t="s">
+      <c r="M30" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="N30" s="52" t="s">
+      <c r="N30" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="O30" s="54"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="55"/>
-      <c r="S30" s="56"/>
-      <c r="T30" s="54"/>
-      <c r="U30" s="57"/>
-      <c r="V30" s="58"/>
-      <c r="W30" s="53"/>
-      <c r="X30" s="53"/>
-      <c r="Y30" s="53"/>
-      <c r="Z30" s="59"/>
-      <c r="AA30" s="60" t="s">
+      <c r="O30" s="52"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="52"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="51"/>
+      <c r="X30" s="51"/>
+      <c r="Y30" s="51"/>
+      <c r="Z30" s="57"/>
+      <c r="AA30" s="49" t="s">
         <v>290</v>
       </c>
-      <c r="AB30" s="53"/>
-      <c r="AC30" s="51"/>
-      <c r="AD30" s="59">
+      <c r="AB30" s="51"/>
+      <c r="AC30" s="49"/>
+      <c r="AD30" s="57">
         <v>2003</v>
       </c>
-      <c r="AE30" s="116" t="s">
+      <c r="AE30" s="109" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="31" spans="1:31" s="44" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="44">
+    <row r="31" spans="1:31" s="42" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="42">
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -4730,26 +4764,26 @@
         <v>379</v>
       </c>
       <c r="I31" s="1"/>
-      <c r="J31" s="104" t="s">
+      <c r="J31" s="98" t="s">
         <v>461</v>
       </c>
-      <c r="K31" s="104" t="s">
+      <c r="K31" s="98" t="s">
         <v>423</v>
       </c>
       <c r="L31" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="M31" s="89" t="s">
+      <c r="M31" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="N31" s="89" t="s">
+      <c r="N31" s="86" t="s">
         <v>145</v>
       </c>
       <c r="O31" s="14"/>
       <c r="P31" s="19"/>
       <c r="Q31" s="19"/>
       <c r="R31" s="20"/>
-      <c r="S31" s="30"/>
+      <c r="S31" s="28"/>
       <c r="T31" s="14"/>
       <c r="U31" s="15"/>
       <c r="V31" s="21"/>
@@ -4757,22 +4791,22 @@
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="24"/>
-      <c r="AA31" s="26" t="s">
+      <c r="AA31" s="8" t="s">
         <v>146</v>
       </c>
       <c r="AB31" s="7"/>
-      <c r="AC31" s="112" t="s">
+      <c r="AC31" s="82" t="s">
         <v>354</v>
       </c>
-      <c r="AD31" s="95" t="s">
+      <c r="AD31" s="92" t="s">
         <v>147</v>
       </c>
-      <c r="AE31" s="119" t="s">
+      <c r="AE31" s="112" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="32" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="44">
+    <row r="32" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="42">
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -4797,26 +4831,26 @@
         <v>379</v>
       </c>
       <c r="I32" s="1"/>
-      <c r="J32" s="104" t="s">
+      <c r="J32" s="98" t="s">
         <v>462</v>
       </c>
-      <c r="K32" s="104" t="s">
+      <c r="K32" s="98" t="s">
         <v>420</v>
       </c>
       <c r="L32" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="M32" s="89" t="s">
+      <c r="M32" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="N32" s="89" t="s">
+      <c r="N32" s="86" t="s">
         <v>58</v>
       </c>
       <c r="O32" s="14"/>
       <c r="P32" s="19"/>
       <c r="Q32" s="19"/>
       <c r="R32" s="20"/>
-      <c r="S32" s="30"/>
+      <c r="S32" s="28"/>
       <c r="T32" s="14"/>
       <c r="U32" s="15"/>
       <c r="V32" s="21"/>
@@ -4824,22 +4858,22 @@
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
       <c r="Z32" s="24"/>
-      <c r="AA32" s="26" t="s">
+      <c r="AA32" s="8" t="s">
         <v>59</v>
       </c>
       <c r="AB32" s="7"/>
-      <c r="AC32" s="110" t="s">
+      <c r="AC32" s="104" t="s">
         <v>335</v>
       </c>
       <c r="AD32" s="24">
         <v>1899</v>
       </c>
-      <c r="AE32" s="119" t="s">
+      <c r="AE32" s="112" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="33" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="44">
+    <row r="33" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="42">
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -4864,16 +4898,16 @@
         <v>379</v>
       </c>
       <c r="I33" s="1"/>
-      <c r="J33" s="104" t="s">
+      <c r="J33" s="98" t="s">
         <v>460</v>
       </c>
-      <c r="K33" s="104" t="s">
+      <c r="K33" s="98" t="s">
         <v>432</v>
       </c>
       <c r="L33" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="M33" s="89" t="s">
+      <c r="M33" s="86" t="s">
         <v>407</v>
       </c>
       <c r="N33" s="17" t="s">
@@ -4883,7 +4917,7 @@
       <c r="P33" s="19"/>
       <c r="Q33" s="19"/>
       <c r="R33" s="20"/>
-      <c r="S33" s="30"/>
+      <c r="S33" s="28"/>
       <c r="T33" s="14"/>
       <c r="U33" s="15"/>
       <c r="V33" s="21"/>
@@ -4891,20 +4925,20 @@
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="24"/>
-      <c r="AA33" s="25"/>
+      <c r="AA33" s="4"/>
       <c r="AB33" s="7"/>
-      <c r="AC33" s="110" t="s">
+      <c r="AC33" s="104" t="s">
         <v>378</v>
       </c>
       <c r="AD33" s="24">
         <v>1900</v>
       </c>
-      <c r="AE33" s="119" t="s">
+      <c r="AE33" s="112" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="34" spans="1:31" s="61" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="44">
+    <row r="34" spans="1:31" s="59" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="42">
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -4929,16 +4963,16 @@
         <v>379</v>
       </c>
       <c r="I34" s="1"/>
-      <c r="J34" s="104" t="s">
+      <c r="J34" s="98" t="s">
         <v>416</v>
       </c>
-      <c r="K34" s="104" t="s">
+      <c r="K34" s="98" t="s">
         <v>417</v>
       </c>
       <c r="L34" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="M34" s="89" t="s">
+      <c r="M34" s="86" t="s">
         <v>121</v>
       </c>
       <c r="N34" s="17" t="s">
@@ -4948,7 +4982,7 @@
       <c r="P34" s="19"/>
       <c r="Q34" s="19"/>
       <c r="R34" s="20"/>
-      <c r="S34" s="30"/>
+      <c r="S34" s="28"/>
       <c r="T34" s="14"/>
       <c r="U34" s="15"/>
       <c r="V34" s="21"/>
@@ -4956,20 +4990,20 @@
       <c r="X34" s="7"/>
       <c r="Y34" s="7"/>
       <c r="Z34" s="24"/>
-      <c r="AA34" s="25"/>
+      <c r="AA34" s="4"/>
       <c r="AB34" s="7"/>
-      <c r="AC34" s="85" t="s">
+      <c r="AC34" s="82" t="s">
         <v>348</v>
       </c>
       <c r="AD34" s="24">
         <v>1912</v>
       </c>
-      <c r="AE34" s="119" t="s">
+      <c r="AE34" s="112" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="44">
+    <row r="35" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="42">
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -4994,16 +5028,16 @@
         <v>379</v>
       </c>
       <c r="I35" s="1"/>
-      <c r="J35" s="104" t="s">
+      <c r="J35" s="98" t="s">
         <v>416</v>
       </c>
-      <c r="K35" s="104" t="s">
+      <c r="K35" s="98" t="s">
         <v>417</v>
       </c>
       <c r="L35" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="M35" s="89" t="s">
+      <c r="M35" s="86" t="s">
         <v>123</v>
       </c>
       <c r="N35" s="17" t="s">
@@ -5013,7 +5047,7 @@
       <c r="P35" s="19"/>
       <c r="Q35" s="19"/>
       <c r="R35" s="20"/>
-      <c r="S35" s="30"/>
+      <c r="S35" s="28"/>
       <c r="T35" s="14"/>
       <c r="U35" s="15"/>
       <c r="V35" s="21"/>
@@ -5021,20 +5055,20 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="24"/>
-      <c r="AA35" s="25"/>
+      <c r="AA35" s="4"/>
       <c r="AB35" s="7"/>
-      <c r="AC35" s="110" t="s">
+      <c r="AC35" s="104" t="s">
         <v>349</v>
       </c>
       <c r="AD35" s="24">
         <v>1919</v>
       </c>
-      <c r="AE35" s="119" t="s">
+      <c r="AE35" s="112" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="44">
+    <row r="36" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="42">
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -5061,16 +5095,16 @@
       <c r="I36" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="J36" s="104" t="s">
+      <c r="J36" s="98" t="s">
         <v>433</v>
       </c>
-      <c r="K36" s="104" t="s">
+      <c r="K36" s="98" t="s">
         <v>434</v>
       </c>
       <c r="L36" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="M36" s="89" t="s">
+      <c r="M36" s="86" t="s">
         <v>76</v>
       </c>
       <c r="N36" s="17" t="s">
@@ -5080,7 +5114,7 @@
       <c r="P36" s="19"/>
       <c r="Q36" s="19"/>
       <c r="R36" s="20"/>
-      <c r="S36" s="30"/>
+      <c r="S36" s="28"/>
       <c r="T36" s="14"/>
       <c r="U36" s="15"/>
       <c r="V36" s="21"/>
@@ -5088,7 +5122,7 @@
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
       <c r="Z36" s="24"/>
-      <c r="AA36" s="25" t="s">
+      <c r="AA36" s="4" t="s">
         <v>77</v>
       </c>
       <c r="AB36" s="7"/>
@@ -5098,12 +5132,12 @@
       <c r="AD36" s="24">
         <v>1921</v>
       </c>
-      <c r="AE36" s="119" t="s">
+      <c r="AE36" s="112" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="37" spans="1:31" s="44" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="44">
+    <row r="37" spans="1:31" s="42" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="42">
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -5130,16 +5164,16 @@
       <c r="I37" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="J37" s="104" t="s">
+      <c r="J37" s="98" t="s">
         <v>433</v>
       </c>
-      <c r="K37" s="104" t="s">
+      <c r="K37" s="98" t="s">
         <v>434</v>
       </c>
       <c r="L37" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="M37" s="89" t="s">
+      <c r="M37" s="86" t="s">
         <v>78</v>
       </c>
       <c r="N37" s="17" t="s">
@@ -5149,7 +5183,7 @@
       <c r="P37" s="19"/>
       <c r="Q37" s="19"/>
       <c r="R37" s="20"/>
-      <c r="S37" s="30"/>
+      <c r="S37" s="28"/>
       <c r="T37" s="14"/>
       <c r="U37" s="15"/>
       <c r="V37" s="21"/>
@@ -5157,7 +5191,7 @@
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="24"/>
-      <c r="AA37" s="25" t="s">
+      <c r="AA37" s="4" t="s">
         <v>77</v>
       </c>
       <c r="AB37" s="7"/>
@@ -5167,12 +5201,12 @@
       <c r="AD37" s="24">
         <v>1921</v>
       </c>
-      <c r="AE37" s="119" t="s">
+      <c r="AE37" s="112" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="38" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="44">
+    <row r="38" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="42">
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -5199,16 +5233,16 @@
       <c r="I38" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="J38" s="104" t="s">
+      <c r="J38" s="98" t="s">
         <v>433</v>
       </c>
-      <c r="K38" s="104" t="s">
+      <c r="K38" s="98" t="s">
         <v>434</v>
       </c>
       <c r="L38" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="M38" s="89" t="s">
+      <c r="M38" s="86" t="s">
         <v>79</v>
       </c>
       <c r="N38" s="17" t="s">
@@ -5218,7 +5252,7 @@
       <c r="P38" s="19"/>
       <c r="Q38" s="19"/>
       <c r="R38" s="20"/>
-      <c r="S38" s="30"/>
+      <c r="S38" s="28"/>
       <c r="T38" s="14"/>
       <c r="U38" s="15"/>
       <c r="V38" s="21"/>
@@ -5226,7 +5260,7 @@
       <c r="X38" s="7"/>
       <c r="Y38" s="7"/>
       <c r="Z38" s="24"/>
-      <c r="AA38" s="25" t="s">
+      <c r="AA38" s="4" t="s">
         <v>77</v>
       </c>
       <c r="AB38" s="7"/>
@@ -5236,12 +5270,12 @@
       <c r="AD38" s="24">
         <v>1921</v>
       </c>
-      <c r="AE38" s="119" t="s">
+      <c r="AE38" s="112" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="39" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="44">
+    <row r="39" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="42">
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -5266,16 +5300,16 @@
         <v>379</v>
       </c>
       <c r="I39" s="1"/>
-      <c r="J39" s="104" t="s">
+      <c r="J39" s="98" t="s">
         <v>416</v>
       </c>
-      <c r="K39" s="104" t="s">
+      <c r="K39" s="98" t="s">
         <v>417</v>
       </c>
       <c r="L39" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="M39" s="89" t="s">
+      <c r="M39" s="86" t="s">
         <v>125</v>
       </c>
       <c r="N39" s="17" t="s">
@@ -5285,7 +5319,7 @@
       <c r="P39" s="19"/>
       <c r="Q39" s="19"/>
       <c r="R39" s="20"/>
-      <c r="S39" s="30"/>
+      <c r="S39" s="28"/>
       <c r="T39" s="14"/>
       <c r="U39" s="15"/>
       <c r="V39" s="21"/>
@@ -5293,20 +5327,20 @@
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="24"/>
-      <c r="AA39" s="25"/>
+      <c r="AA39" s="4"/>
       <c r="AB39" s="7"/>
-      <c r="AC39" s="112" t="s">
+      <c r="AC39" s="82" t="s">
         <v>350</v>
       </c>
       <c r="AD39" s="24">
         <v>1922</v>
       </c>
-      <c r="AE39" s="119" t="s">
+      <c r="AE39" s="112" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="44">
+    <row r="40" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="42">
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -5331,26 +5365,26 @@
         <v>379</v>
       </c>
       <c r="I40" s="1"/>
-      <c r="J40" s="104" t="s">
+      <c r="J40" s="98" t="s">
         <v>461</v>
       </c>
-      <c r="K40" s="104" t="s">
+      <c r="K40" s="98" t="s">
         <v>423</v>
       </c>
       <c r="L40" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="M40" s="89" t="s">
+      <c r="M40" s="86" t="s">
         <v>148</v>
       </c>
-      <c r="N40" s="89" t="s">
+      <c r="N40" s="86" t="s">
         <v>148</v>
       </c>
       <c r="O40" s="14"/>
       <c r="P40" s="19"/>
       <c r="Q40" s="19"/>
       <c r="R40" s="20"/>
-      <c r="S40" s="30"/>
+      <c r="S40" s="28"/>
       <c r="T40" s="14"/>
       <c r="U40" s="15"/>
       <c r="V40" s="21"/>
@@ -5358,89 +5392,89 @@
       <c r="X40" s="7"/>
       <c r="Y40" s="7"/>
       <c r="Z40" s="24"/>
-      <c r="AA40" s="26" t="s">
+      <c r="AA40" s="8" t="s">
         <v>149</v>
       </c>
       <c r="AB40" s="7"/>
-      <c r="AC40" s="85" t="s">
+      <c r="AC40" s="82" t="s">
         <v>355</v>
       </c>
-      <c r="AD40" s="95" t="s">
+      <c r="AD40" s="92" t="s">
         <v>150</v>
       </c>
-      <c r="AE40" s="119" t="s">
+      <c r="AE40" s="112" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="44">
+    <row r="41" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="42">
         <v>40</v>
       </c>
-      <c r="B41" s="82" t="s">
+      <c r="B41" s="79" t="s">
         <v>262</v>
       </c>
-      <c r="C41" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="F41" s="51" t="s">
+      <c r="C41" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="49" t="s">
         <v>263</v>
       </c>
-      <c r="G41" s="49" t="s">
+      <c r="G41" s="47" t="s">
         <v>24</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="I41" s="49"/>
-      <c r="J41" s="106" t="s">
+      <c r="I41" s="47"/>
+      <c r="J41" s="100" t="s">
         <v>467</v>
       </c>
-      <c r="K41" s="106" t="s">
+      <c r="K41" s="100" t="s">
         <v>435</v>
       </c>
-      <c r="L41" s="52" t="s">
+      <c r="L41" s="50" t="s">
         <v>264</v>
       </c>
-      <c r="M41" s="90" t="s">
+      <c r="M41" s="87" t="s">
         <v>265</v>
       </c>
-      <c r="N41" s="52" t="s">
+      <c r="N41" s="50" t="s">
         <v>265</v>
       </c>
-      <c r="O41" s="54"/>
-      <c r="P41" s="55"/>
-      <c r="Q41" s="55"/>
-      <c r="R41" s="55"/>
-      <c r="S41" s="56">
+      <c r="O41" s="52"/>
+      <c r="P41" s="53"/>
+      <c r="Q41" s="53"/>
+      <c r="R41" s="53"/>
+      <c r="S41" s="54">
         <v>20000</v>
       </c>
-      <c r="T41" s="54"/>
-      <c r="U41" s="57"/>
-      <c r="V41" s="58"/>
-      <c r="W41" s="53"/>
-      <c r="X41" s="53"/>
-      <c r="Y41" s="53"/>
-      <c r="Z41" s="60"/>
-      <c r="AA41" s="60" t="s">
+      <c r="T41" s="52"/>
+      <c r="U41" s="55"/>
+      <c r="V41" s="56"/>
+      <c r="W41" s="51"/>
+      <c r="X41" s="51"/>
+      <c r="Y41" s="51"/>
+      <c r="Z41" s="58"/>
+      <c r="AA41" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="AB41" s="53"/>
-      <c r="AC41" s="115"/>
-      <c r="AD41" s="59">
+      <c r="AB41" s="51"/>
+      <c r="AC41" s="108"/>
+      <c r="AD41" s="57">
         <v>1983</v>
       </c>
-      <c r="AE41" s="116" t="s">
+      <c r="AE41" s="109" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="42" spans="1:31" s="44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="44">
+    <row r="42" spans="1:31" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="42">
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -5465,16 +5499,16 @@
         <v>379</v>
       </c>
       <c r="I42" s="1"/>
-      <c r="J42" s="104" t="s">
+      <c r="J42" s="98" t="s">
         <v>468</v>
       </c>
-      <c r="K42" s="104" t="s">
+      <c r="K42" s="98" t="s">
         <v>436</v>
       </c>
       <c r="L42" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="M42" s="89" t="s">
+      <c r="M42" s="86" t="s">
         <v>226</v>
       </c>
       <c r="N42" s="17" t="s">
@@ -5484,7 +5518,7 @@
       <c r="P42" s="19"/>
       <c r="Q42" s="19"/>
       <c r="R42" s="20"/>
-      <c r="S42" s="30"/>
+      <c r="S42" s="28"/>
       <c r="T42" s="14"/>
       <c r="U42" s="15"/>
       <c r="V42" s="21"/>
@@ -5492,18 +5526,18 @@
       <c r="X42" s="7"/>
       <c r="Y42" s="7"/>
       <c r="Z42" s="24"/>
-      <c r="AA42" s="25"/>
+      <c r="AA42" s="4"/>
       <c r="AB42" s="7"/>
       <c r="AC42" s="4"/>
       <c r="AD42" s="24">
         <v>1977</v>
       </c>
-      <c r="AE42" s="119" t="s">
+      <c r="AE42" s="112" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="44">
+    <row r="43" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="42">
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -5528,26 +5562,26 @@
         <v>379</v>
       </c>
       <c r="I43" s="1"/>
-      <c r="J43" s="104" t="s">
+      <c r="J43" s="98" t="s">
         <v>433</v>
       </c>
-      <c r="K43" s="104" t="s">
+      <c r="K43" s="98" t="s">
         <v>434</v>
       </c>
       <c r="L43" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="M43" s="100" t="s">
+      <c r="M43" s="95" t="s">
         <v>283</v>
       </c>
-      <c r="N43" s="87" t="s">
+      <c r="N43" s="84" t="s">
         <v>283</v>
       </c>
       <c r="O43" s="14"/>
       <c r="P43" s="19"/>
       <c r="Q43" s="19"/>
       <c r="R43" s="20"/>
-      <c r="S43" s="30"/>
+      <c r="S43" s="28"/>
       <c r="T43" s="14"/>
       <c r="U43" s="15"/>
       <c r="V43" s="21"/>
@@ -5555,7 +5589,7 @@
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
       <c r="Z43" s="24"/>
-      <c r="AA43" s="25"/>
+      <c r="AA43" s="4"/>
       <c r="AB43" s="7"/>
       <c r="AC43" s="4" t="s">
         <v>340</v>
@@ -5563,12 +5597,12 @@
       <c r="AD43" s="24">
         <v>1929</v>
       </c>
-      <c r="AE43" s="119" t="s">
+      <c r="AE43" s="112" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="44" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="44">
+    <row r="44" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="42">
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -5593,16 +5627,16 @@
         <v>379</v>
       </c>
       <c r="I44" s="1"/>
-      <c r="J44" s="104" t="s">
+      <c r="J44" s="98" t="s">
         <v>416</v>
       </c>
-      <c r="K44" s="104" t="s">
+      <c r="K44" s="98" t="s">
         <v>417</v>
       </c>
       <c r="L44" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="M44" s="89" t="s">
+      <c r="M44" s="86" t="s">
         <v>127</v>
       </c>
       <c r="N44" s="18" t="s">
@@ -5612,7 +5646,7 @@
       <c r="P44" s="19"/>
       <c r="Q44" s="19"/>
       <c r="R44" s="20"/>
-      <c r="S44" s="30"/>
+      <c r="S44" s="28"/>
       <c r="T44" s="14"/>
       <c r="U44" s="15"/>
       <c r="V44" s="21"/>
@@ -5620,18 +5654,18 @@
       <c r="X44" s="7"/>
       <c r="Y44" s="7"/>
       <c r="Z44" s="24"/>
-      <c r="AA44" s="25"/>
+      <c r="AA44" s="4"/>
       <c r="AB44" s="7"/>
-      <c r="AC44" s="109"/>
+      <c r="AC44" s="103"/>
       <c r="AD44" s="24">
         <v>1931</v>
       </c>
-      <c r="AE44" s="119" t="s">
+      <c r="AE44" s="112" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="44">
+    <row r="45" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="42">
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -5656,16 +5690,16 @@
         <v>379</v>
       </c>
       <c r="I45" s="1"/>
-      <c r="J45" s="104" t="s">
+      <c r="J45" s="98" t="s">
         <v>437</v>
       </c>
-      <c r="K45" s="104" t="s">
+      <c r="K45" s="98" t="s">
         <v>487</v>
       </c>
       <c r="L45" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="M45" s="89" t="s">
+      <c r="M45" s="86" t="s">
         <v>111</v>
       </c>
       <c r="N45" s="17" t="s">
@@ -5675,7 +5709,7 @@
       <c r="P45" s="19"/>
       <c r="Q45" s="19"/>
       <c r="R45" s="20"/>
-      <c r="S45" s="30"/>
+      <c r="S45" s="28"/>
       <c r="T45" s="14"/>
       <c r="U45" s="15"/>
       <c r="V45" s="21"/>
@@ -5683,20 +5717,20 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
       <c r="Z45" s="24"/>
-      <c r="AA45" s="25"/>
+      <c r="AA45" s="4"/>
       <c r="AB45" s="7"/>
-      <c r="AC45" s="85" t="s">
+      <c r="AC45" s="82" t="s">
         <v>346</v>
       </c>
       <c r="AD45" s="24">
         <v>1931</v>
       </c>
-      <c r="AE45" s="119" t="s">
+      <c r="AE45" s="112" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="44">
+    <row r="46" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="42">
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -5721,16 +5755,16 @@
         <v>379</v>
       </c>
       <c r="I46" s="1"/>
-      <c r="J46" s="104" t="s">
+      <c r="J46" s="98" t="s">
         <v>416</v>
       </c>
-      <c r="K46" s="104" t="s">
+      <c r="K46" s="98" t="s">
         <v>417</v>
       </c>
       <c r="L46" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="M46" s="89" t="s">
+      <c r="M46" s="86" t="s">
         <v>129</v>
       </c>
       <c r="N46" s="18" t="s">
@@ -5740,7 +5774,7 @@
       <c r="P46" s="19"/>
       <c r="Q46" s="19"/>
       <c r="R46" s="20"/>
-      <c r="S46" s="30"/>
+      <c r="S46" s="28"/>
       <c r="T46" s="14"/>
       <c r="U46" s="15"/>
       <c r="V46" s="21"/>
@@ -5748,18 +5782,18 @@
       <c r="X46" s="7"/>
       <c r="Y46" s="7"/>
       <c r="Z46" s="24"/>
-      <c r="AA46" s="25"/>
+      <c r="AA46" s="4"/>
       <c r="AB46" s="7"/>
-      <c r="AC46" s="109"/>
+      <c r="AC46" s="103"/>
       <c r="AD46" s="24">
         <v>1934</v>
       </c>
-      <c r="AE46" s="119" t="s">
+      <c r="AE46" s="112" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="44">
+    <row r="47" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="42">
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -5784,16 +5818,16 @@
         <v>379</v>
       </c>
       <c r="I47" s="1"/>
-      <c r="J47" s="104" t="s">
+      <c r="J47" s="98" t="s">
         <v>465</v>
       </c>
-      <c r="K47" s="104" t="s">
+      <c r="K47" s="98" t="s">
         <v>477</v>
       </c>
       <c r="L47" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="M47" s="89" t="s">
+      <c r="M47" s="86" t="s">
         <v>291</v>
       </c>
       <c r="N47" s="17" t="s">
@@ -5803,7 +5837,7 @@
       <c r="P47" s="19"/>
       <c r="Q47" s="19"/>
       <c r="R47" s="20"/>
-      <c r="S47" s="30"/>
+      <c r="S47" s="28"/>
       <c r="T47" s="14"/>
       <c r="U47" s="15"/>
       <c r="V47" s="21"/>
@@ -5811,7 +5845,7 @@
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
       <c r="Z47" s="24"/>
-      <c r="AA47" s="25" t="s">
+      <c r="AA47" s="4" t="s">
         <v>292</v>
       </c>
       <c r="AB47" s="7"/>
@@ -5819,12 +5853,12 @@
       <c r="AD47" s="24">
         <v>1935</v>
       </c>
-      <c r="AE47" s="119" t="s">
+      <c r="AE47" s="112" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="48" spans="1:31" s="61" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="44">
+    <row r="48" spans="1:31" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="42">
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -5849,16 +5883,16 @@
         <v>379</v>
       </c>
       <c r="I48" s="1"/>
-      <c r="J48" s="104" t="s">
+      <c r="J48" s="98" t="s">
         <v>418</v>
       </c>
-      <c r="K48" s="104" t="s">
+      <c r="K48" s="98" t="s">
         <v>419</v>
       </c>
       <c r="L48" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="M48" s="89" t="s">
+      <c r="M48" s="86" t="s">
         <v>197</v>
       </c>
       <c r="N48" s="17" t="s">
@@ -5868,7 +5902,7 @@
       <c r="P48" s="19"/>
       <c r="Q48" s="19"/>
       <c r="R48" s="20"/>
-      <c r="S48" s="30"/>
+      <c r="S48" s="28"/>
       <c r="T48" s="14"/>
       <c r="U48" s="15"/>
       <c r="V48" s="21"/>
@@ -5876,22 +5910,22 @@
       <c r="X48" s="7"/>
       <c r="Y48" s="7"/>
       <c r="Z48" s="24"/>
-      <c r="AA48" s="25" t="s">
+      <c r="AA48" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AB48" s="7"/>
-      <c r="AC48" s="85" t="s">
+      <c r="AC48" s="82" t="s">
         <v>365</v>
       </c>
       <c r="AD48" s="24">
         <v>1950</v>
       </c>
-      <c r="AE48" s="119" t="s">
+      <c r="AE48" s="112" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="49" spans="1:31" s="44" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="44">
+    <row r="49" spans="1:31" s="42" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="42">
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -5916,16 +5950,16 @@
         <v>379</v>
       </c>
       <c r="I49" s="1"/>
-      <c r="J49" s="104" t="s">
+      <c r="J49" s="98" t="s">
         <v>416</v>
       </c>
-      <c r="K49" s="104" t="s">
+      <c r="K49" s="98" t="s">
         <v>417</v>
       </c>
       <c r="L49" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="M49" s="89" t="s">
+      <c r="M49" s="86" t="s">
         <v>132</v>
       </c>
       <c r="N49" s="18" t="s">
@@ -5937,36 +5971,36 @@
       <c r="P49" s="19"/>
       <c r="Q49" s="19"/>
       <c r="R49" s="19"/>
-      <c r="S49" s="30">
+      <c r="S49" s="28">
         <v>840000</v>
       </c>
       <c r="T49" s="14"/>
-      <c r="U49" s="73"/>
-      <c r="V49" s="74"/>
-      <c r="W49" s="68">
+      <c r="U49" s="71"/>
+      <c r="V49" s="72"/>
+      <c r="W49" s="66">
         <v>22.5</v>
       </c>
-      <c r="X49" s="68"/>
-      <c r="Y49" s="68"/>
-      <c r="Z49" s="75" t="s">
+      <c r="X49" s="66"/>
+      <c r="Y49" s="66"/>
+      <c r="Z49" s="73" t="s">
         <v>134</v>
       </c>
-      <c r="AA49" s="26" t="s">
+      <c r="AA49" s="8" t="s">
         <v>135</v>
       </c>
       <c r="AB49" s="7"/>
-      <c r="AC49" s="85" t="s">
+      <c r="AC49" s="82" t="s">
         <v>351</v>
       </c>
       <c r="AD49" s="24">
         <v>1943</v>
       </c>
-      <c r="AE49" s="119" t="s">
+      <c r="AE49" s="112" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="50" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="44">
+    <row r="50" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="42">
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -5993,16 +6027,16 @@
       <c r="I50" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J50" s="104" t="s">
+      <c r="J50" s="98" t="s">
         <v>438</v>
       </c>
-      <c r="K50" s="104" t="s">
+      <c r="K50" s="98" t="s">
         <v>480</v>
       </c>
       <c r="L50" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="M50" s="89" t="s">
+      <c r="M50" s="86" t="s">
         <v>64</v>
       </c>
       <c r="N50" s="17" t="s">
@@ -6012,7 +6046,7 @@
       <c r="P50" s="19"/>
       <c r="Q50" s="19"/>
       <c r="R50" s="20"/>
-      <c r="S50" s="30"/>
+      <c r="S50" s="28"/>
       <c r="T50" s="14"/>
       <c r="U50" s="15"/>
       <c r="V50" s="21"/>
@@ -6020,20 +6054,20 @@
       <c r="X50" s="7"/>
       <c r="Y50" s="7"/>
       <c r="Z50" s="24"/>
-      <c r="AA50" s="25"/>
+      <c r="AA50" s="4"/>
       <c r="AB50" s="7"/>
-      <c r="AC50" s="109" t="s">
+      <c r="AC50" s="103" t="s">
         <v>286</v>
       </c>
       <c r="AD50" s="24">
         <v>1944</v>
       </c>
-      <c r="AE50" s="119" t="s">
+      <c r="AE50" s="112" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="51" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="44">
+    <row r="51" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="42">
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -6058,16 +6092,16 @@
         <v>379</v>
       </c>
       <c r="I51" s="1"/>
-      <c r="J51" s="104" t="s">
+      <c r="J51" s="98" t="s">
         <v>416</v>
       </c>
-      <c r="K51" s="104" t="s">
+      <c r="K51" s="98" t="s">
         <v>417</v>
       </c>
       <c r="L51" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="M51" s="89" t="s">
+      <c r="M51" s="86" t="s">
         <v>136</v>
       </c>
       <c r="N51" s="17" t="s">
@@ -6077,7 +6111,7 @@
       <c r="P51" s="19"/>
       <c r="Q51" s="19"/>
       <c r="R51" s="20"/>
-      <c r="S51" s="30">
+      <c r="S51" s="28">
         <v>850000</v>
       </c>
       <c r="T51" s="14"/>
@@ -6087,20 +6121,20 @@
       <c r="X51" s="7"/>
       <c r="Y51" s="7"/>
       <c r="Z51" s="24"/>
-      <c r="AA51" s="25" t="s">
+      <c r="AA51" s="4" t="s">
         <v>320</v>
       </c>
       <c r="AB51" s="7"/>
-      <c r="AC51" s="112" t="s">
+      <c r="AC51" s="82" t="s">
         <v>352</v>
       </c>
       <c r="AD51" s="24"/>
-      <c r="AE51" s="119" t="s">
+      <c r="AE51" s="112" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="44">
+    <row r="52" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="42">
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -6127,26 +6161,26 @@
       <c r="I52" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="J52" s="104" t="s">
+      <c r="J52" s="98" t="s">
         <v>469</v>
       </c>
-      <c r="K52" s="104" t="s">
+      <c r="K52" s="98" t="s">
         <v>439</v>
       </c>
       <c r="L52" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="M52" s="101" t="s">
+      <c r="M52" s="96" t="s">
         <v>289</v>
       </c>
-      <c r="N52" s="86" t="s">
+      <c r="N52" s="83" t="s">
         <v>289</v>
       </c>
       <c r="O52" s="14"/>
       <c r="P52" s="19"/>
       <c r="Q52" s="19"/>
       <c r="R52" s="20"/>
-      <c r="S52" s="30">
+      <c r="S52" s="28">
         <v>1600000</v>
       </c>
       <c r="T52" s="14"/>
@@ -6164,22 +6198,22 @@
       <c r="Z52" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="AA52" s="102" t="s">
+      <c r="AA52" s="82" t="s">
         <v>319</v>
       </c>
       <c r="AB52" s="7"/>
-      <c r="AC52" s="112" t="s">
+      <c r="AC52" s="82" t="s">
         <v>338</v>
       </c>
       <c r="AD52" s="24">
         <v>1944</v>
       </c>
-      <c r="AE52" s="84" t="s">
+      <c r="AE52" s="81" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="53" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="44">
+    <row r="53" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="42">
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -6206,16 +6240,16 @@
       <c r="I53" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J53" s="104" t="s">
+      <c r="J53" s="98" t="s">
         <v>465</v>
       </c>
-      <c r="K53" s="104" t="s">
+      <c r="K53" s="98" t="s">
         <v>477</v>
       </c>
       <c r="L53" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="M53" s="89" t="s">
+      <c r="M53" s="86" t="s">
         <v>293</v>
       </c>
       <c r="N53" s="17" t="s">
@@ -6225,7 +6259,7 @@
       <c r="P53" s="19"/>
       <c r="Q53" s="19"/>
       <c r="R53" s="20"/>
-      <c r="S53" s="30"/>
+      <c r="S53" s="28"/>
       <c r="T53" s="14"/>
       <c r="U53" s="15"/>
       <c r="V53" s="21"/>
@@ -6233,18 +6267,18 @@
       <c r="X53" s="7"/>
       <c r="Y53" s="7"/>
       <c r="Z53" s="24"/>
-      <c r="AA53" s="25"/>
+      <c r="AA53" s="4"/>
       <c r="AB53" s="7"/>
       <c r="AC53" s="4"/>
       <c r="AD53" s="24">
         <v>1948</v>
       </c>
-      <c r="AE53" s="119" t="s">
+      <c r="AE53" s="112" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="54" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="44">
+    <row r="54" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="42">
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -6269,19 +6303,19 @@
         <v>379</v>
       </c>
       <c r="I54" s="1"/>
-      <c r="J54" s="104" t="s">
+      <c r="J54" s="98" t="s">
         <v>463</v>
       </c>
-      <c r="K54" s="104" t="s">
+      <c r="K54" s="98" t="s">
         <v>428</v>
       </c>
       <c r="L54" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="M54" s="89" t="s">
+      <c r="M54" s="86" t="s">
         <v>173</v>
       </c>
-      <c r="N54" s="89" t="s">
+      <c r="N54" s="86" t="s">
         <v>173</v>
       </c>
       <c r="O54" s="14"/>
@@ -6300,20 +6334,20 @@
       <c r="X54" s="7"/>
       <c r="Y54" s="7"/>
       <c r="Z54" s="24"/>
-      <c r="AA54" s="99" t="s">
+      <c r="AA54" s="103" t="s">
         <v>389</v>
       </c>
       <c r="AB54" s="7"/>
-      <c r="AC54" s="109"/>
+      <c r="AC54" s="103"/>
       <c r="AD54" s="24">
         <v>1951</v>
       </c>
-      <c r="AE54" s="119" t="s">
+      <c r="AE54" s="112" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="55" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="44">
+    <row r="55" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="42">
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -6340,16 +6374,16 @@
       <c r="I55" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J55" s="104" t="s">
+      <c r="J55" s="98" t="s">
         <v>469</v>
       </c>
-      <c r="K55" s="104" t="s">
+      <c r="K55" s="98" t="s">
         <v>439</v>
       </c>
       <c r="L55" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="M55" s="89" t="s">
+      <c r="M55" s="86" t="s">
         <v>72</v>
       </c>
       <c r="N55" s="17" t="s">
@@ -6359,7 +6393,7 @@
       <c r="P55" s="19"/>
       <c r="Q55" s="19"/>
       <c r="R55" s="20"/>
-      <c r="S55" s="30">
+      <c r="S55" s="28">
         <v>255000</v>
       </c>
       <c r="T55" s="14"/>
@@ -6373,20 +6407,20 @@
       <c r="Z55" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="AA55" s="99"/>
+      <c r="AA55" s="103"/>
       <c r="AB55" s="7"/>
-      <c r="AC55" s="110" t="s">
+      <c r="AC55" s="104" t="s">
         <v>339</v>
       </c>
       <c r="AD55" s="24">
         <v>2003</v>
       </c>
-      <c r="AE55" s="119" t="s">
+      <c r="AE55" s="112" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="56" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="44">
+    <row r="56" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="42">
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -6411,26 +6445,26 @@
         <v>379</v>
       </c>
       <c r="I56" s="1"/>
-      <c r="J56" s="104" t="s">
+      <c r="J56" s="98" t="s">
         <v>470</v>
       </c>
-      <c r="K56" s="104" t="s">
+      <c r="K56" s="98" t="s">
         <v>481</v>
       </c>
       <c r="L56" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="M56" s="89" t="s">
+      <c r="M56" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="N56" s="89" t="s">
+      <c r="N56" s="86" t="s">
         <v>28</v>
       </c>
       <c r="O56" s="14"/>
       <c r="P56" s="19"/>
       <c r="Q56" s="19"/>
       <c r="R56" s="20"/>
-      <c r="S56" s="30"/>
+      <c r="S56" s="28"/>
       <c r="T56" s="14"/>
       <c r="U56" s="15"/>
       <c r="V56" s="21"/>
@@ -6438,20 +6472,20 @@
       <c r="X56" s="7"/>
       <c r="Y56" s="7"/>
       <c r="Z56" s="24"/>
-      <c r="AA56" s="25" t="s">
+      <c r="AA56" s="4" t="s">
         <v>380</v>
       </c>
       <c r="AB56" s="7"/>
-      <c r="AC56" s="110" t="s">
+      <c r="AC56" s="104" t="s">
         <v>330</v>
       </c>
       <c r="AD56" s="24"/>
-      <c r="AE56" s="119" t="s">
+      <c r="AE56" s="112" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="44">
+    <row r="57" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="42">
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -6476,16 +6510,16 @@
         <v>379</v>
       </c>
       <c r="I57" s="1"/>
-      <c r="J57" s="104" t="s">
+      <c r="J57" s="98" t="s">
         <v>416</v>
       </c>
-      <c r="K57" s="104" t="s">
+      <c r="K57" s="98" t="s">
         <v>417</v>
       </c>
       <c r="L57" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="M57" s="89" t="s">
+      <c r="M57" s="86" t="s">
         <v>138</v>
       </c>
       <c r="N57" s="18" t="s">
@@ -6497,7 +6531,7 @@
       <c r="P57" s="19"/>
       <c r="Q57" s="19"/>
       <c r="R57" s="20"/>
-      <c r="S57" s="30"/>
+      <c r="S57" s="28"/>
       <c r="T57" s="14"/>
       <c r="U57" s="15"/>
       <c r="V57" s="21"/>
@@ -6507,22 +6541,22 @@
       <c r="X57" s="7"/>
       <c r="Y57" s="7"/>
       <c r="Z57" s="24"/>
-      <c r="AA57" s="25" t="s">
+      <c r="AA57" s="4" t="s">
         <v>140</v>
       </c>
       <c r="AB57" s="7"/>
-      <c r="AC57" s="110" t="s">
+      <c r="AC57" s="104" t="s">
         <v>353</v>
       </c>
       <c r="AD57" s="24">
         <v>1961</v>
       </c>
-      <c r="AE57" s="119" t="s">
+      <c r="AE57" s="112" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="44">
+    <row r="58" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="42">
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -6547,26 +6581,26 @@
         <v>379</v>
       </c>
       <c r="I58" s="1"/>
-      <c r="J58" s="104" t="s">
+      <c r="J58" s="98" t="s">
         <v>461</v>
       </c>
-      <c r="K58" s="104" t="s">
+      <c r="K58" s="98" t="s">
         <v>423</v>
       </c>
       <c r="L58" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="M58" s="89" t="s">
+      <c r="M58" s="86" t="s">
         <v>152</v>
       </c>
-      <c r="N58" s="89" t="s">
+      <c r="N58" s="86" t="s">
         <v>152</v>
       </c>
       <c r="O58" s="14"/>
       <c r="P58" s="19"/>
       <c r="Q58" s="19"/>
       <c r="R58" s="20"/>
-      <c r="S58" s="30"/>
+      <c r="S58" s="28"/>
       <c r="T58" s="14"/>
       <c r="U58" s="15"/>
       <c r="V58" s="21"/>
@@ -6574,22 +6608,22 @@
       <c r="X58" s="7"/>
       <c r="Y58" s="7"/>
       <c r="Z58" s="24"/>
-      <c r="AA58" s="26" t="s">
+      <c r="AA58" s="8" t="s">
         <v>153</v>
       </c>
       <c r="AB58" s="7"/>
-      <c r="AC58" s="110" t="s">
+      <c r="AC58" s="104" t="s">
         <v>356</v>
       </c>
       <c r="AD58" s="24">
         <v>1983</v>
       </c>
-      <c r="AE58" s="119" t="s">
+      <c r="AE58" s="112" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="59" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="44">
+    <row r="59" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="42">
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
@@ -6614,16 +6648,16 @@
         <v>379</v>
       </c>
       <c r="I59" s="1"/>
-      <c r="J59" s="104" t="s">
+      <c r="J59" s="98" t="s">
         <v>429</v>
       </c>
-      <c r="K59" s="104" t="s">
+      <c r="K59" s="98" t="s">
         <v>456</v>
       </c>
       <c r="L59" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="M59" s="89" t="s">
+      <c r="M59" s="86" t="s">
         <v>95</v>
       </c>
       <c r="N59" s="18" t="s">
@@ -6633,7 +6667,7 @@
       <c r="P59" s="19"/>
       <c r="Q59" s="19"/>
       <c r="R59" s="20"/>
-      <c r="S59" s="30"/>
+      <c r="S59" s="28"/>
       <c r="T59" s="14"/>
       <c r="U59" s="15"/>
       <c r="V59" s="21"/>
@@ -6641,22 +6675,22 @@
       <c r="X59" s="7"/>
       <c r="Y59" s="7"/>
       <c r="Z59" s="24"/>
-      <c r="AA59" s="25" t="s">
+      <c r="AA59" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AB59" s="7"/>
-      <c r="AC59" s="112" t="s">
+      <c r="AC59" s="82" t="s">
         <v>343</v>
       </c>
       <c r="AD59" s="24">
         <v>2003</v>
       </c>
-      <c r="AE59" s="119" t="s">
+      <c r="AE59" s="112" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="44">
+    <row r="60" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="42">
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -6683,26 +6717,26 @@
       <c r="I60" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J60" s="104" t="s">
+      <c r="J60" s="98" t="s">
         <v>440</v>
       </c>
-      <c r="K60" s="104" t="s">
+      <c r="K60" s="98" t="s">
         <v>488</v>
       </c>
       <c r="L60" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="M60" s="89" t="s">
+      <c r="M60" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="N60" s="89" t="s">
+      <c r="N60" s="86" t="s">
         <v>33</v>
       </c>
       <c r="O60" s="14"/>
       <c r="P60" s="19"/>
       <c r="Q60" s="19"/>
       <c r="R60" s="20"/>
-      <c r="S60" s="32">
+      <c r="S60" s="30">
         <v>2250</v>
       </c>
       <c r="T60" s="15">
@@ -6718,22 +6752,22 @@
       <c r="X60" s="7"/>
       <c r="Y60" s="7"/>
       <c r="Z60" s="24"/>
-      <c r="AA60" s="25" t="s">
+      <c r="AA60" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AB60" s="7"/>
-      <c r="AC60" s="85" t="s">
+      <c r="AC60" s="82" t="s">
         <v>331</v>
       </c>
       <c r="AD60" s="24">
         <v>1983</v>
       </c>
-      <c r="AE60" s="119" t="s">
+      <c r="AE60" s="112" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="44">
+    <row r="61" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="42">
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
@@ -6758,26 +6792,26 @@
         <v>379</v>
       </c>
       <c r="I61" s="1"/>
-      <c r="J61" s="104" t="s">
+      <c r="J61" s="98" t="s">
         <v>441</v>
       </c>
-      <c r="K61" s="104" t="s">
+      <c r="K61" s="98" t="s">
         <v>442</v>
       </c>
       <c r="L61" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="M61" s="89" t="s">
+      <c r="M61" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="N61" s="89" t="s">
+      <c r="N61" s="86" t="s">
         <v>26</v>
       </c>
       <c r="O61" s="14"/>
       <c r="P61" s="19"/>
       <c r="Q61" s="19"/>
       <c r="R61" s="20"/>
-      <c r="S61" s="30"/>
+      <c r="S61" s="28"/>
       <c r="T61" s="14"/>
       <c r="U61" s="14"/>
       <c r="V61" s="21"/>
@@ -6785,18 +6819,18 @@
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="24"/>
-      <c r="AA61" s="25"/>
+      <c r="AA61" s="4"/>
       <c r="AB61" s="7"/>
-      <c r="AC61" s="109"/>
+      <c r="AC61" s="103"/>
       <c r="AD61" s="24">
         <v>1983</v>
       </c>
-      <c r="AE61" s="121" t="s">
+      <c r="AE61" s="114" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="44">
+    <row r="62" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="42">
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -6821,16 +6855,16 @@
         <v>379</v>
       </c>
       <c r="I62" s="1"/>
-      <c r="J62" s="104" t="s">
+      <c r="J62" s="98" t="s">
         <v>464</v>
       </c>
-      <c r="K62" s="104" t="s">
+      <c r="K62" s="98" t="s">
         <v>486</v>
       </c>
       <c r="L62" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="M62" s="89" t="s">
+      <c r="M62" s="86" t="s">
         <v>215</v>
       </c>
       <c r="N62" s="17" t="s">
@@ -6840,7 +6874,7 @@
       <c r="P62" s="19"/>
       <c r="Q62" s="19"/>
       <c r="R62" s="20"/>
-      <c r="S62" s="30"/>
+      <c r="S62" s="28"/>
       <c r="T62" s="14"/>
       <c r="U62" s="15"/>
       <c r="V62" s="21"/>
@@ -6848,22 +6882,22 @@
       <c r="X62" s="7"/>
       <c r="Y62" s="7"/>
       <c r="Z62" s="24"/>
-      <c r="AA62" s="26" t="s">
+      <c r="AA62" s="8" t="s">
         <v>216</v>
       </c>
       <c r="AB62" s="7"/>
-      <c r="AC62" s="112" t="s">
+      <c r="AC62" s="82" t="s">
         <v>369</v>
       </c>
       <c r="AD62" s="24">
         <v>1983</v>
       </c>
-      <c r="AE62" s="119" t="s">
+      <c r="AE62" s="112" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="63" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="44">
+    <row r="63" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="42">
         <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
@@ -6888,26 +6922,26 @@
         <v>379</v>
       </c>
       <c r="I63" s="1"/>
-      <c r="J63" s="104" t="s">
+      <c r="J63" s="98" t="s">
         <v>471</v>
       </c>
-      <c r="K63" s="104" t="s">
+      <c r="K63" s="98" t="s">
         <v>443</v>
       </c>
       <c r="L63" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="M63" s="89" t="s">
+      <c r="M63" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="N63" s="89" t="s">
+      <c r="N63" s="86" t="s">
         <v>166</v>
       </c>
       <c r="O63" s="14"/>
       <c r="P63" s="19"/>
       <c r="Q63" s="19"/>
       <c r="R63" s="20"/>
-      <c r="S63" s="30">
+      <c r="S63" s="28">
         <v>90000</v>
       </c>
       <c r="T63" s="14">
@@ -6927,7 +6961,7 @@
         <v>3</v>
       </c>
       <c r="Z63" s="24"/>
-      <c r="AA63" s="98" t="s">
+      <c r="AA63" s="104" t="s">
         <v>323</v>
       </c>
       <c r="AB63" s="7"/>
@@ -6935,12 +6969,12 @@
       <c r="AD63" s="24">
         <v>1986</v>
       </c>
-      <c r="AE63" s="119" t="s">
+      <c r="AE63" s="112" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="44">
+    <row r="64" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="42">
         <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
@@ -6965,16 +6999,16 @@
         <v>379</v>
       </c>
       <c r="I64" s="1"/>
-      <c r="J64" s="104" t="s">
+      <c r="J64" s="98" t="s">
         <v>472</v>
       </c>
-      <c r="K64" s="104" t="s">
+      <c r="K64" s="98" t="s">
         <v>444</v>
       </c>
       <c r="L64" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="M64" s="89" t="s">
+      <c r="M64" s="86" t="s">
         <v>100</v>
       </c>
       <c r="N64" s="18" t="s">
@@ -6984,7 +7018,7 @@
       <c r="P64" s="19"/>
       <c r="Q64" s="19"/>
       <c r="R64" s="20"/>
-      <c r="S64" s="30">
+      <c r="S64" s="28">
         <v>183000</v>
       </c>
       <c r="T64" s="14"/>
@@ -6994,20 +7028,20 @@
       <c r="X64" s="7"/>
       <c r="Y64" s="7"/>
       <c r="Z64" s="24"/>
-      <c r="AA64" s="25"/>
+      <c r="AA64" s="4"/>
       <c r="AB64" s="7"/>
-      <c r="AC64" s="110" t="s">
+      <c r="AC64" s="104" t="s">
         <v>344</v>
       </c>
       <c r="AD64" s="24">
         <v>1988</v>
       </c>
-      <c r="AE64" s="119" t="s">
+      <c r="AE64" s="112" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="44">
+    <row r="65" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="42">
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
@@ -7032,26 +7066,26 @@
         <v>379</v>
       </c>
       <c r="I65" s="1"/>
-      <c r="J65" s="104" t="s">
+      <c r="J65" s="98" t="s">
         <v>468</v>
       </c>
-      <c r="K65" s="104" t="s">
+      <c r="K65" s="98" t="s">
         <v>436</v>
       </c>
       <c r="L65" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="M65" s="89" t="s">
+      <c r="M65" s="86" t="s">
         <v>228</v>
       </c>
-      <c r="N65" s="34" t="s">
+      <c r="N65" s="32" t="s">
         <v>229</v>
       </c>
       <c r="O65" s="14"/>
       <c r="P65" s="19"/>
       <c r="Q65" s="19"/>
       <c r="R65" s="20"/>
-      <c r="S65" s="30"/>
+      <c r="S65" s="28"/>
       <c r="T65" s="14"/>
       <c r="U65" s="15"/>
       <c r="V65" s="21"/>
@@ -7059,22 +7093,22 @@
       <c r="X65" s="7"/>
       <c r="Y65" s="7"/>
       <c r="Z65" s="24"/>
-      <c r="AA65" s="25" t="s">
+      <c r="AA65" s="4" t="s">
         <v>230</v>
       </c>
       <c r="AB65" s="7"/>
-      <c r="AC65" s="110" t="s">
+      <c r="AC65" s="104" t="s">
         <v>371</v>
       </c>
       <c r="AD65" s="24">
         <v>1988</v>
       </c>
-      <c r="AE65" s="119" t="s">
+      <c r="AE65" s="112" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="66" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="44">
+    <row r="66" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="42">
         <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
@@ -7099,16 +7133,16 @@
         <v>379</v>
       </c>
       <c r="I66" s="1"/>
-      <c r="J66" s="104" t="s">
+      <c r="J66" s="98" t="s">
         <v>438</v>
       </c>
-      <c r="K66" s="104" t="s">
+      <c r="K66" s="98" t="s">
         <v>480</v>
       </c>
       <c r="L66" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="M66" s="89" t="s">
+      <c r="M66" s="86" t="s">
         <v>65</v>
       </c>
       <c r="N66" s="17" t="s">
@@ -7118,7 +7152,7 @@
       <c r="P66" s="19"/>
       <c r="Q66" s="19"/>
       <c r="R66" s="20"/>
-      <c r="S66" s="30"/>
+      <c r="S66" s="28"/>
       <c r="T66" s="14"/>
       <c r="U66" s="15"/>
       <c r="V66" s="21"/>
@@ -7126,22 +7160,22 @@
       <c r="X66" s="7"/>
       <c r="Y66" s="7"/>
       <c r="Z66" s="24"/>
-      <c r="AA66" s="26" t="s">
+      <c r="AA66" s="8" t="s">
         <v>66</v>
       </c>
       <c r="AB66" s="7"/>
-      <c r="AC66" s="110" t="s">
+      <c r="AC66" s="104" t="s">
         <v>337</v>
       </c>
       <c r="AD66" s="24">
         <v>1991</v>
       </c>
-      <c r="AE66" s="119" t="s">
+      <c r="AE66" s="112" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:31" s="61" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="44">
+    <row r="67" spans="1:31" s="59" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="42">
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -7166,26 +7200,26 @@
         <v>379</v>
       </c>
       <c r="I67" s="1"/>
-      <c r="J67" s="104" t="s">
+      <c r="J67" s="98" t="s">
         <v>421</v>
       </c>
-      <c r="K67" s="104" t="s">
+      <c r="K67" s="98" t="s">
         <v>479</v>
       </c>
       <c r="L67" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="M67" s="89" t="s">
+      <c r="M67" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="N67" s="89" t="s">
+      <c r="N67" s="86" t="s">
         <v>43</v>
       </c>
       <c r="O67" s="14"/>
       <c r="P67" s="19"/>
       <c r="Q67" s="19"/>
       <c r="R67" s="20"/>
-      <c r="S67" s="30"/>
+      <c r="S67" s="28"/>
       <c r="T67" s="14"/>
       <c r="U67" s="15"/>
       <c r="V67" s="21"/>
@@ -7193,20 +7227,20 @@
       <c r="X67" s="7"/>
       <c r="Y67" s="7"/>
       <c r="Z67" s="24"/>
-      <c r="AA67" s="25"/>
+      <c r="AA67" s="4"/>
       <c r="AB67" s="7"/>
-      <c r="AC67" s="110" t="s">
+      <c r="AC67" s="104" t="s">
         <v>334</v>
       </c>
       <c r="AD67" s="24">
         <v>1983</v>
       </c>
-      <c r="AE67" s="119" t="s">
+      <c r="AE67" s="112" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:31" s="61" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="44">
+    <row r="68" spans="1:31" s="59" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="42">
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
@@ -7231,16 +7265,16 @@
         <v>379</v>
       </c>
       <c r="I68" s="1"/>
-      <c r="J68" s="104" t="s">
+      <c r="J68" s="98" t="s">
         <v>472</v>
       </c>
-      <c r="K68" s="104" t="s">
+      <c r="K68" s="98" t="s">
         <v>444</v>
       </c>
       <c r="L68" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="M68" s="89" t="s">
+      <c r="M68" s="86" t="s">
         <v>103</v>
       </c>
       <c r="N68" s="17" t="s">
@@ -7250,7 +7284,7 @@
       <c r="P68" s="19"/>
       <c r="Q68" s="19"/>
       <c r="R68" s="20"/>
-      <c r="S68" s="30"/>
+      <c r="S68" s="28"/>
       <c r="T68" s="14"/>
       <c r="U68" s="15"/>
       <c r="V68" s="21"/>
@@ -7258,22 +7292,22 @@
       <c r="X68" s="7"/>
       <c r="Y68" s="7"/>
       <c r="Z68" s="24"/>
-      <c r="AA68" s="25" t="s">
+      <c r="AA68" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AB68" s="7"/>
-      <c r="AC68" s="110" t="s">
+      <c r="AC68" s="104" t="s">
         <v>345</v>
       </c>
       <c r="AD68" s="24">
         <v>2003</v>
       </c>
-      <c r="AE68" s="119" t="s">
+      <c r="AE68" s="112" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:31" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="44">
+    <row r="69" spans="1:31" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="42">
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -7298,16 +7332,16 @@
         <v>379</v>
       </c>
       <c r="I69" s="1"/>
-      <c r="J69" s="104" t="s">
+      <c r="J69" s="98" t="s">
         <v>445</v>
       </c>
-      <c r="K69" s="104" t="s">
+      <c r="K69" s="98" t="s">
         <v>482</v>
       </c>
       <c r="L69" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="M69" s="89" t="s">
+      <c r="M69" s="86" t="s">
         <v>184</v>
       </c>
       <c r="N69" s="17" t="s">
@@ -7317,7 +7351,7 @@
       <c r="P69" s="19"/>
       <c r="Q69" s="19"/>
       <c r="R69" s="20"/>
-      <c r="S69" s="30"/>
+      <c r="S69" s="28"/>
       <c r="T69" s="14"/>
       <c r="U69" s="15"/>
       <c r="V69" s="21"/>
@@ -7325,24 +7359,24 @@
       <c r="X69" s="7"/>
       <c r="Y69" s="7"/>
       <c r="Z69" s="24"/>
-      <c r="AA69" s="26" t="s">
+      <c r="AA69" s="8" t="s">
         <v>391</v>
       </c>
       <c r="AB69" s="7">
         <v>30000</v>
       </c>
-      <c r="AC69" s="110" t="s">
+      <c r="AC69" s="104" t="s">
         <v>362</v>
       </c>
       <c r="AD69" s="24">
         <v>1992</v>
       </c>
-      <c r="AE69" s="119" t="s">
+      <c r="AE69" s="112" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="70" spans="1:31" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="44">
+    <row r="70" spans="1:31" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="42">
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
@@ -7367,16 +7401,16 @@
         <v>379</v>
       </c>
       <c r="I70" s="1"/>
-      <c r="J70" s="104" t="s">
+      <c r="J70" s="98" t="s">
         <v>445</v>
       </c>
-      <c r="K70" s="104" t="s">
+      <c r="K70" s="98" t="s">
         <v>482</v>
       </c>
       <c r="L70" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="M70" s="89" t="s">
+      <c r="M70" s="86" t="s">
         <v>186</v>
       </c>
       <c r="N70" s="17" t="s">
@@ -7386,7 +7420,7 @@
       <c r="P70" s="19"/>
       <c r="Q70" s="19"/>
       <c r="R70" s="20"/>
-      <c r="S70" s="30"/>
+      <c r="S70" s="28"/>
       <c r="T70" s="14"/>
       <c r="U70" s="15"/>
       <c r="V70" s="22"/>
@@ -7394,20 +7428,20 @@
       <c r="X70" s="7"/>
       <c r="Y70" s="7"/>
       <c r="Z70" s="24"/>
-      <c r="AA70" s="26" t="s">
+      <c r="AA70" s="8" t="s">
         <v>324</v>
       </c>
       <c r="AB70" s="7"/>
-      <c r="AC70" s="112" t="s">
+      <c r="AC70" s="82" t="s">
         <v>363</v>
       </c>
-      <c r="AD70" s="95"/>
-      <c r="AE70" s="119" t="s">
+      <c r="AD70" s="92"/>
+      <c r="AE70" s="112" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="71" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="44">
+    <row r="71" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="42">
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -7432,16 +7466,16 @@
         <v>379</v>
       </c>
       <c r="I71" s="1"/>
-      <c r="J71" s="104" t="s">
+      <c r="J71" s="98" t="s">
         <v>464</v>
       </c>
-      <c r="K71" s="104" t="s">
+      <c r="K71" s="98" t="s">
         <v>486</v>
       </c>
       <c r="L71" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="M71" s="89" t="s">
+      <c r="M71" s="86" t="s">
         <v>218</v>
       </c>
       <c r="N71" s="17" t="s">
@@ -7451,7 +7485,7 @@
       <c r="P71" s="19"/>
       <c r="Q71" s="19"/>
       <c r="R71" s="20"/>
-      <c r="S71" s="30"/>
+      <c r="S71" s="28"/>
       <c r="T71" s="14"/>
       <c r="U71" s="15"/>
       <c r="V71" s="22"/>
@@ -7459,20 +7493,20 @@
       <c r="X71" s="7"/>
       <c r="Y71" s="7"/>
       <c r="Z71" s="24"/>
-      <c r="AA71" s="98" t="s">
+      <c r="AA71" s="104" t="s">
         <v>325</v>
       </c>
       <c r="AB71" s="7"/>
-      <c r="AC71" s="110" t="s">
+      <c r="AC71" s="104" t="s">
         <v>370</v>
       </c>
-      <c r="AD71" s="95"/>
-      <c r="AE71" s="119" t="s">
+      <c r="AD71" s="92"/>
+      <c r="AE71" s="112" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="72" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="44">
+    <row r="72" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="42">
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
@@ -7497,16 +7531,16 @@
         <v>379</v>
       </c>
       <c r="I72" s="1"/>
-      <c r="J72" s="104" t="s">
+      <c r="J72" s="98" t="s">
         <v>464</v>
       </c>
-      <c r="K72" s="104" t="s">
+      <c r="K72" s="98" t="s">
         <v>486</v>
       </c>
       <c r="L72" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="M72" s="89" t="s">
+      <c r="M72" s="86" t="s">
         <v>220</v>
       </c>
       <c r="N72" s="17" t="s">
@@ -7516,7 +7550,7 @@
       <c r="P72" s="19"/>
       <c r="Q72" s="19"/>
       <c r="R72" s="20"/>
-      <c r="S72" s="30"/>
+      <c r="S72" s="28"/>
       <c r="T72" s="14"/>
       <c r="U72" s="15"/>
       <c r="V72" s="21"/>
@@ -7524,7 +7558,7 @@
       <c r="X72" s="7"/>
       <c r="Y72" s="7"/>
       <c r="Z72" s="24"/>
-      <c r="AA72" s="25" t="s">
+      <c r="AA72" s="4" t="s">
         <v>221</v>
       </c>
       <c r="AB72" s="7"/>
@@ -7532,79 +7566,79 @@
         <v>222</v>
       </c>
       <c r="AD72" s="24"/>
-      <c r="AE72" s="119" t="s">
+      <c r="AE72" s="112" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="73" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="44">
+    <row r="73" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="42">
         <v>72</v>
       </c>
-      <c r="B73" s="82" t="s">
+      <c r="B73" s="79" t="s">
         <v>267</v>
       </c>
-      <c r="C73" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="D73" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="E73" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="F73" s="51" t="s">
+      <c r="C73" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F73" s="49" t="s">
         <v>268</v>
       </c>
-      <c r="G73" s="49" t="s">
+      <c r="G73" s="47" t="s">
         <v>24</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="I73" s="49"/>
-      <c r="J73" s="105" t="s">
+      <c r="I73" s="47"/>
+      <c r="J73" s="99" t="s">
         <v>458</v>
       </c>
-      <c r="K73" s="105" t="s">
+      <c r="K73" s="99" t="s">
         <v>459</v>
       </c>
-      <c r="L73" s="52" t="s">
+      <c r="L73" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="M73" s="90" t="s">
+      <c r="M73" s="87" t="s">
         <v>270</v>
       </c>
-      <c r="N73" s="52" t="s">
+      <c r="N73" s="50" t="s">
         <v>270</v>
       </c>
-      <c r="O73" s="54"/>
-      <c r="P73" s="55"/>
-      <c r="Q73" s="55"/>
-      <c r="R73" s="55"/>
-      <c r="S73" s="56">
+      <c r="O73" s="52"/>
+      <c r="P73" s="53"/>
+      <c r="Q73" s="53"/>
+      <c r="R73" s="53"/>
+      <c r="S73" s="54">
         <v>30000</v>
       </c>
-      <c r="T73" s="54"/>
-      <c r="U73" s="57"/>
-      <c r="V73" s="58"/>
-      <c r="W73" s="53"/>
-      <c r="X73" s="53"/>
-      <c r="Y73" s="53"/>
-      <c r="Z73" s="59"/>
-      <c r="AA73" s="60" t="s">
+      <c r="T73" s="52"/>
+      <c r="U73" s="55"/>
+      <c r="V73" s="56"/>
+      <c r="W73" s="51"/>
+      <c r="X73" s="51"/>
+      <c r="Y73" s="51"/>
+      <c r="Z73" s="57"/>
+      <c r="AA73" s="49" t="s">
         <v>271</v>
       </c>
-      <c r="AB73" s="53"/>
-      <c r="AC73" s="115"/>
-      <c r="AD73" s="59">
+      <c r="AB73" s="51"/>
+      <c r="AC73" s="108"/>
+      <c r="AD73" s="57">
         <v>2018</v>
       </c>
-      <c r="AE73" s="116" t="s">
+      <c r="AE73" s="109" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="74" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="44">
+    <row r="74" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="42">
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
@@ -7629,16 +7663,16 @@
         <v>379</v>
       </c>
       <c r="I74" s="1"/>
-      <c r="J74" s="104" t="s">
+      <c r="J74" s="98" t="s">
         <v>473</v>
       </c>
-      <c r="K74" s="104" t="s">
+      <c r="K74" s="98" t="s">
         <v>489</v>
       </c>
       <c r="L74" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="M74" s="89" t="s">
+      <c r="M74" s="86" t="s">
         <v>115</v>
       </c>
       <c r="N74" s="17" t="s">
@@ -7648,7 +7682,7 @@
       <c r="P74" s="19"/>
       <c r="Q74" s="19"/>
       <c r="R74" s="20"/>
-      <c r="S74" s="30"/>
+      <c r="S74" s="28"/>
       <c r="T74" s="14"/>
       <c r="U74" s="15"/>
       <c r="V74" s="21"/>
@@ -7656,22 +7690,22 @@
       <c r="X74" s="7"/>
       <c r="Y74" s="7"/>
       <c r="Z74" s="24"/>
-      <c r="AA74" s="25" t="s">
+      <c r="AA74" s="4" t="s">
         <v>116</v>
       </c>
       <c r="AB74" s="7"/>
-      <c r="AC74" s="110" t="s">
+      <c r="AC74" s="104" t="s">
         <v>347</v>
       </c>
       <c r="AD74" s="24">
         <v>2003</v>
       </c>
-      <c r="AE74" s="119" t="s">
+      <c r="AE74" s="112" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="75" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="44">
+    <row r="75" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="42">
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
@@ -7696,26 +7730,26 @@
         <v>379</v>
       </c>
       <c r="I75" s="1"/>
-      <c r="J75" s="104" t="s">
+      <c r="J75" s="98" t="s">
         <v>468</v>
       </c>
-      <c r="K75" s="104" t="s">
+      <c r="K75" s="98" t="s">
         <v>436</v>
       </c>
       <c r="L75" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="M75" s="89" t="s">
+      <c r="M75" s="86" t="s">
         <v>232</v>
       </c>
-      <c r="N75" s="34">
+      <c r="N75" s="32">
         <v>37817</v>
       </c>
       <c r="O75" s="14"/>
       <c r="P75" s="19"/>
       <c r="Q75" s="19"/>
       <c r="R75" s="20"/>
-      <c r="S75" s="30"/>
+      <c r="S75" s="28"/>
       <c r="T75" s="14"/>
       <c r="U75" s="15"/>
       <c r="V75" s="21"/>
@@ -7725,22 +7759,22 @@
       <c r="X75" s="7"/>
       <c r="Y75" s="7"/>
       <c r="Z75" s="24"/>
-      <c r="AA75" s="25" t="s">
+      <c r="AA75" s="4" t="s">
         <v>326</v>
       </c>
       <c r="AB75" s="7"/>
-      <c r="AC75" s="110" t="s">
+      <c r="AC75" s="104" t="s">
         <v>372</v>
       </c>
       <c r="AD75" s="24">
         <v>2003</v>
       </c>
-      <c r="AE75" s="119" t="s">
+      <c r="AE75" s="112" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="76" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="44">
+    <row r="76" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="42">
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
@@ -7767,19 +7801,19 @@
       <c r="I76" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J76" s="104" t="s">
+      <c r="J76" s="98" t="s">
         <v>446</v>
       </c>
-      <c r="K76" s="104" t="s">
+      <c r="K76" s="98" t="s">
         <v>447</v>
       </c>
       <c r="L76" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="M76" s="89" t="s">
+      <c r="M76" s="86" t="s">
         <v>161</v>
       </c>
-      <c r="N76" s="89" t="s">
+      <c r="N76" s="86" t="s">
         <v>161</v>
       </c>
       <c r="O76" s="14">
@@ -7788,7 +7822,7 @@
       <c r="P76" s="19"/>
       <c r="Q76" s="19"/>
       <c r="R76" s="20"/>
-      <c r="S76" s="32">
+      <c r="S76" s="30">
         <v>21500</v>
       </c>
       <c r="T76" s="14"/>
@@ -7802,22 +7836,22 @@
       <c r="Z76" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="AA76" s="98" t="s">
+      <c r="AA76" s="104" t="s">
         <v>322</v>
       </c>
       <c r="AB76" s="7"/>
-      <c r="AC76" s="85" t="s">
+      <c r="AC76" s="82" t="s">
         <v>359</v>
       </c>
       <c r="AD76" s="24">
         <v>2004</v>
       </c>
-      <c r="AE76" s="119" t="s">
+      <c r="AE76" s="112" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="77" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="44">
+    <row r="77" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="42">
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
@@ -7842,16 +7876,16 @@
         <v>379</v>
       </c>
       <c r="I77" s="1"/>
-      <c r="J77" s="104" t="s">
+      <c r="J77" s="98" t="s">
         <v>448</v>
       </c>
-      <c r="K77" s="104" t="s">
+      <c r="K77" s="98" t="s">
         <v>449</v>
       </c>
       <c r="L77" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="M77" s="89" t="s">
+      <c r="M77" s="86" t="s">
         <v>244</v>
       </c>
       <c r="N77" s="17" t="s">
@@ -7861,7 +7895,7 @@
       <c r="P77" s="19"/>
       <c r="Q77" s="19"/>
       <c r="R77" s="20"/>
-      <c r="S77" s="30"/>
+      <c r="S77" s="28"/>
       <c r="T77" s="14"/>
       <c r="U77" s="15"/>
       <c r="V77" s="21"/>
@@ -7869,22 +7903,22 @@
       <c r="X77" s="7"/>
       <c r="Y77" s="7"/>
       <c r="Z77" s="24"/>
-      <c r="AA77" s="26" t="s">
+      <c r="AA77" s="8" t="s">
         <v>245</v>
       </c>
       <c r="AB77" s="7"/>
-      <c r="AC77" s="112" t="s">
+      <c r="AC77" s="82" t="s">
         <v>377</v>
       </c>
       <c r="AD77" s="24">
         <v>2017</v>
       </c>
-      <c r="AE77" s="119" t="s">
+      <c r="AE77" s="112" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="78" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="44">
+    <row r="78" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="42">
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
@@ -7911,16 +7945,16 @@
       <c r="I78" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="J78" s="104" t="s">
+      <c r="J78" s="98" t="s">
         <v>445</v>
       </c>
-      <c r="K78" s="104" t="s">
+      <c r="K78" s="98" t="s">
         <v>482</v>
       </c>
       <c r="L78" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="M78" s="89" t="s">
+      <c r="M78" s="86" t="s">
         <v>187</v>
       </c>
       <c r="N78" s="17" t="s">
@@ -7932,7 +7966,7 @@
       <c r="P78" s="19"/>
       <c r="Q78" s="19"/>
       <c r="R78" s="20"/>
-      <c r="S78" s="32">
+      <c r="S78" s="30">
         <v>55000</v>
       </c>
       <c r="T78" s="14"/>
@@ -7942,7 +7976,7 @@
       <c r="X78" s="7"/>
       <c r="Y78" s="7"/>
       <c r="Z78" s="24"/>
-      <c r="AA78" s="25"/>
+      <c r="AA78" s="4"/>
       <c r="AB78" s="7"/>
       <c r="AC78" s="8" t="s">
         <v>364</v>
@@ -7950,75 +7984,75 @@
       <c r="AD78" s="24">
         <v>2020</v>
       </c>
-      <c r="AE78" s="119" t="s">
+      <c r="AE78" s="112" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="79" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="44">
+    <row r="79" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="42">
         <v>78</v>
       </c>
-      <c r="B79" s="82" t="s">
+      <c r="B79" s="79" t="s">
         <v>142</v>
       </c>
-      <c r="C79" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="D79" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="E79" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="F79" s="51" t="s">
+      <c r="C79" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E79" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F79" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="G79" s="49" t="s">
+      <c r="G79" s="47" t="s">
         <v>24</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="I79" s="49"/>
-      <c r="J79" s="106" t="s">
+      <c r="I79" s="47"/>
+      <c r="J79" s="100" t="s">
         <v>461</v>
       </c>
-      <c r="K79" s="106" t="s">
+      <c r="K79" s="100" t="s">
         <v>423</v>
       </c>
-      <c r="L79" s="52" t="s">
+      <c r="L79" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="M79" s="90" t="s">
+      <c r="M79" s="87" t="s">
         <v>273</v>
       </c>
-      <c r="N79" s="90" t="s">
+      <c r="N79" s="87" t="s">
         <v>273</v>
       </c>
-      <c r="O79" s="54"/>
-      <c r="P79" s="55"/>
-      <c r="Q79" s="55"/>
-      <c r="R79" s="55"/>
-      <c r="S79" s="56"/>
-      <c r="T79" s="54"/>
-      <c r="U79" s="57"/>
-      <c r="V79" s="58"/>
-      <c r="W79" s="53"/>
-      <c r="X79" s="53"/>
-      <c r="Y79" s="53"/>
-      <c r="Z79" s="59"/>
-      <c r="AA79" s="60"/>
-      <c r="AB79" s="53"/>
-      <c r="AC79" s="116" t="s">
+      <c r="O79" s="52"/>
+      <c r="P79" s="53"/>
+      <c r="Q79" s="53"/>
+      <c r="R79" s="53"/>
+      <c r="S79" s="54"/>
+      <c r="T79" s="52"/>
+      <c r="U79" s="55"/>
+      <c r="V79" s="56"/>
+      <c r="W79" s="51"/>
+      <c r="X79" s="51"/>
+      <c r="Y79" s="51"/>
+      <c r="Z79" s="57"/>
+      <c r="AA79" s="49"/>
+      <c r="AB79" s="51"/>
+      <c r="AC79" s="109" t="s">
         <v>296</v>
       </c>
-      <c r="AD79" s="59"/>
-      <c r="AE79" s="116" t="s">
+      <c r="AD79" s="57"/>
+      <c r="AE79" s="109" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="80" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="44">
+    <row r="80" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="42">
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
@@ -8043,19 +8077,19 @@
         <v>379</v>
       </c>
       <c r="I80" s="1"/>
-      <c r="J80" s="104" t="s">
+      <c r="J80" s="98" t="s">
         <v>468</v>
       </c>
-      <c r="K80" s="104" t="s">
+      <c r="K80" s="98" t="s">
         <v>436</v>
       </c>
       <c r="L80" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="M80" s="89" t="s">
+      <c r="M80" s="86" t="s">
         <v>234</v>
       </c>
-      <c r="N80" s="34">
+      <c r="N80" s="32">
         <v>40051</v>
       </c>
       <c r="O80" s="14">
@@ -8068,7 +8102,7 @@
         <v>50000</v>
       </c>
       <c r="R80" s="20"/>
-      <c r="S80" s="30"/>
+      <c r="S80" s="28"/>
       <c r="T80" s="14"/>
       <c r="U80" s="15"/>
       <c r="V80" s="21"/>
@@ -8082,7 +8116,7 @@
         <v>80</v>
       </c>
       <c r="Z80" s="24"/>
-      <c r="AA80" s="98" t="s">
+      <c r="AA80" s="104" t="s">
         <v>327</v>
       </c>
       <c r="AB80" s="7"/>
@@ -8092,12 +8126,12 @@
       <c r="AD80" s="24">
         <v>2009</v>
       </c>
-      <c r="AE80" s="119" t="s">
+      <c r="AE80" s="112" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="81" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="44">
+    <row r="81" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="42">
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
@@ -8122,19 +8156,19 @@
         <v>379</v>
       </c>
       <c r="I81" s="1"/>
-      <c r="J81" s="104" t="s">
+      <c r="J81" s="98" t="s">
         <v>468</v>
       </c>
-      <c r="K81" s="104" t="s">
+      <c r="K81" s="98" t="s">
         <v>436</v>
       </c>
       <c r="L81" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="M81" s="34" t="s">
+      <c r="M81" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="N81" s="34" t="s">
+      <c r="N81" s="32" t="s">
         <v>237</v>
       </c>
       <c r="O81" s="14">
@@ -8143,7 +8177,7 @@
       <c r="P81" s="19"/>
       <c r="Q81" s="19"/>
       <c r="R81" s="20"/>
-      <c r="S81" s="30"/>
+      <c r="S81" s="28"/>
       <c r="T81" s="14"/>
       <c r="U81" s="15"/>
       <c r="V81" s="21"/>
@@ -8153,22 +8187,22 @@
       <c r="X81" s="7"/>
       <c r="Y81" s="7"/>
       <c r="Z81" s="24"/>
-      <c r="AA81" s="25" t="s">
+      <c r="AA81" s="4" t="s">
         <v>328</v>
       </c>
       <c r="AB81" s="7"/>
-      <c r="AC81" s="112" t="s">
+      <c r="AC81" s="82" t="s">
         <v>374</v>
       </c>
       <c r="AD81" s="24">
         <v>2010</v>
       </c>
-      <c r="AE81" s="119" t="s">
+      <c r="AE81" s="112" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="82" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="44">
+    <row r="82" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A82" s="42">
         <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
@@ -8195,22 +8229,22 @@
       <c r="I82" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J82" s="104" t="s">
+      <c r="J82" s="98" t="s">
         <v>468</v>
       </c>
-      <c r="K82" s="104" t="s">
+      <c r="K82" s="98" t="s">
         <v>436</v>
       </c>
       <c r="L82" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="M82" s="89" t="s">
+      <c r="M82" s="86" t="s">
         <v>239</v>
       </c>
-      <c r="N82" s="34">
+      <c r="N82" s="32">
         <v>40731</v>
       </c>
-      <c r="O82" s="29"/>
+      <c r="O82" s="27"/>
       <c r="P82" s="19"/>
       <c r="Q82" s="19"/>
       <c r="R82" s="20"/>
@@ -8228,22 +8262,22 @@
       <c r="X82" s="7"/>
       <c r="Y82" s="7"/>
       <c r="Z82" s="24"/>
-      <c r="AA82" s="102" t="s">
+      <c r="AA82" s="82" t="s">
         <v>329</v>
       </c>
       <c r="AB82" s="7"/>
-      <c r="AC82" s="85" t="s">
+      <c r="AC82" s="82" t="s">
         <v>375</v>
       </c>
       <c r="AD82" s="24">
         <v>2011</v>
       </c>
-      <c r="AE82" s="119" t="s">
+      <c r="AE82" s="112" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="83" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="44">
+    <row r="83" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A83" s="42">
         <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
@@ -8270,22 +8304,22 @@
       <c r="I83" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J83" s="104" t="s">
+      <c r="J83" s="98" t="s">
         <v>468</v>
       </c>
-      <c r="K83" s="104" t="s">
+      <c r="K83" s="98" t="s">
         <v>436</v>
       </c>
       <c r="L83" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="M83" s="34" t="s">
+      <c r="M83" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="N83" s="34">
+      <c r="N83" s="32">
         <v>40782</v>
       </c>
-      <c r="O83" s="29">
+      <c r="O83" s="27">
         <v>29500</v>
       </c>
       <c r="P83" s="19">
@@ -8311,87 +8345,87 @@
       <c r="Z83" s="24" t="s">
         <v>313</v>
       </c>
-      <c r="AA83" s="98" t="s">
+      <c r="AA83" s="104" t="s">
         <v>329</v>
       </c>
       <c r="AB83" s="7"/>
-      <c r="AC83" s="110" t="s">
+      <c r="AC83" s="104" t="s">
         <v>376</v>
       </c>
       <c r="AD83" s="24">
         <v>2011</v>
       </c>
-      <c r="AE83" s="119" t="s">
+      <c r="AE83" s="112" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="84" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="44">
+    <row r="84" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A84" s="42">
         <v>83</v>
       </c>
-      <c r="B84" s="83" t="s">
+      <c r="B84" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="C84" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="D84" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="E84" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="F84" s="66" t="s">
+      <c r="C84" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="E84" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="F84" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="G84" s="63" t="s">
+      <c r="G84" s="61" t="s">
         <v>24</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="I84" s="63"/>
-      <c r="J84" s="105" t="s">
+      <c r="I84" s="61"/>
+      <c r="J84" s="99" t="s">
         <v>450</v>
       </c>
-      <c r="K84" s="105" t="s">
+      <c r="K84" s="99" t="s">
         <v>451</v>
       </c>
-      <c r="L84" s="67" t="s">
+      <c r="L84" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="M84" s="91" t="s">
+      <c r="M84" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="N84" s="67" t="s">
+      <c r="N84" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="O84" s="69"/>
-      <c r="P84" s="70"/>
-      <c r="Q84" s="70"/>
-      <c r="R84" s="71"/>
-      <c r="S84" s="72"/>
-      <c r="T84" s="69"/>
-      <c r="U84" s="73"/>
-      <c r="V84" s="74"/>
-      <c r="W84" s="68"/>
-      <c r="X84" s="68"/>
-      <c r="Y84" s="68"/>
-      <c r="Z84" s="75"/>
-      <c r="AA84" s="76"/>
-      <c r="AB84" s="68"/>
-      <c r="AC84" s="110" t="s">
+      <c r="O84" s="67"/>
+      <c r="P84" s="68"/>
+      <c r="Q84" s="68"/>
+      <c r="R84" s="69"/>
+      <c r="S84" s="70"/>
+      <c r="T84" s="67"/>
+      <c r="U84" s="71"/>
+      <c r="V84" s="72"/>
+      <c r="W84" s="66"/>
+      <c r="X84" s="66"/>
+      <c r="Y84" s="66"/>
+      <c r="Z84" s="73"/>
+      <c r="AA84" s="64"/>
+      <c r="AB84" s="66"/>
+      <c r="AC84" s="104" t="s">
         <v>341</v>
       </c>
-      <c r="AD84" s="75">
+      <c r="AD84" s="73">
         <v>2022</v>
       </c>
-      <c r="AE84" s="120" t="s">
+      <c r="AE84" s="113" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="85" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="44">
+    <row r="85" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A85" s="42">
         <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
@@ -8416,16 +8450,16 @@
         <v>379</v>
       </c>
       <c r="I85" s="1"/>
-      <c r="J85" s="104" t="s">
+      <c r="J85" s="98" t="s">
         <v>418</v>
       </c>
-      <c r="K85" s="104" t="s">
+      <c r="K85" s="98" t="s">
         <v>419</v>
       </c>
       <c r="L85" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="M85" s="89" t="s">
+      <c r="M85" s="86" t="s">
         <v>199</v>
       </c>
       <c r="N85" s="17" t="s">
@@ -8435,13 +8469,13 @@
       <c r="P85" s="19"/>
       <c r="Q85" s="19"/>
       <c r="R85" s="20"/>
-      <c r="S85" s="77">
+      <c r="S85" s="74">
         <v>1500000</v>
       </c>
-      <c r="T85" s="78">
+      <c r="T85" s="75">
         <v>1200000</v>
       </c>
-      <c r="U85" s="79">
+      <c r="U85" s="76">
         <v>180000</v>
       </c>
       <c r="V85" s="21"/>
@@ -8449,20 +8483,20 @@
       <c r="X85" s="7"/>
       <c r="Y85" s="7"/>
       <c r="Z85" s="24"/>
-      <c r="AA85" s="25" t="s">
+      <c r="AA85" s="4" t="s">
         <v>393</v>
       </c>
       <c r="AB85" s="7"/>
-      <c r="AC85" s="109"/>
+      <c r="AC85" s="103"/>
       <c r="AD85" s="24">
         <v>2017</v>
       </c>
-      <c r="AE85" s="119" t="s">
+      <c r="AE85" s="112" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="86" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="44">
+    <row r="86" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="42">
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
@@ -8487,26 +8521,26 @@
         <v>379</v>
       </c>
       <c r="I86" s="1"/>
-      <c r="J86" s="104" t="s">
+      <c r="J86" s="98" t="s">
         <v>474</v>
       </c>
-      <c r="K86" s="104" t="s">
+      <c r="K86" s="98" t="s">
         <v>490</v>
       </c>
       <c r="L86" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="M86" s="89" t="s">
+      <c r="M86" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="N86" s="89" t="s">
+      <c r="N86" s="86" t="s">
         <v>52</v>
       </c>
       <c r="O86" s="14"/>
       <c r="P86" s="19"/>
       <c r="Q86" s="19"/>
       <c r="R86" s="20"/>
-      <c r="S86" s="30">
+      <c r="S86" s="28">
         <v>300000</v>
       </c>
       <c r="T86" s="14"/>
@@ -8516,18 +8550,18 @@
       <c r="X86" s="7"/>
       <c r="Y86" s="7"/>
       <c r="Z86" s="24"/>
-      <c r="AA86" s="25"/>
+      <c r="AA86" s="4"/>
       <c r="AB86" s="7"/>
-      <c r="AC86" s="109"/>
+      <c r="AC86" s="103"/>
       <c r="AD86" s="24">
         <v>2018</v>
       </c>
-      <c r="AE86" s="119" t="s">
+      <c r="AE86" s="112" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="44">
+    <row r="87" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A87" s="42">
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
@@ -8554,16 +8588,16 @@
       <c r="I87" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J87" s="104" t="s">
+      <c r="J87" s="98" t="s">
         <v>438</v>
       </c>
-      <c r="K87" s="104" t="s">
+      <c r="K87" s="98" t="s">
         <v>480</v>
       </c>
       <c r="L87" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="M87" s="89" t="s">
+      <c r="M87" s="86" t="s">
         <v>68</v>
       </c>
       <c r="N87" s="17" t="s">
@@ -8573,7 +8607,7 @@
       <c r="P87" s="19"/>
       <c r="Q87" s="19"/>
       <c r="R87" s="20"/>
-      <c r="S87" s="30">
+      <c r="S87" s="28">
         <v>17000</v>
       </c>
       <c r="T87" s="14"/>
@@ -8589,18 +8623,18 @@
       <c r="Z87" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="AA87" s="99"/>
+      <c r="AA87" s="103"/>
       <c r="AB87" s="7"/>
       <c r="AC87" s="8"/>
       <c r="AD87" s="24">
         <v>2017</v>
       </c>
-      <c r="AE87" s="119" t="s">
+      <c r="AE87" s="112" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="44">
+    <row r="88" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A88" s="42">
         <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
@@ -8625,26 +8659,26 @@
         <v>379</v>
       </c>
       <c r="I88" s="1"/>
-      <c r="J88" s="104" t="s">
+      <c r="J88" s="98" t="s">
         <v>474</v>
       </c>
-      <c r="K88" s="104" t="s">
+      <c r="K88" s="98" t="s">
         <v>490</v>
       </c>
       <c r="L88" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="M88" s="89" t="s">
+      <c r="M88" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="N88" s="89" t="s">
+      <c r="N88" s="86" t="s">
         <v>54</v>
       </c>
       <c r="O88" s="14"/>
       <c r="P88" s="19"/>
       <c r="Q88" s="19"/>
       <c r="R88" s="20"/>
-      <c r="S88" s="30">
+      <c r="S88" s="28">
         <v>24000</v>
       </c>
       <c r="T88" s="14"/>
@@ -8654,18 +8688,18 @@
       <c r="X88" s="7"/>
       <c r="Y88" s="7"/>
       <c r="Z88" s="24"/>
-      <c r="AA88" s="25"/>
+      <c r="AA88" s="4"/>
       <c r="AB88" s="7"/>
-      <c r="AC88" s="109"/>
+      <c r="AC88" s="103"/>
       <c r="AD88" s="24">
         <v>2018</v>
       </c>
-      <c r="AE88" s="119" t="s">
+      <c r="AE88" s="112" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="44">
+    <row r="89" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="42">
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
@@ -8690,16 +8724,16 @@
         <v>379</v>
       </c>
       <c r="I89" s="1"/>
-      <c r="J89" s="104" t="s">
+      <c r="J89" s="98" t="s">
         <v>452</v>
       </c>
-      <c r="K89" s="104" t="s">
+      <c r="K89" s="98" t="s">
         <v>484</v>
       </c>
       <c r="L89" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="M89" s="89" t="s">
+      <c r="M89" s="86" t="s">
         <v>208</v>
       </c>
       <c r="N89" s="17" t="s">
@@ -8709,7 +8743,7 @@
       <c r="P89" s="19"/>
       <c r="Q89" s="19"/>
       <c r="R89" s="20"/>
-      <c r="S89" s="30"/>
+      <c r="S89" s="28"/>
       <c r="T89" s="14"/>
       <c r="U89" s="15"/>
       <c r="V89" s="21"/>
@@ -8717,18 +8751,18 @@
       <c r="X89" s="7"/>
       <c r="Y89" s="7"/>
       <c r="Z89" s="24"/>
-      <c r="AA89" s="99"/>
+      <c r="AA89" s="103"/>
       <c r="AB89" s="7"/>
-      <c r="AC89" s="114"/>
+      <c r="AC89" s="107"/>
       <c r="AD89" s="24">
         <v>2019</v>
       </c>
-      <c r="AE89" s="119" t="s">
+      <c r="AE89" s="112" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="90" spans="1:31" s="61" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="44">
+    <row r="90" spans="1:31" s="59" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A90" s="42">
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
@@ -8753,16 +8787,16 @@
         <v>379</v>
       </c>
       <c r="I90" s="1"/>
-      <c r="J90" s="104" t="s">
+      <c r="J90" s="98" t="s">
         <v>453</v>
       </c>
-      <c r="K90" s="104" t="s">
+      <c r="K90" s="98" t="s">
         <v>484</v>
       </c>
       <c r="L90" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="M90" s="89" t="s">
+      <c r="M90" s="86" t="s">
         <v>250</v>
       </c>
       <c r="N90" s="17" t="s">
@@ -8772,7 +8806,7 @@
       <c r="P90" s="19"/>
       <c r="Q90" s="19"/>
       <c r="R90" s="20"/>
-      <c r="S90" s="30"/>
+      <c r="S90" s="28"/>
       <c r="T90" s="14"/>
       <c r="U90" s="15"/>
       <c r="V90" s="21"/>
@@ -8780,88 +8814,88 @@
       <c r="X90" s="7"/>
       <c r="Y90" s="7"/>
       <c r="Z90" s="24"/>
-      <c r="AA90" s="99"/>
+      <c r="AA90" s="103"/>
       <c r="AB90" s="7"/>
-      <c r="AC90" s="85" t="s">
+      <c r="AC90" s="82" t="s">
         <v>367</v>
       </c>
       <c r="AD90" s="24">
         <v>2019</v>
       </c>
-      <c r="AE90" s="119" t="s">
+      <c r="AE90" s="112" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="91" spans="1:31" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A91" s="44">
+    <row r="91" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A91" s="42">
         <v>90</v>
       </c>
-      <c r="B91" s="82" t="s">
+      <c r="B91" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="C91" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="D91" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="E91" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="F91" s="62" t="s">
+      <c r="C91" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E91" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F91" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="G91" s="49" t="s">
+      <c r="G91" s="47" t="s">
         <v>24</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="I91" s="49"/>
-      <c r="J91" s="106" t="s">
+      <c r="I91" s="47"/>
+      <c r="J91" s="100" t="s">
         <v>475</v>
       </c>
-      <c r="K91" s="106" t="s">
+      <c r="K91" s="100" t="s">
         <v>483</v>
       </c>
-      <c r="L91" s="52" t="s">
+      <c r="L91" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="M91" s="90" t="s">
+      <c r="M91" s="87" t="s">
         <v>274</v>
       </c>
-      <c r="N91" s="52" t="s">
+      <c r="N91" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="O91" s="54"/>
-      <c r="P91" s="55"/>
-      <c r="Q91" s="55"/>
-      <c r="R91" s="55"/>
-      <c r="S91" s="56"/>
-      <c r="T91" s="54"/>
-      <c r="U91" s="57"/>
-      <c r="V91" s="58"/>
-      <c r="W91" s="53"/>
-      <c r="X91" s="53"/>
-      <c r="Y91" s="53"/>
-      <c r="Z91" s="59"/>
-      <c r="AA91" s="60" t="s">
+      <c r="O91" s="52"/>
+      <c r="P91" s="53"/>
+      <c r="Q91" s="53"/>
+      <c r="R91" s="53"/>
+      <c r="S91" s="54"/>
+      <c r="T91" s="52"/>
+      <c r="U91" s="55"/>
+      <c r="V91" s="56"/>
+      <c r="W91" s="51"/>
+      <c r="X91" s="51"/>
+      <c r="Y91" s="51"/>
+      <c r="Z91" s="57"/>
+      <c r="AA91" s="49" t="s">
         <v>276</v>
       </c>
-      <c r="AB91" s="53"/>
-      <c r="AC91" s="115"/>
-      <c r="AD91" s="59">
+      <c r="AB91" s="51"/>
+      <c r="AC91" s="108"/>
+      <c r="AD91" s="57">
         <v>2022</v>
       </c>
-      <c r="AE91" s="116" t="s">
+      <c r="AE91" s="109" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="92" spans="1:31" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="44">
+      <c r="A92" s="42">
         <v>91</v>
       </c>
-      <c r="B92" s="84" t="s">
+      <c r="B92" s="81" t="s">
         <v>308</v>
       </c>
       <c r="C92" s="5" t="s">
@@ -8873,7 +8907,7 @@
       <c r="E92" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F92" s="80" t="s">
+      <c r="F92" s="77" t="s">
         <v>303</v>
       </c>
       <c r="G92" s="5" t="s">
@@ -8885,16 +8919,16 @@
       <c r="I92" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="J92" s="104" t="s">
+      <c r="J92" s="98" t="s">
         <v>476</v>
       </c>
-      <c r="K92" s="104" t="s">
+      <c r="K92" s="98" t="s">
         <v>485</v>
       </c>
       <c r="L92" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="M92" s="89" t="s">
+      <c r="M92" s="86" t="s">
         <v>305</v>
       </c>
       <c r="N92" s="17" t="s">
@@ -8904,28 +8938,28 @@
       <c r="P92" s="16"/>
       <c r="Q92" s="16"/>
       <c r="R92" s="16"/>
-      <c r="S92" s="81"/>
+      <c r="S92" s="78"/>
       <c r="T92" s="16"/>
       <c r="U92" s="16"/>
       <c r="W92" s="16"/>
       <c r="X92" s="16"/>
       <c r="Y92" s="16"/>
-      <c r="AA92" s="5" t="s">
+      <c r="AA92" s="77" t="s">
         <v>306</v>
       </c>
       <c r="AB92" s="16"/>
-      <c r="AC92" s="117" t="s">
+      <c r="AC92" s="110" t="s">
         <v>307</v>
       </c>
-      <c r="AD92" s="94">
+      <c r="AD92" s="91">
         <v>2023</v>
       </c>
-      <c r="AE92" s="80" t="s">
+      <c r="AE92" s="77" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="93" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J93" s="107"/>
+      <c r="J93" s="101"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:AE92" xr:uid="{C2A453AE-42D3-44AD-B1ED-100E8200E393}">

--- a/WPOF-Datenbank der Schweizer Alpen.xlsx
+++ b/WPOF-Datenbank der Schweizer Alpen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\christophe\Desktop\home\GitHub\WPOFs_CH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73EE8A57-8624-48F9-BD6C-9540FB94FF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8E2CE8-D99B-4623-A194-5D4E37CFFB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{4AB5F6CE-3898-4132-95CD-C65537EF9C6D}"/>
   </bookViews>
@@ -1995,7 +1995,7 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2056,17 +2056,6 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -2104,9 +2093,6 @@
     <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -2117,10 +2103,6 @@
     </xf>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2162,15 +2144,8 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2212,10 +2187,6 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -2335,6 +2306,38 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2679,6 +2682,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_GPT</we:customFunctionIds>
@@ -2709,144 +2715,144 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A453AE-42D3-44AD-B1ED-100E8200E393}">
   <dimension ref="A1:AE93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE1" sqref="AE1:AE1048576"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.73046875" style="43"/>
-    <col min="2" max="2" width="10.1328125" style="82" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.86328125" style="43" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="43" customWidth="1"/>
-    <col min="5" max="5" width="12.59765625" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.06640625" style="44" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="43" customWidth="1"/>
-    <col min="8" max="8" width="29.3984375" style="43" customWidth="1"/>
-    <col min="9" max="9" width="8" style="43" customWidth="1"/>
-    <col min="10" max="10" width="14.86328125" style="102" customWidth="1"/>
-    <col min="11" max="11" width="14.3984375" style="102" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.86328125" style="43" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.265625" style="89" customWidth="1"/>
-    <col min="14" max="14" width="13.73046875" style="89" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="48.265625" style="45" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.265625" style="45" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.73046875" style="45" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.73046875" style="45" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="39.1328125" style="46" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19" style="45" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.3984375" style="45" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22" style="43" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="35.59765625" style="45" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.86328125" style="45" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.265625" style="45" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="28.265625" style="43" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="69.1328125" style="43" customWidth="1"/>
-    <col min="28" max="28" width="24.86328125" style="45" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="61.19921875" style="44" customWidth="1"/>
-    <col min="30" max="30" width="13" style="93" customWidth="1"/>
-    <col min="31" max="31" width="65.86328125" style="44" customWidth="1"/>
-    <col min="32" max="16384" width="10.73046875" style="43"/>
+    <col min="1" max="1" width="10.73046875" style="38"/>
+    <col min="2" max="2" width="10.1328125" style="74" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.86328125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="38" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.06640625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="38" customWidth="1"/>
+    <col min="8" max="8" width="29.3984375" style="38" customWidth="1"/>
+    <col min="9" max="9" width="8" style="38" customWidth="1"/>
+    <col min="10" max="10" width="14.86328125" style="94" customWidth="1"/>
+    <col min="11" max="11" width="14.3984375" style="94" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.86328125" style="39" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.265625" style="81" customWidth="1"/>
+    <col min="14" max="14" width="13.73046875" style="81" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="48.265625" style="40" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.265625" style="40" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.73046875" style="40" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.73046875" style="40" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="39.1328125" style="41" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19" style="40" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.3984375" style="40" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22" style="39" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="35.59765625" style="40" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.86328125" style="40" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.265625" style="40" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.265625" style="39" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="69.1328125" style="39" customWidth="1"/>
+    <col min="28" max="28" width="24.86328125" style="40" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="61.19921875" style="39" customWidth="1"/>
+    <col min="30" max="30" width="13" style="85" customWidth="1"/>
+    <col min="31" max="31" width="65.86328125" style="39" customWidth="1"/>
+    <col min="32" max="16384" width="10.73046875" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="86" t="s">
         <v>413</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="30" t="s">
         <v>412</v>
       </c>
-      <c r="J1" s="97" t="s">
+      <c r="J1" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="97" t="s">
+      <c r="K1" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="N1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="O1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="Q1" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="S1" s="34" t="s">
         <v>316</v>
       </c>
-      <c r="T1" s="39" t="s">
+      <c r="T1" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="U1" s="39" t="s">
+      <c r="U1" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="V1" s="40" t="s">
+      <c r="V1" s="112" t="s">
         <v>256</v>
       </c>
-      <c r="W1" s="35" t="s">
+      <c r="W1" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="X1" s="35" t="s">
+      <c r="X1" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="Y1" s="35" t="s">
+      <c r="Y1" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="Z1" s="41" t="s">
+      <c r="Z1" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="36" t="s">
+      <c r="AA1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="35" t="s">
+      <c r="AB1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" s="34" t="s">
+      <c r="AC1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="AD1" s="90" t="s">
+      <c r="AD1" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="AE1" s="111" t="s">
+      <c r="AE1" s="103" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="42">
+    <row r="2" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="37">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2873,45 +2879,45 @@
       <c r="I2" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J2" s="98" t="s">
+      <c r="J2" s="90" t="s">
         <v>465</v>
       </c>
-      <c r="K2" s="98" t="s">
+      <c r="K2" s="90" t="s">
         <v>477</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="M2" s="86">
+      <c r="M2" s="78">
         <v>1</v>
       </c>
-      <c r="N2" s="32">
+      <c r="N2" s="29">
         <v>366</v>
       </c>
       <c r="O2" s="14"/>
       <c r="P2" s="19"/>
       <c r="Q2" s="19"/>
       <c r="R2" s="20"/>
-      <c r="S2" s="28"/>
+      <c r="S2" s="25"/>
       <c r="T2" s="14"/>
       <c r="U2" s="15"/>
-      <c r="V2" s="21"/>
+      <c r="V2" s="113"/>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
-      <c r="Z2" s="24"/>
+      <c r="Z2" s="109"/>
       <c r="AA2" s="4"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="4"/>
-      <c r="AD2" s="24">
+      <c r="AD2" s="21">
         <v>1901</v>
       </c>
-      <c r="AE2" s="112" t="s">
+      <c r="AE2" s="104" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="42">
+    <row r="3" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="37">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -2938,49 +2944,49 @@
       <c r="I3" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="J3" s="98" t="s">
+      <c r="J3" s="90" t="s">
         <v>414</v>
       </c>
-      <c r="K3" s="98" t="s">
+      <c r="K3" s="90" t="s">
         <v>478</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="M3" s="86">
+      <c r="M3" s="78">
         <v>7306</v>
       </c>
-      <c r="N3" s="32">
+      <c r="N3" s="29">
         <v>7671</v>
       </c>
       <c r="O3" s="14"/>
       <c r="P3" s="19"/>
       <c r="Q3" s="19"/>
       <c r="R3" s="20"/>
-      <c r="S3" s="28"/>
+      <c r="S3" s="25"/>
       <c r="T3" s="14"/>
       <c r="U3" s="15"/>
-      <c r="V3" s="21"/>
+      <c r="V3" s="113"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
-      <c r="Z3" s="24"/>
+      <c r="Z3" s="109"/>
       <c r="AA3" s="4" t="s">
         <v>48</v>
       </c>
       <c r="AB3" s="7"/>
-      <c r="AC3" s="82" t="s">
+      <c r="AC3" s="74" t="s">
         <v>361</v>
       </c>
-      <c r="AD3" s="24">
+      <c r="AD3" s="21">
         <v>1920</v>
       </c>
-      <c r="AE3" s="112" t="s">
+      <c r="AE3" s="104" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="42">
+    <row r="4" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="37">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -3005,49 +3011,49 @@
         <v>379</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="98" t="s">
+      <c r="J4" s="90" t="s">
         <v>464</v>
       </c>
-      <c r="K4" s="98" t="s">
+      <c r="K4" s="90" t="s">
         <v>486</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="M4" s="86">
+      <c r="M4" s="78">
         <v>10228</v>
       </c>
-      <c r="N4" s="32">
+      <c r="N4" s="29">
         <v>10593</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="19"/>
       <c r="Q4" s="19"/>
       <c r="R4" s="20"/>
-      <c r="S4" s="28"/>
+      <c r="S4" s="25"/>
       <c r="T4" s="14"/>
       <c r="U4" s="15"/>
-      <c r="V4" s="21"/>
+      <c r="V4" s="113"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
-      <c r="Z4" s="24"/>
+      <c r="Z4" s="109"/>
       <c r="AA4" s="4" t="s">
         <v>213</v>
       </c>
       <c r="AB4" s="7"/>
-      <c r="AC4" s="82" t="s">
+      <c r="AC4" s="74" t="s">
         <v>368</v>
       </c>
-      <c r="AD4" s="24">
+      <c r="AD4" s="21">
         <v>1980</v>
       </c>
-      <c r="AE4" s="112" t="s">
+      <c r="AE4" s="104" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="42">
+    <row r="5" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="37">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -3072,47 +3078,47 @@
         <v>379</v>
       </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="98" t="s">
+      <c r="J5" s="90" t="s">
         <v>464</v>
       </c>
-      <c r="K5" s="98" t="s">
+      <c r="K5" s="90" t="s">
         <v>486</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="M5" s="86">
+      <c r="M5" s="78">
         <v>10959</v>
       </c>
-      <c r="N5" s="32">
+      <c r="N5" s="29">
         <v>14610</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="19"/>
       <c r="Q5" s="19"/>
       <c r="R5" s="20"/>
-      <c r="S5" s="28"/>
+      <c r="S5" s="25"/>
       <c r="T5" s="14"/>
       <c r="U5" s="15"/>
-      <c r="V5" s="21"/>
+      <c r="V5" s="113"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
-      <c r="Z5" s="24"/>
+      <c r="Z5" s="109"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="7"/>
-      <c r="AC5" s="103" t="s">
+      <c r="AC5" s="95" t="s">
         <v>214</v>
       </c>
-      <c r="AD5" s="24">
+      <c r="AD5" s="21">
         <v>1980</v>
       </c>
-      <c r="AE5" s="112" t="s">
+      <c r="AE5" s="104" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="42">
+    <row r="6" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="37">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -3137,45 +3143,45 @@
         <v>379</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="98" t="s">
+      <c r="J6" s="90" t="s">
         <v>466</v>
       </c>
-      <c r="K6" s="98" t="s">
+      <c r="K6" s="90" t="s">
         <v>415</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="86">
+      <c r="M6" s="78">
         <v>15342</v>
       </c>
-      <c r="N6" s="86">
+      <c r="N6" s="78">
         <v>15706</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="19"/>
       <c r="R6" s="20"/>
-      <c r="S6" s="28"/>
+      <c r="S6" s="25"/>
       <c r="T6" s="14"/>
       <c r="U6" s="15"/>
-      <c r="V6" s="21"/>
+      <c r="V6" s="113"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
-      <c r="Z6" s="24"/>
+      <c r="Z6" s="109"/>
       <c r="AA6" s="4" t="s">
         <v>48</v>
       </c>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="103"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="112" t="s">
+      <c r="AC6" s="95"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="104" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="42">
+    <row r="7" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="37">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -3200,45 +3206,45 @@
         <v>379</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="98" t="s">
+      <c r="J7" s="90" t="s">
         <v>464</v>
       </c>
-      <c r="K7" s="98" t="s">
+      <c r="K7" s="90" t="s">
         <v>486</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="M7" s="86">
+      <c r="M7" s="78">
         <v>16438</v>
       </c>
-      <c r="N7" s="32">
+      <c r="N7" s="29">
         <v>16802</v>
       </c>
       <c r="O7" s="14"/>
       <c r="P7" s="19"/>
       <c r="Q7" s="19"/>
       <c r="R7" s="20"/>
-      <c r="S7" s="28"/>
+      <c r="S7" s="25"/>
       <c r="T7" s="14"/>
       <c r="U7" s="15"/>
-      <c r="V7" s="21"/>
+      <c r="V7" s="113"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
-      <c r="Z7" s="24"/>
+      <c r="Z7" s="109"/>
       <c r="AA7" s="4"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="4"/>
-      <c r="AD7" s="24">
+      <c r="AD7" s="21">
         <v>1980</v>
       </c>
-      <c r="AE7" s="112" t="s">
+      <c r="AE7" s="104" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="42">
+    <row r="8" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="37">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -3263,45 +3269,45 @@
         <v>379</v>
       </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="98" t="s">
+      <c r="J8" s="90" t="s">
         <v>464</v>
       </c>
-      <c r="K8" s="98" t="s">
+      <c r="K8" s="90" t="s">
         <v>486</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="L8" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="M8" s="86">
+      <c r="M8" s="78">
         <v>16650</v>
       </c>
-      <c r="N8" s="32">
+      <c r="N8" s="29">
         <v>16680</v>
       </c>
       <c r="O8" s="14"/>
       <c r="P8" s="19"/>
       <c r="Q8" s="19"/>
       <c r="R8" s="20"/>
-      <c r="S8" s="28"/>
+      <c r="S8" s="25"/>
       <c r="T8" s="14"/>
       <c r="U8" s="15"/>
-      <c r="V8" s="21"/>
+      <c r="V8" s="113"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
-      <c r="Z8" s="24"/>
+      <c r="Z8" s="109"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="7"/>
-      <c r="AC8" s="103"/>
-      <c r="AD8" s="24">
+      <c r="AC8" s="95"/>
+      <c r="AD8" s="21">
         <v>1983</v>
       </c>
-      <c r="AE8" s="112" t="s">
+      <c r="AE8" s="104" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="42">
+    <row r="9" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="37">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -3326,45 +3332,45 @@
         <v>379</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="98" t="s">
+      <c r="J9" s="90" t="s">
         <v>416</v>
       </c>
-      <c r="K9" s="98" t="s">
+      <c r="K9" s="90" t="s">
         <v>417</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M9" s="87">
+      <c r="M9" s="79">
         <v>22282</v>
       </c>
-      <c r="N9" s="32">
+      <c r="N9" s="29">
         <v>22646</v>
       </c>
       <c r="O9" s="14"/>
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
       <c r="R9" s="20"/>
-      <c r="S9" s="28"/>
+      <c r="S9" s="25"/>
       <c r="T9" s="14"/>
       <c r="U9" s="15"/>
-      <c r="V9" s="21"/>
+      <c r="V9" s="113"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
-      <c r="Z9" s="24"/>
+      <c r="Z9" s="109"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="4"/>
-      <c r="AD9" s="24">
+      <c r="AD9" s="21">
         <v>1983</v>
       </c>
-      <c r="AE9" s="112" t="s">
+      <c r="AE9" s="104" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="42">
+    <row r="10" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="37">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -3389,45 +3395,45 @@
         <v>379</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="98" t="s">
+      <c r="J10" s="90" t="s">
         <v>416</v>
       </c>
-      <c r="K10" s="98" t="s">
+      <c r="K10" s="90" t="s">
         <v>417</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M10" s="86">
+      <c r="M10" s="78">
         <v>24473</v>
       </c>
-      <c r="N10" s="32">
+      <c r="N10" s="29">
         <v>22646</v>
       </c>
       <c r="O10" s="14"/>
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
       <c r="R10" s="20"/>
-      <c r="S10" s="28"/>
+      <c r="S10" s="25"/>
       <c r="T10" s="14"/>
       <c r="U10" s="15"/>
-      <c r="V10" s="21"/>
+      <c r="V10" s="113"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
-      <c r="Z10" s="24"/>
+      <c r="Z10" s="109"/>
       <c r="AA10" s="4"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="4"/>
-      <c r="AD10" s="24">
+      <c r="AD10" s="21">
         <v>1983</v>
       </c>
-      <c r="AE10" s="112" t="s">
+      <c r="AE10" s="104" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="42">
+    <row r="11" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="37">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -3452,47 +3458,47 @@
         <v>379</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="98" t="s">
+      <c r="J11" s="90" t="s">
         <v>418</v>
       </c>
-      <c r="K11" s="98" t="s">
+      <c r="K11" s="90" t="s">
         <v>419</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="M11" s="86">
+      <c r="M11" s="78">
         <v>24473</v>
       </c>
-      <c r="N11" s="32">
+      <c r="N11" s="29">
         <v>24837</v>
       </c>
       <c r="O11" s="14"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
       <c r="R11" s="20"/>
-      <c r="S11" s="28"/>
+      <c r="S11" s="25"/>
       <c r="T11" s="14"/>
       <c r="U11" s="15"/>
-      <c r="V11" s="21"/>
+      <c r="V11" s="113"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
-      <c r="Z11" s="24"/>
+      <c r="Z11" s="109"/>
       <c r="AA11" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AB11" s="7"/>
       <c r="AC11" s="4"/>
-      <c r="AD11" s="24">
+      <c r="AD11" s="21">
         <v>1980</v>
       </c>
-      <c r="AE11" s="112" t="s">
+      <c r="AE11" s="104" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="42">
+    <row r="12" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="37">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -3517,26 +3523,26 @@
         <v>379</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="98" t="s">
+      <c r="J12" s="90" t="s">
         <v>462</v>
       </c>
-      <c r="K12" s="98" t="s">
+      <c r="K12" s="90" t="s">
         <v>420</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="L12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="86">
+      <c r="M12" s="78">
         <v>24504</v>
       </c>
-      <c r="N12" s="86" t="s">
+      <c r="N12" s="78" t="s">
         <v>401</v>
       </c>
       <c r="O12" s="14"/>
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
       <c r="R12" s="20"/>
-      <c r="S12" s="28">
+      <c r="S12" s="25">
         <v>90000</v>
       </c>
       <c r="T12" s="14">
@@ -3545,7 +3551,7 @@
       <c r="U12" s="15">
         <v>100000</v>
       </c>
-      <c r="V12" s="21"/>
+      <c r="V12" s="113"/>
       <c r="W12" s="7">
         <v>2.5</v>
       </c>
@@ -3555,23 +3561,23 @@
       <c r="Y12" s="7">
         <v>3</v>
       </c>
-      <c r="Z12" s="24"/>
+      <c r="Z12" s="109"/>
       <c r="AA12" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="82" t="s">
+      <c r="AC12" s="74" t="s">
         <v>336</v>
       </c>
-      <c r="AD12" s="24">
+      <c r="AD12" s="21">
         <v>2003</v>
       </c>
-      <c r="AE12" s="112" t="s">
+      <c r="AE12" s="104" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="42">
+    <row r="13" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="37">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -3596,47 +3602,47 @@
         <v>379</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="98" t="s">
+      <c r="J13" s="90" t="s">
         <v>421</v>
       </c>
-      <c r="K13" s="98" t="s">
+      <c r="K13" s="90" t="s">
         <v>479</v>
       </c>
-      <c r="L13" s="17" t="s">
+      <c r="L13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="32">
+      <c r="M13" s="29">
         <v>25569</v>
       </c>
-      <c r="N13" s="32">
+      <c r="N13" s="29">
         <v>29220</v>
       </c>
       <c r="O13" s="14"/>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
       <c r="R13" s="20"/>
-      <c r="S13" s="28"/>
+      <c r="S13" s="25"/>
       <c r="T13" s="14"/>
       <c r="U13" s="15"/>
-      <c r="V13" s="21"/>
+      <c r="V13" s="113"/>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
-      <c r="Z13" s="24"/>
+      <c r="Z13" s="109"/>
       <c r="AA13" s="4"/>
       <c r="AB13" s="7"/>
-      <c r="AC13" s="104" t="s">
+      <c r="AC13" s="96" t="s">
         <v>333</v>
       </c>
-      <c r="AD13" s="24">
+      <c r="AD13" s="21">
         <v>2003</v>
       </c>
-      <c r="AE13" s="112" t="s">
+      <c r="AE13" s="104" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="42">
+    <row r="14" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="37">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -3661,45 +3667,45 @@
         <v>379</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="98" t="s">
+      <c r="J14" s="90" t="s">
         <v>416</v>
       </c>
-      <c r="K14" s="98" t="s">
+      <c r="K14" s="90" t="s">
         <v>417</v>
       </c>
-      <c r="L14" s="17" t="s">
+      <c r="L14" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M14" s="86">
+      <c r="M14" s="78">
         <v>25934</v>
       </c>
-      <c r="N14" s="32">
+      <c r="N14" s="29">
         <v>26298</v>
       </c>
       <c r="O14" s="14"/>
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
       <c r="R14" s="20"/>
-      <c r="S14" s="28"/>
+      <c r="S14" s="25"/>
       <c r="T14" s="14"/>
       <c r="U14" s="15"/>
-      <c r="V14" s="21"/>
+      <c r="V14" s="113"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
-      <c r="Z14" s="24"/>
+      <c r="Z14" s="109"/>
       <c r="AA14" s="4"/>
       <c r="AB14" s="7"/>
-      <c r="AC14" s="103"/>
-      <c r="AD14" s="24">
+      <c r="AC14" s="95"/>
+      <c r="AD14" s="21">
         <v>1983</v>
       </c>
-      <c r="AE14" s="112" t="s">
+      <c r="AE14" s="104" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="42">
+    <row r="15" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="37">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -3724,47 +3730,47 @@
         <v>379</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="98" t="s">
+      <c r="J15" s="90" t="s">
         <v>418</v>
       </c>
-      <c r="K15" s="98" t="s">
+      <c r="K15" s="90" t="s">
         <v>419</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="L15" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="M15" s="86">
+      <c r="M15" s="78">
         <v>26177</v>
       </c>
-      <c r="N15" s="85" t="s">
+      <c r="N15" s="77" t="s">
         <v>409</v>
       </c>
       <c r="O15" s="14"/>
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
       <c r="R15" s="20"/>
-      <c r="S15" s="28"/>
+      <c r="S15" s="25"/>
       <c r="T15" s="14"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="21"/>
+      <c r="V15" s="113"/>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
-      <c r="Z15" s="24"/>
+      <c r="Z15" s="109"/>
       <c r="AA15" s="4" t="s">
         <v>392</v>
       </c>
       <c r="AB15" s="7"/>
       <c r="AC15" s="4"/>
-      <c r="AD15" s="24">
+      <c r="AD15" s="21">
         <v>1980</v>
       </c>
-      <c r="AE15" s="112" t="s">
+      <c r="AE15" s="104" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="42">
+    <row r="16" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="37">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -3789,45 +3795,45 @@
         <v>379</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="98" t="s">
+      <c r="J16" s="90" t="s">
         <v>462</v>
       </c>
-      <c r="K16" s="98" t="s">
+      <c r="K16" s="90" t="s">
         <v>420</v>
       </c>
-      <c r="L16" s="17" t="s">
+      <c r="L16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="M16" s="86">
+      <c r="M16" s="78">
         <v>29768</v>
       </c>
-      <c r="N16" s="86">
+      <c r="N16" s="78">
         <v>29798</v>
       </c>
       <c r="O16" s="14"/>
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
       <c r="R16" s="20"/>
-      <c r="S16" s="28"/>
+      <c r="S16" s="25"/>
       <c r="T16" s="14"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="21"/>
+      <c r="V16" s="113"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
-      <c r="Z16" s="24"/>
+      <c r="Z16" s="109"/>
       <c r="AA16" s="4"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="105"/>
-      <c r="AD16" s="24">
+      <c r="AC16" s="97"/>
+      <c r="AD16" s="21">
         <v>1991</v>
       </c>
-      <c r="AE16" s="112" t="s">
+      <c r="AE16" s="104" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="42">
+    <row r="17" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="37">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -3852,45 +3858,45 @@
         <v>379</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="98" t="s">
+      <c r="J17" s="90" t="s">
         <v>421</v>
       </c>
-      <c r="K17" s="98" t="s">
+      <c r="K17" s="90" t="s">
         <v>479</v>
       </c>
-      <c r="L17" s="17" t="s">
+      <c r="L17" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M17" s="86">
+      <c r="M17" s="78">
         <v>29830</v>
       </c>
-      <c r="N17" s="86" t="s">
+      <c r="N17" s="78" t="s">
         <v>400</v>
       </c>
       <c r="O17" s="14"/>
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
       <c r="R17" s="20"/>
-      <c r="S17" s="28"/>
+      <c r="S17" s="25"/>
       <c r="T17" s="14"/>
       <c r="U17" s="15"/>
-      <c r="V17" s="21"/>
+      <c r="V17" s="113"/>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
-      <c r="Z17" s="24"/>
+      <c r="Z17" s="109"/>
       <c r="AA17" s="4"/>
       <c r="AB17" s="7"/>
       <c r="AC17" s="4"/>
-      <c r="AD17" s="24">
+      <c r="AD17" s="21">
         <v>2003</v>
       </c>
-      <c r="AE17" s="112" t="s">
+      <c r="AE17" s="104" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="42">
+    <row r="18" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="37">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -3915,45 +3921,45 @@
         <v>379</v>
       </c>
       <c r="I18" s="1"/>
-      <c r="J18" s="98" t="s">
+      <c r="J18" s="90" t="s">
         <v>454</v>
       </c>
-      <c r="K18" s="98" t="s">
+      <c r="K18" s="90" t="s">
         <v>422</v>
       </c>
-      <c r="L18" s="17" t="s">
+      <c r="L18" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="M18" s="86">
+      <c r="M18" s="78">
         <v>30317</v>
       </c>
-      <c r="N18" s="32">
+      <c r="N18" s="29">
         <v>30681</v>
       </c>
       <c r="O18" s="14"/>
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
       <c r="R18" s="20"/>
-      <c r="S18" s="28"/>
+      <c r="S18" s="25"/>
       <c r="T18" s="14"/>
       <c r="U18" s="15"/>
-      <c r="V18" s="21"/>
+      <c r="V18" s="113"/>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
-      <c r="Z18" s="24"/>
-      <c r="AA18" s="103"/>
+      <c r="Z18" s="109"/>
+      <c r="AA18" s="95"/>
       <c r="AB18" s="7"/>
-      <c r="AC18" s="103"/>
-      <c r="AD18" s="24">
+      <c r="AC18" s="95"/>
+      <c r="AD18" s="21">
         <v>1983</v>
       </c>
-      <c r="AE18" s="112" t="s">
+      <c r="AE18" s="104" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="42">
+    <row r="19" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="37">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -3978,49 +3984,49 @@
         <v>379</v>
       </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="98" t="s">
+      <c r="J19" s="90" t="s">
         <v>461</v>
       </c>
-      <c r="K19" s="98" t="s">
+      <c r="K19" s="90" t="s">
         <v>423</v>
       </c>
-      <c r="L19" s="17" t="s">
+      <c r="L19" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="M19" s="86">
+      <c r="M19" s="78">
         <v>32752</v>
       </c>
-      <c r="N19" s="86" t="s">
+      <c r="N19" s="78" t="s">
         <v>402</v>
       </c>
       <c r="O19" s="14"/>
       <c r="P19" s="19"/>
       <c r="Q19" s="19"/>
       <c r="R19" s="20"/>
-      <c r="S19" s="28"/>
+      <c r="S19" s="25"/>
       <c r="T19" s="14"/>
       <c r="U19" s="15"/>
-      <c r="V19" s="21"/>
+      <c r="V19" s="113"/>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
-      <c r="Z19" s="24"/>
+      <c r="Z19" s="109"/>
       <c r="AA19" s="8" t="s">
         <v>155</v>
       </c>
       <c r="AB19" s="7"/>
-      <c r="AC19" s="82" t="s">
+      <c r="AC19" s="74" t="s">
         <v>357</v>
       </c>
-      <c r="AD19" s="24">
+      <c r="AD19" s="21">
         <v>1983</v>
       </c>
-      <c r="AE19" s="112" t="s">
+      <c r="AE19" s="104" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="42">
+    <row r="20" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="37">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -4045,112 +4051,112 @@
         <v>379</v>
       </c>
       <c r="I20" s="1"/>
-      <c r="J20" s="98" t="s">
+      <c r="J20" s="90" t="s">
         <v>461</v>
       </c>
-      <c r="K20" s="98" t="s">
+      <c r="K20" s="90" t="s">
         <v>423</v>
       </c>
-      <c r="L20" s="17" t="s">
+      <c r="L20" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="M20" s="86">
+      <c r="M20" s="78">
         <v>37073</v>
       </c>
-      <c r="N20" s="86">
+      <c r="N20" s="78">
         <v>37103</v>
       </c>
       <c r="O20" s="14"/>
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
       <c r="R20" s="20"/>
-      <c r="S20" s="28">
+      <c r="S20" s="25">
         <v>65000</v>
       </c>
       <c r="T20" s="14"/>
       <c r="U20" s="15"/>
-      <c r="V20" s="21"/>
+      <c r="V20" s="113"/>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
-      <c r="Z20" s="24"/>
-      <c r="AA20" s="104" t="s">
+      <c r="Z20" s="109"/>
+      <c r="AA20" s="96" t="s">
         <v>321</v>
       </c>
       <c r="AB20" s="7"/>
-      <c r="AC20" s="104" t="s">
+      <c r="AC20" s="96" t="s">
         <v>358</v>
       </c>
-      <c r="AD20" s="24"/>
-      <c r="AE20" s="112" t="s">
+      <c r="AD20" s="21"/>
+      <c r="AE20" s="104" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="42">
-        <v>20</v>
-      </c>
-      <c r="B21" s="80" t="s">
+    <row r="21" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="37">
+        <v>20</v>
+      </c>
+      <c r="B21" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="C21" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="64" t="s">
+      <c r="C21" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="G21" s="61" t="s">
+      <c r="G21" s="54" t="s">
         <v>24</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="I21" s="61"/>
-      <c r="J21" s="99" t="s">
+      <c r="I21" s="54"/>
+      <c r="J21" s="91" t="s">
         <v>424</v>
       </c>
-      <c r="K21" s="99" t="s">
+      <c r="K21" s="91" t="s">
         <v>425</v>
       </c>
-      <c r="L21" s="65" t="s">
+      <c r="L21" s="72" t="s">
         <v>176</v>
       </c>
-      <c r="M21" s="88">
+      <c r="M21" s="80">
         <v>40544</v>
       </c>
-      <c r="N21" s="88">
+      <c r="N21" s="80">
         <v>40908</v>
       </c>
-      <c r="O21" s="67"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="69"/>
-      <c r="S21" s="70"/>
-      <c r="T21" s="67"/>
-      <c r="U21" s="71"/>
-      <c r="V21" s="72"/>
-      <c r="W21" s="66"/>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="66"/>
-      <c r="Z21" s="73"/>
-      <c r="AA21" s="64"/>
-      <c r="AB21" s="66"/>
-      <c r="AC21" s="104" t="s">
+      <c r="O21" s="60"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="63"/>
+      <c r="T21" s="60"/>
+      <c r="U21" s="64"/>
+      <c r="V21" s="114"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="59"/>
+      <c r="Z21" s="110"/>
+      <c r="AA21" s="57"/>
+      <c r="AB21" s="59"/>
+      <c r="AC21" s="96" t="s">
         <v>360</v>
       </c>
-      <c r="AD21" s="73"/>
-      <c r="AE21" s="113" t="s">
+      <c r="AD21" s="65"/>
+      <c r="AE21" s="105" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="22" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="42">
+    <row r="22" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="37">
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -4175,16 +4181,16 @@
         <v>379</v>
       </c>
       <c r="I22" s="1"/>
-      <c r="J22" s="98" t="s">
+      <c r="J22" s="90" t="s">
         <v>426</v>
       </c>
-      <c r="K22" s="98" t="s">
+      <c r="K22" s="90" t="s">
         <v>427</v>
       </c>
-      <c r="L22" s="17" t="s">
+      <c r="L22" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="M22" s="86" t="s">
+      <c r="M22" s="78" t="s">
         <v>410</v>
       </c>
       <c r="N22" s="17" t="s">
@@ -4194,30 +4200,30 @@
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
-      <c r="S22" s="31"/>
+      <c r="S22" s="28"/>
       <c r="T22" s="11"/>
       <c r="U22" s="15"/>
-      <c r="V22" s="23"/>
+      <c r="V22" s="107"/>
       <c r="W22" s="12"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
-      <c r="Z22" s="24"/>
-      <c r="AA22" s="115" t="s">
+      <c r="Z22" s="109"/>
+      <c r="AA22" s="107" t="s">
         <v>203</v>
       </c>
       <c r="AB22" s="12"/>
-      <c r="AC22" s="104" t="s">
+      <c r="AC22" s="96" t="s">
         <v>366</v>
       </c>
-      <c r="AD22" s="26">
+      <c r="AD22" s="23">
         <v>1926</v>
       </c>
-      <c r="AE22" s="112" t="s">
+      <c r="AE22" s="104" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="23" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="42">
+    <row r="23" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="37">
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -4242,47 +4248,47 @@
         <v>379</v>
       </c>
       <c r="I23" s="1"/>
-      <c r="J23" s="98" t="s">
+      <c r="J23" s="90" t="s">
         <v>463</v>
       </c>
-      <c r="K23" s="98" t="s">
+      <c r="K23" s="90" t="s">
         <v>428</v>
       </c>
-      <c r="L23" s="17" t="s">
+      <c r="L23" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="M23" s="86" t="s">
+      <c r="M23" s="78" t="s">
         <v>405</v>
       </c>
-      <c r="N23" s="86" t="s">
+      <c r="N23" s="78" t="s">
         <v>406</v>
       </c>
       <c r="O23" s="14"/>
       <c r="P23" s="19"/>
       <c r="Q23" s="19"/>
       <c r="R23" s="20"/>
-      <c r="S23" s="28"/>
+      <c r="S23" s="25"/>
       <c r="T23" s="14"/>
       <c r="U23" s="15"/>
-      <c r="V23" s="21"/>
+      <c r="V23" s="113"/>
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
-      <c r="Z23" s="24"/>
+      <c r="Z23" s="109"/>
       <c r="AA23" s="4" t="s">
         <v>171</v>
       </c>
       <c r="AB23" s="7"/>
       <c r="AC23" s="4"/>
-      <c r="AD23" s="24">
+      <c r="AD23" s="21">
         <v>1983</v>
       </c>
-      <c r="AE23" s="112" t="s">
+      <c r="AE23" s="104" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="42">
+    <row r="24" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="37">
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -4307,49 +4313,49 @@
         <v>379</v>
       </c>
       <c r="I24" s="1"/>
-      <c r="J24" s="98" t="s">
+      <c r="J24" s="90" t="s">
         <v>421</v>
       </c>
-      <c r="K24" s="98" t="s">
+      <c r="K24" s="90" t="s">
         <v>479</v>
       </c>
-      <c r="L24" s="17" t="s">
+      <c r="L24" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M24" s="86" t="s">
+      <c r="M24" s="78" t="s">
         <v>398</v>
       </c>
-      <c r="N24" s="86" t="s">
+      <c r="N24" s="78" t="s">
         <v>399</v>
       </c>
       <c r="O24" s="14"/>
       <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
       <c r="R24" s="20"/>
-      <c r="S24" s="28"/>
+      <c r="S24" s="25"/>
       <c r="T24" s="14"/>
       <c r="U24" s="15"/>
-      <c r="V24" s="21"/>
+      <c r="V24" s="113"/>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
-      <c r="Z24" s="24"/>
+      <c r="Z24" s="109"/>
       <c r="AA24" s="8" t="s">
         <v>40</v>
       </c>
       <c r="AB24" s="7"/>
-      <c r="AC24" s="104" t="s">
+      <c r="AC24" s="96" t="s">
         <v>332</v>
       </c>
-      <c r="AD24" s="24">
+      <c r="AD24" s="21">
         <v>1926</v>
       </c>
-      <c r="AE24" s="112" t="s">
+      <c r="AE24" s="104" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="25" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="42">
+    <row r="25" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="37">
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -4374,16 +4380,16 @@
         <v>379</v>
       </c>
       <c r="I25" s="1"/>
-      <c r="J25" s="98" t="s">
+      <c r="J25" s="90" t="s">
         <v>429</v>
       </c>
-      <c r="K25" s="98" t="s">
+      <c r="K25" s="90" t="s">
         <v>456</v>
       </c>
-      <c r="L25" s="17" t="s">
+      <c r="L25" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="M25" s="86" t="s">
+      <c r="M25" s="78" t="s">
         <v>92</v>
       </c>
       <c r="N25" s="17" t="s">
@@ -4393,30 +4399,30 @@
       <c r="P25" s="19"/>
       <c r="Q25" s="19"/>
       <c r="R25" s="20"/>
-      <c r="S25" s="28"/>
+      <c r="S25" s="25"/>
       <c r="T25" s="14"/>
       <c r="U25" s="15"/>
-      <c r="V25" s="21"/>
+      <c r="V25" s="113"/>
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
-      <c r="Z25" s="24"/>
+      <c r="Z25" s="109"/>
       <c r="AA25" s="8" t="s">
         <v>93</v>
       </c>
       <c r="AB25" s="7"/>
-      <c r="AC25" s="82" t="s">
+      <c r="AC25" s="74" t="s">
         <v>342</v>
       </c>
-      <c r="AD25" s="24">
+      <c r="AD25" s="21">
         <v>1983</v>
       </c>
-      <c r="AE25" s="112" t="s">
+      <c r="AE25" s="104" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="42">
+    <row r="26" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="37">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -4441,16 +4447,16 @@
         <v>379</v>
       </c>
       <c r="I26" s="1"/>
-      <c r="J26" s="98" t="s">
+      <c r="J26" s="90" t="s">
         <v>455</v>
       </c>
-      <c r="K26" s="98" t="s">
+      <c r="K26" s="90" t="s">
         <v>430</v>
       </c>
-      <c r="L26" s="17" t="s">
+      <c r="L26" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="M26" s="86" t="s">
+      <c r="M26" s="78" t="s">
         <v>107</v>
       </c>
       <c r="N26" s="17" t="s">
@@ -4460,28 +4466,28 @@
       <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
       <c r="R26" s="20"/>
-      <c r="S26" s="28"/>
+      <c r="S26" s="25"/>
       <c r="T26" s="14"/>
       <c r="U26" s="15"/>
-      <c r="V26" s="21"/>
+      <c r="V26" s="113"/>
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
-      <c r="Z26" s="24"/>
+      <c r="Z26" s="109"/>
       <c r="AA26" s="4" t="s">
         <v>386</v>
       </c>
       <c r="AB26" s="7"/>
-      <c r="AC26" s="103"/>
-      <c r="AD26" s="24">
+      <c r="AC26" s="95"/>
+      <c r="AD26" s="21">
         <v>1984</v>
       </c>
-      <c r="AE26" s="112" t="s">
+      <c r="AE26" s="104" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="42">
+    <row r="27" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="37">
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -4506,47 +4512,47 @@
         <v>379</v>
       </c>
       <c r="I27" s="1"/>
-      <c r="J27" s="98" t="s">
+      <c r="J27" s="90" t="s">
         <v>463</v>
       </c>
-      <c r="K27" s="98" t="s">
+      <c r="K27" s="90" t="s">
         <v>428</v>
       </c>
-      <c r="L27" s="17" t="s">
+      <c r="L27" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="M27" s="86" t="s">
+      <c r="M27" s="78" t="s">
         <v>403</v>
       </c>
-      <c r="N27" s="86" t="s">
+      <c r="N27" s="78" t="s">
         <v>404</v>
       </c>
       <c r="O27" s="9"/>
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
-      <c r="S27" s="29"/>
+      <c r="S27" s="26"/>
       <c r="T27" s="9"/>
       <c r="U27" s="15"/>
-      <c r="V27" s="17"/>
+      <c r="V27" s="6"/>
       <c r="W27" s="10"/>
       <c r="X27" s="10"/>
       <c r="Y27" s="10"/>
-      <c r="Z27" s="24"/>
+      <c r="Z27" s="109"/>
       <c r="AA27" s="6" t="s">
         <v>171</v>
       </c>
       <c r="AB27" s="10"/>
-      <c r="AC27" s="106"/>
-      <c r="AD27" s="25">
+      <c r="AC27" s="98"/>
+      <c r="AD27" s="22">
         <v>1980</v>
       </c>
-      <c r="AE27" s="112" t="s">
+      <c r="AE27" s="104" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="28" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="42">
+    <row r="28" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="37">
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -4571,16 +4577,16 @@
         <v>379</v>
       </c>
       <c r="I28" s="1"/>
-      <c r="J28" s="98" t="s">
+      <c r="J28" s="90" t="s">
         <v>426</v>
       </c>
-      <c r="K28" s="98" t="s">
+      <c r="K28" s="90" t="s">
         <v>427</v>
       </c>
-      <c r="L28" s="17" t="s">
+      <c r="L28" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="M28" s="86" t="s">
+      <c r="M28" s="78" t="s">
         <v>204</v>
       </c>
       <c r="N28" s="17" t="s">
@@ -4590,26 +4596,26 @@
       <c r="P28" s="19"/>
       <c r="Q28" s="19"/>
       <c r="R28" s="20"/>
-      <c r="S28" s="28"/>
+      <c r="S28" s="25"/>
       <c r="T28" s="14"/>
       <c r="U28" s="15"/>
-      <c r="V28" s="21"/>
+      <c r="V28" s="113"/>
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
-      <c r="Z28" s="24"/>
+      <c r="Z28" s="109"/>
       <c r="AA28" s="4" t="s">
         <v>205</v>
       </c>
       <c r="AB28" s="7"/>
-      <c r="AC28" s="107"/>
-      <c r="AD28" s="24"/>
-      <c r="AE28" s="112" t="s">
+      <c r="AC28" s="99"/>
+      <c r="AD28" s="21"/>
+      <c r="AE28" s="104" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="42">
+    <row r="29" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="37">
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -4634,16 +4640,16 @@
         <v>379</v>
       </c>
       <c r="I29" s="1"/>
-      <c r="J29" s="98" t="s">
+      <c r="J29" s="90" t="s">
         <v>431</v>
       </c>
-      <c r="K29" s="98" t="s">
+      <c r="K29" s="90" t="s">
         <v>457</v>
       </c>
-      <c r="L29" s="17" t="s">
+      <c r="L29" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="M29" s="86" t="s">
+      <c r="M29" s="78" t="s">
         <v>83</v>
       </c>
       <c r="N29" s="17" t="s">
@@ -4653,93 +4659,93 @@
       <c r="P29" s="19"/>
       <c r="Q29" s="19"/>
       <c r="R29" s="20"/>
-      <c r="S29" s="28"/>
+      <c r="S29" s="25"/>
       <c r="T29" s="14"/>
       <c r="U29" s="15"/>
-      <c r="V29" s="21"/>
+      <c r="V29" s="113"/>
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
-      <c r="Z29" s="24"/>
+      <c r="Z29" s="109"/>
       <c r="AA29" s="4" t="s">
         <v>84</v>
       </c>
       <c r="AB29" s="7"/>
-      <c r="AC29" s="103"/>
-      <c r="AD29" s="24">
+      <c r="AC29" s="95"/>
+      <c r="AD29" s="21">
         <v>1898</v>
       </c>
-      <c r="AE29" s="112" t="s">
+      <c r="AE29" s="104" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="30" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="42">
+    <row r="30" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="37">
         <v>29</v>
       </c>
-      <c r="B30" s="79" t="s">
+      <c r="B30" s="71" t="s">
         <v>267</v>
       </c>
-      <c r="C30" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="49" t="s">
+      <c r="C30" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="44" t="s">
         <v>268</v>
       </c>
-      <c r="G30" s="47" t="s">
+      <c r="G30" s="42" t="s">
         <v>24</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="I30" s="47"/>
-      <c r="J30" s="99" t="s">
+      <c r="I30" s="42"/>
+      <c r="J30" s="91" t="s">
         <v>458</v>
       </c>
-      <c r="K30" s="99" t="s">
+      <c r="K30" s="91" t="s">
         <v>459</v>
       </c>
-      <c r="L30" s="50" t="s">
+      <c r="L30" s="71" t="s">
         <v>269</v>
       </c>
-      <c r="M30" s="87" t="s">
+      <c r="M30" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="N30" s="50" t="s">
+      <c r="N30" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="O30" s="52"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="53"/>
-      <c r="S30" s="54"/>
-      <c r="T30" s="52"/>
-      <c r="U30" s="55"/>
-      <c r="V30" s="56"/>
-      <c r="W30" s="51"/>
-      <c r="X30" s="51"/>
-      <c r="Y30" s="51"/>
-      <c r="Z30" s="57"/>
-      <c r="AA30" s="49" t="s">
+      <c r="O30" s="47"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="115"/>
+      <c r="W30" s="46"/>
+      <c r="X30" s="46"/>
+      <c r="Y30" s="46"/>
+      <c r="Z30" s="111"/>
+      <c r="AA30" s="44" t="s">
         <v>290</v>
       </c>
-      <c r="AB30" s="51"/>
-      <c r="AC30" s="49"/>
-      <c r="AD30" s="57">
+      <c r="AB30" s="46"/>
+      <c r="AC30" s="44"/>
+      <c r="AD30" s="51">
         <v>2003</v>
       </c>
-      <c r="AE30" s="109" t="s">
+      <c r="AE30" s="101" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="31" spans="1:31" s="42" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="42">
+    <row r="31" spans="1:31" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="37">
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -4764,49 +4770,49 @@
         <v>379</v>
       </c>
       <c r="I31" s="1"/>
-      <c r="J31" s="98" t="s">
+      <c r="J31" s="90" t="s">
         <v>461</v>
       </c>
-      <c r="K31" s="98" t="s">
+      <c r="K31" s="90" t="s">
         <v>423</v>
       </c>
-      <c r="L31" s="17" t="s">
+      <c r="L31" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="M31" s="86" t="s">
+      <c r="M31" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="N31" s="86" t="s">
+      <c r="N31" s="78" t="s">
         <v>145</v>
       </c>
       <c r="O31" s="14"/>
       <c r="P31" s="19"/>
       <c r="Q31" s="19"/>
       <c r="R31" s="20"/>
-      <c r="S31" s="28"/>
+      <c r="S31" s="25"/>
       <c r="T31" s="14"/>
       <c r="U31" s="15"/>
-      <c r="V31" s="21"/>
+      <c r="V31" s="113"/>
       <c r="W31" s="7"/>
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
-      <c r="Z31" s="24"/>
+      <c r="Z31" s="109"/>
       <c r="AA31" s="8" t="s">
         <v>146</v>
       </c>
       <c r="AB31" s="7"/>
-      <c r="AC31" s="82" t="s">
+      <c r="AC31" s="74" t="s">
         <v>354</v>
       </c>
-      <c r="AD31" s="92" t="s">
+      <c r="AD31" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="AE31" s="112" t="s">
+      <c r="AE31" s="104" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="32" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="42">
+    <row r="32" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="37">
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -4831,49 +4837,49 @@
         <v>379</v>
       </c>
       <c r="I32" s="1"/>
-      <c r="J32" s="98" t="s">
+      <c r="J32" s="90" t="s">
         <v>462</v>
       </c>
-      <c r="K32" s="98" t="s">
+      <c r="K32" s="90" t="s">
         <v>420</v>
       </c>
-      <c r="L32" s="17" t="s">
+      <c r="L32" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="M32" s="86" t="s">
+      <c r="M32" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="N32" s="86" t="s">
+      <c r="N32" s="78" t="s">
         <v>58</v>
       </c>
       <c r="O32" s="14"/>
       <c r="P32" s="19"/>
       <c r="Q32" s="19"/>
       <c r="R32" s="20"/>
-      <c r="S32" s="28"/>
+      <c r="S32" s="25"/>
       <c r="T32" s="14"/>
       <c r="U32" s="15"/>
-      <c r="V32" s="21"/>
+      <c r="V32" s="113"/>
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
-      <c r="Z32" s="24"/>
+      <c r="Z32" s="109"/>
       <c r="AA32" s="8" t="s">
         <v>59</v>
       </c>
       <c r="AB32" s="7"/>
-      <c r="AC32" s="104" t="s">
+      <c r="AC32" s="96" t="s">
         <v>335</v>
       </c>
-      <c r="AD32" s="24">
+      <c r="AD32" s="21">
         <v>1899</v>
       </c>
-      <c r="AE32" s="112" t="s">
+      <c r="AE32" s="104" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="33" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="42">
+    <row r="33" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="37">
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -4898,16 +4904,16 @@
         <v>379</v>
       </c>
       <c r="I33" s="1"/>
-      <c r="J33" s="98" t="s">
+      <c r="J33" s="90" t="s">
         <v>460</v>
       </c>
-      <c r="K33" s="98" t="s">
+      <c r="K33" s="90" t="s">
         <v>432</v>
       </c>
-      <c r="L33" s="17" t="s">
+      <c r="L33" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="M33" s="86" t="s">
+      <c r="M33" s="78" t="s">
         <v>407</v>
       </c>
       <c r="N33" s="17" t="s">
@@ -4917,28 +4923,28 @@
       <c r="P33" s="19"/>
       <c r="Q33" s="19"/>
       <c r="R33" s="20"/>
-      <c r="S33" s="28"/>
+      <c r="S33" s="25"/>
       <c r="T33" s="14"/>
       <c r="U33" s="15"/>
-      <c r="V33" s="21"/>
+      <c r="V33" s="113"/>
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
-      <c r="Z33" s="24"/>
+      <c r="Z33" s="109"/>
       <c r="AA33" s="4"/>
       <c r="AB33" s="7"/>
-      <c r="AC33" s="104" t="s">
+      <c r="AC33" s="96" t="s">
         <v>378</v>
       </c>
-      <c r="AD33" s="24">
+      <c r="AD33" s="21">
         <v>1900</v>
       </c>
-      <c r="AE33" s="112" t="s">
+      <c r="AE33" s="104" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="34" spans="1:31" s="59" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="42">
+    <row r="34" spans="1:31" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="37">
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -4963,16 +4969,16 @@
         <v>379</v>
       </c>
       <c r="I34" s="1"/>
-      <c r="J34" s="98" t="s">
+      <c r="J34" s="90" t="s">
         <v>416</v>
       </c>
-      <c r="K34" s="98" t="s">
+      <c r="K34" s="90" t="s">
         <v>417</v>
       </c>
-      <c r="L34" s="17" t="s">
+      <c r="L34" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M34" s="86" t="s">
+      <c r="M34" s="78" t="s">
         <v>121</v>
       </c>
       <c r="N34" s="17" t="s">
@@ -4982,28 +4988,28 @@
       <c r="P34" s="19"/>
       <c r="Q34" s="19"/>
       <c r="R34" s="20"/>
-      <c r="S34" s="28"/>
+      <c r="S34" s="25"/>
       <c r="T34" s="14"/>
       <c r="U34" s="15"/>
-      <c r="V34" s="21"/>
+      <c r="V34" s="113"/>
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
       <c r="Y34" s="7"/>
-      <c r="Z34" s="24"/>
+      <c r="Z34" s="109"/>
       <c r="AA34" s="4"/>
       <c r="AB34" s="7"/>
-      <c r="AC34" s="82" t="s">
+      <c r="AC34" s="74" t="s">
         <v>348</v>
       </c>
-      <c r="AD34" s="24">
+      <c r="AD34" s="21">
         <v>1912</v>
       </c>
-      <c r="AE34" s="112" t="s">
+      <c r="AE34" s="104" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="42">
+    <row r="35" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="37">
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -5028,16 +5034,16 @@
         <v>379</v>
       </c>
       <c r="I35" s="1"/>
-      <c r="J35" s="98" t="s">
+      <c r="J35" s="90" t="s">
         <v>416</v>
       </c>
-      <c r="K35" s="98" t="s">
+      <c r="K35" s="90" t="s">
         <v>417</v>
       </c>
-      <c r="L35" s="17" t="s">
+      <c r="L35" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M35" s="86" t="s">
+      <c r="M35" s="78" t="s">
         <v>123</v>
       </c>
       <c r="N35" s="17" t="s">
@@ -5047,28 +5053,28 @@
       <c r="P35" s="19"/>
       <c r="Q35" s="19"/>
       <c r="R35" s="20"/>
-      <c r="S35" s="28"/>
+      <c r="S35" s="25"/>
       <c r="T35" s="14"/>
       <c r="U35" s="15"/>
-      <c r="V35" s="21"/>
+      <c r="V35" s="113"/>
       <c r="W35" s="7"/>
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
-      <c r="Z35" s="24"/>
+      <c r="Z35" s="109"/>
       <c r="AA35" s="4"/>
       <c r="AB35" s="7"/>
-      <c r="AC35" s="104" t="s">
+      <c r="AC35" s="96" t="s">
         <v>349</v>
       </c>
-      <c r="AD35" s="24">
+      <c r="AD35" s="21">
         <v>1919</v>
       </c>
-      <c r="AE35" s="112" t="s">
+      <c r="AE35" s="104" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="42">
+    <row r="36" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="37">
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -5095,16 +5101,16 @@
       <c r="I36" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="J36" s="98" t="s">
+      <c r="J36" s="90" t="s">
         <v>433</v>
       </c>
-      <c r="K36" s="98" t="s">
+      <c r="K36" s="90" t="s">
         <v>434</v>
       </c>
-      <c r="L36" s="17" t="s">
+      <c r="L36" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="M36" s="86" t="s">
+      <c r="M36" s="78" t="s">
         <v>76</v>
       </c>
       <c r="N36" s="17" t="s">
@@ -5114,14 +5120,14 @@
       <c r="P36" s="19"/>
       <c r="Q36" s="19"/>
       <c r="R36" s="20"/>
-      <c r="S36" s="28"/>
+      <c r="S36" s="25"/>
       <c r="T36" s="14"/>
       <c r="U36" s="15"/>
-      <c r="V36" s="21"/>
+      <c r="V36" s="113"/>
       <c r="W36" s="7"/>
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
-      <c r="Z36" s="24"/>
+      <c r="Z36" s="109"/>
       <c r="AA36" s="4" t="s">
         <v>77</v>
       </c>
@@ -5129,15 +5135,15 @@
       <c r="AC36" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AD36" s="24">
+      <c r="AD36" s="21">
         <v>1921</v>
       </c>
-      <c r="AE36" s="112" t="s">
+      <c r="AE36" s="104" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="37" spans="1:31" s="42" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="42">
+    <row r="37" spans="1:31" s="37" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="37">
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -5164,16 +5170,16 @@
       <c r="I37" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="J37" s="98" t="s">
+      <c r="J37" s="90" t="s">
         <v>433</v>
       </c>
-      <c r="K37" s="98" t="s">
+      <c r="K37" s="90" t="s">
         <v>434</v>
       </c>
-      <c r="L37" s="17" t="s">
+      <c r="L37" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="M37" s="86" t="s">
+      <c r="M37" s="78" t="s">
         <v>78</v>
       </c>
       <c r="N37" s="17" t="s">
@@ -5183,14 +5189,14 @@
       <c r="P37" s="19"/>
       <c r="Q37" s="19"/>
       <c r="R37" s="20"/>
-      <c r="S37" s="28"/>
+      <c r="S37" s="25"/>
       <c r="T37" s="14"/>
       <c r="U37" s="15"/>
-      <c r="V37" s="21"/>
+      <c r="V37" s="113"/>
       <c r="W37" s="7"/>
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
-      <c r="Z37" s="24"/>
+      <c r="Z37" s="109"/>
       <c r="AA37" s="4" t="s">
         <v>77</v>
       </c>
@@ -5198,15 +5204,15 @@
       <c r="AC37" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AD37" s="24">
+      <c r="AD37" s="21">
         <v>1921</v>
       </c>
-      <c r="AE37" s="112" t="s">
+      <c r="AE37" s="104" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="38" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="42">
+    <row r="38" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="37">
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -5233,16 +5239,16 @@
       <c r="I38" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="J38" s="98" t="s">
+      <c r="J38" s="90" t="s">
         <v>433</v>
       </c>
-      <c r="K38" s="98" t="s">
+      <c r="K38" s="90" t="s">
         <v>434</v>
       </c>
-      <c r="L38" s="17" t="s">
+      <c r="L38" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="M38" s="86" t="s">
+      <c r="M38" s="78" t="s">
         <v>79</v>
       </c>
       <c r="N38" s="17" t="s">
@@ -5252,14 +5258,14 @@
       <c r="P38" s="19"/>
       <c r="Q38" s="19"/>
       <c r="R38" s="20"/>
-      <c r="S38" s="28"/>
+      <c r="S38" s="25"/>
       <c r="T38" s="14"/>
       <c r="U38" s="15"/>
-      <c r="V38" s="21"/>
+      <c r="V38" s="113"/>
       <c r="W38" s="7"/>
       <c r="X38" s="7"/>
       <c r="Y38" s="7"/>
-      <c r="Z38" s="24"/>
+      <c r="Z38" s="109"/>
       <c r="AA38" s="4" t="s">
         <v>77</v>
       </c>
@@ -5267,15 +5273,15 @@
       <c r="AC38" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AD38" s="24">
+      <c r="AD38" s="21">
         <v>1921</v>
       </c>
-      <c r="AE38" s="112" t="s">
+      <c r="AE38" s="104" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="39" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="42">
+    <row r="39" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="37">
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -5300,16 +5306,16 @@
         <v>379</v>
       </c>
       <c r="I39" s="1"/>
-      <c r="J39" s="98" t="s">
+      <c r="J39" s="90" t="s">
         <v>416</v>
       </c>
-      <c r="K39" s="98" t="s">
+      <c r="K39" s="90" t="s">
         <v>417</v>
       </c>
-      <c r="L39" s="17" t="s">
+      <c r="L39" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M39" s="86" t="s">
+      <c r="M39" s="78" t="s">
         <v>125</v>
       </c>
       <c r="N39" s="17" t="s">
@@ -5319,28 +5325,28 @@
       <c r="P39" s="19"/>
       <c r="Q39" s="19"/>
       <c r="R39" s="20"/>
-      <c r="S39" s="28"/>
+      <c r="S39" s="25"/>
       <c r="T39" s="14"/>
       <c r="U39" s="15"/>
-      <c r="V39" s="21"/>
+      <c r="V39" s="113"/>
       <c r="W39" s="7"/>
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
-      <c r="Z39" s="24"/>
+      <c r="Z39" s="109"/>
       <c r="AA39" s="4"/>
       <c r="AB39" s="7"/>
-      <c r="AC39" s="82" t="s">
+      <c r="AC39" s="74" t="s">
         <v>350</v>
       </c>
-      <c r="AD39" s="24">
+      <c r="AD39" s="21">
         <v>1922</v>
       </c>
-      <c r="AE39" s="112" t="s">
+      <c r="AE39" s="104" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="42">
+    <row r="40" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="37">
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -5365,116 +5371,116 @@
         <v>379</v>
       </c>
       <c r="I40" s="1"/>
-      <c r="J40" s="98" t="s">
+      <c r="J40" s="90" t="s">
         <v>461</v>
       </c>
-      <c r="K40" s="98" t="s">
+      <c r="K40" s="90" t="s">
         <v>423</v>
       </c>
-      <c r="L40" s="17" t="s">
+      <c r="L40" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="M40" s="86" t="s">
+      <c r="M40" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="N40" s="86" t="s">
+      <c r="N40" s="78" t="s">
         <v>148</v>
       </c>
       <c r="O40" s="14"/>
       <c r="P40" s="19"/>
       <c r="Q40" s="19"/>
       <c r="R40" s="20"/>
-      <c r="S40" s="28"/>
+      <c r="S40" s="25"/>
       <c r="T40" s="14"/>
       <c r="U40" s="15"/>
-      <c r="V40" s="21"/>
+      <c r="V40" s="113"/>
       <c r="W40" s="7"/>
       <c r="X40" s="7"/>
       <c r="Y40" s="7"/>
-      <c r="Z40" s="24"/>
+      <c r="Z40" s="109"/>
       <c r="AA40" s="8" t="s">
         <v>149</v>
       </c>
       <c r="AB40" s="7"/>
-      <c r="AC40" s="82" t="s">
+      <c r="AC40" s="74" t="s">
         <v>355</v>
       </c>
-      <c r="AD40" s="92" t="s">
+      <c r="AD40" s="84" t="s">
         <v>150</v>
       </c>
-      <c r="AE40" s="112" t="s">
+      <c r="AE40" s="104" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="42">
+    <row r="41" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="37">
         <v>40</v>
       </c>
-      <c r="B41" s="79" t="s">
+      <c r="B41" s="71" t="s">
         <v>262</v>
       </c>
-      <c r="C41" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F41" s="49" t="s">
+      <c r="C41" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="G41" s="47" t="s">
+      <c r="G41" s="42" t="s">
         <v>24</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="I41" s="47"/>
-      <c r="J41" s="100" t="s">
+      <c r="I41" s="42"/>
+      <c r="J41" s="92" t="s">
         <v>467</v>
       </c>
-      <c r="K41" s="100" t="s">
+      <c r="K41" s="92" t="s">
         <v>435</v>
       </c>
-      <c r="L41" s="50" t="s">
+      <c r="L41" s="71" t="s">
         <v>264</v>
       </c>
-      <c r="M41" s="87" t="s">
+      <c r="M41" s="79" t="s">
         <v>265</v>
       </c>
-      <c r="N41" s="50" t="s">
+      <c r="N41" s="45" t="s">
         <v>265</v>
       </c>
-      <c r="O41" s="52"/>
-      <c r="P41" s="53"/>
-      <c r="Q41" s="53"/>
-      <c r="R41" s="53"/>
-      <c r="S41" s="54">
+      <c r="O41" s="47"/>
+      <c r="P41" s="48"/>
+      <c r="Q41" s="48"/>
+      <c r="R41" s="48"/>
+      <c r="S41" s="49">
         <v>20000</v>
       </c>
-      <c r="T41" s="52"/>
-      <c r="U41" s="55"/>
-      <c r="V41" s="56"/>
-      <c r="W41" s="51"/>
-      <c r="X41" s="51"/>
-      <c r="Y41" s="51"/>
-      <c r="Z41" s="58"/>
-      <c r="AA41" s="49" t="s">
+      <c r="T41" s="47"/>
+      <c r="U41" s="50"/>
+      <c r="V41" s="115"/>
+      <c r="W41" s="46"/>
+      <c r="X41" s="46"/>
+      <c r="Y41" s="46"/>
+      <c r="Z41" s="44"/>
+      <c r="AA41" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="AB41" s="51"/>
-      <c r="AC41" s="108"/>
-      <c r="AD41" s="57">
+      <c r="AB41" s="46"/>
+      <c r="AC41" s="100"/>
+      <c r="AD41" s="51">
         <v>1983</v>
       </c>
-      <c r="AE41" s="109" t="s">
+      <c r="AE41" s="101" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="42" spans="1:31" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="42">
+    <row r="42" spans="1:31" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="37">
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -5499,16 +5505,16 @@
         <v>379</v>
       </c>
       <c r="I42" s="1"/>
-      <c r="J42" s="98" t="s">
+      <c r="J42" s="90" t="s">
         <v>468</v>
       </c>
-      <c r="K42" s="98" t="s">
+      <c r="K42" s="90" t="s">
         <v>436</v>
       </c>
-      <c r="L42" s="17" t="s">
+      <c r="L42" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="M42" s="86" t="s">
+      <c r="M42" s="78" t="s">
         <v>226</v>
       </c>
       <c r="N42" s="17" t="s">
@@ -5518,26 +5524,26 @@
       <c r="P42" s="19"/>
       <c r="Q42" s="19"/>
       <c r="R42" s="20"/>
-      <c r="S42" s="28"/>
+      <c r="S42" s="25"/>
       <c r="T42" s="14"/>
       <c r="U42" s="15"/>
-      <c r="V42" s="21"/>
+      <c r="V42" s="113"/>
       <c r="W42" s="7"/>
       <c r="X42" s="7"/>
       <c r="Y42" s="7"/>
-      <c r="Z42" s="24"/>
+      <c r="Z42" s="109"/>
       <c r="AA42" s="4"/>
       <c r="AB42" s="7"/>
       <c r="AC42" s="4"/>
-      <c r="AD42" s="24">
+      <c r="AD42" s="21">
         <v>1977</v>
       </c>
-      <c r="AE42" s="112" t="s">
+      <c r="AE42" s="104" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="42">
+    <row r="43" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="37">
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -5562,47 +5568,47 @@
         <v>379</v>
       </c>
       <c r="I43" s="1"/>
-      <c r="J43" s="98" t="s">
+      <c r="J43" s="90" t="s">
         <v>433</v>
       </c>
-      <c r="K43" s="98" t="s">
+      <c r="K43" s="90" t="s">
         <v>434</v>
       </c>
-      <c r="L43" s="17" t="s">
+      <c r="L43" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="M43" s="95" t="s">
+      <c r="M43" s="87" t="s">
         <v>283</v>
       </c>
-      <c r="N43" s="84" t="s">
+      <c r="N43" s="76" t="s">
         <v>283</v>
       </c>
       <c r="O43" s="14"/>
       <c r="P43" s="19"/>
       <c r="Q43" s="19"/>
       <c r="R43" s="20"/>
-      <c r="S43" s="28"/>
+      <c r="S43" s="25"/>
       <c r="T43" s="14"/>
       <c r="U43" s="15"/>
-      <c r="V43" s="21"/>
+      <c r="V43" s="113"/>
       <c r="W43" s="7"/>
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
-      <c r="Z43" s="24"/>
+      <c r="Z43" s="109"/>
       <c r="AA43" s="4"/>
       <c r="AB43" s="7"/>
       <c r="AC43" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="AD43" s="24">
+      <c r="AD43" s="21">
         <v>1929</v>
       </c>
-      <c r="AE43" s="112" t="s">
+      <c r="AE43" s="104" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="44" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="42">
+    <row r="44" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="37">
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -5627,16 +5633,16 @@
         <v>379</v>
       </c>
       <c r="I44" s="1"/>
-      <c r="J44" s="98" t="s">
+      <c r="J44" s="90" t="s">
         <v>416</v>
       </c>
-      <c r="K44" s="98" t="s">
+      <c r="K44" s="90" t="s">
         <v>417</v>
       </c>
-      <c r="L44" s="17" t="s">
+      <c r="L44" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M44" s="86" t="s">
+      <c r="M44" s="78" t="s">
         <v>127</v>
       </c>
       <c r="N44" s="18" t="s">
@@ -5646,26 +5652,26 @@
       <c r="P44" s="19"/>
       <c r="Q44" s="19"/>
       <c r="R44" s="20"/>
-      <c r="S44" s="28"/>
+      <c r="S44" s="25"/>
       <c r="T44" s="14"/>
       <c r="U44" s="15"/>
-      <c r="V44" s="21"/>
+      <c r="V44" s="113"/>
       <c r="W44" s="7"/>
       <c r="X44" s="7"/>
       <c r="Y44" s="7"/>
-      <c r="Z44" s="24"/>
+      <c r="Z44" s="109"/>
       <c r="AA44" s="4"/>
       <c r="AB44" s="7"/>
-      <c r="AC44" s="103"/>
-      <c r="AD44" s="24">
+      <c r="AC44" s="95"/>
+      <c r="AD44" s="21">
         <v>1931</v>
       </c>
-      <c r="AE44" s="112" t="s">
+      <c r="AE44" s="104" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="42">
+    <row r="45" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="37">
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -5690,16 +5696,16 @@
         <v>379</v>
       </c>
       <c r="I45" s="1"/>
-      <c r="J45" s="98" t="s">
+      <c r="J45" s="90" t="s">
         <v>437</v>
       </c>
-      <c r="K45" s="98" t="s">
+      <c r="K45" s="90" t="s">
         <v>487</v>
       </c>
-      <c r="L45" s="17" t="s">
+      <c r="L45" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M45" s="86" t="s">
+      <c r="M45" s="78" t="s">
         <v>111</v>
       </c>
       <c r="N45" s="17" t="s">
@@ -5709,28 +5715,28 @@
       <c r="P45" s="19"/>
       <c r="Q45" s="19"/>
       <c r="R45" s="20"/>
-      <c r="S45" s="28"/>
+      <c r="S45" s="25"/>
       <c r="T45" s="14"/>
       <c r="U45" s="15"/>
-      <c r="V45" s="21"/>
+      <c r="V45" s="113"/>
       <c r="W45" s="7"/>
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
-      <c r="Z45" s="24"/>
+      <c r="Z45" s="109"/>
       <c r="AA45" s="4"/>
       <c r="AB45" s="7"/>
-      <c r="AC45" s="82" t="s">
+      <c r="AC45" s="74" t="s">
         <v>346</v>
       </c>
-      <c r="AD45" s="24">
+      <c r="AD45" s="21">
         <v>1931</v>
       </c>
-      <c r="AE45" s="112" t="s">
+      <c r="AE45" s="104" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="42">
+    <row r="46" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="37">
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -5755,16 +5761,16 @@
         <v>379</v>
       </c>
       <c r="I46" s="1"/>
-      <c r="J46" s="98" t="s">
+      <c r="J46" s="90" t="s">
         <v>416</v>
       </c>
-      <c r="K46" s="98" t="s">
+      <c r="K46" s="90" t="s">
         <v>417</v>
       </c>
-      <c r="L46" s="17" t="s">
+      <c r="L46" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M46" s="86" t="s">
+      <c r="M46" s="78" t="s">
         <v>129</v>
       </c>
       <c r="N46" s="18" t="s">
@@ -5774,26 +5780,26 @@
       <c r="P46" s="19"/>
       <c r="Q46" s="19"/>
       <c r="R46" s="20"/>
-      <c r="S46" s="28"/>
+      <c r="S46" s="25"/>
       <c r="T46" s="14"/>
       <c r="U46" s="15"/>
-      <c r="V46" s="21"/>
+      <c r="V46" s="113"/>
       <c r="W46" s="7"/>
       <c r="X46" s="7"/>
       <c r="Y46" s="7"/>
-      <c r="Z46" s="24"/>
+      <c r="Z46" s="109"/>
       <c r="AA46" s="4"/>
       <c r="AB46" s="7"/>
-      <c r="AC46" s="103"/>
-      <c r="AD46" s="24">
+      <c r="AC46" s="95"/>
+      <c r="AD46" s="21">
         <v>1934</v>
       </c>
-      <c r="AE46" s="112" t="s">
+      <c r="AE46" s="104" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="42">
+    <row r="47" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="37">
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -5818,16 +5824,16 @@
         <v>379</v>
       </c>
       <c r="I47" s="1"/>
-      <c r="J47" s="98" t="s">
+      <c r="J47" s="90" t="s">
         <v>465</v>
       </c>
-      <c r="K47" s="98" t="s">
+      <c r="K47" s="90" t="s">
         <v>477</v>
       </c>
-      <c r="L47" s="17" t="s">
+      <c r="L47" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="M47" s="86" t="s">
+      <c r="M47" s="78" t="s">
         <v>291</v>
       </c>
       <c r="N47" s="17" t="s">
@@ -5837,28 +5843,28 @@
       <c r="P47" s="19"/>
       <c r="Q47" s="19"/>
       <c r="R47" s="20"/>
-      <c r="S47" s="28"/>
+      <c r="S47" s="25"/>
       <c r="T47" s="14"/>
       <c r="U47" s="15"/>
-      <c r="V47" s="21"/>
+      <c r="V47" s="113"/>
       <c r="W47" s="7"/>
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
-      <c r="Z47" s="24"/>
+      <c r="Z47" s="109"/>
       <c r="AA47" s="4" t="s">
         <v>292</v>
       </c>
       <c r="AB47" s="7"/>
       <c r="AC47" s="4"/>
-      <c r="AD47" s="24">
+      <c r="AD47" s="21">
         <v>1935</v>
       </c>
-      <c r="AE47" s="112" t="s">
+      <c r="AE47" s="104" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="48" spans="1:31" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="42">
+    <row r="48" spans="1:31" s="52" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="37">
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -5883,16 +5889,16 @@
         <v>379</v>
       </c>
       <c r="I48" s="1"/>
-      <c r="J48" s="98" t="s">
+      <c r="J48" s="90" t="s">
         <v>418</v>
       </c>
-      <c r="K48" s="98" t="s">
+      <c r="K48" s="90" t="s">
         <v>419</v>
       </c>
-      <c r="L48" s="17" t="s">
+      <c r="L48" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="M48" s="86" t="s">
+      <c r="M48" s="78" t="s">
         <v>197</v>
       </c>
       <c r="N48" s="17" t="s">
@@ -5902,30 +5908,30 @@
       <c r="P48" s="19"/>
       <c r="Q48" s="19"/>
       <c r="R48" s="20"/>
-      <c r="S48" s="28"/>
+      <c r="S48" s="25"/>
       <c r="T48" s="14"/>
       <c r="U48" s="15"/>
-      <c r="V48" s="21"/>
+      <c r="V48" s="113"/>
       <c r="W48" s="7"/>
       <c r="X48" s="7"/>
       <c r="Y48" s="7"/>
-      <c r="Z48" s="24"/>
+      <c r="Z48" s="109"/>
       <c r="AA48" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AB48" s="7"/>
-      <c r="AC48" s="82" t="s">
+      <c r="AC48" s="74" t="s">
         <v>365</v>
       </c>
-      <c r="AD48" s="24">
+      <c r="AD48" s="21">
         <v>1950</v>
       </c>
-      <c r="AE48" s="112" t="s">
+      <c r="AE48" s="104" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="49" spans="1:31" s="42" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="42">
+    <row r="49" spans="1:31" s="37" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="37">
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -5950,16 +5956,16 @@
         <v>379</v>
       </c>
       <c r="I49" s="1"/>
-      <c r="J49" s="98" t="s">
+      <c r="J49" s="90" t="s">
         <v>416</v>
       </c>
-      <c r="K49" s="98" t="s">
+      <c r="K49" s="90" t="s">
         <v>417</v>
       </c>
-      <c r="L49" s="17" t="s">
+      <c r="L49" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M49" s="86" t="s">
+      <c r="M49" s="78" t="s">
         <v>132</v>
       </c>
       <c r="N49" s="18" t="s">
@@ -5971,36 +5977,36 @@
       <c r="P49" s="19"/>
       <c r="Q49" s="19"/>
       <c r="R49" s="19"/>
-      <c r="S49" s="28">
+      <c r="S49" s="25">
         <v>840000</v>
       </c>
       <c r="T49" s="14"/>
-      <c r="U49" s="71"/>
-      <c r="V49" s="72"/>
-      <c r="W49" s="66">
+      <c r="U49" s="64"/>
+      <c r="V49" s="114"/>
+      <c r="W49" s="59">
         <v>22.5</v>
       </c>
-      <c r="X49" s="66"/>
-      <c r="Y49" s="66"/>
-      <c r="Z49" s="73" t="s">
+      <c r="X49" s="59"/>
+      <c r="Y49" s="59"/>
+      <c r="Z49" s="110" t="s">
         <v>134</v>
       </c>
       <c r="AA49" s="8" t="s">
         <v>135</v>
       </c>
       <c r="AB49" s="7"/>
-      <c r="AC49" s="82" t="s">
+      <c r="AC49" s="74" t="s">
         <v>351</v>
       </c>
-      <c r="AD49" s="24">
+      <c r="AD49" s="21">
         <v>1943</v>
       </c>
-      <c r="AE49" s="112" t="s">
+      <c r="AE49" s="104" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="50" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="42">
+    <row r="50" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="37">
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -6027,16 +6033,16 @@
       <c r="I50" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J50" s="98" t="s">
+      <c r="J50" s="90" t="s">
         <v>438</v>
       </c>
-      <c r="K50" s="98" t="s">
+      <c r="K50" s="90" t="s">
         <v>480</v>
       </c>
-      <c r="L50" s="17" t="s">
+      <c r="L50" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="M50" s="86" t="s">
+      <c r="M50" s="78" t="s">
         <v>64</v>
       </c>
       <c r="N50" s="17" t="s">
@@ -6046,28 +6052,28 @@
       <c r="P50" s="19"/>
       <c r="Q50" s="19"/>
       <c r="R50" s="20"/>
-      <c r="S50" s="28"/>
+      <c r="S50" s="25"/>
       <c r="T50" s="14"/>
       <c r="U50" s="15"/>
-      <c r="V50" s="21"/>
+      <c r="V50" s="113"/>
       <c r="W50" s="7"/>
       <c r="X50" s="7"/>
       <c r="Y50" s="7"/>
-      <c r="Z50" s="24"/>
+      <c r="Z50" s="109"/>
       <c r="AA50" s="4"/>
       <c r="AB50" s="7"/>
-      <c r="AC50" s="103" t="s">
+      <c r="AC50" s="95" t="s">
         <v>286</v>
       </c>
-      <c r="AD50" s="24">
+      <c r="AD50" s="21">
         <v>1944</v>
       </c>
-      <c r="AE50" s="112" t="s">
+      <c r="AE50" s="104" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="51" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="42">
+    <row r="51" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="37">
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -6092,16 +6098,16 @@
         <v>379</v>
       </c>
       <c r="I51" s="1"/>
-      <c r="J51" s="98" t="s">
+      <c r="J51" s="90" t="s">
         <v>416</v>
       </c>
-      <c r="K51" s="98" t="s">
+      <c r="K51" s="90" t="s">
         <v>417</v>
       </c>
-      <c r="L51" s="17" t="s">
+      <c r="L51" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M51" s="86" t="s">
+      <c r="M51" s="78" t="s">
         <v>136</v>
       </c>
       <c r="N51" s="17" t="s">
@@ -6111,30 +6117,30 @@
       <c r="P51" s="19"/>
       <c r="Q51" s="19"/>
       <c r="R51" s="20"/>
-      <c r="S51" s="28">
+      <c r="S51" s="25">
         <v>850000</v>
       </c>
       <c r="T51" s="14"/>
       <c r="U51" s="15"/>
-      <c r="V51" s="21"/>
+      <c r="V51" s="113"/>
       <c r="W51" s="7"/>
       <c r="X51" s="7"/>
       <c r="Y51" s="7"/>
-      <c r="Z51" s="24"/>
+      <c r="Z51" s="109"/>
       <c r="AA51" s="4" t="s">
         <v>320</v>
       </c>
       <c r="AB51" s="7"/>
-      <c r="AC51" s="82" t="s">
+      <c r="AC51" s="74" t="s">
         <v>352</v>
       </c>
-      <c r="AD51" s="24"/>
-      <c r="AE51" s="112" t="s">
+      <c r="AD51" s="21"/>
+      <c r="AE51" s="104" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="42">
+    <row r="52" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="37">
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -6161,31 +6167,31 @@
       <c r="I52" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="J52" s="98" t="s">
+      <c r="J52" s="90" t="s">
         <v>469</v>
       </c>
-      <c r="K52" s="98" t="s">
+      <c r="K52" s="90" t="s">
         <v>439</v>
       </c>
-      <c r="L52" s="17" t="s">
+      <c r="L52" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="M52" s="96" t="s">
+      <c r="M52" s="88" t="s">
         <v>289</v>
       </c>
-      <c r="N52" s="83" t="s">
+      <c r="N52" s="75" t="s">
         <v>289</v>
       </c>
       <c r="O52" s="14"/>
       <c r="P52" s="19"/>
       <c r="Q52" s="19"/>
       <c r="R52" s="20"/>
-      <c r="S52" s="28">
+      <c r="S52" s="25">
         <v>1600000</v>
       </c>
       <c r="T52" s="14"/>
       <c r="U52" s="15"/>
-      <c r="V52" s="21"/>
+      <c r="V52" s="113"/>
       <c r="W52" s="7">
         <v>400</v>
       </c>
@@ -6195,25 +6201,25 @@
       <c r="Y52" s="7">
         <v>454</v>
       </c>
-      <c r="Z52" s="24" t="s">
+      <c r="Z52" s="109" t="s">
         <v>288</v>
       </c>
-      <c r="AA52" s="82" t="s">
+      <c r="AA52" s="74" t="s">
         <v>319</v>
       </c>
       <c r="AB52" s="7"/>
-      <c r="AC52" s="82" t="s">
+      <c r="AC52" s="74" t="s">
         <v>338</v>
       </c>
-      <c r="AD52" s="24">
+      <c r="AD52" s="21">
         <v>1944</v>
       </c>
-      <c r="AE52" s="81" t="s">
+      <c r="AE52" s="73" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="53" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="42">
+    <row r="53" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="37">
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -6240,16 +6246,16 @@
       <c r="I53" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J53" s="98" t="s">
+      <c r="J53" s="90" t="s">
         <v>465</v>
       </c>
-      <c r="K53" s="98" t="s">
+      <c r="K53" s="90" t="s">
         <v>477</v>
       </c>
-      <c r="L53" s="17" t="s">
+      <c r="L53" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="M53" s="86" t="s">
+      <c r="M53" s="78" t="s">
         <v>293</v>
       </c>
       <c r="N53" s="17" t="s">
@@ -6259,26 +6265,26 @@
       <c r="P53" s="19"/>
       <c r="Q53" s="19"/>
       <c r="R53" s="20"/>
-      <c r="S53" s="28"/>
+      <c r="S53" s="25"/>
       <c r="T53" s="14"/>
       <c r="U53" s="15"/>
-      <c r="V53" s="21"/>
+      <c r="V53" s="113"/>
       <c r="W53" s="7"/>
       <c r="X53" s="7"/>
       <c r="Y53" s="7"/>
-      <c r="Z53" s="24"/>
+      <c r="Z53" s="109"/>
       <c r="AA53" s="4"/>
       <c r="AB53" s="7"/>
       <c r="AC53" s="4"/>
-      <c r="AD53" s="24">
+      <c r="AD53" s="21">
         <v>1948</v>
       </c>
-      <c r="AE53" s="112" t="s">
+      <c r="AE53" s="104" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="54" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="42">
+    <row r="54" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="37">
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -6303,19 +6309,19 @@
         <v>379</v>
       </c>
       <c r="I54" s="1"/>
-      <c r="J54" s="98" t="s">
+      <c r="J54" s="90" t="s">
         <v>463</v>
       </c>
-      <c r="K54" s="98" t="s">
+      <c r="K54" s="90" t="s">
         <v>428</v>
       </c>
-      <c r="L54" s="17" t="s">
+      <c r="L54" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="M54" s="86" t="s">
+      <c r="M54" s="78" t="s">
         <v>173</v>
       </c>
-      <c r="N54" s="86" t="s">
+      <c r="N54" s="78" t="s">
         <v>173</v>
       </c>
       <c r="O54" s="14"/>
@@ -6327,27 +6333,27 @@
       </c>
       <c r="T54" s="14"/>
       <c r="U54" s="15"/>
-      <c r="V54" s="21"/>
+      <c r="V54" s="113"/>
       <c r="W54" s="7">
         <v>74.599999999999994</v>
       </c>
       <c r="X54" s="7"/>
       <c r="Y54" s="7"/>
-      <c r="Z54" s="24"/>
-      <c r="AA54" s="103" t="s">
+      <c r="Z54" s="109"/>
+      <c r="AA54" s="95" t="s">
         <v>389</v>
       </c>
       <c r="AB54" s="7"/>
-      <c r="AC54" s="103"/>
-      <c r="AD54" s="24">
+      <c r="AC54" s="95"/>
+      <c r="AD54" s="21">
         <v>1951</v>
       </c>
-      <c r="AE54" s="112" t="s">
+      <c r="AE54" s="104" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="55" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="42">
+    <row r="55" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="37">
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -6374,16 +6380,16 @@
       <c r="I55" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J55" s="98" t="s">
+      <c r="J55" s="90" t="s">
         <v>469</v>
       </c>
-      <c r="K55" s="98" t="s">
+      <c r="K55" s="90" t="s">
         <v>439</v>
       </c>
-      <c r="L55" s="17" t="s">
+      <c r="L55" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="M55" s="86" t="s">
+      <c r="M55" s="78" t="s">
         <v>72</v>
       </c>
       <c r="N55" s="17" t="s">
@@ -6393,34 +6399,34 @@
       <c r="P55" s="19"/>
       <c r="Q55" s="19"/>
       <c r="R55" s="20"/>
-      <c r="S55" s="28">
+      <c r="S55" s="25">
         <v>255000</v>
       </c>
       <c r="T55" s="14"/>
       <c r="U55" s="15"/>
-      <c r="V55" s="21"/>
+      <c r="V55" s="113"/>
       <c r="W55" s="7">
         <v>230</v>
       </c>
       <c r="X55" s="7"/>
       <c r="Y55" s="7"/>
-      <c r="Z55" s="24" t="s">
+      <c r="Z55" s="109" t="s">
         <v>288</v>
       </c>
-      <c r="AA55" s="103"/>
+      <c r="AA55" s="95"/>
       <c r="AB55" s="7"/>
-      <c r="AC55" s="104" t="s">
+      <c r="AC55" s="96" t="s">
         <v>339</v>
       </c>
-      <c r="AD55" s="24">
+      <c r="AD55" s="21">
         <v>2003</v>
       </c>
-      <c r="AE55" s="112" t="s">
+      <c r="AE55" s="104" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="56" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="42">
+    <row r="56" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="37">
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -6445,47 +6451,47 @@
         <v>379</v>
       </c>
       <c r="I56" s="1"/>
-      <c r="J56" s="98" t="s">
+      <c r="J56" s="90" t="s">
         <v>470</v>
       </c>
-      <c r="K56" s="98" t="s">
+      <c r="K56" s="90" t="s">
         <v>481</v>
       </c>
-      <c r="L56" s="17" t="s">
+      <c r="L56" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="M56" s="86" t="s">
+      <c r="M56" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="N56" s="86" t="s">
+      <c r="N56" s="78" t="s">
         <v>28</v>
       </c>
       <c r="O56" s="14"/>
       <c r="P56" s="19"/>
       <c r="Q56" s="19"/>
       <c r="R56" s="20"/>
-      <c r="S56" s="28"/>
+      <c r="S56" s="25"/>
       <c r="T56" s="14"/>
       <c r="U56" s="15"/>
-      <c r="V56" s="21"/>
+      <c r="V56" s="113"/>
       <c r="W56" s="7"/>
       <c r="X56" s="7"/>
       <c r="Y56" s="7"/>
-      <c r="Z56" s="24"/>
+      <c r="Z56" s="109"/>
       <c r="AA56" s="4" t="s">
         <v>380</v>
       </c>
       <c r="AB56" s="7"/>
-      <c r="AC56" s="104" t="s">
+      <c r="AC56" s="96" t="s">
         <v>330</v>
       </c>
-      <c r="AD56" s="24"/>
-      <c r="AE56" s="112" t="s">
+      <c r="AD56" s="21"/>
+      <c r="AE56" s="104" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="42">
+    <row r="57" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="37">
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -6510,16 +6516,16 @@
         <v>379</v>
       </c>
       <c r="I57" s="1"/>
-      <c r="J57" s="98" t="s">
+      <c r="J57" s="90" t="s">
         <v>416</v>
       </c>
-      <c r="K57" s="98" t="s">
+      <c r="K57" s="90" t="s">
         <v>417</v>
       </c>
-      <c r="L57" s="17" t="s">
+      <c r="L57" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M57" s="86" t="s">
+      <c r="M57" s="78" t="s">
         <v>138</v>
       </c>
       <c r="N57" s="18" t="s">
@@ -6531,32 +6537,32 @@
       <c r="P57" s="19"/>
       <c r="Q57" s="19"/>
       <c r="R57" s="20"/>
-      <c r="S57" s="28"/>
+      <c r="S57" s="25"/>
       <c r="T57" s="14"/>
       <c r="U57" s="15"/>
-      <c r="V57" s="21"/>
+      <c r="V57" s="113"/>
       <c r="W57" s="7">
         <v>25</v>
       </c>
       <c r="X57" s="7"/>
       <c r="Y57" s="7"/>
-      <c r="Z57" s="24"/>
+      <c r="Z57" s="109"/>
       <c r="AA57" s="4" t="s">
         <v>140</v>
       </c>
       <c r="AB57" s="7"/>
-      <c r="AC57" s="104" t="s">
+      <c r="AC57" s="96" t="s">
         <v>353</v>
       </c>
-      <c r="AD57" s="24">
+      <c r="AD57" s="21">
         <v>1961</v>
       </c>
-      <c r="AE57" s="112" t="s">
+      <c r="AE57" s="104" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="42">
+    <row r="58" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="37">
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -6581,49 +6587,49 @@
         <v>379</v>
       </c>
       <c r="I58" s="1"/>
-      <c r="J58" s="98" t="s">
+      <c r="J58" s="90" t="s">
         <v>461</v>
       </c>
-      <c r="K58" s="98" t="s">
+      <c r="K58" s="90" t="s">
         <v>423</v>
       </c>
-      <c r="L58" s="17" t="s">
+      <c r="L58" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="M58" s="86" t="s">
+      <c r="M58" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="N58" s="86" t="s">
+      <c r="N58" s="78" t="s">
         <v>152</v>
       </c>
       <c r="O58" s="14"/>
       <c r="P58" s="19"/>
       <c r="Q58" s="19"/>
       <c r="R58" s="20"/>
-      <c r="S58" s="28"/>
+      <c r="S58" s="25"/>
       <c r="T58" s="14"/>
       <c r="U58" s="15"/>
-      <c r="V58" s="21"/>
+      <c r="V58" s="113"/>
       <c r="W58" s="7"/>
       <c r="X58" s="7"/>
       <c r="Y58" s="7"/>
-      <c r="Z58" s="24"/>
+      <c r="Z58" s="109"/>
       <c r="AA58" s="8" t="s">
         <v>153</v>
       </c>
       <c r="AB58" s="7"/>
-      <c r="AC58" s="104" t="s">
+      <c r="AC58" s="96" t="s">
         <v>356</v>
       </c>
-      <c r="AD58" s="24">
+      <c r="AD58" s="21">
         <v>1983</v>
       </c>
-      <c r="AE58" s="112" t="s">
+      <c r="AE58" s="104" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="59" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="42">
+    <row r="59" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="37">
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
@@ -6648,16 +6654,16 @@
         <v>379</v>
       </c>
       <c r="I59" s="1"/>
-      <c r="J59" s="98" t="s">
+      <c r="J59" s="90" t="s">
         <v>429</v>
       </c>
-      <c r="K59" s="98" t="s">
+      <c r="K59" s="90" t="s">
         <v>456</v>
       </c>
-      <c r="L59" s="17" t="s">
+      <c r="L59" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="M59" s="86" t="s">
+      <c r="M59" s="78" t="s">
         <v>95</v>
       </c>
       <c r="N59" s="18" t="s">
@@ -6667,30 +6673,30 @@
       <c r="P59" s="19"/>
       <c r="Q59" s="19"/>
       <c r="R59" s="20"/>
-      <c r="S59" s="28"/>
+      <c r="S59" s="25"/>
       <c r="T59" s="14"/>
       <c r="U59" s="15"/>
-      <c r="V59" s="21"/>
+      <c r="V59" s="113"/>
       <c r="W59" s="7"/>
       <c r="X59" s="7"/>
       <c r="Y59" s="7"/>
-      <c r="Z59" s="24"/>
+      <c r="Z59" s="109"/>
       <c r="AA59" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AB59" s="7"/>
-      <c r="AC59" s="82" t="s">
+      <c r="AC59" s="74" t="s">
         <v>343</v>
       </c>
-      <c r="AD59" s="24">
+      <c r="AD59" s="21">
         <v>2003</v>
       </c>
-      <c r="AE59" s="112" t="s">
+      <c r="AE59" s="104" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="42">
+    <row r="60" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="37">
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -6717,26 +6723,26 @@
       <c r="I60" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J60" s="98" t="s">
+      <c r="J60" s="90" t="s">
         <v>440</v>
       </c>
-      <c r="K60" s="98" t="s">
+      <c r="K60" s="90" t="s">
         <v>488</v>
       </c>
-      <c r="L60" s="17" t="s">
+      <c r="L60" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M60" s="86" t="s">
+      <c r="M60" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="N60" s="86" t="s">
+      <c r="N60" s="78" t="s">
         <v>33</v>
       </c>
       <c r="O60" s="14"/>
       <c r="P60" s="19"/>
       <c r="Q60" s="19"/>
       <c r="R60" s="20"/>
-      <c r="S60" s="30">
+      <c r="S60" s="27">
         <v>2250</v>
       </c>
       <c r="T60" s="15">
@@ -6745,29 +6751,29 @@
       <c r="U60" s="15">
         <v>2500</v>
       </c>
-      <c r="V60" s="21"/>
+      <c r="V60" s="113"/>
       <c r="W60" s="7">
         <v>2.4500000000000002</v>
       </c>
       <c r="X60" s="7"/>
       <c r="Y60" s="7"/>
-      <c r="Z60" s="24"/>
+      <c r="Z60" s="109"/>
       <c r="AA60" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AB60" s="7"/>
-      <c r="AC60" s="82" t="s">
+      <c r="AC60" s="74" t="s">
         <v>331</v>
       </c>
-      <c r="AD60" s="24">
+      <c r="AD60" s="21">
         <v>1983</v>
       </c>
-      <c r="AE60" s="112" t="s">
+      <c r="AE60" s="104" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="42">
+    <row r="61" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="37">
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
@@ -6792,45 +6798,45 @@
         <v>379</v>
       </c>
       <c r="I61" s="1"/>
-      <c r="J61" s="98" t="s">
+      <c r="J61" s="90" t="s">
         <v>441</v>
       </c>
-      <c r="K61" s="98" t="s">
+      <c r="K61" s="90" t="s">
         <v>442</v>
       </c>
-      <c r="L61" s="17" t="s">
+      <c r="L61" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M61" s="86" t="s">
+      <c r="M61" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="N61" s="86" t="s">
+      <c r="N61" s="78" t="s">
         <v>26</v>
       </c>
       <c r="O61" s="14"/>
       <c r="P61" s="19"/>
       <c r="Q61" s="19"/>
       <c r="R61" s="20"/>
-      <c r="S61" s="28"/>
+      <c r="S61" s="25"/>
       <c r="T61" s="14"/>
       <c r="U61" s="14"/>
-      <c r="V61" s="21"/>
+      <c r="V61" s="113"/>
       <c r="W61" s="7"/>
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
-      <c r="Z61" s="24"/>
+      <c r="Z61" s="109"/>
       <c r="AA61" s="4"/>
       <c r="AB61" s="7"/>
-      <c r="AC61" s="103"/>
-      <c r="AD61" s="24">
+      <c r="AC61" s="95"/>
+      <c r="AD61" s="21">
         <v>1983</v>
       </c>
-      <c r="AE61" s="114" t="s">
+      <c r="AE61" s="106" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="42">
+    <row r="62" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="37">
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -6855,16 +6861,16 @@
         <v>379</v>
       </c>
       <c r="I62" s="1"/>
-      <c r="J62" s="98" t="s">
+      <c r="J62" s="90" t="s">
         <v>464</v>
       </c>
-      <c r="K62" s="98" t="s">
+      <c r="K62" s="90" t="s">
         <v>486</v>
       </c>
-      <c r="L62" s="17" t="s">
+      <c r="L62" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="M62" s="86" t="s">
+      <c r="M62" s="78" t="s">
         <v>215</v>
       </c>
       <c r="N62" s="17" t="s">
@@ -6874,30 +6880,30 @@
       <c r="P62" s="19"/>
       <c r="Q62" s="19"/>
       <c r="R62" s="20"/>
-      <c r="S62" s="28"/>
+      <c r="S62" s="25"/>
       <c r="T62" s="14"/>
       <c r="U62" s="15"/>
-      <c r="V62" s="21"/>
+      <c r="V62" s="113"/>
       <c r="W62" s="7"/>
       <c r="X62" s="7"/>
       <c r="Y62" s="7"/>
-      <c r="Z62" s="24"/>
+      <c r="Z62" s="109"/>
       <c r="AA62" s="8" t="s">
         <v>216</v>
       </c>
       <c r="AB62" s="7"/>
-      <c r="AC62" s="82" t="s">
+      <c r="AC62" s="74" t="s">
         <v>369</v>
       </c>
-      <c r="AD62" s="24">
+      <c r="AD62" s="21">
         <v>1983</v>
       </c>
-      <c r="AE62" s="112" t="s">
+      <c r="AE62" s="104" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="63" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="42">
+    <row r="63" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="37">
         <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
@@ -6922,26 +6928,26 @@
         <v>379</v>
       </c>
       <c r="I63" s="1"/>
-      <c r="J63" s="98" t="s">
+      <c r="J63" s="90" t="s">
         <v>471</v>
       </c>
-      <c r="K63" s="98" t="s">
+      <c r="K63" s="90" t="s">
         <v>443</v>
       </c>
-      <c r="L63" s="17" t="s">
+      <c r="L63" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="M63" s="86" t="s">
+      <c r="M63" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="N63" s="86" t="s">
+      <c r="N63" s="78" t="s">
         <v>166</v>
       </c>
       <c r="O63" s="14"/>
       <c r="P63" s="19"/>
       <c r="Q63" s="19"/>
       <c r="R63" s="20"/>
-      <c r="S63" s="28">
+      <c r="S63" s="25">
         <v>90000</v>
       </c>
       <c r="T63" s="14">
@@ -6950,7 +6956,7 @@
       <c r="U63" s="15">
         <v>100000</v>
       </c>
-      <c r="V63" s="21"/>
+      <c r="V63" s="113"/>
       <c r="W63" s="7">
         <v>2.5</v>
       </c>
@@ -6960,21 +6966,21 @@
       <c r="Y63" s="7">
         <v>3</v>
       </c>
-      <c r="Z63" s="24"/>
-      <c r="AA63" s="104" t="s">
+      <c r="Z63" s="109"/>
+      <c r="AA63" s="96" t="s">
         <v>323</v>
       </c>
       <c r="AB63" s="7"/>
       <c r="AC63" s="4"/>
-      <c r="AD63" s="24">
+      <c r="AD63" s="21">
         <v>1986</v>
       </c>
-      <c r="AE63" s="112" t="s">
+      <c r="AE63" s="104" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="42">
+    <row r="64" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="37">
         <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
@@ -6999,16 +7005,16 @@
         <v>379</v>
       </c>
       <c r="I64" s="1"/>
-      <c r="J64" s="98" t="s">
+      <c r="J64" s="90" t="s">
         <v>472</v>
       </c>
-      <c r="K64" s="98" t="s">
+      <c r="K64" s="90" t="s">
         <v>444</v>
       </c>
-      <c r="L64" s="17" t="s">
+      <c r="L64" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M64" s="86" t="s">
+      <c r="M64" s="78" t="s">
         <v>100</v>
       </c>
       <c r="N64" s="18" t="s">
@@ -7018,30 +7024,30 @@
       <c r="P64" s="19"/>
       <c r="Q64" s="19"/>
       <c r="R64" s="20"/>
-      <c r="S64" s="28">
+      <c r="S64" s="25">
         <v>183000</v>
       </c>
       <c r="T64" s="14"/>
       <c r="U64" s="15"/>
-      <c r="V64" s="21"/>
+      <c r="V64" s="113"/>
       <c r="W64" s="7"/>
       <c r="X64" s="7"/>
       <c r="Y64" s="7"/>
-      <c r="Z64" s="24"/>
+      <c r="Z64" s="109"/>
       <c r="AA64" s="4"/>
       <c r="AB64" s="7"/>
-      <c r="AC64" s="104" t="s">
+      <c r="AC64" s="96" t="s">
         <v>344</v>
       </c>
-      <c r="AD64" s="24">
+      <c r="AD64" s="21">
         <v>1988</v>
       </c>
-      <c r="AE64" s="112" t="s">
+      <c r="AE64" s="104" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="42">
+    <row r="65" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="37">
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
@@ -7066,49 +7072,49 @@
         <v>379</v>
       </c>
       <c r="I65" s="1"/>
-      <c r="J65" s="98" t="s">
+      <c r="J65" s="90" t="s">
         <v>468</v>
       </c>
-      <c r="K65" s="98" t="s">
+      <c r="K65" s="90" t="s">
         <v>436</v>
       </c>
-      <c r="L65" s="17" t="s">
+      <c r="L65" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="M65" s="86" t="s">
+      <c r="M65" s="78" t="s">
         <v>228</v>
       </c>
-      <c r="N65" s="32" t="s">
+      <c r="N65" s="29" t="s">
         <v>229</v>
       </c>
       <c r="O65" s="14"/>
       <c r="P65" s="19"/>
       <c r="Q65" s="19"/>
       <c r="R65" s="20"/>
-      <c r="S65" s="28"/>
+      <c r="S65" s="25"/>
       <c r="T65" s="14"/>
       <c r="U65" s="15"/>
-      <c r="V65" s="21"/>
+      <c r="V65" s="113"/>
       <c r="W65" s="7"/>
       <c r="X65" s="7"/>
       <c r="Y65" s="7"/>
-      <c r="Z65" s="24"/>
+      <c r="Z65" s="109"/>
       <c r="AA65" s="4" t="s">
         <v>230</v>
       </c>
       <c r="AB65" s="7"/>
-      <c r="AC65" s="104" t="s">
+      <c r="AC65" s="96" t="s">
         <v>371</v>
       </c>
-      <c r="AD65" s="24">
+      <c r="AD65" s="21">
         <v>1988</v>
       </c>
-      <c r="AE65" s="112" t="s">
+      <c r="AE65" s="104" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="66" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="42">
+    <row r="66" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="37">
         <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
@@ -7133,16 +7139,16 @@
         <v>379</v>
       </c>
       <c r="I66" s="1"/>
-      <c r="J66" s="98" t="s">
+      <c r="J66" s="90" t="s">
         <v>438</v>
       </c>
-      <c r="K66" s="98" t="s">
+      <c r="K66" s="90" t="s">
         <v>480</v>
       </c>
-      <c r="L66" s="17" t="s">
+      <c r="L66" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="M66" s="86" t="s">
+      <c r="M66" s="78" t="s">
         <v>65</v>
       </c>
       <c r="N66" s="17" t="s">
@@ -7152,30 +7158,30 @@
       <c r="P66" s="19"/>
       <c r="Q66" s="19"/>
       <c r="R66" s="20"/>
-      <c r="S66" s="28"/>
+      <c r="S66" s="25"/>
       <c r="T66" s="14"/>
       <c r="U66" s="15"/>
-      <c r="V66" s="21"/>
+      <c r="V66" s="113"/>
       <c r="W66" s="7"/>
       <c r="X66" s="7"/>
       <c r="Y66" s="7"/>
-      <c r="Z66" s="24"/>
+      <c r="Z66" s="109"/>
       <c r="AA66" s="8" t="s">
         <v>66</v>
       </c>
       <c r="AB66" s="7"/>
-      <c r="AC66" s="104" t="s">
+      <c r="AC66" s="96" t="s">
         <v>337</v>
       </c>
-      <c r="AD66" s="24">
+      <c r="AD66" s="21">
         <v>1991</v>
       </c>
-      <c r="AE66" s="112" t="s">
+      <c r="AE66" s="104" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:31" s="59" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="42">
+    <row r="67" spans="1:31" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="37">
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -7200,47 +7206,47 @@
         <v>379</v>
       </c>
       <c r="I67" s="1"/>
-      <c r="J67" s="98" t="s">
+      <c r="J67" s="90" t="s">
         <v>421</v>
       </c>
-      <c r="K67" s="98" t="s">
+      <c r="K67" s="90" t="s">
         <v>479</v>
       </c>
-      <c r="L67" s="17" t="s">
+      <c r="L67" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M67" s="86" t="s">
+      <c r="M67" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="N67" s="86" t="s">
+      <c r="N67" s="78" t="s">
         <v>43</v>
       </c>
       <c r="O67" s="14"/>
       <c r="P67" s="19"/>
       <c r="Q67" s="19"/>
       <c r="R67" s="20"/>
-      <c r="S67" s="28"/>
+      <c r="S67" s="25"/>
       <c r="T67" s="14"/>
       <c r="U67" s="15"/>
-      <c r="V67" s="21"/>
+      <c r="V67" s="113"/>
       <c r="W67" s="7"/>
       <c r="X67" s="7"/>
       <c r="Y67" s="7"/>
-      <c r="Z67" s="24"/>
+      <c r="Z67" s="109"/>
       <c r="AA67" s="4"/>
       <c r="AB67" s="7"/>
-      <c r="AC67" s="104" t="s">
+      <c r="AC67" s="96" t="s">
         <v>334</v>
       </c>
-      <c r="AD67" s="24">
+      <c r="AD67" s="21">
         <v>1983</v>
       </c>
-      <c r="AE67" s="112" t="s">
+      <c r="AE67" s="104" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:31" s="59" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="42">
+    <row r="68" spans="1:31" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="37">
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
@@ -7265,16 +7271,16 @@
         <v>379</v>
       </c>
       <c r="I68" s="1"/>
-      <c r="J68" s="98" t="s">
+      <c r="J68" s="90" t="s">
         <v>472</v>
       </c>
-      <c r="K68" s="98" t="s">
+      <c r="K68" s="90" t="s">
         <v>444</v>
       </c>
-      <c r="L68" s="17" t="s">
+      <c r="L68" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M68" s="86" t="s">
+      <c r="M68" s="78" t="s">
         <v>103</v>
       </c>
       <c r="N68" s="17" t="s">
@@ -7284,30 +7290,30 @@
       <c r="P68" s="19"/>
       <c r="Q68" s="19"/>
       <c r="R68" s="20"/>
-      <c r="S68" s="28"/>
+      <c r="S68" s="25"/>
       <c r="T68" s="14"/>
       <c r="U68" s="15"/>
-      <c r="V68" s="21"/>
+      <c r="V68" s="113"/>
       <c r="W68" s="7"/>
       <c r="X68" s="7"/>
       <c r="Y68" s="7"/>
-      <c r="Z68" s="24"/>
+      <c r="Z68" s="109"/>
       <c r="AA68" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AB68" s="7"/>
-      <c r="AC68" s="104" t="s">
+      <c r="AC68" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="AD68" s="24">
+      <c r="AD68" s="21">
         <v>2003</v>
       </c>
-      <c r="AE68" s="112" t="s">
+      <c r="AE68" s="104" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:31" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="42">
+    <row r="69" spans="1:31" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="37">
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -7332,16 +7338,16 @@
         <v>379</v>
       </c>
       <c r="I69" s="1"/>
-      <c r="J69" s="98" t="s">
+      <c r="J69" s="90" t="s">
         <v>445</v>
       </c>
-      <c r="K69" s="98" t="s">
+      <c r="K69" s="90" t="s">
         <v>482</v>
       </c>
-      <c r="L69" s="17" t="s">
+      <c r="L69" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="M69" s="86" t="s">
+      <c r="M69" s="78" t="s">
         <v>184</v>
       </c>
       <c r="N69" s="17" t="s">
@@ -7351,32 +7357,32 @@
       <c r="P69" s="19"/>
       <c r="Q69" s="19"/>
       <c r="R69" s="20"/>
-      <c r="S69" s="28"/>
+      <c r="S69" s="25"/>
       <c r="T69" s="14"/>
       <c r="U69" s="15"/>
-      <c r="V69" s="21"/>
+      <c r="V69" s="113"/>
       <c r="W69" s="7"/>
       <c r="X69" s="7"/>
       <c r="Y69" s="7"/>
-      <c r="Z69" s="24"/>
+      <c r="Z69" s="109"/>
       <c r="AA69" s="8" t="s">
         <v>391</v>
       </c>
       <c r="AB69" s="7">
         <v>30000</v>
       </c>
-      <c r="AC69" s="104" t="s">
+      <c r="AC69" s="96" t="s">
         <v>362</v>
       </c>
-      <c r="AD69" s="24">
+      <c r="AD69" s="21">
         <v>1992</v>
       </c>
-      <c r="AE69" s="112" t="s">
+      <c r="AE69" s="104" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="70" spans="1:31" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="42">
+    <row r="70" spans="1:31" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="37">
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
@@ -7401,16 +7407,16 @@
         <v>379</v>
       </c>
       <c r="I70" s="1"/>
-      <c r="J70" s="98" t="s">
+      <c r="J70" s="90" t="s">
         <v>445</v>
       </c>
-      <c r="K70" s="98" t="s">
+      <c r="K70" s="90" t="s">
         <v>482</v>
       </c>
-      <c r="L70" s="17" t="s">
+      <c r="L70" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="M70" s="86" t="s">
+      <c r="M70" s="78" t="s">
         <v>186</v>
       </c>
       <c r="N70" s="17" t="s">
@@ -7420,28 +7426,28 @@
       <c r="P70" s="19"/>
       <c r="Q70" s="19"/>
       <c r="R70" s="20"/>
-      <c r="S70" s="28"/>
+      <c r="S70" s="25"/>
       <c r="T70" s="14"/>
       <c r="U70" s="15"/>
-      <c r="V70" s="22"/>
+      <c r="V70" s="116"/>
       <c r="W70" s="7"/>
       <c r="X70" s="7"/>
       <c r="Y70" s="7"/>
-      <c r="Z70" s="24"/>
+      <c r="Z70" s="109"/>
       <c r="AA70" s="8" t="s">
         <v>324</v>
       </c>
       <c r="AB70" s="7"/>
-      <c r="AC70" s="82" t="s">
+      <c r="AC70" s="74" t="s">
         <v>363</v>
       </c>
-      <c r="AD70" s="92"/>
-      <c r="AE70" s="112" t="s">
+      <c r="AD70" s="84"/>
+      <c r="AE70" s="104" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="71" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="42">
+    <row r="71" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="37">
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -7466,16 +7472,16 @@
         <v>379</v>
       </c>
       <c r="I71" s="1"/>
-      <c r="J71" s="98" t="s">
+      <c r="J71" s="90" t="s">
         <v>464</v>
       </c>
-      <c r="K71" s="98" t="s">
+      <c r="K71" s="90" t="s">
         <v>486</v>
       </c>
-      <c r="L71" s="17" t="s">
+      <c r="L71" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="M71" s="86" t="s">
+      <c r="M71" s="78" t="s">
         <v>218</v>
       </c>
       <c r="N71" s="17" t="s">
@@ -7485,28 +7491,28 @@
       <c r="P71" s="19"/>
       <c r="Q71" s="19"/>
       <c r="R71" s="20"/>
-      <c r="S71" s="28"/>
+      <c r="S71" s="25"/>
       <c r="T71" s="14"/>
       <c r="U71" s="15"/>
-      <c r="V71" s="22"/>
+      <c r="V71" s="116"/>
       <c r="W71" s="7"/>
       <c r="X71" s="7"/>
       <c r="Y71" s="7"/>
-      <c r="Z71" s="24"/>
-      <c r="AA71" s="104" t="s">
+      <c r="Z71" s="109"/>
+      <c r="AA71" s="96" t="s">
         <v>325</v>
       </c>
       <c r="AB71" s="7"/>
-      <c r="AC71" s="104" t="s">
+      <c r="AC71" s="96" t="s">
         <v>370</v>
       </c>
-      <c r="AD71" s="92"/>
-      <c r="AE71" s="112" t="s">
+      <c r="AD71" s="84"/>
+      <c r="AE71" s="104" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="72" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="42">
+    <row r="72" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="37">
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
@@ -7531,16 +7537,16 @@
         <v>379</v>
       </c>
       <c r="I72" s="1"/>
-      <c r="J72" s="98" t="s">
+      <c r="J72" s="90" t="s">
         <v>464</v>
       </c>
-      <c r="K72" s="98" t="s">
+      <c r="K72" s="90" t="s">
         <v>486</v>
       </c>
-      <c r="L72" s="17" t="s">
+      <c r="L72" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="M72" s="86" t="s">
+      <c r="M72" s="78" t="s">
         <v>220</v>
       </c>
       <c r="N72" s="17" t="s">
@@ -7550,14 +7556,14 @@
       <c r="P72" s="19"/>
       <c r="Q72" s="19"/>
       <c r="R72" s="20"/>
-      <c r="S72" s="28"/>
+      <c r="S72" s="25"/>
       <c r="T72" s="14"/>
       <c r="U72" s="15"/>
-      <c r="V72" s="21"/>
+      <c r="V72" s="113"/>
       <c r="W72" s="7"/>
       <c r="X72" s="7"/>
       <c r="Y72" s="7"/>
-      <c r="Z72" s="24"/>
+      <c r="Z72" s="109"/>
       <c r="AA72" s="4" t="s">
         <v>221</v>
       </c>
@@ -7565,80 +7571,80 @@
       <c r="AC72" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="AD72" s="24"/>
-      <c r="AE72" s="112" t="s">
+      <c r="AD72" s="21"/>
+      <c r="AE72" s="104" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="73" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="42">
+    <row r="73" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="37">
         <v>72</v>
       </c>
-      <c r="B73" s="79" t="s">
+      <c r="B73" s="71" t="s">
         <v>267</v>
       </c>
-      <c r="C73" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="D73" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="E73" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F73" s="49" t="s">
+      <c r="C73" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F73" s="44" t="s">
         <v>268</v>
       </c>
-      <c r="G73" s="47" t="s">
+      <c r="G73" s="42" t="s">
         <v>24</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="I73" s="47"/>
-      <c r="J73" s="99" t="s">
+      <c r="I73" s="42"/>
+      <c r="J73" s="91" t="s">
         <v>458</v>
       </c>
-      <c r="K73" s="99" t="s">
+      <c r="K73" s="91" t="s">
         <v>459</v>
       </c>
-      <c r="L73" s="50" t="s">
+      <c r="L73" s="71" t="s">
         <v>269</v>
       </c>
-      <c r="M73" s="87" t="s">
+      <c r="M73" s="79" t="s">
         <v>270</v>
       </c>
-      <c r="N73" s="50" t="s">
+      <c r="N73" s="45" t="s">
         <v>270</v>
       </c>
-      <c r="O73" s="52"/>
-      <c r="P73" s="53"/>
-      <c r="Q73" s="53"/>
-      <c r="R73" s="53"/>
-      <c r="S73" s="54">
+      <c r="O73" s="47"/>
+      <c r="P73" s="48"/>
+      <c r="Q73" s="48"/>
+      <c r="R73" s="48"/>
+      <c r="S73" s="49">
         <v>30000</v>
       </c>
-      <c r="T73" s="52"/>
-      <c r="U73" s="55"/>
-      <c r="V73" s="56"/>
-      <c r="W73" s="51"/>
-      <c r="X73" s="51"/>
-      <c r="Y73" s="51"/>
-      <c r="Z73" s="57"/>
-      <c r="AA73" s="49" t="s">
+      <c r="T73" s="47"/>
+      <c r="U73" s="50"/>
+      <c r="V73" s="115"/>
+      <c r="W73" s="46"/>
+      <c r="X73" s="46"/>
+      <c r="Y73" s="46"/>
+      <c r="Z73" s="111"/>
+      <c r="AA73" s="44" t="s">
         <v>271</v>
       </c>
-      <c r="AB73" s="51"/>
-      <c r="AC73" s="108"/>
-      <c r="AD73" s="57">
+      <c r="AB73" s="46"/>
+      <c r="AC73" s="100"/>
+      <c r="AD73" s="51">
         <v>2018</v>
       </c>
-      <c r="AE73" s="109" t="s">
+      <c r="AE73" s="101" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="74" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="42">
+    <row r="74" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="37">
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
@@ -7663,16 +7669,16 @@
         <v>379</v>
       </c>
       <c r="I74" s="1"/>
-      <c r="J74" s="98" t="s">
+      <c r="J74" s="90" t="s">
         <v>473</v>
       </c>
-      <c r="K74" s="98" t="s">
+      <c r="K74" s="90" t="s">
         <v>489</v>
       </c>
-      <c r="L74" s="17" t="s">
+      <c r="L74" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="M74" s="86" t="s">
+      <c r="M74" s="78" t="s">
         <v>115</v>
       </c>
       <c r="N74" s="17" t="s">
@@ -7682,30 +7688,30 @@
       <c r="P74" s="19"/>
       <c r="Q74" s="19"/>
       <c r="R74" s="20"/>
-      <c r="S74" s="28"/>
+      <c r="S74" s="25"/>
       <c r="T74" s="14"/>
       <c r="U74" s="15"/>
-      <c r="V74" s="21"/>
+      <c r="V74" s="113"/>
       <c r="W74" s="7"/>
       <c r="X74" s="7"/>
       <c r="Y74" s="7"/>
-      <c r="Z74" s="24"/>
+      <c r="Z74" s="109"/>
       <c r="AA74" s="4" t="s">
         <v>116</v>
       </c>
       <c r="AB74" s="7"/>
-      <c r="AC74" s="104" t="s">
+      <c r="AC74" s="96" t="s">
         <v>347</v>
       </c>
-      <c r="AD74" s="24">
+      <c r="AD74" s="21">
         <v>2003</v>
       </c>
-      <c r="AE74" s="112" t="s">
+      <c r="AE74" s="104" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="75" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="42">
+    <row r="75" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="37">
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
@@ -7730,51 +7736,51 @@
         <v>379</v>
       </c>
       <c r="I75" s="1"/>
-      <c r="J75" s="98" t="s">
+      <c r="J75" s="90" t="s">
         <v>468</v>
       </c>
-      <c r="K75" s="98" t="s">
+      <c r="K75" s="90" t="s">
         <v>436</v>
       </c>
-      <c r="L75" s="17" t="s">
+      <c r="L75" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="M75" s="86" t="s">
+      <c r="M75" s="78" t="s">
         <v>232</v>
       </c>
-      <c r="N75" s="32">
+      <c r="N75" s="29">
         <v>37817</v>
       </c>
       <c r="O75" s="14"/>
       <c r="P75" s="19"/>
       <c r="Q75" s="19"/>
       <c r="R75" s="20"/>
-      <c r="S75" s="28"/>
+      <c r="S75" s="25"/>
       <c r="T75" s="14"/>
       <c r="U75" s="15"/>
-      <c r="V75" s="21"/>
+      <c r="V75" s="113"/>
       <c r="W75" s="7">
         <v>65</v>
       </c>
       <c r="X75" s="7"/>
       <c r="Y75" s="7"/>
-      <c r="Z75" s="24"/>
+      <c r="Z75" s="109"/>
       <c r="AA75" s="4" t="s">
         <v>326</v>
       </c>
       <c r="AB75" s="7"/>
-      <c r="AC75" s="104" t="s">
+      <c r="AC75" s="96" t="s">
         <v>372</v>
       </c>
-      <c r="AD75" s="24">
+      <c r="AD75" s="21">
         <v>2003</v>
       </c>
-      <c r="AE75" s="112" t="s">
+      <c r="AE75" s="104" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="76" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="42">
+    <row r="76" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="37">
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
@@ -7801,19 +7807,19 @@
       <c r="I76" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J76" s="98" t="s">
+      <c r="J76" s="90" t="s">
         <v>446</v>
       </c>
-      <c r="K76" s="98" t="s">
+      <c r="K76" s="90" t="s">
         <v>447</v>
       </c>
-      <c r="L76" s="17" t="s">
+      <c r="L76" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="M76" s="86" t="s">
+      <c r="M76" s="78" t="s">
         <v>161</v>
       </c>
-      <c r="N76" s="86" t="s">
+      <c r="N76" s="78" t="s">
         <v>161</v>
       </c>
       <c r="O76" s="14">
@@ -7822,36 +7828,36 @@
       <c r="P76" s="19"/>
       <c r="Q76" s="19"/>
       <c r="R76" s="20"/>
-      <c r="S76" s="30">
+      <c r="S76" s="27">
         <v>21500</v>
       </c>
       <c r="T76" s="14"/>
       <c r="U76" s="15"/>
-      <c r="V76" s="21"/>
+      <c r="V76" s="113"/>
       <c r="W76" s="7">
         <v>15</v>
       </c>
       <c r="X76" s="7"/>
       <c r="Y76" s="7"/>
-      <c r="Z76" s="24" t="s">
+      <c r="Z76" s="109" t="s">
         <v>314</v>
       </c>
-      <c r="AA76" s="104" t="s">
+      <c r="AA76" s="96" t="s">
         <v>322</v>
       </c>
       <c r="AB76" s="7"/>
-      <c r="AC76" s="82" t="s">
+      <c r="AC76" s="74" t="s">
         <v>359</v>
       </c>
-      <c r="AD76" s="24">
+      <c r="AD76" s="21">
         <v>2004</v>
       </c>
-      <c r="AE76" s="112" t="s">
+      <c r="AE76" s="104" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="77" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="42">
+    <row r="77" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="37">
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
@@ -7876,16 +7882,16 @@
         <v>379</v>
       </c>
       <c r="I77" s="1"/>
-      <c r="J77" s="98" t="s">
+      <c r="J77" s="90" t="s">
         <v>448</v>
       </c>
-      <c r="K77" s="98" t="s">
+      <c r="K77" s="90" t="s">
         <v>449</v>
       </c>
-      <c r="L77" s="17" t="s">
+      <c r="L77" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="M77" s="86" t="s">
+      <c r="M77" s="78" t="s">
         <v>244</v>
       </c>
       <c r="N77" s="17" t="s">
@@ -7895,30 +7901,30 @@
       <c r="P77" s="19"/>
       <c r="Q77" s="19"/>
       <c r="R77" s="20"/>
-      <c r="S77" s="28"/>
+      <c r="S77" s="25"/>
       <c r="T77" s="14"/>
       <c r="U77" s="15"/>
-      <c r="V77" s="21"/>
+      <c r="V77" s="113"/>
       <c r="W77" s="7"/>
       <c r="X77" s="7"/>
       <c r="Y77" s="7"/>
-      <c r="Z77" s="24"/>
+      <c r="Z77" s="109"/>
       <c r="AA77" s="8" t="s">
         <v>245</v>
       </c>
       <c r="AB77" s="7"/>
-      <c r="AC77" s="82" t="s">
+      <c r="AC77" s="74" t="s">
         <v>377</v>
       </c>
-      <c r="AD77" s="24">
+      <c r="AD77" s="21">
         <v>2017</v>
       </c>
-      <c r="AE77" s="112" t="s">
+      <c r="AE77" s="104" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="78" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="42">
+    <row r="78" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="37">
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
@@ -7945,16 +7951,16 @@
       <c r="I78" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="J78" s="98" t="s">
+      <c r="J78" s="90" t="s">
         <v>445</v>
       </c>
-      <c r="K78" s="98" t="s">
+      <c r="K78" s="90" t="s">
         <v>482</v>
       </c>
-      <c r="L78" s="17" t="s">
+      <c r="L78" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="M78" s="86" t="s">
+      <c r="M78" s="78" t="s">
         <v>187</v>
       </c>
       <c r="N78" s="17" t="s">
@@ -7966,93 +7972,93 @@
       <c r="P78" s="19"/>
       <c r="Q78" s="19"/>
       <c r="R78" s="20"/>
-      <c r="S78" s="30">
+      <c r="S78" s="27">
         <v>55000</v>
       </c>
       <c r="T78" s="14"/>
       <c r="U78" s="15"/>
-      <c r="V78" s="21"/>
+      <c r="V78" s="113"/>
       <c r="W78" s="7"/>
       <c r="X78" s="7"/>
       <c r="Y78" s="7"/>
-      <c r="Z78" s="24"/>
+      <c r="Z78" s="109"/>
       <c r="AA78" s="4"/>
       <c r="AB78" s="7"/>
       <c r="AC78" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="AD78" s="24">
+      <c r="AD78" s="21">
         <v>2020</v>
       </c>
-      <c r="AE78" s="112" t="s">
+      <c r="AE78" s="104" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="79" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="42">
+    <row r="79" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="37">
         <v>78</v>
       </c>
-      <c r="B79" s="79" t="s">
+      <c r="B79" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="C79" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="D79" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="E79" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F79" s="49" t="s">
+      <c r="C79" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E79" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F79" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="G79" s="47" t="s">
+      <c r="G79" s="42" t="s">
         <v>24</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="I79" s="47"/>
-      <c r="J79" s="100" t="s">
+      <c r="I79" s="42"/>
+      <c r="J79" s="92" t="s">
         <v>461</v>
       </c>
-      <c r="K79" s="100" t="s">
+      <c r="K79" s="92" t="s">
         <v>423</v>
       </c>
-      <c r="L79" s="50" t="s">
+      <c r="L79" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="M79" s="87" t="s">
+      <c r="M79" s="79" t="s">
         <v>273</v>
       </c>
-      <c r="N79" s="87" t="s">
+      <c r="N79" s="79" t="s">
         <v>273</v>
       </c>
-      <c r="O79" s="52"/>
-      <c r="P79" s="53"/>
-      <c r="Q79" s="53"/>
-      <c r="R79" s="53"/>
-      <c r="S79" s="54"/>
-      <c r="T79" s="52"/>
-      <c r="U79" s="55"/>
-      <c r="V79" s="56"/>
-      <c r="W79" s="51"/>
-      <c r="X79" s="51"/>
-      <c r="Y79" s="51"/>
-      <c r="Z79" s="57"/>
-      <c r="AA79" s="49"/>
-      <c r="AB79" s="51"/>
-      <c r="AC79" s="109" t="s">
+      <c r="O79" s="47"/>
+      <c r="P79" s="48"/>
+      <c r="Q79" s="48"/>
+      <c r="R79" s="48"/>
+      <c r="S79" s="49"/>
+      <c r="T79" s="47"/>
+      <c r="U79" s="50"/>
+      <c r="V79" s="115"/>
+      <c r="W79" s="46"/>
+      <c r="X79" s="46"/>
+      <c r="Y79" s="46"/>
+      <c r="Z79" s="111"/>
+      <c r="AA79" s="44"/>
+      <c r="AB79" s="46"/>
+      <c r="AC79" s="101" t="s">
         <v>296</v>
       </c>
-      <c r="AD79" s="57"/>
-      <c r="AE79" s="109" t="s">
+      <c r="AD79" s="51"/>
+      <c r="AE79" s="101" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="80" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="42">
+    <row r="80" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="37">
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
@@ -8077,19 +8083,19 @@
         <v>379</v>
       </c>
       <c r="I80" s="1"/>
-      <c r="J80" s="98" t="s">
+      <c r="J80" s="90" t="s">
         <v>468</v>
       </c>
-      <c r="K80" s="98" t="s">
+      <c r="K80" s="90" t="s">
         <v>436</v>
       </c>
-      <c r="L80" s="17" t="s">
+      <c r="L80" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="M80" s="86" t="s">
+      <c r="M80" s="78" t="s">
         <v>234</v>
       </c>
-      <c r="N80" s="32">
+      <c r="N80" s="29">
         <v>40051</v>
       </c>
       <c r="O80" s="14">
@@ -8102,10 +8108,10 @@
         <v>50000</v>
       </c>
       <c r="R80" s="20"/>
-      <c r="S80" s="28"/>
+      <c r="S80" s="25"/>
       <c r="T80" s="14"/>
       <c r="U80" s="15"/>
-      <c r="V80" s="21"/>
+      <c r="V80" s="113"/>
       <c r="W80" s="7">
         <v>73</v>
       </c>
@@ -8115,23 +8121,23 @@
       <c r="Y80" s="7">
         <v>80</v>
       </c>
-      <c r="Z80" s="24"/>
-      <c r="AA80" s="104" t="s">
+      <c r="Z80" s="109"/>
+      <c r="AA80" s="96" t="s">
         <v>327</v>
       </c>
       <c r="AB80" s="7"/>
       <c r="AC80" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="AD80" s="24">
+      <c r="AD80" s="21">
         <v>2009</v>
       </c>
-      <c r="AE80" s="112" t="s">
+      <c r="AE80" s="104" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="81" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="42">
+    <row r="81" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="37">
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
@@ -8156,19 +8162,19 @@
         <v>379</v>
       </c>
       <c r="I81" s="1"/>
-      <c r="J81" s="98" t="s">
+      <c r="J81" s="90" t="s">
         <v>468</v>
       </c>
-      <c r="K81" s="98" t="s">
+      <c r="K81" s="90" t="s">
         <v>436</v>
       </c>
-      <c r="L81" s="17" t="s">
+      <c r="L81" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="M81" s="32" t="s">
+      <c r="M81" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="N81" s="32" t="s">
+      <c r="N81" s="29" t="s">
         <v>237</v>
       </c>
       <c r="O81" s="14">
@@ -8177,32 +8183,32 @@
       <c r="P81" s="19"/>
       <c r="Q81" s="19"/>
       <c r="R81" s="20"/>
-      <c r="S81" s="28"/>
+      <c r="S81" s="25"/>
       <c r="T81" s="14"/>
       <c r="U81" s="15"/>
-      <c r="V81" s="21"/>
+      <c r="V81" s="113"/>
       <c r="W81" s="7">
         <v>43.8</v>
       </c>
       <c r="X81" s="7"/>
       <c r="Y81" s="7"/>
-      <c r="Z81" s="24"/>
+      <c r="Z81" s="109"/>
       <c r="AA81" s="4" t="s">
         <v>328</v>
       </c>
       <c r="AB81" s="7"/>
-      <c r="AC81" s="82" t="s">
+      <c r="AC81" s="74" t="s">
         <v>374</v>
       </c>
-      <c r="AD81" s="24">
+      <c r="AD81" s="21">
         <v>2010</v>
       </c>
-      <c r="AE81" s="112" t="s">
+      <c r="AE81" s="104" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="82" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="42">
+    <row r="82" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A82" s="37">
         <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
@@ -8229,22 +8235,22 @@
       <c r="I82" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J82" s="98" t="s">
+      <c r="J82" s="90" t="s">
         <v>468</v>
       </c>
-      <c r="K82" s="98" t="s">
+      <c r="K82" s="90" t="s">
         <v>436</v>
       </c>
-      <c r="L82" s="17" t="s">
+      <c r="L82" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="M82" s="86" t="s">
+      <c r="M82" s="78" t="s">
         <v>239</v>
       </c>
-      <c r="N82" s="32">
+      <c r="N82" s="29">
         <v>40731</v>
       </c>
-      <c r="O82" s="27"/>
+      <c r="O82" s="24"/>
       <c r="P82" s="19"/>
       <c r="Q82" s="19"/>
       <c r="R82" s="20"/>
@@ -8253,7 +8259,7 @@
       </c>
       <c r="T82" s="14"/>
       <c r="U82" s="15"/>
-      <c r="V82" s="22" t="s">
+      <c r="V82" s="116" t="s">
         <v>34</v>
       </c>
       <c r="W82" s="7">
@@ -8261,23 +8267,23 @@
       </c>
       <c r="X82" s="7"/>
       <c r="Y82" s="7"/>
-      <c r="Z82" s="24"/>
-      <c r="AA82" s="82" t="s">
+      <c r="Z82" s="109"/>
+      <c r="AA82" s="74" t="s">
         <v>329</v>
       </c>
       <c r="AB82" s="7"/>
-      <c r="AC82" s="82" t="s">
+      <c r="AC82" s="74" t="s">
         <v>375</v>
       </c>
-      <c r="AD82" s="24">
+      <c r="AD82" s="21">
         <v>2011</v>
       </c>
-      <c r="AE82" s="112" t="s">
+      <c r="AE82" s="104" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="83" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="42">
+    <row r="83" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A83" s="37">
         <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
@@ -8304,22 +8310,22 @@
       <c r="I83" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J83" s="98" t="s">
+      <c r="J83" s="90" t="s">
         <v>468</v>
       </c>
-      <c r="K83" s="98" t="s">
+      <c r="K83" s="90" t="s">
         <v>436</v>
       </c>
-      <c r="L83" s="17" t="s">
+      <c r="L83" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="M83" s="32" t="s">
+      <c r="M83" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="N83" s="32">
+      <c r="N83" s="29">
         <v>40782</v>
       </c>
-      <c r="O83" s="27">
+      <c r="O83" s="24">
         <v>29500</v>
       </c>
       <c r="P83" s="19">
@@ -8334,7 +8340,7 @@
       </c>
       <c r="T83" s="14"/>
       <c r="U83" s="15"/>
-      <c r="V83" s="22" t="s">
+      <c r="V83" s="116" t="s">
         <v>34</v>
       </c>
       <c r="W83" s="13">
@@ -8342,90 +8348,90 @@
       </c>
       <c r="X83" s="7"/>
       <c r="Y83" s="7"/>
-      <c r="Z83" s="24" t="s">
+      <c r="Z83" s="109" t="s">
         <v>313</v>
       </c>
-      <c r="AA83" s="104" t="s">
+      <c r="AA83" s="96" t="s">
         <v>329</v>
       </c>
       <c r="AB83" s="7"/>
-      <c r="AC83" s="104" t="s">
+      <c r="AC83" s="96" t="s">
         <v>376</v>
       </c>
-      <c r="AD83" s="24">
+      <c r="AD83" s="21">
         <v>2011</v>
       </c>
-      <c r="AE83" s="112" t="s">
+      <c r="AE83" s="104" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="84" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="42">
+    <row r="84" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A84" s="37">
         <v>83</v>
       </c>
-      <c r="B84" s="80" t="s">
+      <c r="B84" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="C84" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="D84" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="E84" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="F84" s="64" t="s">
+      <c r="C84" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E84" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F84" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="G84" s="61" t="s">
+      <c r="G84" s="54" t="s">
         <v>24</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="I84" s="61"/>
-      <c r="J84" s="99" t="s">
+      <c r="I84" s="54"/>
+      <c r="J84" s="91" t="s">
         <v>450</v>
       </c>
-      <c r="K84" s="99" t="s">
+      <c r="K84" s="91" t="s">
         <v>451</v>
       </c>
-      <c r="L84" s="65" t="s">
+      <c r="L84" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="M84" s="88" t="s">
+      <c r="M84" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="N84" s="65" t="s">
+      <c r="N84" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="O84" s="67"/>
-      <c r="P84" s="68"/>
-      <c r="Q84" s="68"/>
-      <c r="R84" s="69"/>
-      <c r="S84" s="70"/>
-      <c r="T84" s="67"/>
-      <c r="U84" s="71"/>
-      <c r="V84" s="72"/>
-      <c r="W84" s="66"/>
-      <c r="X84" s="66"/>
-      <c r="Y84" s="66"/>
-      <c r="Z84" s="73"/>
-      <c r="AA84" s="64"/>
-      <c r="AB84" s="66"/>
-      <c r="AC84" s="104" t="s">
+      <c r="O84" s="60"/>
+      <c r="P84" s="61"/>
+      <c r="Q84" s="61"/>
+      <c r="R84" s="62"/>
+      <c r="S84" s="63"/>
+      <c r="T84" s="60"/>
+      <c r="U84" s="64"/>
+      <c r="V84" s="114"/>
+      <c r="W84" s="59"/>
+      <c r="X84" s="59"/>
+      <c r="Y84" s="59"/>
+      <c r="Z84" s="110"/>
+      <c r="AA84" s="57"/>
+      <c r="AB84" s="59"/>
+      <c r="AC84" s="96" t="s">
         <v>341</v>
       </c>
-      <c r="AD84" s="73">
+      <c r="AD84" s="65">
         <v>2022</v>
       </c>
-      <c r="AE84" s="113" t="s">
+      <c r="AE84" s="105" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="85" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="42">
+    <row r="85" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A85" s="37">
         <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
@@ -8450,16 +8456,16 @@
         <v>379</v>
       </c>
       <c r="I85" s="1"/>
-      <c r="J85" s="98" t="s">
+      <c r="J85" s="90" t="s">
         <v>418</v>
       </c>
-      <c r="K85" s="98" t="s">
+      <c r="K85" s="90" t="s">
         <v>419</v>
       </c>
-      <c r="L85" s="17" t="s">
+      <c r="L85" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="M85" s="86" t="s">
+      <c r="M85" s="78" t="s">
         <v>199</v>
       </c>
       <c r="N85" s="17" t="s">
@@ -8469,34 +8475,34 @@
       <c r="P85" s="19"/>
       <c r="Q85" s="19"/>
       <c r="R85" s="20"/>
-      <c r="S85" s="74">
+      <c r="S85" s="66">
         <v>1500000</v>
       </c>
-      <c r="T85" s="75">
+      <c r="T85" s="67">
         <v>1200000</v>
       </c>
-      <c r="U85" s="76">
+      <c r="U85" s="68">
         <v>180000</v>
       </c>
-      <c r="V85" s="21"/>
+      <c r="V85" s="113"/>
       <c r="W85" s="7"/>
       <c r="X85" s="7"/>
       <c r="Y85" s="7"/>
-      <c r="Z85" s="24"/>
+      <c r="Z85" s="109"/>
       <c r="AA85" s="4" t="s">
         <v>393</v>
       </c>
       <c r="AB85" s="7"/>
-      <c r="AC85" s="103"/>
-      <c r="AD85" s="24">
+      <c r="AC85" s="95"/>
+      <c r="AD85" s="21">
         <v>2017</v>
       </c>
-      <c r="AE85" s="112" t="s">
+      <c r="AE85" s="104" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="86" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="42">
+    <row r="86" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="37">
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
@@ -8521,47 +8527,47 @@
         <v>379</v>
       </c>
       <c r="I86" s="1"/>
-      <c r="J86" s="98" t="s">
+      <c r="J86" s="90" t="s">
         <v>474</v>
       </c>
-      <c r="K86" s="98" t="s">
+      <c r="K86" s="90" t="s">
         <v>490</v>
       </c>
-      <c r="L86" s="17" t="s">
+      <c r="L86" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M86" s="86" t="s">
+      <c r="M86" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="N86" s="86" t="s">
+      <c r="N86" s="78" t="s">
         <v>52</v>
       </c>
       <c r="O86" s="14"/>
       <c r="P86" s="19"/>
       <c r="Q86" s="19"/>
       <c r="R86" s="20"/>
-      <c r="S86" s="28">
+      <c r="S86" s="25">
         <v>300000</v>
       </c>
       <c r="T86" s="14"/>
       <c r="U86" s="15"/>
-      <c r="V86" s="21"/>
+      <c r="V86" s="113"/>
       <c r="W86" s="7"/>
       <c r="X86" s="7"/>
       <c r="Y86" s="7"/>
-      <c r="Z86" s="24"/>
+      <c r="Z86" s="109"/>
       <c r="AA86" s="4"/>
       <c r="AB86" s="7"/>
-      <c r="AC86" s="103"/>
-      <c r="AD86" s="24">
+      <c r="AC86" s="95"/>
+      <c r="AD86" s="21">
         <v>2018</v>
       </c>
-      <c r="AE86" s="112" t="s">
+      <c r="AE86" s="104" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="42">
+    <row r="87" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A87" s="37">
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
@@ -8588,16 +8594,16 @@
       <c r="I87" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J87" s="98" t="s">
+      <c r="J87" s="90" t="s">
         <v>438</v>
       </c>
-      <c r="K87" s="98" t="s">
+      <c r="K87" s="90" t="s">
         <v>480</v>
       </c>
-      <c r="L87" s="17" t="s">
+      <c r="L87" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="M87" s="86" t="s">
+      <c r="M87" s="78" t="s">
         <v>68</v>
       </c>
       <c r="N87" s="17" t="s">
@@ -8607,12 +8613,12 @@
       <c r="P87" s="19"/>
       <c r="Q87" s="19"/>
       <c r="R87" s="20"/>
-      <c r="S87" s="28">
+      <c r="S87" s="25">
         <v>17000</v>
       </c>
       <c r="T87" s="14"/>
       <c r="U87" s="15"/>
-      <c r="V87" s="24" t="s">
+      <c r="V87" s="109" t="s">
         <v>280</v>
       </c>
       <c r="W87" s="7">
@@ -8620,21 +8626,21 @@
       </c>
       <c r="X87" s="7"/>
       <c r="Y87" s="7"/>
-      <c r="Z87" s="24" t="s">
+      <c r="Z87" s="109" t="s">
         <v>280</v>
       </c>
-      <c r="AA87" s="103"/>
+      <c r="AA87" s="95"/>
       <c r="AB87" s="7"/>
       <c r="AC87" s="8"/>
-      <c r="AD87" s="24">
+      <c r="AD87" s="21">
         <v>2017</v>
       </c>
-      <c r="AE87" s="112" t="s">
+      <c r="AE87" s="104" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="42">
+    <row r="88" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A88" s="37">
         <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
@@ -8659,47 +8665,47 @@
         <v>379</v>
       </c>
       <c r="I88" s="1"/>
-      <c r="J88" s="98" t="s">
+      <c r="J88" s="90" t="s">
         <v>474</v>
       </c>
-      <c r="K88" s="98" t="s">
+      <c r="K88" s="90" t="s">
         <v>490</v>
       </c>
-      <c r="L88" s="17" t="s">
+      <c r="L88" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M88" s="86" t="s">
+      <c r="M88" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="N88" s="86" t="s">
+      <c r="N88" s="78" t="s">
         <v>54</v>
       </c>
       <c r="O88" s="14"/>
       <c r="P88" s="19"/>
       <c r="Q88" s="19"/>
       <c r="R88" s="20"/>
-      <c r="S88" s="28">
+      <c r="S88" s="25">
         <v>24000</v>
       </c>
       <c r="T88" s="14"/>
       <c r="U88" s="15"/>
-      <c r="V88" s="21"/>
+      <c r="V88" s="113"/>
       <c r="W88" s="7"/>
       <c r="X88" s="7"/>
       <c r="Y88" s="7"/>
-      <c r="Z88" s="24"/>
+      <c r="Z88" s="109"/>
       <c r="AA88" s="4"/>
       <c r="AB88" s="7"/>
-      <c r="AC88" s="103"/>
-      <c r="AD88" s="24">
+      <c r="AC88" s="95"/>
+      <c r="AD88" s="21">
         <v>2018</v>
       </c>
-      <c r="AE88" s="112" t="s">
+      <c r="AE88" s="104" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="42">
+    <row r="89" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="37">
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
@@ -8724,16 +8730,16 @@
         <v>379</v>
       </c>
       <c r="I89" s="1"/>
-      <c r="J89" s="98" t="s">
+      <c r="J89" s="90" t="s">
         <v>452</v>
       </c>
-      <c r="K89" s="98" t="s">
+      <c r="K89" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="L89" s="17" t="s">
+      <c r="L89" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="M89" s="86" t="s">
+      <c r="M89" s="78" t="s">
         <v>208</v>
       </c>
       <c r="N89" s="17" t="s">
@@ -8743,26 +8749,26 @@
       <c r="P89" s="19"/>
       <c r="Q89" s="19"/>
       <c r="R89" s="20"/>
-      <c r="S89" s="28"/>
+      <c r="S89" s="25"/>
       <c r="T89" s="14"/>
       <c r="U89" s="15"/>
-      <c r="V89" s="21"/>
+      <c r="V89" s="113"/>
       <c r="W89" s="7"/>
       <c r="X89" s="7"/>
       <c r="Y89" s="7"/>
-      <c r="Z89" s="24"/>
-      <c r="AA89" s="103"/>
+      <c r="Z89" s="109"/>
+      <c r="AA89" s="95"/>
       <c r="AB89" s="7"/>
-      <c r="AC89" s="107"/>
-      <c r="AD89" s="24">
+      <c r="AC89" s="99"/>
+      <c r="AD89" s="21">
         <v>2019</v>
       </c>
-      <c r="AE89" s="112" t="s">
+      <c r="AE89" s="104" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="90" spans="1:31" s="59" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="42">
+    <row r="90" spans="1:31" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A90" s="37">
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
@@ -8787,16 +8793,16 @@
         <v>379</v>
       </c>
       <c r="I90" s="1"/>
-      <c r="J90" s="98" t="s">
+      <c r="J90" s="90" t="s">
         <v>453</v>
       </c>
-      <c r="K90" s="98" t="s">
+      <c r="K90" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="L90" s="17" t="s">
+      <c r="L90" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="M90" s="86" t="s">
+      <c r="M90" s="78" t="s">
         <v>250</v>
       </c>
       <c r="N90" s="17" t="s">
@@ -8806,96 +8812,96 @@
       <c r="P90" s="19"/>
       <c r="Q90" s="19"/>
       <c r="R90" s="20"/>
-      <c r="S90" s="28"/>
+      <c r="S90" s="25"/>
       <c r="T90" s="14"/>
       <c r="U90" s="15"/>
-      <c r="V90" s="21"/>
+      <c r="V90" s="113"/>
       <c r="W90" s="7"/>
       <c r="X90" s="7"/>
       <c r="Y90" s="7"/>
-      <c r="Z90" s="24"/>
-      <c r="AA90" s="103"/>
+      <c r="Z90" s="109"/>
+      <c r="AA90" s="95"/>
       <c r="AB90" s="7"/>
-      <c r="AC90" s="82" t="s">
+      <c r="AC90" s="74" t="s">
         <v>367</v>
       </c>
-      <c r="AD90" s="24">
+      <c r="AD90" s="21">
         <v>2019</v>
       </c>
-      <c r="AE90" s="112" t="s">
+      <c r="AE90" s="104" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="91" spans="1:31" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A91" s="42">
+    <row r="91" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A91" s="37">
         <v>90</v>
       </c>
-      <c r="B91" s="79" t="s">
+      <c r="B91" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="C91" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="D91" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="E91" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F91" s="60" t="s">
+      <c r="C91" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E91" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F91" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="G91" s="47" t="s">
+      <c r="G91" s="42" t="s">
         <v>24</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="I91" s="47"/>
-      <c r="J91" s="100" t="s">
+      <c r="I91" s="42"/>
+      <c r="J91" s="92" t="s">
         <v>475</v>
       </c>
-      <c r="K91" s="100" t="s">
+      <c r="K91" s="92" t="s">
         <v>483</v>
       </c>
-      <c r="L91" s="50" t="s">
+      <c r="L91" s="71" t="s">
         <v>275</v>
       </c>
-      <c r="M91" s="87" t="s">
+      <c r="M91" s="79" t="s">
         <v>274</v>
       </c>
-      <c r="N91" s="50" t="s">
+      <c r="N91" s="45" t="s">
         <v>274</v>
       </c>
-      <c r="O91" s="52"/>
-      <c r="P91" s="53"/>
-      <c r="Q91" s="53"/>
-      <c r="R91" s="53"/>
-      <c r="S91" s="54"/>
-      <c r="T91" s="52"/>
-      <c r="U91" s="55"/>
-      <c r="V91" s="56"/>
-      <c r="W91" s="51"/>
-      <c r="X91" s="51"/>
-      <c r="Y91" s="51"/>
-      <c r="Z91" s="57"/>
-      <c r="AA91" s="49" t="s">
+      <c r="O91" s="47"/>
+      <c r="P91" s="48"/>
+      <c r="Q91" s="48"/>
+      <c r="R91" s="48"/>
+      <c r="S91" s="49"/>
+      <c r="T91" s="47"/>
+      <c r="U91" s="50"/>
+      <c r="V91" s="115"/>
+      <c r="W91" s="46"/>
+      <c r="X91" s="46"/>
+      <c r="Y91" s="46"/>
+      <c r="Z91" s="111"/>
+      <c r="AA91" s="44" t="s">
         <v>276</v>
       </c>
-      <c r="AB91" s="51"/>
-      <c r="AC91" s="108"/>
-      <c r="AD91" s="57">
+      <c r="AB91" s="46"/>
+      <c r="AC91" s="100"/>
+      <c r="AD91" s="51">
         <v>2022</v>
       </c>
-      <c r="AE91" s="109" t="s">
+      <c r="AE91" s="101" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="92" spans="1:31" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="42">
+      <c r="A92" s="37">
         <v>91</v>
       </c>
-      <c r="B92" s="81" t="s">
+      <c r="B92" s="73" t="s">
         <v>308</v>
       </c>
       <c r="C92" s="5" t="s">
@@ -8907,7 +8913,7 @@
       <c r="E92" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F92" s="77" t="s">
+      <c r="F92" s="69" t="s">
         <v>303</v>
       </c>
       <c r="G92" s="5" t="s">
@@ -8919,16 +8925,16 @@
       <c r="I92" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="J92" s="98" t="s">
+      <c r="J92" s="90" t="s">
         <v>476</v>
       </c>
-      <c r="K92" s="98" t="s">
+      <c r="K92" s="90" t="s">
         <v>485</v>
       </c>
-      <c r="L92" s="5" t="s">
+      <c r="L92" s="69" t="s">
         <v>304</v>
       </c>
-      <c r="M92" s="86" t="s">
+      <c r="M92" s="78" t="s">
         <v>305</v>
       </c>
       <c r="N92" s="17" t="s">
@@ -8938,28 +8944,30 @@
       <c r="P92" s="16"/>
       <c r="Q92" s="16"/>
       <c r="R92" s="16"/>
-      <c r="S92" s="78"/>
+      <c r="S92" s="70"/>
       <c r="T92" s="16"/>
       <c r="U92" s="16"/>
+      <c r="V92" s="69"/>
       <c r="W92" s="16"/>
       <c r="X92" s="16"/>
       <c r="Y92" s="16"/>
-      <c r="AA92" s="77" t="s">
+      <c r="Z92" s="69"/>
+      <c r="AA92" s="69" t="s">
         <v>306</v>
       </c>
       <c r="AB92" s="16"/>
-      <c r="AC92" s="110" t="s">
+      <c r="AC92" s="102" t="s">
         <v>307</v>
       </c>
-      <c r="AD92" s="91">
+      <c r="AD92" s="83">
         <v>2023</v>
       </c>
-      <c r="AE92" s="77" t="s">
+      <c r="AE92" s="69" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="93" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J93" s="101"/>
+      <c r="J93" s="93"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:AE92" xr:uid="{C2A453AE-42D3-44AD-B1ED-100E8200E393}">

--- a/WPOF-Datenbank der Schweizer Alpen.xlsx
+++ b/WPOF-Datenbank der Schweizer Alpen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\christophe\Desktop\home\GitHub\WPOFs_CH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8E2CE8-D99B-4623-A194-5D4E37CFFB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE8B7AC1-8B8A-4C24-89F0-772C75ECE235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{4AB5F6CE-3898-4132-95CD-C65537EF9C6D}"/>
   </bookViews>
@@ -1995,7 +1995,7 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2043,12 +2043,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -2104,9 +2098,6 @@
     <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2122,9 +2113,6 @@
     <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="8" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2161,9 +2149,6 @@
     <xf numFmtId="49" fontId="7" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="7" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2212,16 +2197,6 @@
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2230,9 +2205,6 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -2338,6 +2310,12 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2715,144 +2693,144 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A453AE-42D3-44AD-B1ED-100E8200E393}">
   <dimension ref="A1:AE93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.73046875" style="38"/>
-    <col min="2" max="2" width="10.1328125" style="74" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.86328125" style="38" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="38" customWidth="1"/>
-    <col min="5" max="5" width="12.59765625" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.06640625" style="39" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="38" customWidth="1"/>
-    <col min="8" max="8" width="29.3984375" style="38" customWidth="1"/>
-    <col min="9" max="9" width="8" style="38" customWidth="1"/>
-    <col min="10" max="10" width="14.86328125" style="94" customWidth="1"/>
-    <col min="11" max="11" width="14.3984375" style="94" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.86328125" style="39" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.265625" style="81" customWidth="1"/>
-    <col min="14" max="14" width="13.73046875" style="81" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="48.265625" style="40" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.265625" style="40" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.73046875" style="40" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.73046875" style="40" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="39.1328125" style="41" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19" style="40" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.3984375" style="40" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22" style="39" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="35.59765625" style="40" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.86328125" style="40" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.265625" style="40" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="28.265625" style="39" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="69.1328125" style="39" customWidth="1"/>
-    <col min="28" max="28" width="24.86328125" style="40" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="61.19921875" style="39" customWidth="1"/>
-    <col min="30" max="30" width="13" style="85" customWidth="1"/>
-    <col min="31" max="31" width="65.86328125" style="39" customWidth="1"/>
-    <col min="32" max="16384" width="10.73046875" style="38"/>
+    <col min="1" max="1" width="10.73046875" style="35"/>
+    <col min="2" max="2" width="10.1328125" style="69" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.86328125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.06640625" style="36" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="29.3984375" style="35" customWidth="1"/>
+    <col min="9" max="9" width="8" style="35" customWidth="1"/>
+    <col min="10" max="10" width="14.86328125" style="85" customWidth="1"/>
+    <col min="11" max="11" width="14.3984375" style="85" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.86328125" style="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.265625" style="109" customWidth="1"/>
+    <col min="14" max="14" width="13.73046875" style="109" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="48.265625" style="37" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.265625" style="37" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.73046875" style="37" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.73046875" style="37" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="39.1328125" style="38" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19" style="37" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.3984375" style="37" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22" style="36" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="35.59765625" style="37" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.86328125" style="37" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.265625" style="37" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.265625" style="36" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="69.1328125" style="36" customWidth="1"/>
+    <col min="28" max="28" width="24.86328125" style="37" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="61.19921875" style="36" customWidth="1"/>
+    <col min="30" max="30" width="13" style="76" customWidth="1"/>
+    <col min="31" max="31" width="65.86328125" style="36" customWidth="1"/>
+    <col min="32" max="16384" width="10.73046875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="86" t="s">
+    <row r="1" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="77" t="s">
         <v>413</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="J1" s="89" t="s">
+      <c r="J1" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="K1" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="R1" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="S1" s="32" t="s">
         <v>316</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="T1" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="U1" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="V1" s="112" t="s">
+      <c r="V1" s="103" t="s">
         <v>256</v>
       </c>
-      <c r="W1" s="32" t="s">
+      <c r="W1" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="X1" s="32" t="s">
+      <c r="X1" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="Y1" s="32" t="s">
+      <c r="Y1" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="Z1" s="108" t="s">
+      <c r="Z1" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="31" t="s">
+      <c r="AA1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="32" t="s">
+      <c r="AB1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" s="31" t="s">
+      <c r="AC1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AD1" s="82" t="s">
+      <c r="AD1" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="AE1" s="103" t="s">
+      <c r="AE1" s="94" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="37">
+    <row r="2" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2879,45 +2857,45 @@
       <c r="I2" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J2" s="90" t="s">
+      <c r="J2" s="81" t="s">
         <v>465</v>
       </c>
-      <c r="K2" s="90" t="s">
+      <c r="K2" s="81" t="s">
         <v>477</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="M2" s="78">
+      <c r="M2" s="70">
         <v>1</v>
       </c>
-      <c r="N2" s="29">
+      <c r="N2" s="27">
         <v>366</v>
       </c>
       <c r="O2" s="14"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="25"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="23"/>
       <c r="T2" s="14"/>
       <c r="U2" s="15"/>
-      <c r="V2" s="113"/>
+      <c r="V2" s="104"/>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
-      <c r="Z2" s="109"/>
+      <c r="Z2" s="100"/>
       <c r="AA2" s="4"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="4"/>
-      <c r="AD2" s="21">
+      <c r="AD2" s="19">
         <v>1901</v>
       </c>
-      <c r="AE2" s="104" t="s">
+      <c r="AE2" s="95" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="37">
+    <row r="3" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="34">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -2944,49 +2922,49 @@
       <c r="I3" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="J3" s="90" t="s">
+      <c r="J3" s="81" t="s">
         <v>414</v>
       </c>
-      <c r="K3" s="90" t="s">
+      <c r="K3" s="81" t="s">
         <v>478</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="M3" s="78">
+      <c r="M3" s="70">
         <v>7306</v>
       </c>
-      <c r="N3" s="29">
+      <c r="N3" s="27">
         <v>7671</v>
       </c>
       <c r="O3" s="14"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="25"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="23"/>
       <c r="T3" s="14"/>
       <c r="U3" s="15"/>
-      <c r="V3" s="113"/>
+      <c r="V3" s="104"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
-      <c r="Z3" s="109"/>
+      <c r="Z3" s="100"/>
       <c r="AA3" s="4" t="s">
         <v>48</v>
       </c>
       <c r="AB3" s="7"/>
-      <c r="AC3" s="74" t="s">
+      <c r="AC3" s="69" t="s">
         <v>361</v>
       </c>
-      <c r="AD3" s="21">
+      <c r="AD3" s="19">
         <v>1920</v>
       </c>
-      <c r="AE3" s="104" t="s">
+      <c r="AE3" s="95" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="37">
+    <row r="4" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="34">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -3011,49 +2989,49 @@
         <v>379</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="90" t="s">
+      <c r="J4" s="81" t="s">
         <v>464</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="K4" s="81" t="s">
         <v>486</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="M4" s="78">
+      <c r="M4" s="70">
         <v>10228</v>
       </c>
-      <c r="N4" s="29">
+      <c r="N4" s="27">
         <v>10593</v>
       </c>
       <c r="O4" s="14"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="25"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="23"/>
       <c r="T4" s="14"/>
       <c r="U4" s="15"/>
-      <c r="V4" s="113"/>
+      <c r="V4" s="104"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
-      <c r="Z4" s="109"/>
+      <c r="Z4" s="100"/>
       <c r="AA4" s="4" t="s">
         <v>213</v>
       </c>
       <c r="AB4" s="7"/>
-      <c r="AC4" s="74" t="s">
+      <c r="AC4" s="69" t="s">
         <v>368</v>
       </c>
-      <c r="AD4" s="21">
+      <c r="AD4" s="19">
         <v>1980</v>
       </c>
-      <c r="AE4" s="104" t="s">
+      <c r="AE4" s="95" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="37">
+    <row r="5" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="34">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -3078,47 +3056,47 @@
         <v>379</v>
       </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="90" t="s">
+      <c r="J5" s="81" t="s">
         <v>464</v>
       </c>
-      <c r="K5" s="90" t="s">
+      <c r="K5" s="81" t="s">
         <v>486</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="M5" s="78">
+      <c r="M5" s="70">
         <v>10959</v>
       </c>
-      <c r="N5" s="29">
+      <c r="N5" s="27">
         <v>14610</v>
       </c>
       <c r="O5" s="14"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="25"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="23"/>
       <c r="T5" s="14"/>
       <c r="U5" s="15"/>
-      <c r="V5" s="113"/>
+      <c r="V5" s="104"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
-      <c r="Z5" s="109"/>
+      <c r="Z5" s="100"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="7"/>
-      <c r="AC5" s="95" t="s">
+      <c r="AC5" s="86" t="s">
         <v>214</v>
       </c>
-      <c r="AD5" s="21">
+      <c r="AD5" s="19">
         <v>1980</v>
       </c>
-      <c r="AE5" s="104" t="s">
+      <c r="AE5" s="95" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="37">
+    <row r="6" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="34">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -3143,45 +3121,45 @@
         <v>379</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="90" t="s">
+      <c r="J6" s="81" t="s">
         <v>466</v>
       </c>
-      <c r="K6" s="90" t="s">
+      <c r="K6" s="81" t="s">
         <v>415</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="78">
+      <c r="M6" s="70">
         <v>15342</v>
       </c>
-      <c r="N6" s="78">
+      <c r="N6" s="70">
         <v>15706</v>
       </c>
       <c r="O6" s="14"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="25"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="23"/>
       <c r="T6" s="14"/>
       <c r="U6" s="15"/>
-      <c r="V6" s="113"/>
+      <c r="V6" s="104"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
-      <c r="Z6" s="109"/>
+      <c r="Z6" s="100"/>
       <c r="AA6" s="4" t="s">
         <v>48</v>
       </c>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="95"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="104" t="s">
+      <c r="AC6" s="86"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="95" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="37">
+    <row r="7" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="34">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -3206,45 +3184,45 @@
         <v>379</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="90" t="s">
+      <c r="J7" s="81" t="s">
         <v>464</v>
       </c>
-      <c r="K7" s="90" t="s">
+      <c r="K7" s="81" t="s">
         <v>486</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="M7" s="78">
+      <c r="M7" s="70">
         <v>16438</v>
       </c>
-      <c r="N7" s="29">
+      <c r="N7" s="27">
         <v>16802</v>
       </c>
       <c r="O7" s="14"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="25"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="23"/>
       <c r="T7" s="14"/>
       <c r="U7" s="15"/>
-      <c r="V7" s="113"/>
+      <c r="V7" s="104"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
-      <c r="Z7" s="109"/>
+      <c r="Z7" s="100"/>
       <c r="AA7" s="4"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="4"/>
-      <c r="AD7" s="21">
+      <c r="AD7" s="19">
         <v>1980</v>
       </c>
-      <c r="AE7" s="104" t="s">
+      <c r="AE7" s="95" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="37">
+    <row r="8" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="34">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -3269,45 +3247,45 @@
         <v>379</v>
       </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="90" t="s">
+      <c r="J8" s="81" t="s">
         <v>464</v>
       </c>
-      <c r="K8" s="90" t="s">
+      <c r="K8" s="81" t="s">
         <v>486</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="M8" s="78">
+      <c r="M8" s="70">
         <v>16650</v>
       </c>
-      <c r="N8" s="29">
+      <c r="N8" s="27">
         <v>16680</v>
       </c>
       <c r="O8" s="14"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="25"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="23"/>
       <c r="T8" s="14"/>
       <c r="U8" s="15"/>
-      <c r="V8" s="113"/>
+      <c r="V8" s="104"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
-      <c r="Z8" s="109"/>
+      <c r="Z8" s="100"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="7"/>
-      <c r="AC8" s="95"/>
-      <c r="AD8" s="21">
+      <c r="AC8" s="86"/>
+      <c r="AD8" s="19">
         <v>1983</v>
       </c>
-      <c r="AE8" s="104" t="s">
+      <c r="AE8" s="95" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="37">
+    <row r="9" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="34">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -3332,45 +3310,45 @@
         <v>379</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="90" t="s">
+      <c r="J9" s="81" t="s">
         <v>416</v>
       </c>
-      <c r="K9" s="90" t="s">
+      <c r="K9" s="81" t="s">
         <v>417</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M9" s="79">
+      <c r="M9" s="71">
         <v>22282</v>
       </c>
-      <c r="N9" s="29">
+      <c r="N9" s="27">
         <v>22646</v>
       </c>
       <c r="O9" s="14"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="25"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="23"/>
       <c r="T9" s="14"/>
       <c r="U9" s="15"/>
-      <c r="V9" s="113"/>
+      <c r="V9" s="104"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
-      <c r="Z9" s="109"/>
+      <c r="Z9" s="100"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="4"/>
-      <c r="AD9" s="21">
+      <c r="AD9" s="19">
         <v>1983</v>
       </c>
-      <c r="AE9" s="104" t="s">
+      <c r="AE9" s="95" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="37">
+    <row r="10" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="34">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -3395,45 +3373,45 @@
         <v>379</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="90" t="s">
+      <c r="J10" s="81" t="s">
         <v>416</v>
       </c>
-      <c r="K10" s="90" t="s">
+      <c r="K10" s="81" t="s">
         <v>417</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M10" s="78">
+      <c r="M10" s="70">
         <v>24473</v>
       </c>
-      <c r="N10" s="29">
+      <c r="N10" s="27">
         <v>22646</v>
       </c>
       <c r="O10" s="14"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="25"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="23"/>
       <c r="T10" s="14"/>
       <c r="U10" s="15"/>
-      <c r="V10" s="113"/>
+      <c r="V10" s="104"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
-      <c r="Z10" s="109"/>
+      <c r="Z10" s="100"/>
       <c r="AA10" s="4"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="4"/>
-      <c r="AD10" s="21">
+      <c r="AD10" s="19">
         <v>1983</v>
       </c>
-      <c r="AE10" s="104" t="s">
+      <c r="AE10" s="95" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="37">
+    <row r="11" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="34">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -3458,47 +3436,47 @@
         <v>379</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="90" t="s">
+      <c r="J11" s="81" t="s">
         <v>418</v>
       </c>
-      <c r="K11" s="90" t="s">
+      <c r="K11" s="81" t="s">
         <v>419</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="M11" s="78">
+      <c r="M11" s="70">
         <v>24473</v>
       </c>
-      <c r="N11" s="29">
+      <c r="N11" s="27">
         <v>24837</v>
       </c>
       <c r="O11" s="14"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="25"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="23"/>
       <c r="T11" s="14"/>
       <c r="U11" s="15"/>
-      <c r="V11" s="113"/>
+      <c r="V11" s="104"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
-      <c r="Z11" s="109"/>
+      <c r="Z11" s="100"/>
       <c r="AA11" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AB11" s="7"/>
       <c r="AC11" s="4"/>
-      <c r="AD11" s="21">
+      <c r="AD11" s="19">
         <v>1980</v>
       </c>
-      <c r="AE11" s="104" t="s">
+      <c r="AE11" s="95" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="37">
+    <row r="12" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="34">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -3523,26 +3501,26 @@
         <v>379</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="90" t="s">
+      <c r="J12" s="81" t="s">
         <v>462</v>
       </c>
-      <c r="K12" s="90" t="s">
+      <c r="K12" s="81" t="s">
         <v>420</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="78">
+      <c r="M12" s="70">
         <v>24504</v>
       </c>
-      <c r="N12" s="78" t="s">
+      <c r="N12" s="70" t="s">
         <v>401</v>
       </c>
       <c r="O12" s="14"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="25">
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="23">
         <v>90000</v>
       </c>
       <c r="T12" s="14">
@@ -3551,7 +3529,7 @@
       <c r="U12" s="15">
         <v>100000</v>
       </c>
-      <c r="V12" s="113"/>
+      <c r="V12" s="104"/>
       <c r="W12" s="7">
         <v>2.5</v>
       </c>
@@ -3561,23 +3539,23 @@
       <c r="Y12" s="7">
         <v>3</v>
       </c>
-      <c r="Z12" s="109"/>
+      <c r="Z12" s="100"/>
       <c r="AA12" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="74" t="s">
+      <c r="AC12" s="69" t="s">
         <v>336</v>
       </c>
-      <c r="AD12" s="21">
+      <c r="AD12" s="19">
         <v>2003</v>
       </c>
-      <c r="AE12" s="104" t="s">
+      <c r="AE12" s="95" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="37">
+    <row r="13" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="34">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -3602,47 +3580,47 @@
         <v>379</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="90" t="s">
+      <c r="J13" s="81" t="s">
         <v>421</v>
       </c>
-      <c r="K13" s="90" t="s">
+      <c r="K13" s="81" t="s">
         <v>479</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="29">
+      <c r="M13" s="27">
         <v>25569</v>
       </c>
-      <c r="N13" s="29">
+      <c r="N13" s="27">
         <v>29220</v>
       </c>
       <c r="O13" s="14"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="25"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="23"/>
       <c r="T13" s="14"/>
       <c r="U13" s="15"/>
-      <c r="V13" s="113"/>
+      <c r="V13" s="104"/>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
-      <c r="Z13" s="109"/>
+      <c r="Z13" s="100"/>
       <c r="AA13" s="4"/>
       <c r="AB13" s="7"/>
-      <c r="AC13" s="96" t="s">
+      <c r="AC13" s="87" t="s">
         <v>333</v>
       </c>
-      <c r="AD13" s="21">
+      <c r="AD13" s="19">
         <v>2003</v>
       </c>
-      <c r="AE13" s="104" t="s">
+      <c r="AE13" s="95" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="37">
+    <row r="14" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="34">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -3667,45 +3645,45 @@
         <v>379</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="90" t="s">
+      <c r="J14" s="81" t="s">
         <v>416</v>
       </c>
-      <c r="K14" s="90" t="s">
+      <c r="K14" s="81" t="s">
         <v>417</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M14" s="78">
+      <c r="M14" s="70">
         <v>25934</v>
       </c>
-      <c r="N14" s="29">
+      <c r="N14" s="27">
         <v>26298</v>
       </c>
       <c r="O14" s="14"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="25"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="23"/>
       <c r="T14" s="14"/>
       <c r="U14" s="15"/>
-      <c r="V14" s="113"/>
+      <c r="V14" s="104"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
-      <c r="Z14" s="109"/>
+      <c r="Z14" s="100"/>
       <c r="AA14" s="4"/>
       <c r="AB14" s="7"/>
-      <c r="AC14" s="95"/>
-      <c r="AD14" s="21">
+      <c r="AC14" s="86"/>
+      <c r="AD14" s="19">
         <v>1983</v>
       </c>
-      <c r="AE14" s="104" t="s">
+      <c r="AE14" s="95" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="37">
+    <row r="15" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="34">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -3730,47 +3708,47 @@
         <v>379</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="90" t="s">
+      <c r="J15" s="81" t="s">
         <v>418</v>
       </c>
-      <c r="K15" s="90" t="s">
+      <c r="K15" s="81" t="s">
         <v>419</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="M15" s="78">
+      <c r="M15" s="70">
         <v>26177</v>
       </c>
-      <c r="N15" s="77" t="s">
+      <c r="N15" s="27" t="s">
         <v>409</v>
       </c>
       <c r="O15" s="14"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="25"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="23"/>
       <c r="T15" s="14"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="113"/>
+      <c r="V15" s="104"/>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
-      <c r="Z15" s="109"/>
+      <c r="Z15" s="100"/>
       <c r="AA15" s="4" t="s">
         <v>392</v>
       </c>
       <c r="AB15" s="7"/>
       <c r="AC15" s="4"/>
-      <c r="AD15" s="21">
+      <c r="AD15" s="19">
         <v>1980</v>
       </c>
-      <c r="AE15" s="104" t="s">
+      <c r="AE15" s="95" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="37">
+    <row r="16" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="34">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -3795,45 +3773,45 @@
         <v>379</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="90" t="s">
+      <c r="J16" s="81" t="s">
         <v>462</v>
       </c>
-      <c r="K16" s="90" t="s">
+      <c r="K16" s="81" t="s">
         <v>420</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="M16" s="78">
+      <c r="M16" s="70">
         <v>29768</v>
       </c>
-      <c r="N16" s="78">
+      <c r="N16" s="70">
         <v>29798</v>
       </c>
       <c r="O16" s="14"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="25"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="23"/>
       <c r="T16" s="14"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="113"/>
+      <c r="V16" s="104"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
-      <c r="Z16" s="109"/>
+      <c r="Z16" s="100"/>
       <c r="AA16" s="4"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="97"/>
-      <c r="AD16" s="21">
+      <c r="AC16" s="88"/>
+      <c r="AD16" s="19">
         <v>1991</v>
       </c>
-      <c r="AE16" s="104" t="s">
+      <c r="AE16" s="95" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="37">
+    <row r="17" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="34">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -3858,45 +3836,45 @@
         <v>379</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="90" t="s">
+      <c r="J17" s="81" t="s">
         <v>421</v>
       </c>
-      <c r="K17" s="90" t="s">
+      <c r="K17" s="81" t="s">
         <v>479</v>
       </c>
       <c r="L17" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M17" s="78">
+      <c r="M17" s="70">
         <v>29830</v>
       </c>
-      <c r="N17" s="78" t="s">
+      <c r="N17" s="70" t="s">
         <v>400</v>
       </c>
       <c r="O17" s="14"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="25"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="23"/>
       <c r="T17" s="14"/>
       <c r="U17" s="15"/>
-      <c r="V17" s="113"/>
+      <c r="V17" s="104"/>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
-      <c r="Z17" s="109"/>
+      <c r="Z17" s="100"/>
       <c r="AA17" s="4"/>
       <c r="AB17" s="7"/>
       <c r="AC17" s="4"/>
-      <c r="AD17" s="21">
+      <c r="AD17" s="19">
         <v>2003</v>
       </c>
-      <c r="AE17" s="104" t="s">
+      <c r="AE17" s="95" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="37">
+    <row r="18" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="34">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -3921,45 +3899,45 @@
         <v>379</v>
       </c>
       <c r="I18" s="1"/>
-      <c r="J18" s="90" t="s">
+      <c r="J18" s="81" t="s">
         <v>454</v>
       </c>
-      <c r="K18" s="90" t="s">
+      <c r="K18" s="81" t="s">
         <v>422</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="M18" s="78">
+      <c r="M18" s="70">
         <v>30317</v>
       </c>
-      <c r="N18" s="29">
+      <c r="N18" s="27">
         <v>30681</v>
       </c>
       <c r="O18" s="14"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="25"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="23"/>
       <c r="T18" s="14"/>
       <c r="U18" s="15"/>
-      <c r="V18" s="113"/>
+      <c r="V18" s="104"/>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
-      <c r="Z18" s="109"/>
-      <c r="AA18" s="95"/>
+      <c r="Z18" s="100"/>
+      <c r="AA18" s="86"/>
       <c r="AB18" s="7"/>
-      <c r="AC18" s="95"/>
-      <c r="AD18" s="21">
+      <c r="AC18" s="86"/>
+      <c r="AD18" s="19">
         <v>1983</v>
       </c>
-      <c r="AE18" s="104" t="s">
+      <c r="AE18" s="95" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="37">
+    <row r="19" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="34">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -3984,49 +3962,49 @@
         <v>379</v>
       </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="90" t="s">
+      <c r="J19" s="81" t="s">
         <v>461</v>
       </c>
-      <c r="K19" s="90" t="s">
+      <c r="K19" s="81" t="s">
         <v>423</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="M19" s="78">
+      <c r="M19" s="70">
         <v>32752</v>
       </c>
-      <c r="N19" s="78" t="s">
+      <c r="N19" s="70" t="s">
         <v>402</v>
       </c>
       <c r="O19" s="14"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="25"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="23"/>
       <c r="T19" s="14"/>
       <c r="U19" s="15"/>
-      <c r="V19" s="113"/>
+      <c r="V19" s="104"/>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
-      <c r="Z19" s="109"/>
+      <c r="Z19" s="100"/>
       <c r="AA19" s="8" t="s">
         <v>155</v>
       </c>
       <c r="AB19" s="7"/>
-      <c r="AC19" s="74" t="s">
+      <c r="AC19" s="69" t="s">
         <v>357</v>
       </c>
-      <c r="AD19" s="21">
+      <c r="AD19" s="19">
         <v>1983</v>
       </c>
-      <c r="AE19" s="104" t="s">
+      <c r="AE19" s="95" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="37">
+    <row r="20" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="34">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -4051,112 +4029,112 @@
         <v>379</v>
       </c>
       <c r="I20" s="1"/>
-      <c r="J20" s="90" t="s">
+      <c r="J20" s="81" t="s">
         <v>461</v>
       </c>
-      <c r="K20" s="90" t="s">
+      <c r="K20" s="81" t="s">
         <v>423</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="M20" s="78">
+      <c r="M20" s="70">
         <v>37073</v>
       </c>
-      <c r="N20" s="78">
+      <c r="N20" s="70">
         <v>37103</v>
       </c>
       <c r="O20" s="14"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="25">
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="23">
         <v>65000</v>
       </c>
       <c r="T20" s="14"/>
       <c r="U20" s="15"/>
-      <c r="V20" s="113"/>
+      <c r="V20" s="104"/>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
-      <c r="Z20" s="109"/>
-      <c r="AA20" s="96" t="s">
+      <c r="Z20" s="100"/>
+      <c r="AA20" s="87" t="s">
         <v>321</v>
       </c>
       <c r="AB20" s="7"/>
-      <c r="AC20" s="96" t="s">
+      <c r="AC20" s="87" t="s">
         <v>358</v>
       </c>
-      <c r="AD20" s="21"/>
-      <c r="AE20" s="104" t="s">
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="95" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="37">
-        <v>20</v>
-      </c>
-      <c r="B21" s="72" t="s">
+    <row r="21" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="34">
+        <v>20</v>
+      </c>
+      <c r="B21" s="67" t="s">
         <v>174</v>
       </c>
-      <c r="C21" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="57" t="s">
+      <c r="C21" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="G21" s="54" t="s">
+      <c r="G21" s="50" t="s">
         <v>24</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="I21" s="54"/>
-      <c r="J21" s="91" t="s">
+      <c r="I21" s="50"/>
+      <c r="J21" s="82" t="s">
         <v>424</v>
       </c>
-      <c r="K21" s="91" t="s">
+      <c r="K21" s="82" t="s">
         <v>425</v>
       </c>
-      <c r="L21" s="72" t="s">
+      <c r="L21" s="67" t="s">
         <v>176</v>
       </c>
-      <c r="M21" s="80">
+      <c r="M21" s="72">
         <v>40544</v>
       </c>
-      <c r="N21" s="80">
+      <c r="N21" s="72">
         <v>40908</v>
       </c>
-      <c r="O21" s="60"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="62"/>
-      <c r="S21" s="63"/>
-      <c r="T21" s="60"/>
-      <c r="U21" s="64"/>
-      <c r="V21" s="114"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="59"/>
-      <c r="Z21" s="110"/>
-      <c r="AA21" s="57"/>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="96" t="s">
+      <c r="O21" s="55"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="55"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="105"/>
+      <c r="W21" s="54"/>
+      <c r="X21" s="54"/>
+      <c r="Y21" s="54"/>
+      <c r="Z21" s="101"/>
+      <c r="AA21" s="53"/>
+      <c r="AB21" s="54"/>
+      <c r="AC21" s="87" t="s">
         <v>360</v>
       </c>
-      <c r="AD21" s="65"/>
-      <c r="AE21" s="105" t="s">
+      <c r="AD21" s="60"/>
+      <c r="AE21" s="96" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="22" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="37">
+    <row r="22" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="34">
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -4181,49 +4159,49 @@
         <v>379</v>
       </c>
       <c r="I22" s="1"/>
-      <c r="J22" s="90" t="s">
+      <c r="J22" s="81" t="s">
         <v>426</v>
       </c>
-      <c r="K22" s="90" t="s">
+      <c r="K22" s="81" t="s">
         <v>427</v>
       </c>
       <c r="L22" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="M22" s="78" t="s">
+      <c r="M22" s="70" t="s">
         <v>410</v>
       </c>
-      <c r="N22" s="17" t="s">
+      <c r="N22" s="70" t="s">
         <v>411</v>
       </c>
       <c r="O22" s="11"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
-      <c r="S22" s="28"/>
+      <c r="S22" s="26"/>
       <c r="T22" s="11"/>
       <c r="U22" s="15"/>
-      <c r="V22" s="107"/>
+      <c r="V22" s="98"/>
       <c r="W22" s="12"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
-      <c r="Z22" s="109"/>
-      <c r="AA22" s="107" t="s">
+      <c r="Z22" s="100"/>
+      <c r="AA22" s="98" t="s">
         <v>203</v>
       </c>
       <c r="AB22" s="12"/>
-      <c r="AC22" s="96" t="s">
+      <c r="AC22" s="87" t="s">
         <v>366</v>
       </c>
-      <c r="AD22" s="23">
+      <c r="AD22" s="21">
         <v>1926</v>
       </c>
-      <c r="AE22" s="104" t="s">
+      <c r="AE22" s="95" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="23" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="37">
+    <row r="23" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="34">
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -4248,47 +4226,47 @@
         <v>379</v>
       </c>
       <c r="I23" s="1"/>
-      <c r="J23" s="90" t="s">
+      <c r="J23" s="81" t="s">
         <v>463</v>
       </c>
-      <c r="K23" s="90" t="s">
+      <c r="K23" s="81" t="s">
         <v>428</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="M23" s="78" t="s">
+      <c r="M23" s="70" t="s">
         <v>405</v>
       </c>
-      <c r="N23" s="78" t="s">
+      <c r="N23" s="70" t="s">
         <v>406</v>
       </c>
       <c r="O23" s="14"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="25"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="23"/>
       <c r="T23" s="14"/>
       <c r="U23" s="15"/>
-      <c r="V23" s="113"/>
+      <c r="V23" s="104"/>
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
-      <c r="Z23" s="109"/>
+      <c r="Z23" s="100"/>
       <c r="AA23" s="4" t="s">
         <v>171</v>
       </c>
       <c r="AB23" s="7"/>
       <c r="AC23" s="4"/>
-      <c r="AD23" s="21">
+      <c r="AD23" s="19">
         <v>1983</v>
       </c>
-      <c r="AE23" s="104" t="s">
+      <c r="AE23" s="95" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="37">
+    <row r="24" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="34">
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -4313,49 +4291,49 @@
         <v>379</v>
       </c>
       <c r="I24" s="1"/>
-      <c r="J24" s="90" t="s">
+      <c r="J24" s="81" t="s">
         <v>421</v>
       </c>
-      <c r="K24" s="90" t="s">
+      <c r="K24" s="81" t="s">
         <v>479</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M24" s="78" t="s">
+      <c r="M24" s="70" t="s">
         <v>398</v>
       </c>
-      <c r="N24" s="78" t="s">
+      <c r="N24" s="70" t="s">
         <v>399</v>
       </c>
       <c r="O24" s="14"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="25"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="23"/>
       <c r="T24" s="14"/>
       <c r="U24" s="15"/>
-      <c r="V24" s="113"/>
+      <c r="V24" s="104"/>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
-      <c r="Z24" s="109"/>
+      <c r="Z24" s="100"/>
       <c r="AA24" s="8" t="s">
         <v>40</v>
       </c>
       <c r="AB24" s="7"/>
-      <c r="AC24" s="96" t="s">
+      <c r="AC24" s="87" t="s">
         <v>332</v>
       </c>
-      <c r="AD24" s="21">
+      <c r="AD24" s="19">
         <v>1926</v>
       </c>
-      <c r="AE24" s="104" t="s">
+      <c r="AE24" s="95" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="25" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="37">
+    <row r="25" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="34">
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -4380,49 +4358,49 @@
         <v>379</v>
       </c>
       <c r="I25" s="1"/>
-      <c r="J25" s="90" t="s">
+      <c r="J25" s="81" t="s">
         <v>429</v>
       </c>
-      <c r="K25" s="90" t="s">
+      <c r="K25" s="81" t="s">
         <v>456</v>
       </c>
       <c r="L25" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="M25" s="78" t="s">
+      <c r="M25" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="N25" s="17" t="s">
+      <c r="N25" s="70" t="s">
         <v>92</v>
       </c>
       <c r="O25" s="14"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="25"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="23"/>
       <c r="T25" s="14"/>
       <c r="U25" s="15"/>
-      <c r="V25" s="113"/>
+      <c r="V25" s="104"/>
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
-      <c r="Z25" s="109"/>
+      <c r="Z25" s="100"/>
       <c r="AA25" s="8" t="s">
         <v>93</v>
       </c>
       <c r="AB25" s="7"/>
-      <c r="AC25" s="74" t="s">
+      <c r="AC25" s="69" t="s">
         <v>342</v>
       </c>
-      <c r="AD25" s="21">
+      <c r="AD25" s="19">
         <v>1983</v>
       </c>
-      <c r="AE25" s="104" t="s">
+      <c r="AE25" s="95" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="37">
+    <row r="26" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="34">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -4447,47 +4425,47 @@
         <v>379</v>
       </c>
       <c r="I26" s="1"/>
-      <c r="J26" s="90" t="s">
+      <c r="J26" s="81" t="s">
         <v>455</v>
       </c>
-      <c r="K26" s="90" t="s">
+      <c r="K26" s="81" t="s">
         <v>430</v>
       </c>
       <c r="L26" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="M26" s="78" t="s">
+      <c r="M26" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="N26" s="17" t="s">
+      <c r="N26" s="70" t="s">
         <v>107</v>
       </c>
       <c r="O26" s="14"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="25"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="23"/>
       <c r="T26" s="14"/>
       <c r="U26" s="15"/>
-      <c r="V26" s="113"/>
+      <c r="V26" s="104"/>
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
-      <c r="Z26" s="109"/>
+      <c r="Z26" s="100"/>
       <c r="AA26" s="4" t="s">
         <v>386</v>
       </c>
       <c r="AB26" s="7"/>
-      <c r="AC26" s="95"/>
-      <c r="AD26" s="21">
+      <c r="AC26" s="86"/>
+      <c r="AD26" s="19">
         <v>1984</v>
       </c>
-      <c r="AE26" s="104" t="s">
+      <c r="AE26" s="95" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="37">
+    <row r="27" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="34">
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -4512,47 +4490,47 @@
         <v>379</v>
       </c>
       <c r="I27" s="1"/>
-      <c r="J27" s="90" t="s">
+      <c r="J27" s="81" t="s">
         <v>463</v>
       </c>
-      <c r="K27" s="90" t="s">
+      <c r="K27" s="81" t="s">
         <v>428</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="M27" s="78" t="s">
+      <c r="M27" s="70" t="s">
         <v>403</v>
       </c>
-      <c r="N27" s="78" t="s">
+      <c r="N27" s="70" t="s">
         <v>404</v>
       </c>
       <c r="O27" s="9"/>
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
-      <c r="S27" s="26"/>
+      <c r="S27" s="24"/>
       <c r="T27" s="9"/>
       <c r="U27" s="15"/>
       <c r="V27" s="6"/>
       <c r="W27" s="10"/>
       <c r="X27" s="10"/>
       <c r="Y27" s="10"/>
-      <c r="Z27" s="109"/>
+      <c r="Z27" s="100"/>
       <c r="AA27" s="6" t="s">
         <v>171</v>
       </c>
       <c r="AB27" s="10"/>
-      <c r="AC27" s="98"/>
-      <c r="AD27" s="22">
+      <c r="AC27" s="89"/>
+      <c r="AD27" s="20">
         <v>1980</v>
       </c>
-      <c r="AE27" s="104" t="s">
+      <c r="AE27" s="95" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="28" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="37">
+    <row r="28" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="34">
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -4577,45 +4555,45 @@
         <v>379</v>
       </c>
       <c r="I28" s="1"/>
-      <c r="J28" s="90" t="s">
+      <c r="J28" s="81" t="s">
         <v>426</v>
       </c>
-      <c r="K28" s="90" t="s">
+      <c r="K28" s="81" t="s">
         <v>427</v>
       </c>
       <c r="L28" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="M28" s="78" t="s">
+      <c r="M28" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="N28" s="17" t="s">
+      <c r="N28" s="70" t="s">
         <v>204</v>
       </c>
       <c r="O28" s="14"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="25"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="23"/>
       <c r="T28" s="14"/>
       <c r="U28" s="15"/>
-      <c r="V28" s="113"/>
+      <c r="V28" s="104"/>
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
-      <c r="Z28" s="109"/>
+      <c r="Z28" s="100"/>
       <c r="AA28" s="4" t="s">
         <v>205</v>
       </c>
       <c r="AB28" s="7"/>
-      <c r="AC28" s="99"/>
-      <c r="AD28" s="21"/>
-      <c r="AE28" s="104" t="s">
+      <c r="AC28" s="90"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="95" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="37">
+    <row r="29" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="34">
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -4640,112 +4618,112 @@
         <v>379</v>
       </c>
       <c r="I29" s="1"/>
-      <c r="J29" s="90" t="s">
+      <c r="J29" s="81" t="s">
         <v>431</v>
       </c>
-      <c r="K29" s="90" t="s">
+      <c r="K29" s="81" t="s">
         <v>457</v>
       </c>
       <c r="L29" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="M29" s="78" t="s">
+      <c r="M29" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="N29" s="17" t="s">
+      <c r="N29" s="70" t="s">
         <v>83</v>
       </c>
       <c r="O29" s="14"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="25"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="23"/>
       <c r="T29" s="14"/>
       <c r="U29" s="15"/>
-      <c r="V29" s="113"/>
+      <c r="V29" s="104"/>
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
-      <c r="Z29" s="109"/>
+      <c r="Z29" s="100"/>
       <c r="AA29" s="4" t="s">
         <v>84</v>
       </c>
       <c r="AB29" s="7"/>
-      <c r="AC29" s="95"/>
-      <c r="AD29" s="21">
+      <c r="AC29" s="86"/>
+      <c r="AD29" s="19">
         <v>1898</v>
       </c>
-      <c r="AE29" s="104" t="s">
+      <c r="AE29" s="95" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="30" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="37">
+    <row r="30" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="34">
         <v>29</v>
       </c>
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="66" t="s">
         <v>267</v>
       </c>
-      <c r="C30" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="44" t="s">
+      <c r="C30" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="G30" s="42" t="s">
+      <c r="G30" s="39" t="s">
         <v>24</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="I30" s="42"/>
-      <c r="J30" s="91" t="s">
+      <c r="I30" s="39"/>
+      <c r="J30" s="82" t="s">
         <v>458</v>
       </c>
-      <c r="K30" s="91" t="s">
+      <c r="K30" s="82" t="s">
         <v>459</v>
       </c>
-      <c r="L30" s="71" t="s">
+      <c r="L30" s="66" t="s">
         <v>269</v>
       </c>
-      <c r="M30" s="79" t="s">
+      <c r="M30" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="N30" s="45" t="s">
+      <c r="N30" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="O30" s="47"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="49"/>
-      <c r="T30" s="47"/>
-      <c r="U30" s="50"/>
-      <c r="V30" s="115"/>
-      <c r="W30" s="46"/>
-      <c r="X30" s="46"/>
-      <c r="Y30" s="46"/>
-      <c r="Z30" s="111"/>
-      <c r="AA30" s="44" t="s">
+      <c r="O30" s="43"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="46"/>
+      <c r="V30" s="106"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="102"/>
+      <c r="AA30" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="AB30" s="46"/>
-      <c r="AC30" s="44"/>
-      <c r="AD30" s="51">
+      <c r="AB30" s="42"/>
+      <c r="AC30" s="41"/>
+      <c r="AD30" s="47">
         <v>2003</v>
       </c>
-      <c r="AE30" s="101" t="s">
+      <c r="AE30" s="92" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="31" spans="1:31" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="37">
+    <row r="31" spans="1:31" s="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="34">
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -4770,49 +4748,49 @@
         <v>379</v>
       </c>
       <c r="I31" s="1"/>
-      <c r="J31" s="90" t="s">
+      <c r="J31" s="81" t="s">
         <v>461</v>
       </c>
-      <c r="K31" s="90" t="s">
+      <c r="K31" s="81" t="s">
         <v>423</v>
       </c>
       <c r="L31" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="M31" s="78" t="s">
+      <c r="M31" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="N31" s="78" t="s">
+      <c r="N31" s="70" t="s">
         <v>145</v>
       </c>
       <c r="O31" s="14"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="25"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="23"/>
       <c r="T31" s="14"/>
       <c r="U31" s="15"/>
-      <c r="V31" s="113"/>
+      <c r="V31" s="104"/>
       <c r="W31" s="7"/>
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
-      <c r="Z31" s="109"/>
+      <c r="Z31" s="100"/>
       <c r="AA31" s="8" t="s">
         <v>146</v>
       </c>
       <c r="AB31" s="7"/>
-      <c r="AC31" s="74" t="s">
+      <c r="AC31" s="69" t="s">
         <v>354</v>
       </c>
-      <c r="AD31" s="84" t="s">
+      <c r="AD31" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="AE31" s="104" t="s">
+      <c r="AE31" s="95" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="32" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="37">
+    <row r="32" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="34">
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -4837,49 +4815,49 @@
         <v>379</v>
       </c>
       <c r="I32" s="1"/>
-      <c r="J32" s="90" t="s">
+      <c r="J32" s="81" t="s">
         <v>462</v>
       </c>
-      <c r="K32" s="90" t="s">
+      <c r="K32" s="81" t="s">
         <v>420</v>
       </c>
       <c r="L32" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="M32" s="78" t="s">
+      <c r="M32" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="N32" s="78" t="s">
+      <c r="N32" s="70" t="s">
         <v>58</v>
       </c>
       <c r="O32" s="14"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="25"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="23"/>
       <c r="T32" s="14"/>
       <c r="U32" s="15"/>
-      <c r="V32" s="113"/>
+      <c r="V32" s="104"/>
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
-      <c r="Z32" s="109"/>
+      <c r="Z32" s="100"/>
       <c r="AA32" s="8" t="s">
         <v>59</v>
       </c>
       <c r="AB32" s="7"/>
-      <c r="AC32" s="96" t="s">
+      <c r="AC32" s="87" t="s">
         <v>335</v>
       </c>
-      <c r="AD32" s="21">
+      <c r="AD32" s="19">
         <v>1899</v>
       </c>
-      <c r="AE32" s="104" t="s">
+      <c r="AE32" s="95" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="33" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="37">
+    <row r="33" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="34">
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -4904,47 +4882,47 @@
         <v>379</v>
       </c>
       <c r="I33" s="1"/>
-      <c r="J33" s="90" t="s">
+      <c r="J33" s="81" t="s">
         <v>460</v>
       </c>
-      <c r="K33" s="90" t="s">
+      <c r="K33" s="81" t="s">
         <v>432</v>
       </c>
       <c r="L33" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="M33" s="78" t="s">
+      <c r="M33" s="70" t="s">
         <v>407</v>
       </c>
-      <c r="N33" s="17" t="s">
+      <c r="N33" s="70" t="s">
         <v>408</v>
       </c>
       <c r="O33" s="14"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="25"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="23"/>
       <c r="T33" s="14"/>
       <c r="U33" s="15"/>
-      <c r="V33" s="113"/>
+      <c r="V33" s="104"/>
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
-      <c r="Z33" s="109"/>
+      <c r="Z33" s="100"/>
       <c r="AA33" s="4"/>
       <c r="AB33" s="7"/>
-      <c r="AC33" s="96" t="s">
+      <c r="AC33" s="87" t="s">
         <v>378</v>
       </c>
-      <c r="AD33" s="21">
+      <c r="AD33" s="19">
         <v>1900</v>
       </c>
-      <c r="AE33" s="104" t="s">
+      <c r="AE33" s="95" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="34" spans="1:31" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="37">
+    <row r="34" spans="1:31" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="34">
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -4969,47 +4947,47 @@
         <v>379</v>
       </c>
       <c r="I34" s="1"/>
-      <c r="J34" s="90" t="s">
+      <c r="J34" s="81" t="s">
         <v>416</v>
       </c>
-      <c r="K34" s="90" t="s">
+      <c r="K34" s="81" t="s">
         <v>417</v>
       </c>
       <c r="L34" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M34" s="78" t="s">
+      <c r="M34" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="N34" s="17" t="s">
+      <c r="N34" s="70" t="s">
         <v>121</v>
       </c>
       <c r="O34" s="14"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="25"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="23"/>
       <c r="T34" s="14"/>
       <c r="U34" s="15"/>
-      <c r="V34" s="113"/>
+      <c r="V34" s="104"/>
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
       <c r="Y34" s="7"/>
-      <c r="Z34" s="109"/>
+      <c r="Z34" s="100"/>
       <c r="AA34" s="4"/>
       <c r="AB34" s="7"/>
-      <c r="AC34" s="74" t="s">
+      <c r="AC34" s="69" t="s">
         <v>348</v>
       </c>
-      <c r="AD34" s="21">
+      <c r="AD34" s="19">
         <v>1912</v>
       </c>
-      <c r="AE34" s="104" t="s">
+      <c r="AE34" s="95" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="37">
+    <row r="35" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="34">
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -5034,47 +5012,47 @@
         <v>379</v>
       </c>
       <c r="I35" s="1"/>
-      <c r="J35" s="90" t="s">
+      <c r="J35" s="81" t="s">
         <v>416</v>
       </c>
-      <c r="K35" s="90" t="s">
+      <c r="K35" s="81" t="s">
         <v>417</v>
       </c>
       <c r="L35" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M35" s="78" t="s">
+      <c r="M35" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="N35" s="17" t="s">
+      <c r="N35" s="70" t="s">
         <v>123</v>
       </c>
       <c r="O35" s="14"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="25"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="23"/>
       <c r="T35" s="14"/>
       <c r="U35" s="15"/>
-      <c r="V35" s="113"/>
+      <c r="V35" s="104"/>
       <c r="W35" s="7"/>
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
-      <c r="Z35" s="109"/>
+      <c r="Z35" s="100"/>
       <c r="AA35" s="4"/>
       <c r="AB35" s="7"/>
-      <c r="AC35" s="96" t="s">
+      <c r="AC35" s="87" t="s">
         <v>349</v>
       </c>
-      <c r="AD35" s="21">
+      <c r="AD35" s="19">
         <v>1919</v>
       </c>
-      <c r="AE35" s="104" t="s">
+      <c r="AE35" s="95" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="37">
+    <row r="36" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="34">
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -5101,33 +5079,33 @@
       <c r="I36" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="J36" s="90" t="s">
+      <c r="J36" s="81" t="s">
         <v>433</v>
       </c>
-      <c r="K36" s="90" t="s">
+      <c r="K36" s="81" t="s">
         <v>434</v>
       </c>
       <c r="L36" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="M36" s="78" t="s">
+      <c r="M36" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="N36" s="17" t="s">
+      <c r="N36" s="70" t="s">
         <v>76</v>
       </c>
       <c r="O36" s="14"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="25"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="23"/>
       <c r="T36" s="14"/>
       <c r="U36" s="15"/>
-      <c r="V36" s="113"/>
+      <c r="V36" s="104"/>
       <c r="W36" s="7"/>
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
-      <c r="Z36" s="109"/>
+      <c r="Z36" s="100"/>
       <c r="AA36" s="4" t="s">
         <v>77</v>
       </c>
@@ -5135,15 +5113,15 @@
       <c r="AC36" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AD36" s="21">
+      <c r="AD36" s="19">
         <v>1921</v>
       </c>
-      <c r="AE36" s="104" t="s">
+      <c r="AE36" s="95" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="37" spans="1:31" s="37" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="37">
+    <row r="37" spans="1:31" s="34" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="34">
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -5170,33 +5148,33 @@
       <c r="I37" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="J37" s="90" t="s">
+      <c r="J37" s="81" t="s">
         <v>433</v>
       </c>
-      <c r="K37" s="90" t="s">
+      <c r="K37" s="81" t="s">
         <v>434</v>
       </c>
       <c r="L37" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="M37" s="78" t="s">
+      <c r="M37" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="N37" s="17" t="s">
+      <c r="N37" s="70" t="s">
         <v>78</v>
       </c>
       <c r="O37" s="14"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="25"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="23"/>
       <c r="T37" s="14"/>
       <c r="U37" s="15"/>
-      <c r="V37" s="113"/>
+      <c r="V37" s="104"/>
       <c r="W37" s="7"/>
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
-      <c r="Z37" s="109"/>
+      <c r="Z37" s="100"/>
       <c r="AA37" s="4" t="s">
         <v>77</v>
       </c>
@@ -5204,15 +5182,15 @@
       <c r="AC37" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AD37" s="21">
+      <c r="AD37" s="19">
         <v>1921</v>
       </c>
-      <c r="AE37" s="104" t="s">
+      <c r="AE37" s="95" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="38" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="37">
+    <row r="38" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="34">
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -5239,33 +5217,33 @@
       <c r="I38" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="J38" s="90" t="s">
+      <c r="J38" s="81" t="s">
         <v>433</v>
       </c>
-      <c r="K38" s="90" t="s">
+      <c r="K38" s="81" t="s">
         <v>434</v>
       </c>
       <c r="L38" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="M38" s="78" t="s">
+      <c r="M38" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="N38" s="17" t="s">
+      <c r="N38" s="70" t="s">
         <v>79</v>
       </c>
       <c r="O38" s="14"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="25"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="23"/>
       <c r="T38" s="14"/>
       <c r="U38" s="15"/>
-      <c r="V38" s="113"/>
+      <c r="V38" s="104"/>
       <c r="W38" s="7"/>
       <c r="X38" s="7"/>
       <c r="Y38" s="7"/>
-      <c r="Z38" s="109"/>
+      <c r="Z38" s="100"/>
       <c r="AA38" s="4" t="s">
         <v>77</v>
       </c>
@@ -5273,15 +5251,15 @@
       <c r="AC38" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AD38" s="21">
+      <c r="AD38" s="19">
         <v>1921</v>
       </c>
-      <c r="AE38" s="104" t="s">
+      <c r="AE38" s="95" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="39" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="37">
+    <row r="39" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="34">
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -5306,47 +5284,47 @@
         <v>379</v>
       </c>
       <c r="I39" s="1"/>
-      <c r="J39" s="90" t="s">
+      <c r="J39" s="81" t="s">
         <v>416</v>
       </c>
-      <c r="K39" s="90" t="s">
+      <c r="K39" s="81" t="s">
         <v>417</v>
       </c>
       <c r="L39" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M39" s="78" t="s">
+      <c r="M39" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="N39" s="17" t="s">
+      <c r="N39" s="70" t="s">
         <v>125</v>
       </c>
       <c r="O39" s="14"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="25"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="23"/>
       <c r="T39" s="14"/>
       <c r="U39" s="15"/>
-      <c r="V39" s="113"/>
+      <c r="V39" s="104"/>
       <c r="W39" s="7"/>
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
-      <c r="Z39" s="109"/>
+      <c r="Z39" s="100"/>
       <c r="AA39" s="4"/>
       <c r="AB39" s="7"/>
-      <c r="AC39" s="74" t="s">
+      <c r="AC39" s="69" t="s">
         <v>350</v>
       </c>
-      <c r="AD39" s="21">
+      <c r="AD39" s="19">
         <v>1922</v>
       </c>
-      <c r="AE39" s="104" t="s">
+      <c r="AE39" s="95" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="37">
+    <row r="40" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="34">
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -5371,116 +5349,116 @@
         <v>379</v>
       </c>
       <c r="I40" s="1"/>
-      <c r="J40" s="90" t="s">
+      <c r="J40" s="81" t="s">
         <v>461</v>
       </c>
-      <c r="K40" s="90" t="s">
+      <c r="K40" s="81" t="s">
         <v>423</v>
       </c>
       <c r="L40" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="M40" s="78" t="s">
+      <c r="M40" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="N40" s="78" t="s">
+      <c r="N40" s="70" t="s">
         <v>148</v>
       </c>
       <c r="O40" s="14"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="20"/>
-      <c r="S40" s="25"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="23"/>
       <c r="T40" s="14"/>
       <c r="U40" s="15"/>
-      <c r="V40" s="113"/>
+      <c r="V40" s="104"/>
       <c r="W40" s="7"/>
       <c r="X40" s="7"/>
       <c r="Y40" s="7"/>
-      <c r="Z40" s="109"/>
+      <c r="Z40" s="100"/>
       <c r="AA40" s="8" t="s">
         <v>149</v>
       </c>
       <c r="AB40" s="7"/>
-      <c r="AC40" s="74" t="s">
+      <c r="AC40" s="69" t="s">
         <v>355</v>
       </c>
-      <c r="AD40" s="84" t="s">
+      <c r="AD40" s="75" t="s">
         <v>150</v>
       </c>
-      <c r="AE40" s="104" t="s">
+      <c r="AE40" s="95" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="37">
+    <row r="41" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="34">
         <v>40</v>
       </c>
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="66" t="s">
         <v>262</v>
       </c>
-      <c r="C41" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="F41" s="44" t="s">
+      <c r="C41" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="41" t="s">
         <v>263</v>
       </c>
-      <c r="G41" s="42" t="s">
+      <c r="G41" s="39" t="s">
         <v>24</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="I41" s="42"/>
-      <c r="J41" s="92" t="s">
+      <c r="I41" s="39"/>
+      <c r="J41" s="83" t="s">
         <v>467</v>
       </c>
-      <c r="K41" s="92" t="s">
+      <c r="K41" s="83" t="s">
         <v>435</v>
       </c>
-      <c r="L41" s="71" t="s">
+      <c r="L41" s="66" t="s">
         <v>264</v>
       </c>
-      <c r="M41" s="79" t="s">
+      <c r="M41" s="71" t="s">
         <v>265</v>
       </c>
-      <c r="N41" s="45" t="s">
+      <c r="N41" s="71" t="s">
         <v>265</v>
       </c>
-      <c r="O41" s="47"/>
-      <c r="P41" s="48"/>
-      <c r="Q41" s="48"/>
-      <c r="R41" s="48"/>
-      <c r="S41" s="49">
+      <c r="O41" s="43"/>
+      <c r="P41" s="44"/>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="44"/>
+      <c r="S41" s="45">
         <v>20000</v>
       </c>
-      <c r="T41" s="47"/>
-      <c r="U41" s="50"/>
-      <c r="V41" s="115"/>
-      <c r="W41" s="46"/>
-      <c r="X41" s="46"/>
-      <c r="Y41" s="46"/>
-      <c r="Z41" s="44"/>
-      <c r="AA41" s="44" t="s">
+      <c r="T41" s="43"/>
+      <c r="U41" s="46"/>
+      <c r="V41" s="106"/>
+      <c r="W41" s="42"/>
+      <c r="X41" s="42"/>
+      <c r="Y41" s="42"/>
+      <c r="Z41" s="41"/>
+      <c r="AA41" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="AB41" s="46"/>
-      <c r="AC41" s="100"/>
-      <c r="AD41" s="51">
+      <c r="AB41" s="42"/>
+      <c r="AC41" s="91"/>
+      <c r="AD41" s="47">
         <v>1983</v>
       </c>
-      <c r="AE41" s="101" t="s">
+      <c r="AE41" s="92" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="42" spans="1:31" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="37">
+    <row r="42" spans="1:31" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="34">
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -5505,45 +5483,45 @@
         <v>379</v>
       </c>
       <c r="I42" s="1"/>
-      <c r="J42" s="90" t="s">
+      <c r="J42" s="81" t="s">
         <v>468</v>
       </c>
-      <c r="K42" s="90" t="s">
+      <c r="K42" s="81" t="s">
         <v>436</v>
       </c>
       <c r="L42" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="M42" s="78" t="s">
+      <c r="M42" s="70" t="s">
         <v>226</v>
       </c>
-      <c r="N42" s="17" t="s">
+      <c r="N42" s="70" t="s">
         <v>226</v>
       </c>
       <c r="O42" s="14"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="25"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="23"/>
       <c r="T42" s="14"/>
       <c r="U42" s="15"/>
-      <c r="V42" s="113"/>
+      <c r="V42" s="104"/>
       <c r="W42" s="7"/>
       <c r="X42" s="7"/>
       <c r="Y42" s="7"/>
-      <c r="Z42" s="109"/>
+      <c r="Z42" s="100"/>
       <c r="AA42" s="4"/>
       <c r="AB42" s="7"/>
       <c r="AC42" s="4"/>
-      <c r="AD42" s="21">
+      <c r="AD42" s="19">
         <v>1977</v>
       </c>
-      <c r="AE42" s="104" t="s">
+      <c r="AE42" s="95" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="37">
+    <row r="43" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="34">
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -5568,47 +5546,47 @@
         <v>379</v>
       </c>
       <c r="I43" s="1"/>
-      <c r="J43" s="90" t="s">
+      <c r="J43" s="81" t="s">
         <v>433</v>
       </c>
-      <c r="K43" s="90" t="s">
+      <c r="K43" s="81" t="s">
         <v>434</v>
       </c>
       <c r="L43" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="M43" s="87" t="s">
+      <c r="M43" s="78" t="s">
         <v>283</v>
       </c>
-      <c r="N43" s="76" t="s">
+      <c r="N43" s="78" t="s">
         <v>283</v>
       </c>
       <c r="O43" s="14"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="25"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="23"/>
       <c r="T43" s="14"/>
       <c r="U43" s="15"/>
-      <c r="V43" s="113"/>
+      <c r="V43" s="104"/>
       <c r="W43" s="7"/>
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
-      <c r="Z43" s="109"/>
+      <c r="Z43" s="100"/>
       <c r="AA43" s="4"/>
       <c r="AB43" s="7"/>
       <c r="AC43" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="AD43" s="21">
+      <c r="AD43" s="19">
         <v>1929</v>
       </c>
-      <c r="AE43" s="104" t="s">
+      <c r="AE43" s="95" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="44" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="37">
+    <row r="44" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="34">
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -5633,45 +5611,45 @@
         <v>379</v>
       </c>
       <c r="I44" s="1"/>
-      <c r="J44" s="90" t="s">
+      <c r="J44" s="81" t="s">
         <v>416</v>
       </c>
-      <c r="K44" s="90" t="s">
+      <c r="K44" s="81" t="s">
         <v>417</v>
       </c>
       <c r="L44" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M44" s="78" t="s">
+      <c r="M44" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="N44" s="18" t="s">
+      <c r="N44" s="27" t="s">
         <v>128</v>
       </c>
       <c r="O44" s="14"/>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="20"/>
-      <c r="S44" s="25"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="18"/>
+      <c r="S44" s="23"/>
       <c r="T44" s="14"/>
       <c r="U44" s="15"/>
-      <c r="V44" s="113"/>
+      <c r="V44" s="104"/>
       <c r="W44" s="7"/>
       <c r="X44" s="7"/>
       <c r="Y44" s="7"/>
-      <c r="Z44" s="109"/>
+      <c r="Z44" s="100"/>
       <c r="AA44" s="4"/>
       <c r="AB44" s="7"/>
-      <c r="AC44" s="95"/>
-      <c r="AD44" s="21">
+      <c r="AC44" s="86"/>
+      <c r="AD44" s="19">
         <v>1931</v>
       </c>
-      <c r="AE44" s="104" t="s">
+      <c r="AE44" s="95" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="37">
+    <row r="45" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="34">
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -5696,47 +5674,47 @@
         <v>379</v>
       </c>
       <c r="I45" s="1"/>
-      <c r="J45" s="90" t="s">
+      <c r="J45" s="81" t="s">
         <v>437</v>
       </c>
-      <c r="K45" s="90" t="s">
+      <c r="K45" s="81" t="s">
         <v>487</v>
       </c>
       <c r="L45" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M45" s="78" t="s">
+      <c r="M45" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="N45" s="17" t="s">
+      <c r="N45" s="70" t="s">
         <v>111</v>
       </c>
       <c r="O45" s="14"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="20"/>
-      <c r="S45" s="25"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="18"/>
+      <c r="S45" s="23"/>
       <c r="T45" s="14"/>
       <c r="U45" s="15"/>
-      <c r="V45" s="113"/>
+      <c r="V45" s="104"/>
       <c r="W45" s="7"/>
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
-      <c r="Z45" s="109"/>
+      <c r="Z45" s="100"/>
       <c r="AA45" s="4"/>
       <c r="AB45" s="7"/>
-      <c r="AC45" s="74" t="s">
+      <c r="AC45" s="69" t="s">
         <v>346</v>
       </c>
-      <c r="AD45" s="21">
+      <c r="AD45" s="19">
         <v>1931</v>
       </c>
-      <c r="AE45" s="104" t="s">
+      <c r="AE45" s="95" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="37">
+    <row r="46" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="34">
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -5761,45 +5739,45 @@
         <v>379</v>
       </c>
       <c r="I46" s="1"/>
-      <c r="J46" s="90" t="s">
+      <c r="J46" s="81" t="s">
         <v>416</v>
       </c>
-      <c r="K46" s="90" t="s">
+      <c r="K46" s="81" t="s">
         <v>417</v>
       </c>
       <c r="L46" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M46" s="78" t="s">
+      <c r="M46" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="N46" s="18" t="s">
+      <c r="N46" s="27" t="s">
         <v>130</v>
       </c>
       <c r="O46" s="14"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="20"/>
-      <c r="S46" s="25"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="18"/>
+      <c r="S46" s="23"/>
       <c r="T46" s="14"/>
       <c r="U46" s="15"/>
-      <c r="V46" s="113"/>
+      <c r="V46" s="104"/>
       <c r="W46" s="7"/>
       <c r="X46" s="7"/>
       <c r="Y46" s="7"/>
-      <c r="Z46" s="109"/>
+      <c r="Z46" s="100"/>
       <c r="AA46" s="4"/>
       <c r="AB46" s="7"/>
-      <c r="AC46" s="95"/>
-      <c r="AD46" s="21">
+      <c r="AC46" s="86"/>
+      <c r="AD46" s="19">
         <v>1934</v>
       </c>
-      <c r="AE46" s="104" t="s">
+      <c r="AE46" s="95" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="37">
+    <row r="47" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="34">
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -5824,47 +5802,47 @@
         <v>379</v>
       </c>
       <c r="I47" s="1"/>
-      <c r="J47" s="90" t="s">
+      <c r="J47" s="81" t="s">
         <v>465</v>
       </c>
-      <c r="K47" s="90" t="s">
+      <c r="K47" s="81" t="s">
         <v>477</v>
       </c>
       <c r="L47" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="M47" s="78" t="s">
+      <c r="M47" s="70" t="s">
         <v>291</v>
       </c>
-      <c r="N47" s="17" t="s">
+      <c r="N47" s="70" t="s">
         <v>291</v>
       </c>
       <c r="O47" s="14"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="20"/>
-      <c r="S47" s="25"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="18"/>
+      <c r="S47" s="23"/>
       <c r="T47" s="14"/>
       <c r="U47" s="15"/>
-      <c r="V47" s="113"/>
+      <c r="V47" s="104"/>
       <c r="W47" s="7"/>
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
-      <c r="Z47" s="109"/>
+      <c r="Z47" s="100"/>
       <c r="AA47" s="4" t="s">
         <v>292</v>
       </c>
       <c r="AB47" s="7"/>
       <c r="AC47" s="4"/>
-      <c r="AD47" s="21">
+      <c r="AD47" s="19">
         <v>1935</v>
       </c>
-      <c r="AE47" s="104" t="s">
+      <c r="AE47" s="95" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="48" spans="1:31" s="52" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="37">
+    <row r="48" spans="1:31" s="48" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="34">
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -5889,49 +5867,49 @@
         <v>379</v>
       </c>
       <c r="I48" s="1"/>
-      <c r="J48" s="90" t="s">
+      <c r="J48" s="81" t="s">
         <v>418</v>
       </c>
-      <c r="K48" s="90" t="s">
+      <c r="K48" s="81" t="s">
         <v>419</v>
       </c>
       <c r="L48" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="M48" s="78" t="s">
+      <c r="M48" s="70" t="s">
         <v>197</v>
       </c>
-      <c r="N48" s="17" t="s">
+      <c r="N48" s="70" t="s">
         <v>197</v>
       </c>
       <c r="O48" s="14"/>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="20"/>
-      <c r="S48" s="25"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="18"/>
+      <c r="S48" s="23"/>
       <c r="T48" s="14"/>
       <c r="U48" s="15"/>
-      <c r="V48" s="113"/>
+      <c r="V48" s="104"/>
       <c r="W48" s="7"/>
       <c r="X48" s="7"/>
       <c r="Y48" s="7"/>
-      <c r="Z48" s="109"/>
+      <c r="Z48" s="100"/>
       <c r="AA48" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AB48" s="7"/>
-      <c r="AC48" s="74" t="s">
+      <c r="AC48" s="69" t="s">
         <v>365</v>
       </c>
-      <c r="AD48" s="21">
+      <c r="AD48" s="19">
         <v>1950</v>
       </c>
-      <c r="AE48" s="104" t="s">
+      <c r="AE48" s="95" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="49" spans="1:31" s="37" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="37">
+    <row r="49" spans="1:31" s="34" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="34">
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -5956,57 +5934,57 @@
         <v>379</v>
       </c>
       <c r="I49" s="1"/>
-      <c r="J49" s="90" t="s">
+      <c r="J49" s="81" t="s">
         <v>416</v>
       </c>
-      <c r="K49" s="90" t="s">
+      <c r="K49" s="81" t="s">
         <v>417</v>
       </c>
       <c r="L49" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M49" s="78" t="s">
+      <c r="M49" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="N49" s="18" t="s">
+      <c r="N49" s="27" t="s">
         <v>133</v>
       </c>
       <c r="O49" s="14">
         <v>840000</v>
       </c>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="19"/>
-      <c r="S49" s="25">
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="23">
         <v>840000</v>
       </c>
       <c r="T49" s="14"/>
-      <c r="U49" s="64"/>
-      <c r="V49" s="114"/>
-      <c r="W49" s="59">
+      <c r="U49" s="59"/>
+      <c r="V49" s="105"/>
+      <c r="W49" s="54">
         <v>22.5</v>
       </c>
-      <c r="X49" s="59"/>
-      <c r="Y49" s="59"/>
-      <c r="Z49" s="110" t="s">
+      <c r="X49" s="54"/>
+      <c r="Y49" s="54"/>
+      <c r="Z49" s="101" t="s">
         <v>134</v>
       </c>
       <c r="AA49" s="8" t="s">
         <v>135</v>
       </c>
       <c r="AB49" s="7"/>
-      <c r="AC49" s="74" t="s">
+      <c r="AC49" s="69" t="s">
         <v>351</v>
       </c>
-      <c r="AD49" s="21">
+      <c r="AD49" s="19">
         <v>1943</v>
       </c>
-      <c r="AE49" s="104" t="s">
+      <c r="AE49" s="95" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="50" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="37">
+    <row r="50" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="34">
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -6033,47 +6011,47 @@
       <c r="I50" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J50" s="90" t="s">
+      <c r="J50" s="81" t="s">
         <v>438</v>
       </c>
-      <c r="K50" s="90" t="s">
+      <c r="K50" s="81" t="s">
         <v>480</v>
       </c>
       <c r="L50" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="M50" s="78" t="s">
+      <c r="M50" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="N50" s="17" t="s">
+      <c r="N50" s="70" t="s">
         <v>64</v>
       </c>
       <c r="O50" s="14"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="20"/>
-      <c r="S50" s="25"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="23"/>
       <c r="T50" s="14"/>
       <c r="U50" s="15"/>
-      <c r="V50" s="113"/>
+      <c r="V50" s="104"/>
       <c r="W50" s="7"/>
       <c r="X50" s="7"/>
       <c r="Y50" s="7"/>
-      <c r="Z50" s="109"/>
+      <c r="Z50" s="100"/>
       <c r="AA50" s="4"/>
       <c r="AB50" s="7"/>
-      <c r="AC50" s="95" t="s">
+      <c r="AC50" s="86" t="s">
         <v>286</v>
       </c>
-      <c r="AD50" s="21">
+      <c r="AD50" s="19">
         <v>1944</v>
       </c>
-      <c r="AE50" s="104" t="s">
+      <c r="AE50" s="95" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="51" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="37">
+    <row r="51" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="34">
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -6098,49 +6076,49 @@
         <v>379</v>
       </c>
       <c r="I51" s="1"/>
-      <c r="J51" s="90" t="s">
+      <c r="J51" s="81" t="s">
         <v>416</v>
       </c>
-      <c r="K51" s="90" t="s">
+      <c r="K51" s="81" t="s">
         <v>417</v>
       </c>
       <c r="L51" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M51" s="78" t="s">
+      <c r="M51" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="N51" s="17" t="s">
+      <c r="N51" s="70" t="s">
         <v>136</v>
       </c>
       <c r="O51" s="14"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="20"/>
-      <c r="S51" s="25">
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="23">
         <v>850000</v>
       </c>
       <c r="T51" s="14"/>
       <c r="U51" s="15"/>
-      <c r="V51" s="113"/>
+      <c r="V51" s="104"/>
       <c r="W51" s="7"/>
       <c r="X51" s="7"/>
       <c r="Y51" s="7"/>
-      <c r="Z51" s="109"/>
+      <c r="Z51" s="100"/>
       <c r="AA51" s="4" t="s">
         <v>320</v>
       </c>
       <c r="AB51" s="7"/>
-      <c r="AC51" s="74" t="s">
+      <c r="AC51" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="AD51" s="21"/>
-      <c r="AE51" s="104" t="s">
+      <c r="AD51" s="19"/>
+      <c r="AE51" s="95" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="37">
+    <row r="52" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="34">
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -6167,31 +6145,31 @@
       <c r="I52" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="J52" s="90" t="s">
+      <c r="J52" s="81" t="s">
         <v>469</v>
       </c>
-      <c r="K52" s="90" t="s">
+      <c r="K52" s="81" t="s">
         <v>439</v>
       </c>
       <c r="L52" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="M52" s="88" t="s">
+      <c r="M52" s="79" t="s">
         <v>289</v>
       </c>
-      <c r="N52" s="75" t="s">
+      <c r="N52" s="79" t="s">
         <v>289</v>
       </c>
       <c r="O52" s="14"/>
-      <c r="P52" s="19"/>
-      <c r="Q52" s="19"/>
-      <c r="R52" s="20"/>
-      <c r="S52" s="25">
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
+      <c r="R52" s="18"/>
+      <c r="S52" s="23">
         <v>1600000</v>
       </c>
       <c r="T52" s="14"/>
       <c r="U52" s="15"/>
-      <c r="V52" s="113"/>
+      <c r="V52" s="104"/>
       <c r="W52" s="7">
         <v>400</v>
       </c>
@@ -6201,25 +6179,25 @@
       <c r="Y52" s="7">
         <v>454</v>
       </c>
-      <c r="Z52" s="109" t="s">
+      <c r="Z52" s="100" t="s">
         <v>288</v>
       </c>
-      <c r="AA52" s="74" t="s">
+      <c r="AA52" s="69" t="s">
         <v>319</v>
       </c>
       <c r="AB52" s="7"/>
-      <c r="AC52" s="74" t="s">
+      <c r="AC52" s="69" t="s">
         <v>338</v>
       </c>
-      <c r="AD52" s="21">
+      <c r="AD52" s="19">
         <v>1944</v>
       </c>
-      <c r="AE52" s="73" t="s">
+      <c r="AE52" s="68" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="53" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="37">
+    <row r="53" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="34">
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -6246,45 +6224,45 @@
       <c r="I53" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J53" s="90" t="s">
+      <c r="J53" s="81" t="s">
         <v>465</v>
       </c>
-      <c r="K53" s="90" t="s">
+      <c r="K53" s="81" t="s">
         <v>477</v>
       </c>
       <c r="L53" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="M53" s="78" t="s">
+      <c r="M53" s="70" t="s">
         <v>293</v>
       </c>
-      <c r="N53" s="17" t="s">
+      <c r="N53" s="70" t="s">
         <v>293</v>
       </c>
       <c r="O53" s="14"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
-      <c r="R53" s="20"/>
-      <c r="S53" s="25"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="18"/>
+      <c r="S53" s="23"/>
       <c r="T53" s="14"/>
       <c r="U53" s="15"/>
-      <c r="V53" s="113"/>
+      <c r="V53" s="104"/>
       <c r="W53" s="7"/>
       <c r="X53" s="7"/>
       <c r="Y53" s="7"/>
-      <c r="Z53" s="109"/>
+      <c r="Z53" s="100"/>
       <c r="AA53" s="4"/>
       <c r="AB53" s="7"/>
       <c r="AC53" s="4"/>
-      <c r="AD53" s="21">
+      <c r="AD53" s="19">
         <v>1948</v>
       </c>
-      <c r="AE53" s="104" t="s">
+      <c r="AE53" s="95" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="54" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="37">
+    <row r="54" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="34">
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -6309,51 +6287,51 @@
         <v>379</v>
       </c>
       <c r="I54" s="1"/>
-      <c r="J54" s="90" t="s">
+      <c r="J54" s="81" t="s">
         <v>463</v>
       </c>
-      <c r="K54" s="90" t="s">
+      <c r="K54" s="81" t="s">
         <v>428</v>
       </c>
       <c r="L54" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="M54" s="78" t="s">
+      <c r="M54" s="70" t="s">
         <v>173</v>
       </c>
-      <c r="N54" s="78" t="s">
+      <c r="N54" s="70" t="s">
         <v>173</v>
       </c>
       <c r="O54" s="14"/>
-      <c r="P54" s="19"/>
-      <c r="Q54" s="19"/>
-      <c r="R54" s="20"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
+      <c r="R54" s="18"/>
       <c r="S54" s="14">
         <v>135000</v>
       </c>
       <c r="T54" s="14"/>
       <c r="U54" s="15"/>
-      <c r="V54" s="113"/>
+      <c r="V54" s="104"/>
       <c r="W54" s="7">
         <v>74.599999999999994</v>
       </c>
       <c r="X54" s="7"/>
       <c r="Y54" s="7"/>
-      <c r="Z54" s="109"/>
-      <c r="AA54" s="95" t="s">
+      <c r="Z54" s="100"/>
+      <c r="AA54" s="86" t="s">
         <v>389</v>
       </c>
       <c r="AB54" s="7"/>
-      <c r="AC54" s="95"/>
-      <c r="AD54" s="21">
+      <c r="AC54" s="86"/>
+      <c r="AD54" s="19">
         <v>1951</v>
       </c>
-      <c r="AE54" s="104" t="s">
+      <c r="AE54" s="95" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="55" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="37">
+    <row r="55" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="34">
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -6380,53 +6358,53 @@
       <c r="I55" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J55" s="90" t="s">
+      <c r="J55" s="81" t="s">
         <v>469</v>
       </c>
-      <c r="K55" s="90" t="s">
+      <c r="K55" s="81" t="s">
         <v>439</v>
       </c>
       <c r="L55" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="M55" s="78" t="s">
+      <c r="M55" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="N55" s="17" t="s">
+      <c r="N55" s="70" t="s">
         <v>72</v>
       </c>
       <c r="O55" s="14"/>
-      <c r="P55" s="19"/>
-      <c r="Q55" s="19"/>
-      <c r="R55" s="20"/>
-      <c r="S55" s="25">
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="18"/>
+      <c r="S55" s="23">
         <v>255000</v>
       </c>
       <c r="T55" s="14"/>
       <c r="U55" s="15"/>
-      <c r="V55" s="113"/>
+      <c r="V55" s="104"/>
       <c r="W55" s="7">
         <v>230</v>
       </c>
       <c r="X55" s="7"/>
       <c r="Y55" s="7"/>
-      <c r="Z55" s="109" t="s">
+      <c r="Z55" s="100" t="s">
         <v>288</v>
       </c>
-      <c r="AA55" s="95"/>
+      <c r="AA55" s="86"/>
       <c r="AB55" s="7"/>
-      <c r="AC55" s="96" t="s">
+      <c r="AC55" s="87" t="s">
         <v>339</v>
       </c>
-      <c r="AD55" s="21">
+      <c r="AD55" s="19">
         <v>2003</v>
       </c>
-      <c r="AE55" s="104" t="s">
+      <c r="AE55" s="95" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="56" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="37">
+    <row r="56" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="34">
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -6451,47 +6429,47 @@
         <v>379</v>
       </c>
       <c r="I56" s="1"/>
-      <c r="J56" s="90" t="s">
+      <c r="J56" s="81" t="s">
         <v>470</v>
       </c>
-      <c r="K56" s="90" t="s">
+      <c r="K56" s="81" t="s">
         <v>481</v>
       </c>
       <c r="L56" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="M56" s="78" t="s">
+      <c r="M56" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="N56" s="78" t="s">
+      <c r="N56" s="70" t="s">
         <v>28</v>
       </c>
       <c r="O56" s="14"/>
-      <c r="P56" s="19"/>
-      <c r="Q56" s="19"/>
-      <c r="R56" s="20"/>
-      <c r="S56" s="25"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
+      <c r="R56" s="18"/>
+      <c r="S56" s="23"/>
       <c r="T56" s="14"/>
       <c r="U56" s="15"/>
-      <c r="V56" s="113"/>
+      <c r="V56" s="104"/>
       <c r="W56" s="7"/>
       <c r="X56" s="7"/>
       <c r="Y56" s="7"/>
-      <c r="Z56" s="109"/>
+      <c r="Z56" s="100"/>
       <c r="AA56" s="4" t="s">
         <v>380</v>
       </c>
       <c r="AB56" s="7"/>
-      <c r="AC56" s="96" t="s">
+      <c r="AC56" s="87" t="s">
         <v>330</v>
       </c>
-      <c r="AD56" s="21"/>
-      <c r="AE56" s="104" t="s">
+      <c r="AD56" s="19"/>
+      <c r="AE56" s="95" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="37">
+    <row r="57" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="34">
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -6516,53 +6494,53 @@
         <v>379</v>
       </c>
       <c r="I57" s="1"/>
-      <c r="J57" s="90" t="s">
+      <c r="J57" s="81" t="s">
         <v>416</v>
       </c>
-      <c r="K57" s="90" t="s">
+      <c r="K57" s="81" t="s">
         <v>417</v>
       </c>
       <c r="L57" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M57" s="78" t="s">
+      <c r="M57" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="N57" s="18" t="s">
+      <c r="N57" s="27" t="s">
         <v>139</v>
       </c>
       <c r="O57" s="14">
         <v>840000</v>
       </c>
-      <c r="P57" s="19"/>
-      <c r="Q57" s="19"/>
-      <c r="R57" s="20"/>
-      <c r="S57" s="25"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="18"/>
+      <c r="S57" s="23"/>
       <c r="T57" s="14"/>
       <c r="U57" s="15"/>
-      <c r="V57" s="113"/>
+      <c r="V57" s="104"/>
       <c r="W57" s="7">
         <v>25</v>
       </c>
       <c r="X57" s="7"/>
       <c r="Y57" s="7"/>
-      <c r="Z57" s="109"/>
+      <c r="Z57" s="100"/>
       <c r="AA57" s="4" t="s">
         <v>140</v>
       </c>
       <c r="AB57" s="7"/>
-      <c r="AC57" s="96" t="s">
+      <c r="AC57" s="87" t="s">
         <v>353</v>
       </c>
-      <c r="AD57" s="21">
+      <c r="AD57" s="19">
         <v>1961</v>
       </c>
-      <c r="AE57" s="104" t="s">
+      <c r="AE57" s="95" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="37">
+    <row r="58" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="34">
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -6587,49 +6565,49 @@
         <v>379</v>
       </c>
       <c r="I58" s="1"/>
-      <c r="J58" s="90" t="s">
+      <c r="J58" s="81" t="s">
         <v>461</v>
       </c>
-      <c r="K58" s="90" t="s">
+      <c r="K58" s="81" t="s">
         <v>423</v>
       </c>
       <c r="L58" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="M58" s="78" t="s">
+      <c r="M58" s="70" t="s">
         <v>152</v>
       </c>
-      <c r="N58" s="78" t="s">
+      <c r="N58" s="70" t="s">
         <v>152</v>
       </c>
       <c r="O58" s="14"/>
-      <c r="P58" s="19"/>
-      <c r="Q58" s="19"/>
-      <c r="R58" s="20"/>
-      <c r="S58" s="25"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
+      <c r="R58" s="18"/>
+      <c r="S58" s="23"/>
       <c r="T58" s="14"/>
       <c r="U58" s="15"/>
-      <c r="V58" s="113"/>
+      <c r="V58" s="104"/>
       <c r="W58" s="7"/>
       <c r="X58" s="7"/>
       <c r="Y58" s="7"/>
-      <c r="Z58" s="109"/>
+      <c r="Z58" s="100"/>
       <c r="AA58" s="8" t="s">
         <v>153</v>
       </c>
       <c r="AB58" s="7"/>
-      <c r="AC58" s="96" t="s">
+      <c r="AC58" s="87" t="s">
         <v>356</v>
       </c>
-      <c r="AD58" s="21">
+      <c r="AD58" s="19">
         <v>1983</v>
       </c>
-      <c r="AE58" s="104" t="s">
+      <c r="AE58" s="95" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="59" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="37">
+    <row r="59" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="34">
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
@@ -6654,49 +6632,49 @@
         <v>379</v>
       </c>
       <c r="I59" s="1"/>
-      <c r="J59" s="90" t="s">
+      <c r="J59" s="81" t="s">
         <v>429</v>
       </c>
-      <c r="K59" s="90" t="s">
+      <c r="K59" s="81" t="s">
         <v>456</v>
       </c>
       <c r="L59" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="M59" s="78" t="s">
+      <c r="M59" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="N59" s="18" t="s">
+      <c r="N59" s="27" t="s">
         <v>96</v>
       </c>
       <c r="O59" s="14"/>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="19"/>
-      <c r="R59" s="20"/>
-      <c r="S59" s="25"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
+      <c r="R59" s="18"/>
+      <c r="S59" s="23"/>
       <c r="T59" s="14"/>
       <c r="U59" s="15"/>
-      <c r="V59" s="113"/>
+      <c r="V59" s="104"/>
       <c r="W59" s="7"/>
       <c r="X59" s="7"/>
       <c r="Y59" s="7"/>
-      <c r="Z59" s="109"/>
+      <c r="Z59" s="100"/>
       <c r="AA59" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AB59" s="7"/>
-      <c r="AC59" s="74" t="s">
+      <c r="AC59" s="69" t="s">
         <v>343</v>
       </c>
-      <c r="AD59" s="21">
+      <c r="AD59" s="19">
         <v>2003</v>
       </c>
-      <c r="AE59" s="104" t="s">
+      <c r="AE59" s="95" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="37">
+    <row r="60" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="34">
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -6723,26 +6701,26 @@
       <c r="I60" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J60" s="90" t="s">
+      <c r="J60" s="81" t="s">
         <v>440</v>
       </c>
-      <c r="K60" s="90" t="s">
+      <c r="K60" s="81" t="s">
         <v>488</v>
       </c>
       <c r="L60" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M60" s="78" t="s">
+      <c r="M60" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="N60" s="78" t="s">
+      <c r="N60" s="70" t="s">
         <v>33</v>
       </c>
       <c r="O60" s="14"/>
-      <c r="P60" s="19"/>
-      <c r="Q60" s="19"/>
-      <c r="R60" s="20"/>
-      <c r="S60" s="27">
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
+      <c r="R60" s="18"/>
+      <c r="S60" s="25">
         <v>2250</v>
       </c>
       <c r="T60" s="15">
@@ -6751,29 +6729,29 @@
       <c r="U60" s="15">
         <v>2500</v>
       </c>
-      <c r="V60" s="113"/>
+      <c r="V60" s="104"/>
       <c r="W60" s="7">
         <v>2.4500000000000002</v>
       </c>
       <c r="X60" s="7"/>
       <c r="Y60" s="7"/>
-      <c r="Z60" s="109"/>
+      <c r="Z60" s="100"/>
       <c r="AA60" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AB60" s="7"/>
-      <c r="AC60" s="74" t="s">
+      <c r="AC60" s="69" t="s">
         <v>331</v>
       </c>
-      <c r="AD60" s="21">
+      <c r="AD60" s="19">
         <v>1983</v>
       </c>
-      <c r="AE60" s="104" t="s">
+      <c r="AE60" s="95" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="37">
+    <row r="61" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="34">
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
@@ -6798,45 +6776,45 @@
         <v>379</v>
       </c>
       <c r="I61" s="1"/>
-      <c r="J61" s="90" t="s">
+      <c r="J61" s="81" t="s">
         <v>441</v>
       </c>
-      <c r="K61" s="90" t="s">
+      <c r="K61" s="81" t="s">
         <v>442</v>
       </c>
       <c r="L61" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M61" s="78" t="s">
+      <c r="M61" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="N61" s="78" t="s">
+      <c r="N61" s="70" t="s">
         <v>26</v>
       </c>
       <c r="O61" s="14"/>
-      <c r="P61" s="19"/>
-      <c r="Q61" s="19"/>
-      <c r="R61" s="20"/>
-      <c r="S61" s="25"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
+      <c r="R61" s="18"/>
+      <c r="S61" s="23"/>
       <c r="T61" s="14"/>
       <c r="U61" s="14"/>
-      <c r="V61" s="113"/>
+      <c r="V61" s="104"/>
       <c r="W61" s="7"/>
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
-      <c r="Z61" s="109"/>
+      <c r="Z61" s="100"/>
       <c r="AA61" s="4"/>
       <c r="AB61" s="7"/>
-      <c r="AC61" s="95"/>
-      <c r="AD61" s="21">
+      <c r="AC61" s="86"/>
+      <c r="AD61" s="19">
         <v>1983</v>
       </c>
-      <c r="AE61" s="106" t="s">
+      <c r="AE61" s="97" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="37">
+    <row r="62" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="34">
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -6861,49 +6839,49 @@
         <v>379</v>
       </c>
       <c r="I62" s="1"/>
-      <c r="J62" s="90" t="s">
+      <c r="J62" s="81" t="s">
         <v>464</v>
       </c>
-      <c r="K62" s="90" t="s">
+      <c r="K62" s="81" t="s">
         <v>486</v>
       </c>
       <c r="L62" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="M62" s="78" t="s">
+      <c r="M62" s="70" t="s">
         <v>215</v>
       </c>
-      <c r="N62" s="17" t="s">
+      <c r="N62" s="70" t="s">
         <v>215</v>
       </c>
       <c r="O62" s="14"/>
-      <c r="P62" s="19"/>
-      <c r="Q62" s="19"/>
-      <c r="R62" s="20"/>
-      <c r="S62" s="25"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
+      <c r="R62" s="18"/>
+      <c r="S62" s="23"/>
       <c r="T62" s="14"/>
       <c r="U62" s="15"/>
-      <c r="V62" s="113"/>
+      <c r="V62" s="104"/>
       <c r="W62" s="7"/>
       <c r="X62" s="7"/>
       <c r="Y62" s="7"/>
-      <c r="Z62" s="109"/>
+      <c r="Z62" s="100"/>
       <c r="AA62" s="8" t="s">
         <v>216</v>
       </c>
       <c r="AB62" s="7"/>
-      <c r="AC62" s="74" t="s">
+      <c r="AC62" s="69" t="s">
         <v>369</v>
       </c>
-      <c r="AD62" s="21">
+      <c r="AD62" s="19">
         <v>1983</v>
       </c>
-      <c r="AE62" s="104" t="s">
+      <c r="AE62" s="95" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="63" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="37">
+    <row r="63" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="34">
         <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
@@ -6928,26 +6906,26 @@
         <v>379</v>
       </c>
       <c r="I63" s="1"/>
-      <c r="J63" s="90" t="s">
+      <c r="J63" s="81" t="s">
         <v>471</v>
       </c>
-      <c r="K63" s="90" t="s">
+      <c r="K63" s="81" t="s">
         <v>443</v>
       </c>
       <c r="L63" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="M63" s="78" t="s">
+      <c r="M63" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="N63" s="78" t="s">
+      <c r="N63" s="70" t="s">
         <v>166</v>
       </c>
       <c r="O63" s="14"/>
-      <c r="P63" s="19"/>
-      <c r="Q63" s="19"/>
-      <c r="R63" s="20"/>
-      <c r="S63" s="25">
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
+      <c r="R63" s="18"/>
+      <c r="S63" s="23">
         <v>90000</v>
       </c>
       <c r="T63" s="14">
@@ -6956,7 +6934,7 @@
       <c r="U63" s="15">
         <v>100000</v>
       </c>
-      <c r="V63" s="113"/>
+      <c r="V63" s="104"/>
       <c r="W63" s="7">
         <v>2.5</v>
       </c>
@@ -6966,21 +6944,21 @@
       <c r="Y63" s="7">
         <v>3</v>
       </c>
-      <c r="Z63" s="109"/>
-      <c r="AA63" s="96" t="s">
+      <c r="Z63" s="100"/>
+      <c r="AA63" s="87" t="s">
         <v>323</v>
       </c>
       <c r="AB63" s="7"/>
       <c r="AC63" s="4"/>
-      <c r="AD63" s="21">
+      <c r="AD63" s="19">
         <v>1986</v>
       </c>
-      <c r="AE63" s="104" t="s">
+      <c r="AE63" s="95" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="37">
+    <row r="64" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="34">
         <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
@@ -7005,49 +6983,49 @@
         <v>379</v>
       </c>
       <c r="I64" s="1"/>
-      <c r="J64" s="90" t="s">
+      <c r="J64" s="81" t="s">
         <v>472</v>
       </c>
-      <c r="K64" s="90" t="s">
+      <c r="K64" s="81" t="s">
         <v>444</v>
       </c>
       <c r="L64" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M64" s="78" t="s">
+      <c r="M64" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="N64" s="18" t="s">
+      <c r="N64" s="27" t="s">
         <v>101</v>
       </c>
       <c r="O64" s="14"/>
-      <c r="P64" s="19"/>
-      <c r="Q64" s="19"/>
-      <c r="R64" s="20"/>
-      <c r="S64" s="25">
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
+      <c r="R64" s="18"/>
+      <c r="S64" s="23">
         <v>183000</v>
       </c>
       <c r="T64" s="14"/>
       <c r="U64" s="15"/>
-      <c r="V64" s="113"/>
+      <c r="V64" s="104"/>
       <c r="W64" s="7"/>
       <c r="X64" s="7"/>
       <c r="Y64" s="7"/>
-      <c r="Z64" s="109"/>
+      <c r="Z64" s="100"/>
       <c r="AA64" s="4"/>
       <c r="AB64" s="7"/>
-      <c r="AC64" s="96" t="s">
+      <c r="AC64" s="87" t="s">
         <v>344</v>
       </c>
-      <c r="AD64" s="21">
+      <c r="AD64" s="19">
         <v>1988</v>
       </c>
-      <c r="AE64" s="104" t="s">
+      <c r="AE64" s="95" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="37">
+    <row r="65" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="34">
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
@@ -7072,49 +7050,49 @@
         <v>379</v>
       </c>
       <c r="I65" s="1"/>
-      <c r="J65" s="90" t="s">
+      <c r="J65" s="81" t="s">
         <v>468</v>
       </c>
-      <c r="K65" s="90" t="s">
+      <c r="K65" s="81" t="s">
         <v>436</v>
       </c>
       <c r="L65" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="M65" s="78" t="s">
+      <c r="M65" s="70" t="s">
         <v>228</v>
       </c>
-      <c r="N65" s="29" t="s">
+      <c r="N65" s="27" t="s">
         <v>229</v>
       </c>
       <c r="O65" s="14"/>
-      <c r="P65" s="19"/>
-      <c r="Q65" s="19"/>
-      <c r="R65" s="20"/>
-      <c r="S65" s="25"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
+      <c r="R65" s="18"/>
+      <c r="S65" s="23"/>
       <c r="T65" s="14"/>
       <c r="U65" s="15"/>
-      <c r="V65" s="113"/>
+      <c r="V65" s="104"/>
       <c r="W65" s="7"/>
       <c r="X65" s="7"/>
       <c r="Y65" s="7"/>
-      <c r="Z65" s="109"/>
+      <c r="Z65" s="100"/>
       <c r="AA65" s="4" t="s">
         <v>230</v>
       </c>
       <c r="AB65" s="7"/>
-      <c r="AC65" s="96" t="s">
+      <c r="AC65" s="87" t="s">
         <v>371</v>
       </c>
-      <c r="AD65" s="21">
+      <c r="AD65" s="19">
         <v>1988</v>
       </c>
-      <c r="AE65" s="104" t="s">
+      <c r="AE65" s="95" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="66" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="37">
+    <row r="66" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="34">
         <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
@@ -7139,49 +7117,49 @@
         <v>379</v>
       </c>
       <c r="I66" s="1"/>
-      <c r="J66" s="90" t="s">
+      <c r="J66" s="81" t="s">
         <v>438</v>
       </c>
-      <c r="K66" s="90" t="s">
+      <c r="K66" s="81" t="s">
         <v>480</v>
       </c>
       <c r="L66" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="M66" s="78" t="s">
+      <c r="M66" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="N66" s="17" t="s">
+      <c r="N66" s="70" t="s">
         <v>65</v>
       </c>
       <c r="O66" s="14"/>
-      <c r="P66" s="19"/>
-      <c r="Q66" s="19"/>
-      <c r="R66" s="20"/>
-      <c r="S66" s="25"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
+      <c r="R66" s="18"/>
+      <c r="S66" s="23"/>
       <c r="T66" s="14"/>
       <c r="U66" s="15"/>
-      <c r="V66" s="113"/>
+      <c r="V66" s="104"/>
       <c r="W66" s="7"/>
       <c r="X66" s="7"/>
       <c r="Y66" s="7"/>
-      <c r="Z66" s="109"/>
+      <c r="Z66" s="100"/>
       <c r="AA66" s="8" t="s">
         <v>66</v>
       </c>
       <c r="AB66" s="7"/>
-      <c r="AC66" s="96" t="s">
+      <c r="AC66" s="87" t="s">
         <v>337</v>
       </c>
-      <c r="AD66" s="21">
+      <c r="AD66" s="19">
         <v>1991</v>
       </c>
-      <c r="AE66" s="104" t="s">
+      <c r="AE66" s="95" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:31" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="37">
+    <row r="67" spans="1:31" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="34">
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -7206,47 +7184,47 @@
         <v>379</v>
       </c>
       <c r="I67" s="1"/>
-      <c r="J67" s="90" t="s">
+      <c r="J67" s="81" t="s">
         <v>421</v>
       </c>
-      <c r="K67" s="90" t="s">
+      <c r="K67" s="81" t="s">
         <v>479</v>
       </c>
       <c r="L67" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M67" s="78" t="s">
+      <c r="M67" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="N67" s="78" t="s">
+      <c r="N67" s="70" t="s">
         <v>43</v>
       </c>
       <c r="O67" s="14"/>
-      <c r="P67" s="19"/>
-      <c r="Q67" s="19"/>
-      <c r="R67" s="20"/>
-      <c r="S67" s="25"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
+      <c r="R67" s="18"/>
+      <c r="S67" s="23"/>
       <c r="T67" s="14"/>
       <c r="U67" s="15"/>
-      <c r="V67" s="113"/>
+      <c r="V67" s="104"/>
       <c r="W67" s="7"/>
       <c r="X67" s="7"/>
       <c r="Y67" s="7"/>
-      <c r="Z67" s="109"/>
+      <c r="Z67" s="100"/>
       <c r="AA67" s="4"/>
       <c r="AB67" s="7"/>
-      <c r="AC67" s="96" t="s">
+      <c r="AC67" s="87" t="s">
         <v>334</v>
       </c>
-      <c r="AD67" s="21">
+      <c r="AD67" s="19">
         <v>1983</v>
       </c>
-      <c r="AE67" s="104" t="s">
+      <c r="AE67" s="95" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:31" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="37">
+    <row r="68" spans="1:31" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="34">
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
@@ -7271,49 +7249,49 @@
         <v>379</v>
       </c>
       <c r="I68" s="1"/>
-      <c r="J68" s="90" t="s">
+      <c r="J68" s="81" t="s">
         <v>472</v>
       </c>
-      <c r="K68" s="90" t="s">
+      <c r="K68" s="81" t="s">
         <v>444</v>
       </c>
       <c r="L68" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M68" s="78" t="s">
+      <c r="M68" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="N68" s="17" t="s">
+      <c r="N68" s="70" t="s">
         <v>103</v>
       </c>
       <c r="O68" s="14"/>
-      <c r="P68" s="19"/>
-      <c r="Q68" s="19"/>
-      <c r="R68" s="20"/>
-      <c r="S68" s="25"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
+      <c r="R68" s="18"/>
+      <c r="S68" s="23"/>
       <c r="T68" s="14"/>
       <c r="U68" s="15"/>
-      <c r="V68" s="113"/>
+      <c r="V68" s="104"/>
       <c r="W68" s="7"/>
       <c r="X68" s="7"/>
       <c r="Y68" s="7"/>
-      <c r="Z68" s="109"/>
+      <c r="Z68" s="100"/>
       <c r="AA68" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AB68" s="7"/>
-      <c r="AC68" s="96" t="s">
+      <c r="AC68" s="87" t="s">
         <v>345</v>
       </c>
-      <c r="AD68" s="21">
+      <c r="AD68" s="19">
         <v>2003</v>
       </c>
-      <c r="AE68" s="104" t="s">
+      <c r="AE68" s="95" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:31" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="37">
+    <row r="69" spans="1:31" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="34">
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -7338,51 +7316,51 @@
         <v>379</v>
       </c>
       <c r="I69" s="1"/>
-      <c r="J69" s="90" t="s">
+      <c r="J69" s="81" t="s">
         <v>445</v>
       </c>
-      <c r="K69" s="90" t="s">
+      <c r="K69" s="81" t="s">
         <v>482</v>
       </c>
       <c r="L69" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="M69" s="78" t="s">
+      <c r="M69" s="70" t="s">
         <v>184</v>
       </c>
-      <c r="N69" s="17" t="s">
+      <c r="N69" s="70" t="s">
         <v>184</v>
       </c>
       <c r="O69" s="14"/>
-      <c r="P69" s="19"/>
-      <c r="Q69" s="19"/>
-      <c r="R69" s="20"/>
-      <c r="S69" s="25"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
+      <c r="R69" s="18"/>
+      <c r="S69" s="23"/>
       <c r="T69" s="14"/>
       <c r="U69" s="15"/>
-      <c r="V69" s="113"/>
+      <c r="V69" s="104"/>
       <c r="W69" s="7"/>
       <c r="X69" s="7"/>
       <c r="Y69" s="7"/>
-      <c r="Z69" s="109"/>
+      <c r="Z69" s="100"/>
       <c r="AA69" s="8" t="s">
         <v>391</v>
       </c>
       <c r="AB69" s="7">
         <v>30000</v>
       </c>
-      <c r="AC69" s="96" t="s">
+      <c r="AC69" s="87" t="s">
         <v>362</v>
       </c>
-      <c r="AD69" s="21">
+      <c r="AD69" s="19">
         <v>1992</v>
       </c>
-      <c r="AE69" s="104" t="s">
+      <c r="AE69" s="95" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="70" spans="1:31" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="37">
+    <row r="70" spans="1:31" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="34">
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
@@ -7407,47 +7385,47 @@
         <v>379</v>
       </c>
       <c r="I70" s="1"/>
-      <c r="J70" s="90" t="s">
+      <c r="J70" s="81" t="s">
         <v>445</v>
       </c>
-      <c r="K70" s="90" t="s">
+      <c r="K70" s="81" t="s">
         <v>482</v>
       </c>
       <c r="L70" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="M70" s="78" t="s">
+      <c r="M70" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="N70" s="17" t="s">
+      <c r="N70" s="70" t="s">
         <v>186</v>
       </c>
       <c r="O70" s="14"/>
-      <c r="P70" s="19"/>
-      <c r="Q70" s="19"/>
-      <c r="R70" s="20"/>
-      <c r="S70" s="25"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
+      <c r="R70" s="18"/>
+      <c r="S70" s="23"/>
       <c r="T70" s="14"/>
       <c r="U70" s="15"/>
-      <c r="V70" s="116"/>
+      <c r="V70" s="107"/>
       <c r="W70" s="7"/>
       <c r="X70" s="7"/>
       <c r="Y70" s="7"/>
-      <c r="Z70" s="109"/>
+      <c r="Z70" s="100"/>
       <c r="AA70" s="8" t="s">
         <v>324</v>
       </c>
       <c r="AB70" s="7"/>
-      <c r="AC70" s="74" t="s">
+      <c r="AC70" s="69" t="s">
         <v>363</v>
       </c>
-      <c r="AD70" s="84"/>
-      <c r="AE70" s="104" t="s">
+      <c r="AD70" s="75"/>
+      <c r="AE70" s="95" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="71" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="37">
+    <row r="71" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="34">
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -7472,47 +7450,47 @@
         <v>379</v>
       </c>
       <c r="I71" s="1"/>
-      <c r="J71" s="90" t="s">
+      <c r="J71" s="81" t="s">
         <v>464</v>
       </c>
-      <c r="K71" s="90" t="s">
+      <c r="K71" s="81" t="s">
         <v>486</v>
       </c>
       <c r="L71" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="M71" s="78" t="s">
+      <c r="M71" s="70" t="s">
         <v>218</v>
       </c>
-      <c r="N71" s="17" t="s">
+      <c r="N71" s="70" t="s">
         <v>218</v>
       </c>
       <c r="O71" s="14"/>
-      <c r="P71" s="19"/>
-      <c r="Q71" s="19"/>
-      <c r="R71" s="20"/>
-      <c r="S71" s="25"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
+      <c r="R71" s="18"/>
+      <c r="S71" s="23"/>
       <c r="T71" s="14"/>
       <c r="U71" s="15"/>
-      <c r="V71" s="116"/>
+      <c r="V71" s="107"/>
       <c r="W71" s="7"/>
       <c r="X71" s="7"/>
       <c r="Y71" s="7"/>
-      <c r="Z71" s="109"/>
-      <c r="AA71" s="96" t="s">
+      <c r="Z71" s="100"/>
+      <c r="AA71" s="87" t="s">
         <v>325</v>
       </c>
       <c r="AB71" s="7"/>
-      <c r="AC71" s="96" t="s">
+      <c r="AC71" s="87" t="s">
         <v>370</v>
       </c>
-      <c r="AD71" s="84"/>
-      <c r="AE71" s="104" t="s">
+      <c r="AD71" s="75"/>
+      <c r="AE71" s="95" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="72" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="37">
+    <row r="72" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="34">
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
@@ -7537,33 +7515,33 @@
         <v>379</v>
       </c>
       <c r="I72" s="1"/>
-      <c r="J72" s="90" t="s">
+      <c r="J72" s="81" t="s">
         <v>464</v>
       </c>
-      <c r="K72" s="90" t="s">
+      <c r="K72" s="81" t="s">
         <v>486</v>
       </c>
       <c r="L72" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="M72" s="78" t="s">
+      <c r="M72" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="N72" s="17" t="s">
+      <c r="N72" s="70" t="s">
         <v>220</v>
       </c>
       <c r="O72" s="14"/>
-      <c r="P72" s="19"/>
-      <c r="Q72" s="19"/>
-      <c r="R72" s="20"/>
-      <c r="S72" s="25"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
+      <c r="R72" s="18"/>
+      <c r="S72" s="23"/>
       <c r="T72" s="14"/>
       <c r="U72" s="15"/>
-      <c r="V72" s="113"/>
+      <c r="V72" s="104"/>
       <c r="W72" s="7"/>
       <c r="X72" s="7"/>
       <c r="Y72" s="7"/>
-      <c r="Z72" s="109"/>
+      <c r="Z72" s="100"/>
       <c r="AA72" s="4" t="s">
         <v>221</v>
       </c>
@@ -7571,80 +7549,80 @@
       <c r="AC72" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="AD72" s="21"/>
-      <c r="AE72" s="104" t="s">
+      <c r="AD72" s="19"/>
+      <c r="AE72" s="95" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="73" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="37">
+    <row r="73" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="34">
         <v>72</v>
       </c>
-      <c r="B73" s="71" t="s">
+      <c r="B73" s="66" t="s">
         <v>267</v>
       </c>
-      <c r="C73" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="D73" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="E73" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="F73" s="44" t="s">
+      <c r="C73" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F73" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="G73" s="42" t="s">
+      <c r="G73" s="39" t="s">
         <v>24</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="I73" s="42"/>
-      <c r="J73" s="91" t="s">
+      <c r="I73" s="39"/>
+      <c r="J73" s="82" t="s">
         <v>458</v>
       </c>
-      <c r="K73" s="91" t="s">
+      <c r="K73" s="82" t="s">
         <v>459</v>
       </c>
-      <c r="L73" s="71" t="s">
+      <c r="L73" s="66" t="s">
         <v>269</v>
       </c>
-      <c r="M73" s="79" t="s">
+      <c r="M73" s="71" t="s">
         <v>270</v>
       </c>
-      <c r="N73" s="45" t="s">
+      <c r="N73" s="71" t="s">
         <v>270</v>
       </c>
-      <c r="O73" s="47"/>
-      <c r="P73" s="48"/>
-      <c r="Q73" s="48"/>
-      <c r="R73" s="48"/>
-      <c r="S73" s="49">
+      <c r="O73" s="43"/>
+      <c r="P73" s="44"/>
+      <c r="Q73" s="44"/>
+      <c r="R73" s="44"/>
+      <c r="S73" s="45">
         <v>30000</v>
       </c>
-      <c r="T73" s="47"/>
-      <c r="U73" s="50"/>
-      <c r="V73" s="115"/>
-      <c r="W73" s="46"/>
-      <c r="X73" s="46"/>
-      <c r="Y73" s="46"/>
-      <c r="Z73" s="111"/>
-      <c r="AA73" s="44" t="s">
+      <c r="T73" s="43"/>
+      <c r="U73" s="46"/>
+      <c r="V73" s="106"/>
+      <c r="W73" s="42"/>
+      <c r="X73" s="42"/>
+      <c r="Y73" s="42"/>
+      <c r="Z73" s="102"/>
+      <c r="AA73" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="AB73" s="46"/>
-      <c r="AC73" s="100"/>
-      <c r="AD73" s="51">
+      <c r="AB73" s="42"/>
+      <c r="AC73" s="91"/>
+      <c r="AD73" s="47">
         <v>2018</v>
       </c>
-      <c r="AE73" s="101" t="s">
+      <c r="AE73" s="92" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="74" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="37">
+    <row r="74" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="34">
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
@@ -7669,49 +7647,49 @@
         <v>379</v>
       </c>
       <c r="I74" s="1"/>
-      <c r="J74" s="90" t="s">
+      <c r="J74" s="81" t="s">
         <v>473</v>
       </c>
-      <c r="K74" s="90" t="s">
+      <c r="K74" s="81" t="s">
         <v>489</v>
       </c>
       <c r="L74" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="M74" s="78" t="s">
+      <c r="M74" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="N74" s="17" t="s">
+      <c r="N74" s="70" t="s">
         <v>115</v>
       </c>
       <c r="O74" s="14"/>
-      <c r="P74" s="19"/>
-      <c r="Q74" s="19"/>
-      <c r="R74" s="20"/>
-      <c r="S74" s="25"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
+      <c r="R74" s="18"/>
+      <c r="S74" s="23"/>
       <c r="T74" s="14"/>
       <c r="U74" s="15"/>
-      <c r="V74" s="113"/>
+      <c r="V74" s="104"/>
       <c r="W74" s="7"/>
       <c r="X74" s="7"/>
       <c r="Y74" s="7"/>
-      <c r="Z74" s="109"/>
+      <c r="Z74" s="100"/>
       <c r="AA74" s="4" t="s">
         <v>116</v>
       </c>
       <c r="AB74" s="7"/>
-      <c r="AC74" s="96" t="s">
+      <c r="AC74" s="87" t="s">
         <v>347</v>
       </c>
-      <c r="AD74" s="21">
+      <c r="AD74" s="19">
         <v>2003</v>
       </c>
-      <c r="AE74" s="104" t="s">
+      <c r="AE74" s="95" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="75" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="37">
+    <row r="75" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="34">
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
@@ -7736,51 +7714,51 @@
         <v>379</v>
       </c>
       <c r="I75" s="1"/>
-      <c r="J75" s="90" t="s">
+      <c r="J75" s="81" t="s">
         <v>468</v>
       </c>
-      <c r="K75" s="90" t="s">
+      <c r="K75" s="81" t="s">
         <v>436</v>
       </c>
       <c r="L75" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="M75" s="78" t="s">
+      <c r="M75" s="70" t="s">
         <v>232</v>
       </c>
-      <c r="N75" s="29">
+      <c r="N75" s="27">
         <v>37817</v>
       </c>
       <c r="O75" s="14"/>
-      <c r="P75" s="19"/>
-      <c r="Q75" s="19"/>
-      <c r="R75" s="20"/>
-      <c r="S75" s="25"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
+      <c r="R75" s="18"/>
+      <c r="S75" s="23"/>
       <c r="T75" s="14"/>
       <c r="U75" s="15"/>
-      <c r="V75" s="113"/>
+      <c r="V75" s="104"/>
       <c r="W75" s="7">
         <v>65</v>
       </c>
       <c r="X75" s="7"/>
       <c r="Y75" s="7"/>
-      <c r="Z75" s="109"/>
+      <c r="Z75" s="100"/>
       <c r="AA75" s="4" t="s">
         <v>326</v>
       </c>
       <c r="AB75" s="7"/>
-      <c r="AC75" s="96" t="s">
+      <c r="AC75" s="87" t="s">
         <v>372</v>
       </c>
-      <c r="AD75" s="21">
+      <c r="AD75" s="19">
         <v>2003</v>
       </c>
-      <c r="AE75" s="104" t="s">
+      <c r="AE75" s="95" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="76" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="37">
+    <row r="76" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="34">
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
@@ -7807,57 +7785,57 @@
       <c r="I76" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J76" s="90" t="s">
+      <c r="J76" s="81" t="s">
         <v>446</v>
       </c>
-      <c r="K76" s="90" t="s">
+      <c r="K76" s="81" t="s">
         <v>447</v>
       </c>
       <c r="L76" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="M76" s="78" t="s">
+      <c r="M76" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="N76" s="78" t="s">
+      <c r="N76" s="70" t="s">
         <v>161</v>
       </c>
       <c r="O76" s="14">
         <v>2094</v>
       </c>
-      <c r="P76" s="19"/>
-      <c r="Q76" s="19"/>
-      <c r="R76" s="20"/>
-      <c r="S76" s="27">
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
+      <c r="R76" s="18"/>
+      <c r="S76" s="25">
         <v>21500</v>
       </c>
       <c r="T76" s="14"/>
       <c r="U76" s="15"/>
-      <c r="V76" s="113"/>
+      <c r="V76" s="104"/>
       <c r="W76" s="7">
         <v>15</v>
       </c>
       <c r="X76" s="7"/>
       <c r="Y76" s="7"/>
-      <c r="Z76" s="109" t="s">
+      <c r="Z76" s="100" t="s">
         <v>314</v>
       </c>
-      <c r="AA76" s="96" t="s">
+      <c r="AA76" s="87" t="s">
         <v>322</v>
       </c>
       <c r="AB76" s="7"/>
-      <c r="AC76" s="74" t="s">
+      <c r="AC76" s="69" t="s">
         <v>359</v>
       </c>
-      <c r="AD76" s="21">
+      <c r="AD76" s="19">
         <v>2004</v>
       </c>
-      <c r="AE76" s="104" t="s">
+      <c r="AE76" s="95" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="77" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="37">
+    <row r="77" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="34">
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
@@ -7882,49 +7860,49 @@
         <v>379</v>
       </c>
       <c r="I77" s="1"/>
-      <c r="J77" s="90" t="s">
+      <c r="J77" s="81" t="s">
         <v>448</v>
       </c>
-      <c r="K77" s="90" t="s">
+      <c r="K77" s="81" t="s">
         <v>449</v>
       </c>
       <c r="L77" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="M77" s="78" t="s">
+      <c r="M77" s="70" t="s">
         <v>244</v>
       </c>
-      <c r="N77" s="17" t="s">
+      <c r="N77" s="70" t="s">
         <v>244</v>
       </c>
       <c r="O77" s="14"/>
-      <c r="P77" s="19"/>
-      <c r="Q77" s="19"/>
-      <c r="R77" s="20"/>
-      <c r="S77" s="25"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
+      <c r="R77" s="18"/>
+      <c r="S77" s="23"/>
       <c r="T77" s="14"/>
       <c r="U77" s="15"/>
-      <c r="V77" s="113"/>
+      <c r="V77" s="104"/>
       <c r="W77" s="7"/>
       <c r="X77" s="7"/>
       <c r="Y77" s="7"/>
-      <c r="Z77" s="109"/>
+      <c r="Z77" s="100"/>
       <c r="AA77" s="8" t="s">
         <v>245</v>
       </c>
       <c r="AB77" s="7"/>
-      <c r="AC77" s="74" t="s">
+      <c r="AC77" s="69" t="s">
         <v>377</v>
       </c>
-      <c r="AD77" s="21">
+      <c r="AD77" s="19">
         <v>2017</v>
       </c>
-      <c r="AE77" s="104" t="s">
+      <c r="AE77" s="95" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="78" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="37">
+    <row r="78" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="34">
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
@@ -7951,114 +7929,114 @@
       <c r="I78" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="J78" s="90" t="s">
+      <c r="J78" s="81" t="s">
         <v>445</v>
       </c>
-      <c r="K78" s="90" t="s">
+      <c r="K78" s="81" t="s">
         <v>482</v>
       </c>
       <c r="L78" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="M78" s="78" t="s">
+      <c r="M78" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="N78" s="17" t="s">
+      <c r="N78" s="70" t="s">
         <v>187</v>
       </c>
       <c r="O78" s="14">
         <v>15000</v>
       </c>
-      <c r="P78" s="19"/>
-      <c r="Q78" s="19"/>
-      <c r="R78" s="20"/>
-      <c r="S78" s="27">
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
+      <c r="R78" s="18"/>
+      <c r="S78" s="25">
         <v>55000</v>
       </c>
       <c r="T78" s="14"/>
       <c r="U78" s="15"/>
-      <c r="V78" s="113"/>
+      <c r="V78" s="104"/>
       <c r="W78" s="7"/>
       <c r="X78" s="7"/>
       <c r="Y78" s="7"/>
-      <c r="Z78" s="109"/>
+      <c r="Z78" s="100"/>
       <c r="AA78" s="4"/>
       <c r="AB78" s="7"/>
       <c r="AC78" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="AD78" s="21">
+      <c r="AD78" s="19">
         <v>2020</v>
       </c>
-      <c r="AE78" s="104" t="s">
+      <c r="AE78" s="95" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="79" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="37">
+    <row r="79" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="34">
         <v>78</v>
       </c>
-      <c r="B79" s="71" t="s">
+      <c r="B79" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="C79" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="D79" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="E79" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="F79" s="44" t="s">
+      <c r="C79" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E79" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F79" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="G79" s="42" t="s">
+      <c r="G79" s="39" t="s">
         <v>24</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="I79" s="42"/>
-      <c r="J79" s="92" t="s">
+      <c r="I79" s="39"/>
+      <c r="J79" s="83" t="s">
         <v>461</v>
       </c>
-      <c r="K79" s="92" t="s">
+      <c r="K79" s="83" t="s">
         <v>423</v>
       </c>
-      <c r="L79" s="71" t="s">
+      <c r="L79" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="M79" s="79" t="s">
+      <c r="M79" s="71" t="s">
         <v>273</v>
       </c>
-      <c r="N79" s="79" t="s">
+      <c r="N79" s="71" t="s">
         <v>273</v>
       </c>
-      <c r="O79" s="47"/>
-      <c r="P79" s="48"/>
-      <c r="Q79" s="48"/>
-      <c r="R79" s="48"/>
-      <c r="S79" s="49"/>
-      <c r="T79" s="47"/>
-      <c r="U79" s="50"/>
-      <c r="V79" s="115"/>
-      <c r="W79" s="46"/>
-      <c r="X79" s="46"/>
-      <c r="Y79" s="46"/>
-      <c r="Z79" s="111"/>
-      <c r="AA79" s="44"/>
-      <c r="AB79" s="46"/>
-      <c r="AC79" s="101" t="s">
+      <c r="O79" s="43"/>
+      <c r="P79" s="44"/>
+      <c r="Q79" s="44"/>
+      <c r="R79" s="44"/>
+      <c r="S79" s="45"/>
+      <c r="T79" s="43"/>
+      <c r="U79" s="46"/>
+      <c r="V79" s="106"/>
+      <c r="W79" s="42"/>
+      <c r="X79" s="42"/>
+      <c r="Y79" s="42"/>
+      <c r="Z79" s="102"/>
+      <c r="AA79" s="41"/>
+      <c r="AB79" s="42"/>
+      <c r="AC79" s="92" t="s">
         <v>296</v>
       </c>
-      <c r="AD79" s="51"/>
-      <c r="AE79" s="101" t="s">
+      <c r="AD79" s="47"/>
+      <c r="AE79" s="92" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="80" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="37">
+    <row r="80" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="34">
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
@@ -8083,35 +8061,35 @@
         <v>379</v>
       </c>
       <c r="I80" s="1"/>
-      <c r="J80" s="90" t="s">
+      <c r="J80" s="81" t="s">
         <v>468</v>
       </c>
-      <c r="K80" s="90" t="s">
+      <c r="K80" s="81" t="s">
         <v>436</v>
       </c>
       <c r="L80" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="M80" s="78" t="s">
+      <c r="M80" s="70" t="s">
         <v>234</v>
       </c>
-      <c r="N80" s="29">
+      <c r="N80" s="27">
         <v>40051</v>
       </c>
       <c r="O80" s="14">
         <v>11766</v>
       </c>
-      <c r="P80" s="19">
+      <c r="P80" s="17">
         <v>2520</v>
       </c>
-      <c r="Q80" s="19">
+      <c r="Q80" s="17">
         <v>50000</v>
       </c>
-      <c r="R80" s="20"/>
-      <c r="S80" s="25"/>
+      <c r="R80" s="18"/>
+      <c r="S80" s="23"/>
       <c r="T80" s="14"/>
       <c r="U80" s="15"/>
-      <c r="V80" s="113"/>
+      <c r="V80" s="104"/>
       <c r="W80" s="7">
         <v>73</v>
       </c>
@@ -8121,23 +8099,23 @@
       <c r="Y80" s="7">
         <v>80</v>
       </c>
-      <c r="Z80" s="109"/>
-      <c r="AA80" s="96" t="s">
+      <c r="Z80" s="100"/>
+      <c r="AA80" s="87" t="s">
         <v>327</v>
       </c>
       <c r="AB80" s="7"/>
       <c r="AC80" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="AD80" s="21">
+      <c r="AD80" s="19">
         <v>2009</v>
       </c>
-      <c r="AE80" s="104" t="s">
+      <c r="AE80" s="95" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="81" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="37">
+    <row r="81" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="34">
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
@@ -8162,53 +8140,53 @@
         <v>379</v>
       </c>
       <c r="I81" s="1"/>
-      <c r="J81" s="90" t="s">
+      <c r="J81" s="81" t="s">
         <v>468</v>
       </c>
-      <c r="K81" s="90" t="s">
+      <c r="K81" s="81" t="s">
         <v>436</v>
       </c>
       <c r="L81" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="M81" s="29" t="s">
+      <c r="M81" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="N81" s="29" t="s">
+      <c r="N81" s="27" t="s">
         <v>237</v>
       </c>
       <c r="O81" s="14">
         <v>16000</v>
       </c>
-      <c r="P81" s="19"/>
-      <c r="Q81" s="19"/>
-      <c r="R81" s="20"/>
-      <c r="S81" s="25"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
+      <c r="R81" s="18"/>
+      <c r="S81" s="23"/>
       <c r="T81" s="14"/>
       <c r="U81" s="15"/>
-      <c r="V81" s="113"/>
+      <c r="V81" s="104"/>
       <c r="W81" s="7">
         <v>43.8</v>
       </c>
       <c r="X81" s="7"/>
       <c r="Y81" s="7"/>
-      <c r="Z81" s="109"/>
+      <c r="Z81" s="100"/>
       <c r="AA81" s="4" t="s">
         <v>328</v>
       </c>
       <c r="AB81" s="7"/>
-      <c r="AC81" s="74" t="s">
+      <c r="AC81" s="69" t="s">
         <v>374</v>
       </c>
-      <c r="AD81" s="21">
+      <c r="AD81" s="19">
         <v>2010</v>
       </c>
-      <c r="AE81" s="104" t="s">
+      <c r="AE81" s="95" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="82" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="37">
+    <row r="82" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A82" s="34">
         <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
@@ -8235,31 +8213,31 @@
       <c r="I82" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J82" s="90" t="s">
+      <c r="J82" s="81" t="s">
         <v>468</v>
       </c>
-      <c r="K82" s="90" t="s">
+      <c r="K82" s="81" t="s">
         <v>436</v>
       </c>
       <c r="L82" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="M82" s="78" t="s">
+      <c r="M82" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="N82" s="29">
+      <c r="N82" s="27">
         <v>40731</v>
       </c>
-      <c r="O82" s="24"/>
-      <c r="P82" s="19"/>
-      <c r="Q82" s="19"/>
-      <c r="R82" s="20"/>
+      <c r="O82" s="22"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
+      <c r="R82" s="18"/>
       <c r="S82" s="16">
         <v>12000</v>
       </c>
       <c r="T82" s="14"/>
       <c r="U82" s="15"/>
-      <c r="V82" s="116" t="s">
+      <c r="V82" s="107" t="s">
         <v>34</v>
       </c>
       <c r="W82" s="7">
@@ -8267,23 +8245,23 @@
       </c>
       <c r="X82" s="7"/>
       <c r="Y82" s="7"/>
-      <c r="Z82" s="109"/>
-      <c r="AA82" s="74" t="s">
+      <c r="Z82" s="100"/>
+      <c r="AA82" s="69" t="s">
         <v>329</v>
       </c>
       <c r="AB82" s="7"/>
-      <c r="AC82" s="74" t="s">
+      <c r="AC82" s="69" t="s">
         <v>375</v>
       </c>
-      <c r="AD82" s="21">
+      <c r="AD82" s="19">
         <v>2011</v>
       </c>
-      <c r="AE82" s="104" t="s">
+      <c r="AE82" s="95" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="83" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="37">
+    <row r="83" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A83" s="34">
         <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
@@ -8310,37 +8288,37 @@
       <c r="I83" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J83" s="90" t="s">
+      <c r="J83" s="81" t="s">
         <v>468</v>
       </c>
-      <c r="K83" s="90" t="s">
+      <c r="K83" s="81" t="s">
         <v>436</v>
       </c>
       <c r="L83" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="M83" s="29" t="s">
+      <c r="M83" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="N83" s="29">
+      <c r="N83" s="27">
         <v>40782</v>
       </c>
-      <c r="O83" s="24">
+      <c r="O83" s="22">
         <v>29500</v>
       </c>
-      <c r="P83" s="19">
+      <c r="P83" s="17">
         <v>15000</v>
       </c>
-      <c r="Q83" s="19">
+      <c r="Q83" s="17">
         <v>44000</v>
       </c>
-      <c r="R83" s="20"/>
+      <c r="R83" s="18"/>
       <c r="S83" s="14">
         <v>44000</v>
       </c>
       <c r="T83" s="14"/>
       <c r="U83" s="15"/>
-      <c r="V83" s="116" t="s">
+      <c r="V83" s="107" t="s">
         <v>34</v>
       </c>
       <c r="W83" s="13">
@@ -8348,90 +8326,90 @@
       </c>
       <c r="X83" s="7"/>
       <c r="Y83" s="7"/>
-      <c r="Z83" s="109" t="s">
+      <c r="Z83" s="100" t="s">
         <v>313</v>
       </c>
-      <c r="AA83" s="96" t="s">
+      <c r="AA83" s="87" t="s">
         <v>329</v>
       </c>
       <c r="AB83" s="7"/>
-      <c r="AC83" s="96" t="s">
+      <c r="AC83" s="87" t="s">
         <v>376</v>
       </c>
-      <c r="AD83" s="21">
+      <c r="AD83" s="19">
         <v>2011</v>
       </c>
-      <c r="AE83" s="104" t="s">
+      <c r="AE83" s="95" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="84" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="37">
+    <row r="84" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A84" s="34">
         <v>83</v>
       </c>
-      <c r="B84" s="72" t="s">
+      <c r="B84" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="C84" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="D84" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="E84" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="F84" s="57" t="s">
+      <c r="C84" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E84" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F84" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="G84" s="54" t="s">
+      <c r="G84" s="50" t="s">
         <v>24</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="I84" s="54"/>
-      <c r="J84" s="91" t="s">
+      <c r="I84" s="50"/>
+      <c r="J84" s="82" t="s">
         <v>450</v>
       </c>
-      <c r="K84" s="91" t="s">
+      <c r="K84" s="82" t="s">
         <v>451</v>
       </c>
-      <c r="L84" s="72" t="s">
+      <c r="L84" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="M84" s="80" t="s">
+      <c r="M84" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="N84" s="58" t="s">
+      <c r="N84" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="O84" s="60"/>
-      <c r="P84" s="61"/>
-      <c r="Q84" s="61"/>
-      <c r="R84" s="62"/>
-      <c r="S84" s="63"/>
-      <c r="T84" s="60"/>
-      <c r="U84" s="64"/>
-      <c r="V84" s="114"/>
-      <c r="W84" s="59"/>
-      <c r="X84" s="59"/>
-      <c r="Y84" s="59"/>
-      <c r="Z84" s="110"/>
-      <c r="AA84" s="57"/>
-      <c r="AB84" s="59"/>
-      <c r="AC84" s="96" t="s">
+      <c r="O84" s="55"/>
+      <c r="P84" s="56"/>
+      <c r="Q84" s="56"/>
+      <c r="R84" s="57"/>
+      <c r="S84" s="58"/>
+      <c r="T84" s="55"/>
+      <c r="U84" s="59"/>
+      <c r="V84" s="105"/>
+      <c r="W84" s="54"/>
+      <c r="X84" s="54"/>
+      <c r="Y84" s="54"/>
+      <c r="Z84" s="101"/>
+      <c r="AA84" s="53"/>
+      <c r="AB84" s="54"/>
+      <c r="AC84" s="87" t="s">
         <v>341</v>
       </c>
-      <c r="AD84" s="65">
+      <c r="AD84" s="60">
         <v>2022</v>
       </c>
-      <c r="AE84" s="105" t="s">
+      <c r="AE84" s="96" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="85" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="37">
+    <row r="85" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A85" s="34">
         <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
@@ -8456,53 +8434,53 @@
         <v>379</v>
       </c>
       <c r="I85" s="1"/>
-      <c r="J85" s="90" t="s">
+      <c r="J85" s="81" t="s">
         <v>418</v>
       </c>
-      <c r="K85" s="90" t="s">
+      <c r="K85" s="81" t="s">
         <v>419</v>
       </c>
       <c r="L85" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="M85" s="78" t="s">
+      <c r="M85" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="N85" s="17" t="s">
+      <c r="N85" s="70" t="s">
         <v>199</v>
       </c>
       <c r="O85" s="14"/>
-      <c r="P85" s="19"/>
-      <c r="Q85" s="19"/>
-      <c r="R85" s="20"/>
-      <c r="S85" s="66">
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
+      <c r="R85" s="18"/>
+      <c r="S85" s="61">
         <v>1500000</v>
       </c>
-      <c r="T85" s="67">
+      <c r="T85" s="62">
         <v>1200000</v>
       </c>
-      <c r="U85" s="68">
+      <c r="U85" s="63">
         <v>180000</v>
       </c>
-      <c r="V85" s="113"/>
+      <c r="V85" s="104"/>
       <c r="W85" s="7"/>
       <c r="X85" s="7"/>
       <c r="Y85" s="7"/>
-      <c r="Z85" s="109"/>
+      <c r="Z85" s="100"/>
       <c r="AA85" s="4" t="s">
         <v>393</v>
       </c>
       <c r="AB85" s="7"/>
-      <c r="AC85" s="95"/>
-      <c r="AD85" s="21">
+      <c r="AC85" s="86"/>
+      <c r="AD85" s="19">
         <v>2017</v>
       </c>
-      <c r="AE85" s="104" t="s">
+      <c r="AE85" s="95" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="86" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="37">
+    <row r="86" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="34">
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
@@ -8527,47 +8505,47 @@
         <v>379</v>
       </c>
       <c r="I86" s="1"/>
-      <c r="J86" s="90" t="s">
+      <c r="J86" s="81" t="s">
         <v>474</v>
       </c>
-      <c r="K86" s="90" t="s">
+      <c r="K86" s="81" t="s">
         <v>490</v>
       </c>
       <c r="L86" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M86" s="78" t="s">
+      <c r="M86" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="N86" s="78" t="s">
+      <c r="N86" s="70" t="s">
         <v>52</v>
       </c>
       <c r="O86" s="14"/>
-      <c r="P86" s="19"/>
-      <c r="Q86" s="19"/>
-      <c r="R86" s="20"/>
-      <c r="S86" s="25">
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
+      <c r="R86" s="18"/>
+      <c r="S86" s="23">
         <v>300000</v>
       </c>
       <c r="T86" s="14"/>
       <c r="U86" s="15"/>
-      <c r="V86" s="113"/>
+      <c r="V86" s="104"/>
       <c r="W86" s="7"/>
       <c r="X86" s="7"/>
       <c r="Y86" s="7"/>
-      <c r="Z86" s="109"/>
+      <c r="Z86" s="100"/>
       <c r="AA86" s="4"/>
       <c r="AB86" s="7"/>
-      <c r="AC86" s="95"/>
-      <c r="AD86" s="21">
+      <c r="AC86" s="86"/>
+      <c r="AD86" s="19">
         <v>2018</v>
       </c>
-      <c r="AE86" s="104" t="s">
+      <c r="AE86" s="95" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="37">
+    <row r="87" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A87" s="34">
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
@@ -8594,31 +8572,31 @@
       <c r="I87" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J87" s="90" t="s">
+      <c r="J87" s="81" t="s">
         <v>438</v>
       </c>
-      <c r="K87" s="90" t="s">
+      <c r="K87" s="81" t="s">
         <v>480</v>
       </c>
       <c r="L87" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="M87" s="78" t="s">
+      <c r="M87" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="N87" s="17" t="s">
+      <c r="N87" s="70" t="s">
         <v>68</v>
       </c>
       <c r="O87" s="14"/>
-      <c r="P87" s="19"/>
-      <c r="Q87" s="19"/>
-      <c r="R87" s="20"/>
-      <c r="S87" s="25">
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
+      <c r="R87" s="18"/>
+      <c r="S87" s="23">
         <v>17000</v>
       </c>
       <c r="T87" s="14"/>
       <c r="U87" s="15"/>
-      <c r="V87" s="109" t="s">
+      <c r="V87" s="100" t="s">
         <v>280</v>
       </c>
       <c r="W87" s="7">
@@ -8626,21 +8604,21 @@
       </c>
       <c r="X87" s="7"/>
       <c r="Y87" s="7"/>
-      <c r="Z87" s="109" t="s">
+      <c r="Z87" s="100" t="s">
         <v>280</v>
       </c>
-      <c r="AA87" s="95"/>
+      <c r="AA87" s="86"/>
       <c r="AB87" s="7"/>
       <c r="AC87" s="8"/>
-      <c r="AD87" s="21">
+      <c r="AD87" s="19">
         <v>2017</v>
       </c>
-      <c r="AE87" s="104" t="s">
+      <c r="AE87" s="95" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="37">
+    <row r="88" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A88" s="34">
         <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
@@ -8665,47 +8643,47 @@
         <v>379</v>
       </c>
       <c r="I88" s="1"/>
-      <c r="J88" s="90" t="s">
+      <c r="J88" s="81" t="s">
         <v>474</v>
       </c>
-      <c r="K88" s="90" t="s">
+      <c r="K88" s="81" t="s">
         <v>490</v>
       </c>
       <c r="L88" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M88" s="78" t="s">
+      <c r="M88" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="N88" s="78" t="s">
+      <c r="N88" s="70" t="s">
         <v>54</v>
       </c>
       <c r="O88" s="14"/>
-      <c r="P88" s="19"/>
-      <c r="Q88" s="19"/>
-      <c r="R88" s="20"/>
-      <c r="S88" s="25">
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
+      <c r="R88" s="18"/>
+      <c r="S88" s="23">
         <v>24000</v>
       </c>
       <c r="T88" s="14"/>
       <c r="U88" s="15"/>
-      <c r="V88" s="113"/>
+      <c r="V88" s="104"/>
       <c r="W88" s="7"/>
       <c r="X88" s="7"/>
       <c r="Y88" s="7"/>
-      <c r="Z88" s="109"/>
+      <c r="Z88" s="100"/>
       <c r="AA88" s="4"/>
       <c r="AB88" s="7"/>
-      <c r="AC88" s="95"/>
-      <c r="AD88" s="21">
+      <c r="AC88" s="86"/>
+      <c r="AD88" s="19">
         <v>2018</v>
       </c>
-      <c r="AE88" s="104" t="s">
+      <c r="AE88" s="95" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="37">
+    <row r="89" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="34">
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
@@ -8730,45 +8708,45 @@
         <v>379</v>
       </c>
       <c r="I89" s="1"/>
-      <c r="J89" s="90" t="s">
+      <c r="J89" s="81" t="s">
         <v>452</v>
       </c>
-      <c r="K89" s="90" t="s">
+      <c r="K89" s="81" t="s">
         <v>484</v>
       </c>
       <c r="L89" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="M89" s="78" t="s">
+      <c r="M89" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="N89" s="17" t="s">
+      <c r="N89" s="70" t="s">
         <v>208</v>
       </c>
       <c r="O89" s="14"/>
-      <c r="P89" s="19"/>
-      <c r="Q89" s="19"/>
-      <c r="R89" s="20"/>
-      <c r="S89" s="25"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
+      <c r="R89" s="18"/>
+      <c r="S89" s="23"/>
       <c r="T89" s="14"/>
       <c r="U89" s="15"/>
-      <c r="V89" s="113"/>
+      <c r="V89" s="104"/>
       <c r="W89" s="7"/>
       <c r="X89" s="7"/>
       <c r="Y89" s="7"/>
-      <c r="Z89" s="109"/>
-      <c r="AA89" s="95"/>
+      <c r="Z89" s="100"/>
+      <c r="AA89" s="86"/>
       <c r="AB89" s="7"/>
-      <c r="AC89" s="99"/>
-      <c r="AD89" s="21">
+      <c r="AC89" s="90"/>
+      <c r="AD89" s="19">
         <v>2019</v>
       </c>
-      <c r="AE89" s="104" t="s">
+      <c r="AE89" s="95" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="90" spans="1:31" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="37">
+    <row r="90" spans="1:31" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A90" s="34">
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
@@ -8793,115 +8771,115 @@
         <v>379</v>
       </c>
       <c r="I90" s="1"/>
-      <c r="J90" s="90" t="s">
+      <c r="J90" s="81" t="s">
         <v>453</v>
       </c>
-      <c r="K90" s="90" t="s">
+      <c r="K90" s="81" t="s">
         <v>484</v>
       </c>
       <c r="L90" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="M90" s="78" t="s">
+      <c r="M90" s="70" t="s">
         <v>250</v>
       </c>
-      <c r="N90" s="17" t="s">
+      <c r="N90" s="70" t="s">
         <v>250</v>
       </c>
       <c r="O90" s="14"/>
-      <c r="P90" s="19"/>
-      <c r="Q90" s="19"/>
-      <c r="R90" s="20"/>
-      <c r="S90" s="25"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
+      <c r="R90" s="18"/>
+      <c r="S90" s="23"/>
       <c r="T90" s="14"/>
       <c r="U90" s="15"/>
-      <c r="V90" s="113"/>
+      <c r="V90" s="104"/>
       <c r="W90" s="7"/>
       <c r="X90" s="7"/>
       <c r="Y90" s="7"/>
-      <c r="Z90" s="109"/>
-      <c r="AA90" s="95"/>
+      <c r="Z90" s="100"/>
+      <c r="AA90" s="86"/>
       <c r="AB90" s="7"/>
-      <c r="AC90" s="74" t="s">
+      <c r="AC90" s="69" t="s">
         <v>367</v>
       </c>
-      <c r="AD90" s="21">
+      <c r="AD90" s="19">
         <v>2019</v>
       </c>
-      <c r="AE90" s="104" t="s">
+      <c r="AE90" s="95" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="91" spans="1:31" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A91" s="37">
+    <row r="91" spans="1:31" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A91" s="34">
         <v>90</v>
       </c>
-      <c r="B91" s="71" t="s">
+      <c r="B91" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="C91" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="D91" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="E91" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="F91" s="53" t="s">
+      <c r="C91" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E91" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F91" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="G91" s="42" t="s">
+      <c r="G91" s="39" t="s">
         <v>24</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="I91" s="42"/>
-      <c r="J91" s="92" t="s">
+      <c r="I91" s="39"/>
+      <c r="J91" s="83" t="s">
         <v>475</v>
       </c>
-      <c r="K91" s="92" t="s">
+      <c r="K91" s="83" t="s">
         <v>483</v>
       </c>
-      <c r="L91" s="71" t="s">
+      <c r="L91" s="66" t="s">
         <v>275</v>
       </c>
-      <c r="M91" s="79" t="s">
+      <c r="M91" s="71" t="s">
         <v>274</v>
       </c>
-      <c r="N91" s="45" t="s">
+      <c r="N91" s="71" t="s">
         <v>274</v>
       </c>
-      <c r="O91" s="47"/>
-      <c r="P91" s="48"/>
-      <c r="Q91" s="48"/>
-      <c r="R91" s="48"/>
-      <c r="S91" s="49"/>
-      <c r="T91" s="47"/>
-      <c r="U91" s="50"/>
-      <c r="V91" s="115"/>
-      <c r="W91" s="46"/>
-      <c r="X91" s="46"/>
-      <c r="Y91" s="46"/>
-      <c r="Z91" s="111"/>
-      <c r="AA91" s="44" t="s">
+      <c r="O91" s="43"/>
+      <c r="P91" s="44"/>
+      <c r="Q91" s="44"/>
+      <c r="R91" s="44"/>
+      <c r="S91" s="45"/>
+      <c r="T91" s="43"/>
+      <c r="U91" s="46"/>
+      <c r="V91" s="106"/>
+      <c r="W91" s="42"/>
+      <c r="X91" s="42"/>
+      <c r="Y91" s="42"/>
+      <c r="Z91" s="102"/>
+      <c r="AA91" s="41" t="s">
         <v>276</v>
       </c>
-      <c r="AB91" s="46"/>
-      <c r="AC91" s="100"/>
-      <c r="AD91" s="51">
+      <c r="AB91" s="42"/>
+      <c r="AC91" s="91"/>
+      <c r="AD91" s="47">
         <v>2022</v>
       </c>
-      <c r="AE91" s="101" t="s">
+      <c r="AE91" s="92" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="92" spans="1:31" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="37">
+      <c r="A92" s="34">
         <v>91</v>
       </c>
-      <c r="B92" s="73" t="s">
+      <c r="B92" s="68" t="s">
         <v>308</v>
       </c>
       <c r="C92" s="5" t="s">
@@ -8913,7 +8891,7 @@
       <c r="E92" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F92" s="69" t="s">
+      <c r="F92" s="64" t="s">
         <v>303</v>
       </c>
       <c r="G92" s="5" t="s">
@@ -8925,49 +8903,49 @@
       <c r="I92" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="J92" s="90" t="s">
+      <c r="J92" s="81" t="s">
         <v>476</v>
       </c>
-      <c r="K92" s="90" t="s">
+      <c r="K92" s="81" t="s">
         <v>485</v>
       </c>
-      <c r="L92" s="69" t="s">
+      <c r="L92" s="64" t="s">
         <v>304</v>
       </c>
-      <c r="M92" s="78" t="s">
+      <c r="M92" s="70" t="s">
         <v>305</v>
       </c>
-      <c r="N92" s="17" t="s">
+      <c r="N92" s="70" t="s">
         <v>305</v>
       </c>
       <c r="O92" s="16"/>
       <c r="P92" s="16"/>
       <c r="Q92" s="16"/>
       <c r="R92" s="16"/>
-      <c r="S92" s="70"/>
+      <c r="S92" s="65"/>
       <c r="T92" s="16"/>
       <c r="U92" s="16"/>
-      <c r="V92" s="69"/>
+      <c r="V92" s="64"/>
       <c r="W92" s="16"/>
       <c r="X92" s="16"/>
       <c r="Y92" s="16"/>
-      <c r="Z92" s="69"/>
-      <c r="AA92" s="69" t="s">
+      <c r="Z92" s="64"/>
+      <c r="AA92" s="64" t="s">
         <v>306</v>
       </c>
       <c r="AB92" s="16"/>
-      <c r="AC92" s="102" t="s">
+      <c r="AC92" s="93" t="s">
         <v>307</v>
       </c>
-      <c r="AD92" s="83">
+      <c r="AD92" s="74">
         <v>2023</v>
       </c>
-      <c r="AE92" s="69" t="s">
+      <c r="AE92" s="64" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="93" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J93" s="93"/>
+      <c r="J93" s="84"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:AE92" xr:uid="{C2A453AE-42D3-44AD-B1ED-100E8200E393}">

--- a/WPOF-Datenbank der Schweizer Alpen.xlsx
+++ b/WPOF-Datenbank der Schweizer Alpen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\christophe\Desktop\home\GitHub\WPOFs_CH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE8B7AC1-8B8A-4C24-89F0-772C75ECE235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BC5889E-D2D9-4BED-B32E-9DA2FFD28F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{4AB5F6CE-3898-4132-95CD-C65537EF9C6D}"/>
   </bookViews>
@@ -2693,9 +2693,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A453AE-42D3-44AD-B1ED-100E8200E393}">
   <dimension ref="A1:AE93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/WPOF-Datenbank der Schweizer Alpen.xlsx
+++ b/WPOF-Datenbank der Schweizer Alpen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\christophe\Desktop\home\GitHub\WPOFs_CH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BC5889E-D2D9-4BED-B32E-9DA2FFD28F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32379A0C-0B6D-4860-A061-B499712AF5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{4AB5F6CE-3898-4132-95CD-C65537EF9C6D}"/>
   </bookViews>
@@ -2693,9 +2693,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A453AE-42D3-44AD-B1ED-100E8200E393}">
   <dimension ref="A1:AE93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE14" sqref="AE14"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2708,7 +2708,7 @@
     <col min="6" max="6" width="33.06640625" style="36" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" style="35" customWidth="1"/>
     <col min="8" max="8" width="29.3984375" style="35" customWidth="1"/>
-    <col min="9" max="9" width="8" style="35" customWidth="1"/>
+    <col min="9" max="9" width="13.59765625" style="35" customWidth="1"/>
     <col min="10" max="10" width="14.86328125" style="85" customWidth="1"/>
     <col min="11" max="11" width="14.3984375" style="85" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="29.86328125" style="36" bestFit="1" customWidth="1"/>
